--- a/s60_signal/position-2474-2382-800.xlsx
+++ b/s60_signal/position-2474-2382-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="473">
   <si>
     <t>trade_time</t>
   </si>
@@ -439,7 +439,10 @@
     <t>2021-05-17</t>
   </si>
   <si>
-    <t>2021-05-13</t>
+    <t>2021-05-14</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
   </si>
   <si>
     <t>2010-10-22</t>
@@ -754,9 +757,6 @@
     <t>2021-02-17</t>
   </si>
   <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
     <t>2021-03-23</t>
   </si>
   <si>
@@ -1427,6 +1427,12 @@
   </si>
   <si>
     <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021-06-17</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P379"/>
+  <dimension ref="A1:P382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1848,7 +1854,7 @@
         <v>39.24967816269653</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2">
         <v>47.58658728904034</v>
@@ -1898,7 +1904,7 @@
         <v>41.7045814878046</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E3">
         <v>51.36624085194781</v>
@@ -1948,7 +1954,7 @@
         <v>47.73273319613877</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E4">
         <v>59.43490802303255</v>
@@ -1998,7 +2004,7 @@
         <v>47.24820828667414</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5">
         <v>58.87563172501095</v>
@@ -2048,7 +2054,7 @@
         <v>47.16470096247878</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6">
         <v>58.77924108291729</v>
@@ -2098,7 +2104,7 @@
         <v>-15.1664654510749</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E7">
         <v>-7.294892481790129</v>
@@ -2148,7 +2154,7 @@
         <v>-14.45834344229912</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E8">
         <v>-7.294892481790129</v>
@@ -2198,7 +2204,7 @@
         <v>-13.39336737209288</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E9">
         <v>-7.294892481790129</v>
@@ -2248,7 +2254,7 @@
         <v>-16.33245230627455</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E10">
         <v>-7.294892481790129</v>
@@ -2298,7 +2304,7 @@
         <v>-29.63643996743208</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E11">
         <v>-21.37792699357366</v>
@@ -2348,7 +2354,7 @@
         <v>-29.01030081710592</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E12">
         <v>-21.37792699357366</v>
@@ -2398,7 +2404,7 @@
         <v>-28.60118761449661</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E13">
         <v>-21.37792699357366</v>
@@ -2448,7 +2454,7 @@
         <v>-49.08464630848418</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E14">
         <v>-42.77667080227592</v>
@@ -2498,7 +2504,7 @@
         <v>-48.56869529606767</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E15">
         <v>-42.77667080227592</v>
@@ -2548,7 +2554,7 @@
         <v>-49.0410871967355</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E16">
         <v>-42.77667080227592</v>
@@ -2598,7 +2604,7 @@
         <v>-65.70804604683664</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E17">
         <v>-56.94115587886895</v>
@@ -2648,7 +2654,7 @@
         <v>-65.6116252316011</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E18">
         <v>-56.94115587886895</v>
@@ -2698,7 +2704,7 @@
         <v>-79.57406496333017</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E19">
         <v>-67.54165070713992</v>
@@ -2748,7 +2754,7 @@
         <v>-113.1125372679468</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E20">
         <v>-103.9345101187686</v>
@@ -2798,7 +2804,7 @@
         <v>-150.4700278614179</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E21">
         <v>-141.3269680910878</v>
@@ -2848,7 +2854,7 @@
         <v>-191.2456393652701</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E22">
         <v>-165.2314426418361</v>
@@ -2898,7 +2904,7 @@
         <v>-208.9753900042601</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E23">
         <v>-181.8698454183375</v>
@@ -2948,7 +2954,7 @@
         <v>-222.2487414251906</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E24">
         <v>-206.4607237347662</v>
@@ -2998,7 +3004,7 @@
         <v>-239.7112109310854</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E25">
         <v>-219.5184020745525</v>
@@ -3048,7 +3054,7 @@
         <v>-263.1154559964206</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E26">
         <v>-240.6747187530921</v>
@@ -3098,7 +3104,7 @@
         <v>-268.6224791106823</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E27">
         <v>-252.6279978948062</v>
@@ -3206,7 +3212,7 @@
         <v>-254.0793405031437</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E30">
         <v>-235.7082244929039</v>
@@ -3256,7 +3262,7 @@
         <v>-238.7059320352077</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E31">
         <v>-223.7765478327873</v>
@@ -3385,7 +3391,7 @@
         <v>-85.8076603763717</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E34">
         <v>-85.31060902491748</v>
@@ -3435,7 +3441,7 @@
         <v>-78.41701518144652</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E35">
         <v>-77.28396586589429</v>
@@ -3543,7 +3549,7 @@
         <v>-77.43890142953504</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E38">
         <v>-86.03210595388953</v>
@@ -3593,7 +3599,7 @@
         <v>-75.24842836769179</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E39">
         <v>-82.41442691778926</v>
@@ -3643,7 +3649,7 @@
         <v>-75.26941837884658</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E40">
         <v>-76.41687497573176</v>
@@ -3693,7 +3699,7 @@
         <v>2.405986219478436</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E41">
         <v>22.3137495724129</v>
@@ -3743,7 +3749,7 @@
         <v>-1.953147134466214</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E42">
         <v>19.32012787151115</v>
@@ -3793,7 +3799,7 @@
         <v>-16.2502130791469</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E43">
         <v>8.401660897453333</v>
@@ -3843,7 +3849,7 @@
         <v>-14.74859467309044</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E44">
         <v>8.401660897453333</v>
@@ -3893,7 +3899,7 @@
         <v>-29.86968571903745</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E45">
         <v>-0.9514709154835543</v>
@@ -3943,7 +3949,7 @@
         <v>60.63454015125168</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E46">
         <v>75.91925407409063</v>
@@ -3993,7 +3999,7 @@
         <v>61.36441721922468</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E47">
         <v>75.91925407409063</v>
@@ -4043,7 +4049,7 @@
         <v>89.12505313226613</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E48">
         <v>73.92461224371841</v>
@@ -4093,7 +4099,7 @@
         <v>60.18080332327113</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E49">
         <v>75.16419394721952</v>
@@ -4143,7 +4149,7 @@
         <v>60.90367287266527</v>
       </c>
       <c r="D50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E50">
         <v>75.16419394721952</v>
@@ -4193,7 +4199,7 @@
         <v>88.41554187615753</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E51">
         <v>73.33247692380556</v>
@@ -4243,7 +4249,7 @@
         <v>39.99810912339372</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E52">
         <v>55.15583755182445</v>
@@ -4293,7 +4299,7 @@
         <v>41.30719414984996</v>
       </c>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E53">
         <v>55.15583755182445</v>
@@ -4343,7 +4349,7 @@
         <v>43.08151977105167</v>
       </c>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E54">
         <v>55.9485635535138</v>
@@ -4379,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4393,7 +4399,7 @@
         <v>42.16532004667869</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E55">
         <v>55.9485635535138</v>
@@ -4429,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4443,7 +4449,7 @@
         <v>42.55008107334416</v>
       </c>
       <c r="D56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E56">
         <v>56.30400099154195</v>
@@ -4493,7 +4499,7 @@
         <v>43.58368103616133</v>
       </c>
       <c r="D57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E57">
         <v>56.30400099154195</v>
@@ -4543,7 +4549,7 @@
         <v>44.27504780738504</v>
       </c>
       <c r="D58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E58">
         <v>56.96559598792828</v>
@@ -4593,7 +4599,7 @@
         <v>44.76828997217422</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E59">
         <v>57.43759805949687</v>
@@ -4643,7 +4649,7 @@
         <v>46.95250922066406</v>
       </c>
       <c r="D60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E60">
         <v>58.6275946856681</v>
@@ -4693,7 +4699,7 @@
         <v>47.37813227189867</v>
       </c>
       <c r="D61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E61">
         <v>59.01897220404476</v>
@@ -4743,7 +4749,7 @@
         <v>48.93720072957618</v>
       </c>
       <c r="D62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E62">
         <v>59.68207127489522</v>
@@ -4793,7 +4799,7 @@
         <v>48.94662890110423</v>
       </c>
       <c r="D63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E63">
         <v>59.69094484809811</v>
@@ -4843,7 +4849,7 @@
         <v>54.08932335660573</v>
       </c>
       <c r="D64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E64">
         <v>62.52278850035134</v>
@@ -4893,7 +4899,7 @@
         <v>67.18932335660573</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E65">
         <v>59.01736085156006</v>
@@ -4943,7 +4949,7 @@
         <v>54.27142458878302</v>
       </c>
       <c r="D66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E66">
         <v>62.70264156916842</v>
@@ -4993,7 +4999,7 @@
         <v>67.37142458878301</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E67">
         <v>59.17608118479113</v>
@@ -5043,7 +5049,7 @@
         <v>54.44666418857609</v>
       </c>
       <c r="D68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E68">
         <v>57.92296041603655</v>
@@ -5093,7 +5099,7 @@
         <v>54.38623819452964</v>
       </c>
       <c r="D69" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E69">
         <v>62.81603772299223</v>
@@ -5143,7 +5149,7 @@
         <v>54.68320045790918</v>
       </c>
       <c r="D70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E70">
         <v>62.81603772299223</v>
@@ -5193,7 +5199,7 @@
         <v>67.48623819452963</v>
       </c>
       <c r="D71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E71">
         <v>59.27615329054065</v>
@@ -5243,7 +5249,7 @@
         <v>54.5181037654851</v>
       </c>
       <c r="D72" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E72">
         <v>55.68274527440479</v>
@@ -5293,7 +5299,7 @@
         <v>101.1269386779503</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E73">
         <v>83.94100067443752</v>
@@ -5343,7 +5349,7 @@
         <v>75.45009517739128</v>
       </c>
       <c r="D74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E74">
         <v>80.27451240300203</v>
@@ -5393,7 +5399,7 @@
         <v>121.9136696617972</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E75">
         <v>104.5517569407011</v>
@@ -5443,7 +5449,7 @@
         <v>124.0730248787269</v>
       </c>
       <c r="D76" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E76">
         <v>106.3319083146578</v>
@@ -5493,7 +5499,7 @@
         <v>125.8987716223492</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E77">
         <v>107.8370361179367</v>
@@ -5543,7 +5549,7 @@
         <v>127.8315078706938</v>
       </c>
       <c r="D78" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E78">
         <v>102.3788447068554</v>
@@ -5593,7 +5599,7 @@
         <v>127.8608026942557</v>
       </c>
       <c r="D79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E79">
         <v>102.3788447068554</v>
@@ -5643,7 +5649,7 @@
         <v>126.3344628429377</v>
       </c>
       <c r="D80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E80">
         <v>101.3477167540643</v>
@@ -5693,7 +5699,7 @@
         <v>126.3293867347399</v>
       </c>
       <c r="D81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E81">
         <v>101.3477167540643</v>
@@ -5743,7 +5749,7 @@
         <v>126.0311094090764</v>
       </c>
       <c r="D82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E82">
         <v>101.1387743378843</v>
@@ -5793,7 +5799,7 @@
         <v>126.0190685536726</v>
       </c>
       <c r="D83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E83">
         <v>101.1387743378843</v>
@@ -5843,7 +5849,7 @@
         <v>126.620958855311</v>
       </c>
       <c r="D84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E84">
         <v>101.5450481911581</v>
@@ -5893,7 +5899,7 @@
         <v>126.6224604616829</v>
       </c>
       <c r="D85" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E85">
         <v>101.5450481911581</v>
@@ -5943,7 +5949,7 @@
         <v>125.7796367080902</v>
       </c>
       <c r="D86" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E86">
         <v>100.9655660999601</v>
@@ -5993,7 +5999,7 @@
         <v>125.7618222447556</v>
       </c>
       <c r="D87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E87">
         <v>100.9655660999601</v>
@@ -6043,7 +6049,7 @@
         <v>125.0669218669525</v>
       </c>
       <c r="D88" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E88">
         <v>100.4746655716255</v>
@@ -6079,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6093,7 +6099,7 @@
         <v>125.0327440526733</v>
       </c>
       <c r="D89" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E89">
         <v>100.4746655716255</v>
@@ -6129,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6143,7 +6149,7 @@
         <v>123.2289469739378</v>
       </c>
       <c r="D90" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E90">
         <v>99.20871347694691</v>
@@ -6193,7 +6199,7 @@
         <v>123.1525707565027</v>
       </c>
       <c r="D91" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E91">
         <v>99.20871347694691</v>
@@ -6243,7 +6249,7 @@
         <v>122.9583501275863</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E92">
         <v>99.02233299604161</v>
@@ -6293,7 +6299,7 @@
         <v>122.8757612274544</v>
       </c>
       <c r="D93" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E93">
         <v>99.02233299604161</v>
@@ -6343,7 +6349,7 @@
         <v>124.3519741722009</v>
       </c>
       <c r="D94" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E94">
         <v>99.98222710840369</v>
@@ -6393,7 +6399,7 @@
         <v>124.3013817424811</v>
       </c>
       <c r="D95" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E95">
         <v>99.98222710840369</v>
@@ -6443,7 +6449,7 @@
         <v>124.6891745905705</v>
       </c>
       <c r="D96" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E96">
         <v>100.2144824986073</v>
@@ -6493,7 +6499,7 @@
         <v>124.6463240071908</v>
       </c>
       <c r="D97" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E97">
         <v>100.2144824986073</v>
@@ -6543,7 +6549,7 @@
         <v>124.4800191586875</v>
       </c>
       <c r="D98" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E98">
         <v>100.0704213593001</v>
@@ -6593,7 +6599,7 @@
         <v>124.4323665373309</v>
       </c>
       <c r="D99" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E99">
         <v>100.0704213593001</v>
@@ -6643,7 +6649,7 @@
         <v>123.0108457893896</v>
       </c>
       <c r="D100" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E100">
         <v>99.05849072228368</v>
@@ -6693,7 +6699,7 @@
         <v>122.9294621467991</v>
       </c>
       <c r="D101" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E101">
         <v>99.05849072228368</v>
@@ -6743,7 +6749,7 @@
         <v>121.6453568496303</v>
       </c>
       <c r="D102" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E102">
         <v>98.11797538112289</v>
@@ -6793,7 +6799,7 @@
         <v>121.5326226956677</v>
       </c>
       <c r="D103" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E103">
         <v>98.11797538112289</v>
@@ -6843,7 +6849,7 @@
         <v>121.0299428079651</v>
       </c>
       <c r="D104" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E104">
         <v>97.69409326058823</v>
@@ -6893,7 +6899,7 @@
         <v>120.9030792499847</v>
       </c>
       <c r="D105" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E105">
         <v>97.69409326058823</v>
@@ -6943,7 +6949,7 @@
         <v>120.2680139970007</v>
       </c>
       <c r="D106" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E106">
         <v>97.169295355077</v>
@@ -6993,7 +6999,7 @@
         <v>120.1236571755032</v>
       </c>
       <c r="D107" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E107">
         <v>97.169295355077</v>
@@ -7043,7 +7049,7 @@
         <v>119.3894537106139</v>
       </c>
       <c r="D108" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E108">
         <v>96.56416454557592</v>
@@ -7093,7 +7099,7 @@
         <v>119.2249258621331</v>
       </c>
       <c r="D109" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E109">
         <v>96.56416454557592</v>
@@ -7143,7 +7149,7 @@
         <v>118.0996069245826</v>
       </c>
       <c r="D110" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E110">
         <v>95.67574966744206</v>
@@ -7193,7 +7199,7 @@
         <v>117.9054652468306</v>
       </c>
       <c r="D111" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E111">
         <v>95.67574966744206</v>
@@ -7243,7 +7249,7 @@
         <v>117.1017444652623</v>
       </c>
       <c r="D112" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E112">
         <v>94.98844644291023</v>
@@ -7293,7 +7299,7 @@
         <v>116.8846926800259</v>
       </c>
       <c r="D113" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E113">
         <v>94.98844644291023</v>
@@ -7343,7 +7349,7 @@
         <v>115.7903395541055</v>
       </c>
       <c r="D114" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E114">
         <v>94.08518285614407</v>
@@ -7393,7 +7399,7 @@
         <v>115.5431789826436</v>
       </c>
       <c r="D115" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E115">
         <v>94.08518285614407</v>
@@ -7443,7 +7449,7 @@
         <v>114.3600161010092</v>
       </c>
       <c r="D116" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E116">
         <v>93.10001108998082</v>
@@ -7493,7 +7499,7 @@
         <v>114.0800164706752</v>
       </c>
       <c r="D117" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E117">
         <v>93.10001108998082</v>
@@ -7543,7 +7549,7 @@
         <v>112.9215721869154</v>
       </c>
       <c r="D118" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E118">
         <v>92.10924614915092</v>
@@ -7593,7 +7599,7 @@
         <v>112.6085470585538</v>
       </c>
       <c r="D119" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E119">
         <v>92.10924614915092</v>
@@ -7643,7 +7649,7 @@
         <v>111.0753114680939</v>
       </c>
       <c r="D120" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E120">
         <v>91.07689300844227</v>
@@ -7693,7 +7699,7 @@
         <v>109.3637030177276</v>
       </c>
       <c r="D121" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E121">
         <v>89.92443844086398</v>
@@ -7743,7 +7749,7 @@
         <v>106.6367917601738</v>
       </c>
       <c r="D122" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E122">
         <v>88.08836352929409</v>
@@ -7793,7 +7799,7 @@
         <v>99.96873044828921</v>
       </c>
       <c r="D123" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E123">
         <v>83.59864643650396</v>
@@ -7843,7 +7849,7 @@
         <v>39.91051382546476</v>
       </c>
       <c r="D124" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E124">
         <v>42.55014562583152</v>
@@ -7893,7 +7899,7 @@
         <v>34.76754143004694</v>
       </c>
       <c r="D125" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E125">
         <v>38.11145388461416</v>
@@ -7943,7 +7949,7 @@
         <v>27.87373902743889</v>
       </c>
       <c r="D126" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E126">
         <v>28.73232502982488</v>
@@ -7993,7 +7999,7 @@
         <v>52.34452590842368</v>
       </c>
       <c r="D127" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E127">
         <v>60.02089394070224</v>
@@ -8043,7 +8049,7 @@
         <v>66.2681578761451</v>
       </c>
       <c r="D128" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E128">
         <v>59.00746128062423</v>
@@ -8093,7 +8099,7 @@
         <v>65.90298372726488</v>
       </c>
       <c r="D129" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E129">
         <v>59.00746128062423</v>
@@ -8143,7 +8149,7 @@
         <v>75.19054270184851</v>
       </c>
       <c r="D130" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E130">
         <v>82.88620847856147</v>
@@ -8193,7 +8199,7 @@
         <v>91.01410438583636</v>
       </c>
       <c r="D131" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E131">
         <v>85.34034548895417</v>
@@ -8243,7 +8249,7 @@
         <v>90.69117289103272</v>
       </c>
       <c r="D132" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E132">
         <v>85.34034548895417</v>
@@ -8293,7 +8299,7 @@
         <v>106.425283452306</v>
       </c>
       <c r="D133" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E133">
         <v>102.4841645631825</v>
@@ -8343,7 +8349,7 @@
         <v>106.7743510447031</v>
       </c>
       <c r="D134" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E134">
         <v>102.4841645631825</v>
@@ -8393,7 +8399,7 @@
         <v>64.83381773702186</v>
       </c>
       <c r="D135" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E135">
         <v>61.17785949472258</v>
@@ -8443,7 +8449,7 @@
         <v>53.81062761975522</v>
       </c>
       <c r="D136" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E136">
         <v>45.81713512679965</v>
@@ -8493,7 +8499,7 @@
         <v>53.43128846396477</v>
       </c>
       <c r="D137" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E137">
         <v>47.7894228477703</v>
@@ -8543,7 +8549,7 @@
         <v>48.70129852147022</v>
       </c>
       <c r="D138" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E138">
         <v>39.19252273181839</v>
@@ -8593,7 +8599,7 @@
         <v>44.87334693499027</v>
       </c>
       <c r="D139" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E139">
         <v>34.44403390958535</v>
@@ -8643,7 +8649,7 @@
         <v>40.45906823400685</v>
       </c>
       <c r="D140" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E140">
         <v>29.40254968722779</v>
@@ -8693,7 +8699,7 @@
         <v>37.79538016242914</v>
       </c>
       <c r="D141" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E141">
         <v>25.15160114518396</v>
@@ -8743,7 +8749,7 @@
         <v>37.68076952930594</v>
       </c>
       <c r="D142" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E142">
         <v>25.01802919408082</v>
@@ -8793,7 +8799,7 @@
         <v>63.15408222226404</v>
       </c>
       <c r="D143" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E143">
         <v>53.56243089690908</v>
@@ -8843,7 +8849,7 @@
         <v>31.1030054990203</v>
       </c>
       <c r="D144" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E144">
         <v>14.08734435244297</v>
@@ -8893,7 +8899,7 @@
         <v>25.05484991241799</v>
       </c>
       <c r="D145" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E145">
         <v>6.922187058405115</v>
@@ -8943,7 +8949,7 @@
         <v>18.81638310475921</v>
       </c>
       <c r="D146" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E146">
         <v>-0.4684290245420044</v>
@@ -8993,7 +8999,7 @@
         <v>13.01676813424353</v>
       </c>
       <c r="D147" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E147">
         <v>-7.339144057179965</v>
@@ -9043,7 +9049,7 @@
         <v>8.024396355482963</v>
       </c>
       <c r="D148" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E148">
         <v>-13.25353044372964</v>
@@ -9093,7 +9099,7 @@
         <v>7.720504878426524</v>
       </c>
       <c r="D149" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E149">
         <v>-13.61354602240461</v>
@@ -9143,7 +9149,7 @@
         <v>10.31388326476601</v>
       </c>
       <c r="D150" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E150">
         <v>-10.54121036651594</v>
@@ -9193,7 +9199,7 @@
         <v>11.14758883248732</v>
       </c>
       <c r="D151" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E151">
         <v>-9.553532148900146</v>
@@ -9243,7 +9249,7 @@
         <v>20.84560393192861</v>
       </c>
       <c r="D152" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E152">
         <v>1.935557811248756</v>
@@ -9279,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9293,7 +9299,7 @@
         <v>21.43389351871438</v>
       </c>
       <c r="D153" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E153">
         <v>2.632495474873352</v>
@@ -9343,7 +9349,7 @@
         <v>22.6162561113628</v>
       </c>
       <c r="D154" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E154">
         <v>4.033222330128012</v>
@@ -9379,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9393,7 +9399,7 @@
         <v>23.86897930913528</v>
       </c>
       <c r="D155" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E155">
         <v>5.517304316678292</v>
@@ -9443,7 +9449,7 @@
         <v>24.29022509961407</v>
       </c>
       <c r="D156" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E156">
         <v>6.016347753146405</v>
@@ -9493,7 +9499,7 @@
         <v>80.77258742920839</v>
       </c>
       <c r="D157" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E157">
         <v>71.50140757768273</v>
@@ -9543,7 +9549,7 @@
         <v>80.87119828430862</v>
       </c>
       <c r="D158" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E158">
         <v>71.50140757768273</v>
@@ -9593,7 +9599,7 @@
         <v>82.15331534782203</v>
       </c>
       <c r="D159" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E159">
         <v>71.50140757768273</v>
@@ -9643,7 +9649,7 @@
         <v>76.19581669669289</v>
       </c>
       <c r="D160" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E160">
         <v>66.74547500154564</v>
@@ -9693,7 +9699,7 @@
         <v>75.21863715900577</v>
       </c>
       <c r="D161" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E161">
         <v>66.74547500154564</v>
@@ -9743,7 +9749,7 @@
         <v>77.89414970172665</v>
       </c>
       <c r="D162" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E162">
         <v>66.74547500154564</v>
@@ -9793,7 +9799,7 @@
         <v>60.11863715900578</v>
       </c>
       <c r="D163" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E163">
         <v>68.03744024109169</v>
@@ -9843,7 +9849,7 @@
         <v>72.44565132750211</v>
       </c>
       <c r="D164" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E164">
         <v>62.8485060058029</v>
@@ -9893,7 +9899,7 @@
         <v>71.50850914251097</v>
       </c>
       <c r="D165" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E165">
         <v>62.8485060058029</v>
@@ -9943,7 +9949,7 @@
         <v>74.40422712505978</v>
       </c>
       <c r="D166" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E166">
         <v>62.8485060058029</v>
@@ -9993,7 +9999,7 @@
         <v>56.40850914251097</v>
       </c>
       <c r="D167" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E167">
         <v>64.59422790923679</v>
@@ -10043,7 +10049,7 @@
         <v>67.88820949982238</v>
       </c>
       <c r="D168" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E168">
         <v>60.43722302948107</v>
@@ -10093,7 +10099,7 @@
         <v>70.99880138202717</v>
       </c>
       <c r="D169" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E169">
         <v>60.43722302948107</v>
@@ -10143,7 +10149,7 @@
         <v>52.78820949982239</v>
       </c>
       <c r="D170" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E170">
         <v>61.23438147825242</v>
@@ -10193,7 +10199,7 @@
         <v>64.41272601732022</v>
       </c>
       <c r="D171" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E171">
         <v>56.61794172047242</v>
@@ -10243,7 +10249,7 @@
         <v>49.31272601732023</v>
       </c>
       <c r="D172" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E172">
         <v>58.0089327786641</v>
@@ -10293,7 +10299,7 @@
         <v>61.16879231159055</v>
       </c>
       <c r="D173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E173">
         <v>53.82441738118666</v>
@@ -10343,7 +10349,7 @@
         <v>46.06879231159056</v>
       </c>
       <c r="D174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E174">
         <v>54.08446933112747</v>
@@ -10393,7 +10399,7 @@
         <v>58.07192781203269</v>
       </c>
       <c r="D175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E175">
         <v>50.68812094147531</v>
@@ -10443,7 +10449,7 @@
         <v>42.9719278120327</v>
       </c>
       <c r="D176" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E176">
         <v>51.29394934141796</v>
@@ -10493,7 +10499,7 @@
         <v>72.62623022483724</v>
       </c>
       <c r="D177" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E177">
         <v>78.13274022613687</v>
@@ -10543,7 +10549,7 @@
         <v>72.14377020837516</v>
       </c>
       <c r="D178" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E178">
         <v>78.53925022743653</v>
@@ -10593,7 +10599,7 @@
         <v>83.25643025082999</v>
       </c>
       <c r="D179" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E179">
         <v>77.7759602547289</v>
@@ -10701,7 +10707,7 @@
         <v>66.25534327603719</v>
       </c>
       <c r="D182" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E182">
         <v>53.25789242985769</v>
@@ -10751,7 +10757,7 @@
         <v>66.50153349826817</v>
       </c>
       <c r="D183" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E183">
         <v>53.49926887679366</v>
@@ -10801,7 +10807,7 @@
         <v>65.13958707494101</v>
       </c>
       <c r="D184" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E184">
         <v>53.20617458032149</v>
@@ -10851,7 +10857,7 @@
         <v>65.2660759255686</v>
       </c>
       <c r="D185" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E185">
         <v>53.20617458032149</v>
@@ -10901,7 +10907,7 @@
         <v>63.88275361614285</v>
       </c>
       <c r="D186" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E186">
         <v>51.96525040581191</v>
@@ -10951,7 +10957,7 @@
         <v>82.52792611826956</v>
       </c>
       <c r="D187" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E187">
         <v>99.94767772279653</v>
@@ -11001,7 +11007,7 @@
         <v>80.81507949145069</v>
       </c>
       <c r="D188" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E188">
         <v>99.94767772279653</v>
@@ -11051,7 +11057,7 @@
         <v>82.55697724266327</v>
       </c>
       <c r="D189" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E189">
         <v>99.94767772279653</v>
@@ -11101,7 +11107,7 @@
         <v>80.68386776738032</v>
       </c>
       <c r="D190" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E190">
         <v>99.94767772279653</v>
@@ -11151,7 +11157,7 @@
         <v>83.46212404051099</v>
       </c>
       <c r="D191" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E191">
         <v>101.9293746430213</v>
@@ -11201,7 +11207,7 @@
         <v>81.65627098338047</v>
       </c>
       <c r="D192" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E192">
         <v>101.9293746430213</v>
@@ -11251,7 +11257,7 @@
         <v>83.46017302146748</v>
       </c>
       <c r="D193" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E193">
         <v>101.9293746430213</v>
@@ -11301,7 +11307,7 @@
         <v>81.57259587924717</v>
       </c>
       <c r="D194" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E194">
         <v>101.9293746430213</v>
@@ -11401,7 +11407,7 @@
         <v>33.77481800214022</v>
       </c>
       <c r="D196" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E196">
         <v>39.96346245740297</v>
@@ -11451,7 +11457,7 @@
         <v>24.63764534106641</v>
       </c>
       <c r="D197" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E197">
         <v>34.16939555445761</v>
@@ -11501,7 +11507,7 @@
         <v>43.28817453279771</v>
       </c>
       <c r="D198" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E198">
         <v>46.14425779500065</v>
@@ -11551,7 +11557,7 @@
         <v>24.23598497532834</v>
       </c>
       <c r="D199" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E199">
         <v>33.03819935984974</v>
@@ -11601,7 +11607,7 @@
         <v>24.17071464201896</v>
       </c>
       <c r="D200" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E200">
         <v>33.03819935984974</v>
@@ -11651,7 +11657,7 @@
         <v>23.32366123264667</v>
       </c>
       <c r="D201" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E201">
         <v>32.29172372079252</v>
@@ -11701,7 +11707,7 @@
         <v>22.94912669441385</v>
       </c>
       <c r="D202" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E202">
         <v>31.49029169144093</v>
@@ -11751,7 +11757,7 @@
         <v>22.44844130251504</v>
       </c>
       <c r="D203" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E203">
         <v>30.75050022869873</v>
@@ -11801,7 +11807,7 @@
         <v>22.12056025614258</v>
       </c>
       <c r="D204" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E204">
         <v>30.75050022869873</v>
@@ -11851,7 +11857,7 @@
         <v>21.00936580829927</v>
       </c>
       <c r="D205" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E205">
         <v>29.75836232883863</v>
@@ -11901,7 +11907,7 @@
         <v>22.21712321587968</v>
       </c>
       <c r="D206" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E206">
         <v>29.83950116198865</v>
@@ -11951,7 +11957,7 @@
         <v>22.36605537346383</v>
       </c>
       <c r="D207" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E207">
         <v>29.99532225197207</v>
@@ -12001,7 +12007,7 @@
         <v>21.71901729202467</v>
       </c>
       <c r="D208" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E208">
         <v>28.96097369076485</v>
@@ -12051,7 +12057,7 @@
         <v>21.37743590654157</v>
       </c>
       <c r="D209" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E209">
         <v>28.96097369076485</v>
@@ -12101,7 +12107,7 @@
         <v>21.5505095382167</v>
       </c>
       <c r="D210" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E210">
         <v>29.1420529309536</v>
@@ -12151,7 +12157,7 @@
         <v>21.4477218260166</v>
       </c>
       <c r="D211" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E211">
         <v>29.03451072105261</v>
@@ -12201,7 +12207,7 @@
         <v>21.93200329930192</v>
       </c>
       <c r="D212" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E212">
         <v>29.03451072105261</v>
@@ -12251,7 +12257,7 @@
         <v>21.82005829590757</v>
       </c>
       <c r="D213" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E213">
         <v>29.42406980298699</v>
@@ -12301,7 +12307,7 @@
         <v>22.28137628646834</v>
       </c>
       <c r="D214" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E214">
         <v>29.42406980298699</v>
@@ -12351,7 +12357,7 @@
         <v>25.08434479788652</v>
       </c>
       <c r="D215" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E215">
         <v>32.83934753082841</v>
@@ -12401,7 +12407,7 @@
         <v>25.82576998567276</v>
       </c>
       <c r="D216" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E216">
         <v>32.83934753082841</v>
@@ -12451,7 +12457,7 @@
         <v>25.62576998567276</v>
       </c>
       <c r="D217" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E217">
         <v>32.83934753082841</v>
@@ -12501,7 +12507,7 @@
         <v>39.54291961010028</v>
       </c>
       <c r="D218" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E218">
         <v>32.24005830276027</v>
@@ -12551,7 +12557,7 @@
         <v>27.32311840696546</v>
       </c>
       <c r="D219" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E219">
         <v>35.18167674737576</v>
@@ -12601,7 +12607,7 @@
         <v>27.936331890267</v>
       </c>
       <c r="D220" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E220">
         <v>35.18167674737576</v>
@@ -12651,7 +12657,7 @@
         <v>27.736331890267</v>
       </c>
       <c r="D221" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E221">
         <v>35.18167674737576</v>
@@ -12701,7 +12707,7 @@
         <v>41.90990492366392</v>
       </c>
       <c r="D222" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E222">
         <v>34.44924459541966</v>
@@ -12751,7 +12757,7 @@
         <v>29.32582523799188</v>
       </c>
       <c r="D223" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E223">
         <v>36.94571726179005</v>
@@ -12801,7 +12807,7 @@
         <v>43.69251428559836</v>
       </c>
       <c r="D224" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E224">
         <v>36.11301333322514</v>
@@ -12851,7 +12857,7 @@
         <v>44.11030807122381</v>
       </c>
       <c r="D225" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E225">
         <v>36.50295419980888</v>
@@ -12901,7 +12907,7 @@
         <v>45.39200591893177</v>
       </c>
       <c r="D226" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E226">
         <v>37.69920552433632</v>
@@ -12951,7 +12957,7 @@
         <v>46.2461284866414</v>
       </c>
       <c r="D227" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E227">
         <v>38.49638658753197</v>
@@ -13001,7 +13007,7 @@
         <v>46.90307634880546</v>
       </c>
       <c r="D228" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E228">
         <v>39.10953792555176</v>
@@ -13051,7 +13057,7 @@
         <v>33.83569560835785</v>
       </c>
       <c r="D229" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E229">
         <v>40.9206360962427</v>
@@ -13101,7 +13107,7 @@
         <v>46.73201951087134</v>
       </c>
       <c r="D230" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E230">
         <v>38.94988487681324</v>
@@ -13151,7 +13157,7 @@
         <v>33.22416759327695</v>
       </c>
       <c r="D231" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E231">
         <v>40.34408700115657</v>
@@ -13201,7 +13207,7 @@
         <v>46.15305807647522</v>
       </c>
       <c r="D232" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E232">
         <v>38.40952087137686</v>
@@ -13251,7 +13257,7 @@
         <v>33.50490381338868</v>
       </c>
       <c r="D233" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E233">
         <v>40.17087450822464</v>
@@ -13301,7 +13307,7 @@
         <v>45.97912084507914</v>
       </c>
       <c r="D234" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E234">
         <v>38.24717945540719</v>
@@ -13351,7 +13357,7 @@
         <v>34.16379673036971</v>
       </c>
       <c r="D235" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E235">
         <v>40.85258622752538</v>
@@ -13401,7 +13407,7 @@
         <v>46.66368491466983</v>
       </c>
       <c r="D236" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E236">
         <v>38.8861059203585</v>
@@ -13451,7 +13457,7 @@
         <v>35.00523304555671</v>
       </c>
       <c r="D237" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E237">
         <v>41.72316319432058</v>
@@ -13501,7 +13507,7 @@
         <v>47.53790446291606</v>
       </c>
       <c r="D238" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E238">
         <v>39.70204416538832</v>
@@ -13551,7 +13557,7 @@
         <v>35.77509163864829</v>
       </c>
       <c r="D239" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E239">
         <v>42.51968355686988</v>
@@ -13601,7 +13607,7 @@
         <v>48.33775754664758</v>
       </c>
       <c r="D240" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E240">
         <v>40.4485737102044</v>
@@ -13651,7 +13657,7 @@
         <v>36.40438752667171</v>
       </c>
       <c r="D241" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E241">
         <v>43.17077324188112</v>
@@ -13701,7 +13707,7 @@
         <v>48.9915714562823</v>
       </c>
       <c r="D242" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E242">
         <v>41.05880002586348</v>
@@ -13751,7 +13757,7 @@
         <v>32.86635202836143</v>
       </c>
       <c r="D243" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E243">
         <v>23.40810673803942</v>
@@ -13801,7 +13807,7 @@
         <v>14.22574367387871</v>
       </c>
       <c r="D244" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E244">
         <v>19.5340376774239</v>
@@ -13851,7 +13857,7 @@
         <v>24.88800304387275</v>
       </c>
       <c r="D245" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E245">
         <v>11.91657154564347</v>
@@ -13901,7 +13907,7 @@
         <v>39.44906102636678</v>
       </c>
       <c r="D246" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E246">
         <v>28.36395585832523</v>
@@ -13980,7 +13986,7 @@
         <v>36.85113379578714</v>
       </c>
       <c r="D248" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E248">
         <v>25.5208599983697</v>
@@ -14030,7 +14036,7 @@
         <v>33.94646019309421</v>
       </c>
       <c r="D249" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E249">
         <v>22.34206984707826</v>
@@ -14080,7 +14086,7 @@
         <v>33.30875742504994</v>
       </c>
       <c r="D250" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E250">
         <v>21.64418651979802</v>
@@ -14209,7 +14215,7 @@
         <v>9.926891175013289</v>
       </c>
       <c r="D253" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E253">
         <v>9.938904864210649</v>
@@ -14259,7 +14265,7 @@
         <v>8.61566853605617</v>
       </c>
       <c r="D254" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E254">
         <v>9.007561895624264</v>
@@ -14359,7 +14365,7 @@
         <v>15.27625616990661</v>
       </c>
       <c r="D256" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E256">
         <v>13.96823074035395</v>
@@ -14409,7 +14415,7 @@
         <v>14.49984262437423</v>
       </c>
       <c r="D257" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E257">
         <v>14.19011246930496</v>
@@ -14459,7 +14465,7 @@
         <v>13.68984307357539</v>
       </c>
       <c r="D258" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E258">
         <v>15.44321014679792</v>
@@ -14509,7 +14515,7 @@
         <v>14.26953725404694</v>
       </c>
       <c r="D259" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E259">
         <v>17.46734434330768</v>
@@ -14559,7 +14565,7 @@
         <v>59.06263065139578</v>
       </c>
       <c r="D260" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E260">
         <v>59.07357361272927</v>
@@ -14609,7 +14615,7 @@
         <v>60.66257075424956</v>
       </c>
       <c r="D261" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E261">
         <v>61.38454095582109</v>
@@ -14659,7 +14665,7 @@
         <v>61.58779745865752</v>
       </c>
       <c r="D262" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E262">
         <v>62.08864679971672</v>
@@ -15159,7 +15165,7 @@
         <v>-12.91711279591523</v>
       </c>
       <c r="D272" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E272">
         <v>-24.080705554696</v>
@@ -15209,7 +15215,7 @@
         <v>-13.89288092370901</v>
       </c>
       <c r="D273" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E273">
         <v>-24.64699491908532</v>
@@ -15259,7 +15265,7 @@
         <v>-13.4171424523624</v>
       </c>
       <c r="D274" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E274">
         <v>-24.64699491908532</v>
@@ -15309,7 +15315,7 @@
         <v>-7.909028461817627</v>
       </c>
       <c r="D275" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E275">
         <v>-18.4089921717041</v>
@@ -15359,7 +15365,7 @@
         <v>-3.803879058776658</v>
       </c>
       <c r="D276" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E276">
         <v>-13.75986303266694</v>
@@ -15409,7 +15415,7 @@
         <v>-7.200798160312672</v>
       </c>
       <c r="D277" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E277">
         <v>-16.37029482433257</v>
@@ -15459,7 +15465,7 @@
         <v>1.814674940949821</v>
       </c>
       <c r="D278" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E278">
         <v>-6.106103736501311</v>
@@ -15659,7 +15665,7 @@
         <v>68.89152801060949</v>
       </c>
       <c r="D282" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E282">
         <v>67.76768139345658</v>
@@ -15709,7 +15715,7 @@
         <v>68.93096321131679</v>
       </c>
       <c r="D283" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E283">
         <v>67.76768139345658</v>
@@ -15759,7 +15765,7 @@
         <v>68.53130803182968</v>
       </c>
       <c r="D284" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E284">
         <v>67.76768139345658</v>
@@ -15809,7 +15815,7 @@
         <v>69.00549946949548</v>
       </c>
       <c r="D285" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E285">
         <v>67.76768139345658</v>
@@ -15859,7 +15865,7 @@
         <v>77.0344578684535</v>
       </c>
       <c r="D286" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E286">
         <v>79.16818364992574</v>
@@ -15909,7 +15915,7 @@
         <v>76.35596494832328</v>
       </c>
       <c r="D287" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E287">
         <v>79.16818364992574</v>
@@ -15959,7 +15965,7 @@
         <v>77.32922500711149</v>
       </c>
       <c r="D288" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E288">
         <v>79.16818364992574</v>
@@ -16009,7 +16015,7 @@
         <v>79.78847196430716</v>
       </c>
       <c r="D289" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E289">
         <v>84.66094269739213</v>
@@ -16045,7 +16051,7 @@
         <v>0</v>
       </c>
       <c r="P289" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16059,7 +16065,7 @@
         <v>79.029452316228</v>
       </c>
       <c r="D290" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E290">
         <v>84.66094269739213</v>
@@ -16095,7 +16101,7 @@
         <v>0</v>
       </c>
       <c r="P290" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -16109,7 +16115,7 @@
         <v>80.07787065443522</v>
       </c>
       <c r="D291" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E291">
         <v>84.66094269739213</v>
@@ -16145,7 +16151,7 @@
         <v>0</v>
       </c>
       <c r="P291" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -16195,7 +16201,7 @@
         <v>0</v>
       </c>
       <c r="P292" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -16245,7 +16251,7 @@
         <v>0</v>
       </c>
       <c r="P293" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -16295,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="P294" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -16309,7 +16315,7 @@
         <v>26.32548638029413</v>
       </c>
       <c r="D295" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E295">
         <v>26.99422663021349</v>
@@ -16359,7 +16365,7 @@
         <v>22.18948293316849</v>
       </c>
       <c r="D296" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E296">
         <v>24.84672272180288</v>
@@ -16409,7 +16415,7 @@
         <v>21.86052377863092</v>
       </c>
       <c r="D297" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E297">
         <v>24.84672272180288</v>
@@ -16459,7 +16465,7 @@
         <v>40.77814878274022</v>
       </c>
       <c r="D298" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E298">
         <v>48.87821615334129</v>
@@ -16509,7 +16515,7 @@
         <v>40.67981251944272</v>
       </c>
       <c r="D299" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E299">
         <v>48.87821615334129</v>
@@ -16559,7 +16565,7 @@
         <v>56.75038402863819</v>
       </c>
       <c r="D300" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E300">
         <v>62.17870887338118</v>
@@ -16609,7 +16615,7 @@
         <v>59.81014784804309</v>
       </c>
       <c r="D301" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E301">
         <v>65.19117101289457</v>
@@ -16659,7 +16665,7 @@
         <v>60.36835189313004</v>
       </c>
       <c r="D302" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E302">
         <v>65.519432176365</v>
@@ -16709,7 +16715,7 @@
         <v>61.49835591209959</v>
       </c>
       <c r="D303" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E303">
         <v>65.45054113973049</v>
@@ -16759,7 +16765,7 @@
         <v>61.74303834428476</v>
       </c>
       <c r="D304" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E304">
         <v>65.59070564276428</v>
@@ -16809,7 +16815,7 @@
         <v>62.08800405152936</v>
       </c>
       <c r="D305" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E305">
         <v>65.70367105582346</v>
@@ -16859,7 +16865,7 @@
         <v>62.52195117925444</v>
       </c>
       <c r="D306" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E306">
         <v>66.54562713332096</v>
@@ -16909,7 +16915,7 @@
         <v>63.12382871565654</v>
       </c>
       <c r="D307" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E307">
         <v>66.7862115872222</v>
@@ -16959,7 +16965,7 @@
         <v>63.43713576842169</v>
       </c>
       <c r="D308" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E308">
         <v>68.73084934526386</v>
@@ -17009,7 +17015,7 @@
         <v>63.67236578705479</v>
       </c>
       <c r="D309" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E309">
         <v>68.98960236576026</v>
@@ -17059,7 +17065,7 @@
         <v>63.92214730715632</v>
       </c>
       <c r="D310" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E310">
         <v>69.26436203787196</v>
@@ -17109,7 +17115,7 @@
         <v>64.84267428552164</v>
       </c>
       <c r="D311" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E311">
         <v>70.2769417140738</v>
@@ -17159,7 +17165,7 @@
         <v>67.02639425410899</v>
       </c>
       <c r="D312" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E312">
         <v>72.67903367951989</v>
@@ -17209,7 +17215,7 @@
         <v>48.8201383647419</v>
       </c>
       <c r="D313" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E313">
         <v>53.28068312873989</v>
@@ -17259,7 +17265,7 @@
         <v>43.78661428769819</v>
       </c>
       <c r="D314" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E314">
         <v>49.20590413019019</v>
@@ -17309,7 +17315,7 @@
         <v>43.50856722084519</v>
       </c>
       <c r="D315" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E315">
         <v>49.20590413019019</v>
@@ -17359,7 +17365,7 @@
         <v>38.43277181447034</v>
       </c>
       <c r="D316" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E316">
         <v>43.81134802598723</v>
@@ -17409,7 +17415,7 @@
         <v>39.10060265112747</v>
       </c>
       <c r="D317" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E317">
         <v>43.81134802598723</v>
@@ -17459,7 +17465,7 @@
         <v>28.12299460113455</v>
       </c>
       <c r="D318" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E318">
         <v>35.22229514558674</v>
@@ -17509,7 +17515,7 @@
         <v>27.81471186440677</v>
       </c>
       <c r="D319" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E319">
         <v>34.92338983050847</v>
@@ -17559,7 +17565,7 @@
         <v>31.34037664954478</v>
       </c>
       <c r="D320" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E320">
         <v>38.34181005944457</v>
@@ -17609,7 +17615,7 @@
         <v>31.06966226989418</v>
       </c>
       <c r="D321" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E321">
         <v>38.07933033773011</v>
@@ -17659,7 +17665,7 @@
         <v>30.73117805425061</v>
       </c>
       <c r="D322" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E322">
         <v>37.75114221990079</v>
@@ -17709,7 +17715,7 @@
         <v>30.23209518986696</v>
       </c>
       <c r="D323" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E323">
         <v>37.26724058333109</v>
@@ -17759,7 +17765,7 @@
         <v>29.66328200930995</v>
       </c>
       <c r="D324" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E324">
         <v>36.71572970484425</v>
@@ -17809,7 +17815,7 @@
         <v>29.90527095369034</v>
       </c>
       <c r="D325" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E325">
         <v>36.95035776878722</v>
@@ -17859,7 +17865,7 @@
         <v>29.61163508265873</v>
       </c>
       <c r="D326" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E326">
         <v>36.66565378736873</v>
@@ -17909,7 +17915,7 @@
         <v>29.60796663375891</v>
       </c>
       <c r="D327" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E327">
         <v>38.73216492329536</v>
@@ -17959,7 +17965,7 @@
         <v>29.99267097270676</v>
       </c>
       <c r="D328" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E328">
         <v>39.11028686861102</v>
@@ -18009,7 +18015,7 @@
         <v>30.47592970891776</v>
       </c>
       <c r="D329" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E329">
         <v>39.58527691922146</v>
@@ -18088,7 +18094,7 @@
         <v>37.15547839433958</v>
       </c>
       <c r="D331" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E331">
         <v>43.97524497646168</v>
@@ -18138,7 +18144,7 @@
         <v>37.01610527202449</v>
       </c>
       <c r="D332" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E332">
         <v>43.97524497646168</v>
@@ -18188,7 +18194,7 @@
         <v>25.78116025897209</v>
       </c>
       <c r="D333" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E333">
         <v>34.97083622412276</v>
@@ -18238,7 +18244,7 @@
         <v>21.78292834045364</v>
       </c>
       <c r="D334" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E334">
         <v>32.11135258573889</v>
@@ -18288,7 +18294,7 @@
         <v>16.20611168178342</v>
       </c>
       <c r="D335" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E335">
         <v>27.00103770079773</v>
@@ -18338,7 +18344,7 @@
         <v>16.50484318653699</v>
       </c>
       <c r="D336" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E336">
         <v>27.00103770079773</v>
@@ -18388,7 +18394,7 @@
         <v>7.513223702566968</v>
       </c>
       <c r="D337" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E337">
         <v>19.03531145368304</v>
@@ -18438,7 +18444,7 @@
         <v>7.993745640345985</v>
       </c>
       <c r="D338" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E338">
         <v>19.03531145368304</v>
@@ -18488,7 +18494,7 @@
         <v>-3.101932223543415</v>
       </c>
       <c r="D339" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E339">
         <v>9.308115338882274</v>
@@ -18538,7 +18544,7 @@
         <v>-2.399420332936991</v>
       </c>
       <c r="D340" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E340">
         <v>9.308115338882274</v>
@@ -18588,7 +18594,7 @@
         <v>-2.646016646848999</v>
       </c>
       <c r="D341" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E341">
         <v>9.308115338882274</v>
@@ -18638,7 +18644,7 @@
         <v>-9.121415898188509</v>
       </c>
       <c r="D342" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E342">
         <v>3.792162618009769</v>
@@ -18688,7 +18694,7 @@
         <v>-8.59683700961601</v>
       </c>
       <c r="D343" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E343">
         <v>3.792162618009769</v>
@@ -18738,7 +18744,7 @@
         <v>-12.89770073310627</v>
       </c>
       <c r="D344" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E344">
         <v>0.3317647274577595</v>
@@ -18788,7 +18794,7 @@
         <v>-14.09288737405897</v>
       </c>
       <c r="D345" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E345">
         <v>-0.7634443237574615</v>
@@ -18838,7 +18844,7 @@
         <v>59.56360813550708</v>
       </c>
       <c r="D346" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E346">
         <v>75.18159673719033</v>
@@ -18888,7 +18894,7 @@
         <v>60.31956868780029</v>
       </c>
       <c r="D347" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E347">
         <v>76.03992694760657</v>
@@ -18938,7 +18944,7 @@
         <v>62.79431714399279</v>
       </c>
       <c r="D348" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E348">
         <v>77.62631903124894</v>
@@ -18988,7 +18994,7 @@
         <v>64.08298118239738</v>
       </c>
       <c r="D349" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E349">
         <v>79.11665728256037</v>
@@ -19038,7 +19044,7 @@
         <v>64.68906100731142</v>
       </c>
       <c r="D350" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E350">
         <v>79.81758779625406</v>
@@ -19088,7 +19094,7 @@
         <v>66.03163316666149</v>
       </c>
       <c r="D351" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E351">
         <v>81.37027071794273</v>
@@ -19138,7 +19144,7 @@
         <v>65.93064756206419</v>
       </c>
       <c r="D352" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E352">
         <v>81.25348100015911</v>
@@ -19188,7 +19194,7 @@
         <v>64.84418812133572</v>
       </c>
       <c r="D353" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E353">
         <v>80.16577874075962</v>
@@ -19238,7 +19244,7 @@
         <v>63.26616721431549</v>
       </c>
       <c r="D354" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E354">
         <v>79.97190339753475</v>
@@ -19288,7 +19294,7 @@
         <v>61.66554474645639</v>
       </c>
       <c r="D355" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E355">
         <v>78.05285470927927</v>
@@ -19338,7 +19344,7 @@
         <v>60.62679073828761</v>
       </c>
       <c r="D356" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E356">
         <v>76.80745202574536</v>
@@ -19388,7 +19394,7 @@
         <v>59.7052486970962</v>
       </c>
       <c r="D357" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E357">
         <v>75.70257933975458</v>
@@ -19438,7 +19444,7 @@
         <v>50.59926427854958</v>
       </c>
       <c r="D358" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E358">
         <v>64.78505955942813</v>
@@ -19488,7 +19494,7 @@
         <v>54.80887863487924</v>
       </c>
       <c r="D359" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E359">
         <v>72.15232554251514</v>
@@ -19538,7 +19544,7 @@
         <v>22.63799956449154</v>
       </c>
       <c r="D360" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E360">
         <v>34.76775640560354</v>
@@ -19588,7 +19594,7 @@
         <v>21.94224021195173</v>
       </c>
       <c r="D361" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E361">
         <v>34.09962025316457</v>
@@ -19638,7 +19644,7 @@
         <v>21.49005400241875</v>
       </c>
       <c r="D362" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E362">
         <v>33.11192987695436</v>
@@ -19688,10 +19694,10 @@
         <v>20.6287291557878</v>
       </c>
       <c r="D363" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E363">
-        <v>32.1976697125811</v>
+        <v>33.1903090762459</v>
       </c>
       <c r="F363">
         <v>1</v>
@@ -19700,10 +19706,10 @@
         <v>0.1401712708442122</v>
       </c>
       <c r="H363">
-        <v>0.1456023302874189</v>
+        <v>0.1536096909237541</v>
       </c>
       <c r="I363">
-        <v>11.56894055679329</v>
+        <v>12.5615799204581</v>
       </c>
       <c r="J363">
         <v>0.2922800530279325</v>
@@ -19715,10 +19721,10 @@
         <v>80.40000000000001</v>
       </c>
       <c r="M363">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="N363">
-        <v>88.90000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="O363">
         <v>1</v>
@@ -20179,63 +20185,63 @@
     </row>
     <row r="373" spans="1:16">
       <c r="A373" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B373" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C373">
-        <v>8.066617110777202</v>
+        <v>10.88525375719482</v>
       </c>
       <c r="D373" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E373">
-        <v>20.60412942273109</v>
+        <v>21.96162940390666</v>
       </c>
       <c r="F373">
         <v>1</v>
       </c>
       <c r="G373">
-        <v>0.1631333828892228</v>
+        <v>0.1519147462428052</v>
       </c>
       <c r="H373">
-        <v>0.1673958705772689</v>
+        <v>0.1640383705960933</v>
       </c>
       <c r="I373">
-        <v>12.53751231195389</v>
+        <v>11.07637564671184</v>
       </c>
       <c r="J373">
-        <v>0.3597836793003378</v>
+        <v>0.3490829021921049</v>
       </c>
       <c r="K373">
-        <v>215.5</v>
+        <v>202</v>
       </c>
       <c r="L373">
-        <v>85.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="M373">
-        <v>204</v>
+        <v>203.5</v>
       </c>
       <c r="N373">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O373">
         <v>1</v>
       </c>
       <c r="P373" t="s">
-        <v>134</v>
+        <v>467</v>
       </c>
     </row>
     <row r="374" spans="1:16">
       <c r="A374" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B374" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C374">
-        <v>8.364994705529739</v>
+        <v>8.066617110777202</v>
       </c>
       <c r="D374" t="s">
         <v>250</v>
@@ -20247,22 +20253,22 @@
         <v>1</v>
       </c>
       <c r="G374">
-        <v>0.1580350052944703</v>
+        <v>0.1631333828892228</v>
       </c>
       <c r="H374">
         <v>0.1673958705772689</v>
       </c>
       <c r="I374">
-        <v>12.23913471720135</v>
+        <v>12.53751231195389</v>
       </c>
       <c r="J374">
         <v>0.3597836793003378</v>
       </c>
       <c r="K374">
-        <v>208</v>
+        <v>215.5</v>
       </c>
       <c r="L374">
-        <v>83.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M374">
         <v>204</v>
@@ -20279,13 +20285,13 @@
     </row>
     <row r="375" spans="1:16">
       <c r="A375" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B375" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C375">
-        <v>8.723696781331768</v>
+        <v>8.364994705529739</v>
       </c>
       <c r="D375" t="s">
         <v>250</v>
@@ -20297,22 +20303,22 @@
         <v>1</v>
       </c>
       <c r="G375">
-        <v>0.1540763032186682</v>
+        <v>0.1580350052944703</v>
       </c>
       <c r="H375">
         <v>0.1673958705772689</v>
       </c>
       <c r="I375">
-        <v>11.88043264139932</v>
+        <v>12.23913471720135</v>
       </c>
       <c r="J375">
         <v>0.3597836793003378</v>
       </c>
       <c r="K375">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L375">
-        <v>81.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="M375">
         <v>204</v>
@@ -20329,52 +20335,52 @@
     </row>
     <row r="376" spans="1:16">
       <c r="A376" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B376" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C376">
-        <v>-3.424244140274368</v>
+        <v>8.723696781331768</v>
       </c>
       <c r="D376" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E376">
-        <v>10.72424068728326</v>
+        <v>20.60412942273109</v>
       </c>
       <c r="F376">
         <v>1</v>
       </c>
       <c r="G376">
-        <v>0.1690242441402744</v>
+        <v>0.1540763032186682</v>
       </c>
       <c r="H376">
-        <v>0.1852757593127167</v>
+        <v>0.1673958705772689</v>
       </c>
       <c r="I376">
-        <v>14.14848482755762</v>
+        <v>11.88043264139932</v>
       </c>
       <c r="J376">
-        <v>0.4206060689769481</v>
+        <v>0.3597836793003378</v>
       </c>
       <c r="K376">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L376">
-        <v>82.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="M376">
-        <v>207.5</v>
+        <v>204</v>
       </c>
       <c r="N376">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O376">
         <v>1</v>
       </c>
       <c r="P376" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="377" spans="1:16">
@@ -20382,37 +20388,37 @@
         <v>0</v>
       </c>
       <c r="B377" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C377">
-        <v>-2.10269534440512</v>
+        <v>-3.424244140274368</v>
       </c>
       <c r="D377" t="s">
         <v>251</v>
       </c>
       <c r="E377">
-        <v>10.74605227334604</v>
+        <v>10.72424068728326</v>
       </c>
       <c r="F377">
         <v>1</v>
       </c>
       <c r="G377">
-        <v>0.1703026953444051</v>
+        <v>0.1690242441402744</v>
       </c>
       <c r="H377">
-        <v>0.185253947726654</v>
+        <v>0.1852757593127167</v>
       </c>
       <c r="I377">
-        <v>12.84874761775116</v>
+        <v>14.14848482755762</v>
       </c>
       <c r="J377">
-        <v>0.4205009528995372</v>
+        <v>0.4206060689769481</v>
       </c>
       <c r="K377">
         <v>205</v>
       </c>
       <c r="L377">
-        <v>84.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="M377">
         <v>207.5</v>
@@ -20424,7 +20430,7 @@
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>468</v>
+        <v>135</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -20432,49 +20438,49 @@
         <v>0</v>
       </c>
       <c r="B378" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C378">
-        <v>13.16161645214643</v>
+        <v>-2.10269534440512</v>
       </c>
       <c r="D378" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E378">
-        <v>9.280369598044189</v>
+        <v>10.74605227334604</v>
       </c>
       <c r="F378">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G378">
-        <v>0.1634383835478536</v>
+        <v>0.1703026953444051</v>
       </c>
       <c r="H378">
-        <v>0.1683196304019558</v>
+        <v>0.185253947726654</v>
       </c>
       <c r="I378">
-        <v>3.881246854102244</v>
+        <v>12.84874761775116</v>
       </c>
       <c r="J378">
-        <v>0.4381246854102249</v>
+        <v>0.4205009528995372</v>
       </c>
       <c r="K378">
-        <v>171.5</v>
+        <v>205</v>
       </c>
       <c r="L378">
-        <v>88.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="M378">
-        <v>181.5</v>
+        <v>207.5</v>
       </c>
       <c r="N378">
-        <v>88.8</v>
+        <v>98</v>
       </c>
       <c r="O378">
         <v>1</v>
       </c>
       <c r="P378" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="379" spans="1:16">
@@ -20482,49 +20488,157 @@
         <v>0</v>
       </c>
       <c r="B379" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C379">
-        <v>-22.13366154788019</v>
+        <v>13.16161645214643</v>
       </c>
       <c r="D379" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E379">
-        <v>-26.74300800979539</v>
+        <v>9.280369598044189</v>
       </c>
       <c r="F379">
         <v>-1</v>
       </c>
       <c r="G379">
-        <v>0.1983336615478802</v>
+        <v>0.1634383835478536</v>
       </c>
       <c r="H379">
+        <v>0.1683196304019558</v>
+      </c>
+      <c r="I379">
+        <v>3.881246854102244</v>
+      </c>
+      <c r="J379">
+        <v>0.4381246854102249</v>
+      </c>
+      <c r="K379">
+        <v>171.5</v>
+      </c>
+      <c r="L379">
+        <v>88.3</v>
+      </c>
+      <c r="M379">
+        <v>181.5</v>
+      </c>
+      <c r="N379">
+        <v>88.8</v>
+      </c>
+      <c r="O379">
+        <v>1</v>
+      </c>
+      <c r="P379" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16">
+      <c r="A380" s="1">
+        <v>0</v>
+      </c>
+      <c r="B380" t="s">
+        <v>141</v>
+      </c>
+      <c r="C380">
+        <v>-21.82338146012957</v>
+      </c>
+      <c r="D380" t="s">
+        <v>253</v>
+      </c>
+      <c r="E380">
+        <v>-26.74300800979539</v>
+      </c>
+      <c r="F380">
+        <v>-1</v>
+      </c>
+      <c r="G380">
+        <v>0.2024233814601296</v>
+      </c>
+      <c r="H380">
         <v>0.2025430080097954</v>
       </c>
-      <c r="I379">
-        <v>4.609346461915194</v>
-      </c>
-      <c r="J379">
+      <c r="I380">
+        <v>4.919626549665821</v>
+      </c>
+      <c r="J380">
         <v>0.6299066374164582</v>
       </c>
-      <c r="K379">
-        <v>175</v>
-      </c>
-      <c r="L379">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="M379">
+      <c r="K380">
+        <v>178</v>
+      </c>
+      <c r="L380">
+        <v>90.3</v>
+      </c>
+      <c r="M380">
         <v>182</v>
       </c>
-      <c r="N379">
+      <c r="N380">
         <v>87.90000000000001</v>
       </c>
-      <c r="O379">
-        <v>1</v>
-      </c>
-      <c r="P379" t="s">
+      <c r="O380">
+        <v>1</v>
+      </c>
+      <c r="P380" t="s">
         <v>470</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16">
+      <c r="A381" s="1">
+        <v>0</v>
+      </c>
+      <c r="B381" t="s">
+        <v>142</v>
+      </c>
+      <c r="C381">
+        <v>32.20533098261782</v>
+      </c>
+      <c r="F381">
+        <v>-1</v>
+      </c>
+      <c r="G381">
+        <v>0.1503946690173822</v>
+      </c>
+      <c r="J381">
+        <v>0.3283037167632343</v>
+      </c>
+      <c r="K381">
+        <v>180</v>
+      </c>
+      <c r="L381">
+        <v>91.3</v>
+      </c>
+      <c r="P381" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16">
+      <c r="A382" s="1">
+        <v>0</v>
+      </c>
+      <c r="B382" t="s">
+        <v>142</v>
+      </c>
+      <c r="C382">
+        <v>30.11806288540985</v>
+      </c>
+      <c r="F382">
+        <v>-1</v>
+      </c>
+      <c r="G382">
+        <v>0.1524819371145902</v>
+      </c>
+      <c r="J382">
+        <v>0.3398996506366119</v>
+      </c>
+      <c r="K382">
+        <v>180</v>
+      </c>
+      <c r="L382">
+        <v>91.3</v>
+      </c>
+      <c r="P382" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-2474-2382-800.xlsx
+++ b/s60_signal/position-2474-2382-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="474">
   <si>
     <t>trade_time</t>
   </si>
@@ -409,12 +409,12 @@
     <t>2020-12-24</t>
   </si>
   <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
     <t>2021-01-04</t>
   </si>
   <si>
-    <t>2020-12-29</t>
-  </si>
-  <si>
     <t>2021-01-19</t>
   </si>
   <si>
@@ -757,12 +757,12 @@
     <t>2021-02-17</t>
   </si>
   <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
     <t>2021-03-23</t>
   </si>
   <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
     <t>2021-03-25</t>
   </si>
   <si>
@@ -776,6 +776,9 @@
   </si>
   <si>
     <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
   </si>
   <si>
     <t>2010-08-03</t>
@@ -1790,7 +1793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P382"/>
+  <dimension ref="A1:P383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1890,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1940,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1990,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2040,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2090,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2140,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2190,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2240,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2290,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2340,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2390,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2440,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2490,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2540,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2590,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2640,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2690,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2740,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2790,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2840,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2890,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2940,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2990,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3040,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3090,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3140,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3169,7 +3172,7 @@
         <v>59.3</v>
       </c>
       <c r="P28" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3198,7 +3201,7 @@
         <v>65.5</v>
       </c>
       <c r="P29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3248,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3298,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3327,7 +3330,7 @@
         <v>69.40000000000001</v>
       </c>
       <c r="P32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3377,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3427,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3477,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3506,7 +3509,7 @@
         <v>68.40000000000001</v>
       </c>
       <c r="P36" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3535,7 +3538,7 @@
         <v>70.09999999999999</v>
       </c>
       <c r="P37" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3585,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3635,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3685,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3735,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3785,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3835,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3885,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3935,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3985,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -4035,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -4085,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4135,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4185,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4235,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4285,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4335,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4585,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4685,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4735,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4785,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4835,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4985,7 +4988,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5035,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -5085,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5135,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5185,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5235,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5285,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5335,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5385,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5435,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5485,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5535,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5585,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5635,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5685,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5735,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5785,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5835,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5885,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5935,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5985,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6035,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -6185,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6235,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6285,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6335,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6385,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6435,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6485,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6535,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6585,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6635,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6685,7 +6688,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6735,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6785,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6835,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6885,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6935,7 +6938,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6985,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -7035,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -7085,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -7135,7 +7138,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7185,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7235,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7285,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7335,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7385,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7435,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7485,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7535,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7585,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7635,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7735,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7785,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7835,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7885,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="P124" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7935,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="P125" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7985,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="P126" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -8035,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -8085,7 +8088,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -8135,7 +8138,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -8185,7 +8188,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8235,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="P131" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -8285,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="P132" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -8435,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="P135" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8485,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8535,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="P137" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8585,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8635,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8685,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8735,7 +8738,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8785,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8835,7 +8838,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8885,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8935,7 +8938,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8985,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -9035,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -9085,7 +9088,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -9135,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9185,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9235,7 +9238,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9335,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9435,7 +9438,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9485,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9535,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9585,7 +9588,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9635,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9685,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9735,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9785,7 +9788,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9835,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9885,7 +9888,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9935,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9985,7 +9988,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -10035,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -10235,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -10285,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -10335,7 +10338,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10385,7 +10388,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10435,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10485,7 +10488,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10535,7 +10538,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10585,7 +10588,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10635,7 +10638,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10664,7 +10667,7 @@
         <v>71.40000000000001</v>
       </c>
       <c r="P180" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10693,7 +10696,7 @@
         <v>72.09999999999999</v>
       </c>
       <c r="P181" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10793,7 +10796,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10843,7 +10846,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10893,7 +10896,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10943,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10993,7 +10996,7 @@
         <v>0</v>
       </c>
       <c r="P187" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -11043,7 +11046,7 @@
         <v>0</v>
       </c>
       <c r="P188" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -11093,7 +11096,7 @@
         <v>0</v>
       </c>
       <c r="P189" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11143,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="P190" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11193,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="P191" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11243,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="P192" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11293,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="P193" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11343,7 +11346,7 @@
         <v>0</v>
       </c>
       <c r="P194" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11393,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11443,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11493,7 +11496,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11543,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="P198" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11593,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11643,7 +11646,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11743,7 +11746,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11793,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11843,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11943,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11993,7 +11996,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -12043,7 +12046,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -12093,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12193,7 +12196,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12243,7 +12246,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12293,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12343,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12393,7 +12396,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12443,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12493,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12543,7 +12546,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12593,7 +12596,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12643,7 +12646,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12693,7 +12696,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12743,7 +12746,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12893,7 +12896,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12993,7 +12996,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -13193,7 +13196,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -13243,7 +13246,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13293,7 +13296,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13343,7 +13346,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13393,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13443,7 +13446,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13493,7 +13496,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13543,7 +13546,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13593,7 +13596,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13643,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13693,7 +13696,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13743,7 +13746,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13793,7 +13796,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -13843,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="P244" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13893,7 +13896,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13943,7 +13946,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13972,7 +13975,7 @@
         <v>59.4</v>
       </c>
       <c r="P247" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -14022,7 +14025,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -14072,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -14122,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -14151,7 +14154,7 @@
         <v>59.5</v>
       </c>
       <c r="P251" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -14201,7 +14204,7 @@
         <v>0</v>
       </c>
       <c r="P252" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14251,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="P253" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14301,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="P254" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14351,7 +14354,7 @@
         <v>0</v>
       </c>
       <c r="P255" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14401,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="P256" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14451,7 +14454,7 @@
         <v>0</v>
       </c>
       <c r="P257" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14501,7 +14504,7 @@
         <v>0</v>
       </c>
       <c r="P258" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14551,7 +14554,7 @@
         <v>0</v>
       </c>
       <c r="P259" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14601,7 +14604,7 @@
         <v>0</v>
       </c>
       <c r="P260" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -14651,7 +14654,7 @@
         <v>0</v>
       </c>
       <c r="P261" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -14701,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="P262" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -14751,7 +14754,7 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -14801,7 +14804,7 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -14851,7 +14854,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -14901,7 +14904,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -14951,7 +14954,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -15001,7 +15004,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -15051,7 +15054,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15101,7 +15104,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15151,7 +15154,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -15251,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15301,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15351,7 +15354,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15551,7 +15554,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15651,7 +15654,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15701,7 +15704,7 @@
         <v>0</v>
       </c>
       <c r="P282" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15751,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="P283" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -15801,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="P284" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -15851,7 +15854,7 @@
         <v>0</v>
       </c>
       <c r="P285" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -16351,7 +16354,7 @@
         <v>0</v>
       </c>
       <c r="P295" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -16401,7 +16404,7 @@
         <v>0</v>
       </c>
       <c r="P296" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -16451,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="P297" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16501,7 +16504,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -16551,7 +16554,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -16601,7 +16604,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -16651,7 +16654,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -16701,7 +16704,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -16801,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="P304" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -16851,7 +16854,7 @@
         <v>0</v>
       </c>
       <c r="P305" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -16901,7 +16904,7 @@
         <v>0</v>
       </c>
       <c r="P306" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -16951,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="P307" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -17001,7 +17004,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -17051,7 +17054,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -17101,7 +17104,7 @@
         <v>1</v>
       </c>
       <c r="P310" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -17151,7 +17154,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -17201,7 +17204,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17251,7 +17254,7 @@
         <v>1</v>
       </c>
       <c r="P313" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -17301,7 +17304,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -17351,7 +17354,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17401,7 +17404,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17451,7 +17454,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17501,7 +17504,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17551,7 +17554,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17601,7 +17604,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -17651,7 +17654,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -17701,7 +17704,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -17751,7 +17754,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -17801,7 +17804,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -17851,7 +17854,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -17901,7 +17904,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -17951,7 +17954,7 @@
         <v>1</v>
       </c>
       <c r="P327" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -18001,7 +18004,7 @@
         <v>1</v>
       </c>
       <c r="P328" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -18051,7 +18054,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -18080,7 +18083,7 @@
         <v>64.5</v>
       </c>
       <c r="P330" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -18130,7 +18133,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -18180,7 +18183,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -18230,7 +18233,7 @@
         <v>1</v>
       </c>
       <c r="P333" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -18280,7 +18283,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -18330,7 +18333,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -18380,7 +18383,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -18430,7 +18433,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -18480,7 +18483,7 @@
         <v>1</v>
       </c>
       <c r="P338" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -18530,7 +18533,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -18580,7 +18583,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -18630,7 +18633,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -18680,7 +18683,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -18730,7 +18733,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -18780,7 +18783,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -18830,7 +18833,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -18880,7 +18883,7 @@
         <v>1</v>
       </c>
       <c r="P346" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -18930,7 +18933,7 @@
         <v>1</v>
       </c>
       <c r="P347" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -18980,7 +18983,7 @@
         <v>1</v>
       </c>
       <c r="P348" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -19030,7 +19033,7 @@
         <v>1</v>
       </c>
       <c r="P349" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -19080,7 +19083,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -19130,7 +19133,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -19180,7 +19183,7 @@
         <v>1</v>
       </c>
       <c r="P352" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="353" spans="1:16">
@@ -19230,7 +19233,7 @@
         <v>1</v>
       </c>
       <c r="P353" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="354" spans="1:16">
@@ -19280,7 +19283,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -19330,7 +19333,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -19380,7 +19383,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19430,7 +19433,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19480,7 +19483,7 @@
         <v>1</v>
       </c>
       <c r="P358" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -19530,7 +19533,7 @@
         <v>1</v>
       </c>
       <c r="P359" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="360" spans="1:16">
@@ -19580,7 +19583,7 @@
         <v>1</v>
       </c>
       <c r="P360" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -19630,7 +19633,7 @@
         <v>1</v>
       </c>
       <c r="P361" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="362" spans="1:16">
@@ -19641,40 +19644,40 @@
         <v>131</v>
       </c>
       <c r="C362">
-        <v>21.49005400241875</v>
+        <v>21.6518845469621</v>
       </c>
       <c r="D362" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E362">
-        <v>33.11192987695436</v>
+        <v>33.16829145286381</v>
       </c>
       <c r="F362">
         <v>1</v>
       </c>
       <c r="G362">
-        <v>0.1407099459975812</v>
+        <v>0.1391481154530379</v>
       </c>
       <c r="H362">
-        <v>0.1442880701230456</v>
+        <v>0.1446317085471362</v>
       </c>
       <c r="I362">
-        <v>11.62187587453561</v>
+        <v>11.5164069059017</v>
       </c>
       <c r="J362">
         <v>0.2872768481811144</v>
       </c>
       <c r="K362">
-        <v>207.5</v>
+        <v>204.5</v>
       </c>
       <c r="L362">
-        <v>81.09999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="M362">
-        <v>193.5</v>
+        <v>194</v>
       </c>
       <c r="N362">
-        <v>88.7</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="O362">
         <v>1</v>
@@ -19685,52 +19688,52 @@
     </row>
     <row r="363" spans="1:16">
       <c r="A363" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B363" t="s">
         <v>132</v>
       </c>
       <c r="C363">
-        <v>20.6287291557878</v>
+        <v>21.49005400241875</v>
       </c>
       <c r="D363" t="s">
         <v>247</v>
       </c>
       <c r="E363">
-        <v>33.1903090762459</v>
+        <v>33.16829145286381</v>
       </c>
       <c r="F363">
         <v>1</v>
       </c>
       <c r="G363">
-        <v>0.1401712708442122</v>
+        <v>0.1407099459975812</v>
       </c>
       <c r="H363">
-        <v>0.1536096909237541</v>
+        <v>0.1446317085471362</v>
       </c>
       <c r="I363">
-        <v>12.5615799204581</v>
+        <v>11.67823745044505</v>
       </c>
       <c r="J363">
-        <v>0.2922800530279325</v>
+        <v>0.2872768481811144</v>
       </c>
       <c r="K363">
-        <v>204.5</v>
+        <v>207.5</v>
       </c>
       <c r="L363">
-        <v>80.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="M363">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="N363">
-        <v>93.40000000000001</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="O363">
         <v>1</v>
       </c>
       <c r="P363" t="s">
-        <v>463</v>
+        <v>130</v>
       </c>
     </row>
     <row r="364" spans="1:16">
@@ -19738,31 +19741,31 @@
         <v>0</v>
       </c>
       <c r="B364" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C364">
-        <v>18.55332655028487</v>
+        <v>20.6287291557878</v>
       </c>
       <c r="D364" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E364">
-        <v>31.09968346874662</v>
+        <v>33.1903090762459</v>
       </c>
       <c r="F364">
         <v>1</v>
       </c>
       <c r="G364">
-        <v>0.1422466734497151</v>
+        <v>0.1401712708442122</v>
       </c>
       <c r="H364">
-        <v>0.1557003165312534</v>
+        <v>0.1536096909237541</v>
       </c>
       <c r="I364">
-        <v>12.54635691846175</v>
+        <v>12.5615799204581</v>
       </c>
       <c r="J364">
-        <v>0.3024287210255019</v>
+        <v>0.2922800530279325</v>
       </c>
       <c r="K364">
         <v>204.5</v>
@@ -19788,37 +19791,37 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C365">
-        <v>15.37197148226591</v>
+        <v>18.55332655028487</v>
       </c>
       <c r="D365" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E365">
-        <v>26.81839483339797</v>
+        <v>31.09968346874662</v>
       </c>
       <c r="F365">
         <v>1</v>
       </c>
       <c r="G365">
-        <v>0.1498280285177341</v>
+        <v>0.1422466734497151</v>
       </c>
       <c r="H365">
-        <v>0.159981605166602</v>
+        <v>0.1557003165312534</v>
       </c>
       <c r="I365">
-        <v>11.44642335113207</v>
+        <v>12.54635691846175</v>
       </c>
       <c r="J365">
-        <v>0.3232116755660293</v>
+        <v>0.3024287210255019</v>
       </c>
       <c r="K365">
-        <v>208</v>
+        <v>204.5</v>
       </c>
       <c r="L365">
-        <v>82.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="M365">
         <v>206</v>
@@ -19841,28 +19844,28 @@
         <v>133</v>
       </c>
       <c r="C366">
-        <v>14.44543186753303</v>
+        <v>15.37197148226591</v>
       </c>
       <c r="D366" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E366">
-        <v>25.90076425342215</v>
+        <v>26.81839483339797</v>
       </c>
       <c r="F366">
         <v>1</v>
       </c>
       <c r="G366">
-        <v>0.150754568132467</v>
+        <v>0.1498280285177341</v>
       </c>
       <c r="H366">
-        <v>0.1608992357465779</v>
+        <v>0.159981605166602</v>
       </c>
       <c r="I366">
-        <v>11.45533238588912</v>
+        <v>11.44642335113207</v>
       </c>
       <c r="J366">
-        <v>0.3276661929445527</v>
+        <v>0.3232116755660293</v>
       </c>
       <c r="K366">
         <v>208</v>
@@ -19880,7 +19883,7 @@
         <v>1</v>
       </c>
       <c r="P366" t="s">
-        <v>131</v>
+        <v>466</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -19888,187 +19891,187 @@
         <v>0</v>
       </c>
       <c r="B367" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C367">
-        <v>13.45577889447236</v>
+        <v>14.44543186753303</v>
       </c>
       <c r="D367" t="s">
         <v>248</v>
       </c>
       <c r="E367">
-        <v>24.42984924623116</v>
+        <v>25.90076425342215</v>
       </c>
       <c r="F367">
         <v>1</v>
       </c>
       <c r="G367">
-        <v>0.1543442211055276</v>
+        <v>0.150754568132467</v>
       </c>
       <c r="H367">
-        <v>0.1629701507537689</v>
+        <v>0.1608992357465779</v>
       </c>
       <c r="I367">
-        <v>10.9740703517588</v>
+        <v>11.45533238588912</v>
       </c>
       <c r="J367">
-        <v>0.335448671931084</v>
+        <v>0.3276661929445527</v>
       </c>
       <c r="K367">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L367">
-        <v>83.90000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="M367">
-        <v>206.5</v>
+        <v>206</v>
       </c>
       <c r="N367">
-        <v>93.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="O367">
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>466</v>
+        <v>132</v>
       </c>
     </row>
     <row r="368" spans="1:16">
       <c r="A368" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B368" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C368">
-        <v>13.31081119885138</v>
+        <v>13.45577889447236</v>
       </c>
       <c r="D368" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E368">
-        <v>24.42984924623116</v>
+        <v>24.7361952620244</v>
       </c>
       <c r="F368">
         <v>1</v>
       </c>
       <c r="G368">
-        <v>0.1578891888011486</v>
+        <v>0.1543442211055276</v>
       </c>
       <c r="H368">
-        <v>0.1629701507537689</v>
+        <v>0.1612638047379756</v>
       </c>
       <c r="I368">
-        <v>11.11903804737977</v>
+        <v>11.28041636755204</v>
       </c>
       <c r="J368">
         <v>0.335448671931084</v>
       </c>
       <c r="K368">
-        <v>215.5</v>
+        <v>210</v>
       </c>
       <c r="L368">
-        <v>85.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M368">
-        <v>206.5</v>
+        <v>203.5</v>
       </c>
       <c r="N368">
-        <v>93.7</v>
+        <v>93</v>
       </c>
       <c r="O368">
         <v>1</v>
       </c>
       <c r="P368" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="369" spans="1:16">
       <c r="A369" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B369" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C369">
-        <v>13.42667623833452</v>
+        <v>13.31081119885138</v>
       </c>
       <c r="D369" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E369">
-        <v>24.42984924623116</v>
+        <v>24.7361952620244</v>
       </c>
       <c r="F369">
         <v>1</v>
       </c>
       <c r="G369">
-        <v>0.1529733237616655</v>
+        <v>0.1578891888011486</v>
       </c>
       <c r="H369">
-        <v>0.1629701507537689</v>
+        <v>0.1612638047379756</v>
       </c>
       <c r="I369">
-        <v>11.00317300789663</v>
+        <v>11.42538406317301</v>
       </c>
       <c r="J369">
         <v>0.335448671931084</v>
       </c>
       <c r="K369">
-        <v>208</v>
+        <v>215.5</v>
       </c>
       <c r="L369">
-        <v>83.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M369">
-        <v>206.5</v>
+        <v>203.5</v>
       </c>
       <c r="N369">
-        <v>93.7</v>
+        <v>93</v>
       </c>
       <c r="O369">
         <v>1</v>
       </c>
       <c r="P369" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="370" spans="1:16">
       <c r="A370" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B370" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C370">
-        <v>10.59259053965798</v>
+        <v>13.42667623833452</v>
       </c>
       <c r="D370" t="s">
         <v>249</v>
       </c>
       <c r="E370">
-        <v>21.96162940390666</v>
+        <v>24.7361952620244</v>
       </c>
       <c r="F370">
         <v>1</v>
       </c>
       <c r="G370">
-        <v>0.157207409460342</v>
+        <v>0.1529733237616655</v>
       </c>
       <c r="H370">
-        <v>0.1640383705960933</v>
+        <v>0.1612638047379756</v>
       </c>
       <c r="I370">
-        <v>11.36903886424868</v>
+        <v>11.30951902368987</v>
       </c>
       <c r="J370">
-        <v>0.3490829021921049</v>
+        <v>0.335448671931084</v>
       </c>
       <c r="K370">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L370">
-        <v>83.90000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="M370">
         <v>203.5</v>
@@ -20085,13 +20088,13 @@
     </row>
     <row r="371" spans="1:16">
       <c r="A371" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B371" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C371">
-        <v>10.37263457760139</v>
+        <v>10.59259053965798</v>
       </c>
       <c r="D371" t="s">
         <v>249</v>
@@ -20103,22 +20106,22 @@
         <v>1</v>
       </c>
       <c r="G371">
-        <v>0.1608273654223986</v>
+        <v>0.157207409460342</v>
       </c>
       <c r="H371">
         <v>0.1640383705960933</v>
       </c>
       <c r="I371">
-        <v>11.58899482630527</v>
+        <v>11.36903886424868</v>
       </c>
       <c r="J371">
         <v>0.3490829021921049</v>
       </c>
       <c r="K371">
-        <v>215.5</v>
+        <v>210</v>
       </c>
       <c r="L371">
-        <v>85.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M371">
         <v>203.5</v>
@@ -20130,18 +20133,18 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="372" spans="1:16">
       <c r="A372" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B372" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C372">
-        <v>10.59075634404218</v>
+        <v>10.37263457760139</v>
       </c>
       <c r="D372" t="s">
         <v>249</v>
@@ -20153,22 +20156,22 @@
         <v>1</v>
       </c>
       <c r="G372">
-        <v>0.1558092436559578</v>
+        <v>0.1608273654223986</v>
       </c>
       <c r="H372">
         <v>0.1640383705960933</v>
       </c>
       <c r="I372">
-        <v>11.37087305986448</v>
+        <v>11.58899482630527</v>
       </c>
       <c r="J372">
         <v>0.3490829021921049</v>
       </c>
       <c r="K372">
-        <v>208</v>
+        <v>215.5</v>
       </c>
       <c r="L372">
-        <v>83.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M372">
         <v>203.5</v>
@@ -20180,18 +20183,18 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="373" spans="1:16">
       <c r="A373" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B373" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C373">
-        <v>10.88525375719482</v>
+        <v>10.59075634404218</v>
       </c>
       <c r="D373" t="s">
         <v>249</v>
@@ -20203,22 +20206,22 @@
         <v>1</v>
       </c>
       <c r="G373">
-        <v>0.1519147462428052</v>
+        <v>0.1558092436559578</v>
       </c>
       <c r="H373">
         <v>0.1640383705960933</v>
       </c>
       <c r="I373">
-        <v>11.07637564671184</v>
+        <v>11.37087305986448</v>
       </c>
       <c r="J373">
         <v>0.3490829021921049</v>
       </c>
       <c r="K373">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L373">
-        <v>81.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="M373">
         <v>203.5</v>
@@ -20230,68 +20233,68 @@
         <v>1</v>
       </c>
       <c r="P373" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="374" spans="1:16">
       <c r="A374" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B374" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C374">
-        <v>8.066617110777202</v>
+        <v>10.88525375719482</v>
       </c>
       <c r="D374" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E374">
-        <v>20.60412942273109</v>
+        <v>21.96162940390666</v>
       </c>
       <c r="F374">
         <v>1</v>
       </c>
       <c r="G374">
-        <v>0.1631333828892228</v>
+        <v>0.1519147462428052</v>
       </c>
       <c r="H374">
-        <v>0.1673958705772689</v>
+        <v>0.1640383705960933</v>
       </c>
       <c r="I374">
-        <v>12.53751231195389</v>
+        <v>11.07637564671184</v>
       </c>
       <c r="J374">
-        <v>0.3597836793003378</v>
+        <v>0.3490829021921049</v>
       </c>
       <c r="K374">
-        <v>215.5</v>
+        <v>202</v>
       </c>
       <c r="L374">
-        <v>85.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="M374">
-        <v>204</v>
+        <v>203.5</v>
       </c>
       <c r="N374">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O374">
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>134</v>
+        <v>468</v>
       </c>
     </row>
     <row r="375" spans="1:16">
       <c r="A375" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B375" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C375">
-        <v>8.364994705529739</v>
+        <v>8.066617110777202</v>
       </c>
       <c r="D375" t="s">
         <v>250</v>
@@ -20303,22 +20306,22 @@
         <v>1</v>
       </c>
       <c r="G375">
-        <v>0.1580350052944703</v>
+        <v>0.1631333828892228</v>
       </c>
       <c r="H375">
         <v>0.1673958705772689</v>
       </c>
       <c r="I375">
-        <v>12.23913471720135</v>
+        <v>12.53751231195389</v>
       </c>
       <c r="J375">
         <v>0.3597836793003378</v>
       </c>
       <c r="K375">
-        <v>208</v>
+        <v>215.5</v>
       </c>
       <c r="L375">
-        <v>83.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M375">
         <v>204</v>
@@ -20335,13 +20338,13 @@
     </row>
     <row r="376" spans="1:16">
       <c r="A376" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B376" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C376">
-        <v>8.723696781331768</v>
+        <v>8.364994705529739</v>
       </c>
       <c r="D376" t="s">
         <v>250</v>
@@ -20353,22 +20356,22 @@
         <v>1</v>
       </c>
       <c r="G376">
-        <v>0.1540763032186682</v>
+        <v>0.1580350052944703</v>
       </c>
       <c r="H376">
         <v>0.1673958705772689</v>
       </c>
       <c r="I376">
-        <v>11.88043264139932</v>
+        <v>12.23913471720135</v>
       </c>
       <c r="J376">
         <v>0.3597836793003378</v>
       </c>
       <c r="K376">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L376">
-        <v>81.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="M376">
         <v>204</v>
@@ -20385,52 +20388,52 @@
     </row>
     <row r="377" spans="1:16">
       <c r="A377" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B377" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C377">
-        <v>-3.424244140274368</v>
+        <v>8.723696781331768</v>
       </c>
       <c r="D377" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E377">
-        <v>10.72424068728326</v>
+        <v>20.60412942273109</v>
       </c>
       <c r="F377">
         <v>1</v>
       </c>
       <c r="G377">
-        <v>0.1690242441402744</v>
+        <v>0.1540763032186682</v>
       </c>
       <c r="H377">
-        <v>0.1852757593127167</v>
+        <v>0.1673958705772689</v>
       </c>
       <c r="I377">
-        <v>14.14848482755762</v>
+        <v>11.88043264139932</v>
       </c>
       <c r="J377">
-        <v>0.4206060689769481</v>
+        <v>0.3597836793003378</v>
       </c>
       <c r="K377">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L377">
-        <v>82.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="M377">
-        <v>207.5</v>
+        <v>204</v>
       </c>
       <c r="N377">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O377">
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -20438,37 +20441,37 @@
         <v>0</v>
       </c>
       <c r="B378" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C378">
-        <v>-2.10269534440512</v>
+        <v>-3.424244140274368</v>
       </c>
       <c r="D378" t="s">
         <v>251</v>
       </c>
       <c r="E378">
-        <v>10.74605227334604</v>
+        <v>10.72424068728326</v>
       </c>
       <c r="F378">
         <v>1</v>
       </c>
       <c r="G378">
-        <v>0.1703026953444051</v>
+        <v>0.1690242441402744</v>
       </c>
       <c r="H378">
-        <v>0.185253947726654</v>
+        <v>0.1852757593127167</v>
       </c>
       <c r="I378">
-        <v>12.84874761775116</v>
+        <v>14.14848482755762</v>
       </c>
       <c r="J378">
-        <v>0.4205009528995372</v>
+        <v>0.4206060689769481</v>
       </c>
       <c r="K378">
         <v>205</v>
       </c>
       <c r="L378">
-        <v>84.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="M378">
         <v>207.5</v>
@@ -20480,7 +20483,7 @@
         <v>1</v>
       </c>
       <c r="P378" t="s">
-        <v>468</v>
+        <v>135</v>
       </c>
     </row>
     <row r="379" spans="1:16">
@@ -20488,43 +20491,43 @@
         <v>0</v>
       </c>
       <c r="B379" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C379">
-        <v>13.16161645214643</v>
+        <v>-2.10269534440512</v>
       </c>
       <c r="D379" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E379">
-        <v>9.280369598044189</v>
+        <v>10.74605227334604</v>
       </c>
       <c r="F379">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G379">
-        <v>0.1634383835478536</v>
+        <v>0.1703026953444051</v>
       </c>
       <c r="H379">
-        <v>0.1683196304019558</v>
+        <v>0.185253947726654</v>
       </c>
       <c r="I379">
-        <v>3.881246854102244</v>
+        <v>12.84874761775116</v>
       </c>
       <c r="J379">
-        <v>0.4381246854102249</v>
+        <v>0.4205009528995372</v>
       </c>
       <c r="K379">
-        <v>171.5</v>
+        <v>205</v>
       </c>
       <c r="L379">
-        <v>88.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="M379">
-        <v>181.5</v>
+        <v>207.5</v>
       </c>
       <c r="N379">
-        <v>88.8</v>
+        <v>98</v>
       </c>
       <c r="O379">
         <v>1</v>
@@ -20538,43 +20541,43 @@
         <v>0</v>
       </c>
       <c r="B380" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C380">
-        <v>-21.82338146012957</v>
+        <v>13.16161645214643</v>
       </c>
       <c r="D380" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E380">
-        <v>-26.74300800979539</v>
+        <v>9.280369598044189</v>
       </c>
       <c r="F380">
         <v>-1</v>
       </c>
       <c r="G380">
-        <v>0.2024233814601296</v>
+        <v>0.1634383835478536</v>
       </c>
       <c r="H380">
-        <v>0.2025430080097954</v>
+        <v>0.1683196304019558</v>
       </c>
       <c r="I380">
-        <v>4.919626549665821</v>
+        <v>3.881246854102244</v>
       </c>
       <c r="J380">
-        <v>0.6299066374164582</v>
+        <v>0.4381246854102249</v>
       </c>
       <c r="K380">
-        <v>178</v>
+        <v>171.5</v>
       </c>
       <c r="L380">
-        <v>90.3</v>
+        <v>88.3</v>
       </c>
       <c r="M380">
-        <v>182</v>
+        <v>181.5</v>
       </c>
       <c r="N380">
-        <v>87.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="O380">
         <v>1</v>
@@ -20588,25 +20591,46 @@
         <v>0</v>
       </c>
       <c r="B381" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C381">
-        <v>32.20533098261782</v>
+        <v>-21.82338146012957</v>
+      </c>
+      <c r="D381" t="s">
+        <v>253</v>
+      </c>
+      <c r="E381">
+        <v>-26.74300800979539</v>
       </c>
       <c r="F381">
         <v>-1</v>
       </c>
       <c r="G381">
-        <v>0.1503946690173822</v>
+        <v>0.2024233814601296</v>
+      </c>
+      <c r="H381">
+        <v>0.2025430080097954</v>
+      </c>
+      <c r="I381">
+        <v>4.919626549665821</v>
       </c>
       <c r="J381">
-        <v>0.3283037167632343</v>
+        <v>0.6299066374164582</v>
       </c>
       <c r="K381">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L381">
-        <v>91.3</v>
+        <v>90.3</v>
+      </c>
+      <c r="M381">
+        <v>182</v>
+      </c>
+      <c r="N381">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="O381">
+        <v>1</v>
       </c>
       <c r="P381" t="s">
         <v>471</v>
@@ -20620,16 +20644,28 @@
         <v>142</v>
       </c>
       <c r="C382">
-        <v>30.11806288540985</v>
+        <v>32.20533098261782</v>
+      </c>
+      <c r="D382" t="s">
+        <v>254</v>
+      </c>
+      <c r="E382">
+        <v>32.04872354909135</v>
       </c>
       <c r="F382">
         <v>-1</v>
       </c>
       <c r="G382">
-        <v>0.1524819371145902</v>
+        <v>0.1503946690173822</v>
+      </c>
+      <c r="H382">
+        <v>0.1515512764509086</v>
+      </c>
+      <c r="I382">
+        <v>0.1566074335264673</v>
       </c>
       <c r="J382">
-        <v>0.3398996506366119</v>
+        <v>0.3283037167632343</v>
       </c>
       <c r="K382">
         <v>180</v>
@@ -20637,8 +20673,67 @@
       <c r="L382">
         <v>91.3</v>
       </c>
+      <c r="M382">
+        <v>182</v>
+      </c>
+      <c r="N382">
+        <v>91.8</v>
+      </c>
+      <c r="O382">
+        <v>0</v>
+      </c>
       <c r="P382" t="s">
         <v>472</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16">
+      <c r="A383" s="1">
+        <v>0</v>
+      </c>
+      <c r="B383" t="s">
+        <v>142</v>
+      </c>
+      <c r="C383">
+        <v>30.11806288540985</v>
+      </c>
+      <c r="D383" t="s">
+        <v>254</v>
+      </c>
+      <c r="E383">
+        <v>29.93826358413663</v>
+      </c>
+      <c r="F383">
+        <v>-1</v>
+      </c>
+      <c r="G383">
+        <v>0.1524819371145902</v>
+      </c>
+      <c r="H383">
+        <v>0.1536617364158634</v>
+      </c>
+      <c r="I383">
+        <v>0.1797993012732206</v>
+      </c>
+      <c r="J383">
+        <v>0.3398996506366119</v>
+      </c>
+      <c r="K383">
+        <v>180</v>
+      </c>
+      <c r="L383">
+        <v>91.3</v>
+      </c>
+      <c r="M383">
+        <v>182</v>
+      </c>
+      <c r="N383">
+        <v>91.8</v>
+      </c>
+      <c r="O383">
+        <v>0</v>
+      </c>
+      <c r="P383" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-2474-2382-800.xlsx
+++ b/s60_signal/position-2474-2382-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="473">
   <si>
     <t>trade_time</t>
   </si>
@@ -409,10 +409,13 @@
     <t>2020-12-24</t>
   </si>
   <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
     <t>2020-12-29</t>
   </si>
   <si>
-    <t>2021-01-04</t>
+    <t>2020-12-31</t>
   </si>
   <si>
     <t>2021-01-19</t>
@@ -757,12 +760,12 @@
     <t>2021-02-17</t>
   </si>
   <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
     <t>2021-03-23</t>
   </si>
   <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
     <t>2021-03-25</t>
   </si>
   <si>
@@ -778,7 +781,7 @@
     <t>2021-05-24</t>
   </si>
   <si>
-    <t>2021-07-13</t>
+    <t>2021-07-14</t>
   </si>
   <si>
     <t>2010-08-03</t>
@@ -1414,9 +1417,6 @@
     <t>2020-12-28</t>
   </si>
   <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
     <t>2021-01-05</t>
   </si>
   <si>
@@ -1433,9 +1433,6 @@
   </si>
   <si>
     <t>2021-06-17</t>
-  </si>
-  <si>
-    <t>2021-06-18</t>
   </si>
 </sst>
 </file>
@@ -1793,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P383"/>
+  <dimension ref="A1:P384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1857,7 +1854,7 @@
         <v>39.24967816269653</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2">
         <v>47.58658728904034</v>
@@ -1893,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1907,7 +1904,7 @@
         <v>41.7045814878046</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E3">
         <v>51.36624085194781</v>
@@ -1943,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1957,7 +1954,7 @@
         <v>47.73273319613877</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E4">
         <v>59.43490802303255</v>
@@ -1993,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2007,7 +2004,7 @@
         <v>47.24820828667414</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E5">
         <v>58.87563172501095</v>
@@ -2043,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2057,7 +2054,7 @@
         <v>47.16470096247878</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E6">
         <v>58.77924108291729</v>
@@ -2093,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2107,7 +2104,7 @@
         <v>-15.1664654510749</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E7">
         <v>-7.294892481790129</v>
@@ -2143,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2157,7 +2154,7 @@
         <v>-14.45834344229912</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E8">
         <v>-7.294892481790129</v>
@@ -2193,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2207,7 +2204,7 @@
         <v>-13.39336737209288</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E9">
         <v>-7.294892481790129</v>
@@ -2243,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2257,7 +2254,7 @@
         <v>-16.33245230627455</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E10">
         <v>-7.294892481790129</v>
@@ -2293,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2307,7 +2304,7 @@
         <v>-29.63643996743208</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E11">
         <v>-21.37792699357366</v>
@@ -2343,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2357,7 +2354,7 @@
         <v>-29.01030081710592</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E12">
         <v>-21.37792699357366</v>
@@ -2393,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2407,7 +2404,7 @@
         <v>-28.60118761449661</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E13">
         <v>-21.37792699357366</v>
@@ -2443,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2457,7 +2454,7 @@
         <v>-49.08464630848418</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E14">
         <v>-42.77667080227592</v>
@@ -2493,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2507,7 +2504,7 @@
         <v>-48.56869529606767</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E15">
         <v>-42.77667080227592</v>
@@ -2543,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2557,7 +2554,7 @@
         <v>-49.0410871967355</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E16">
         <v>-42.77667080227592</v>
@@ -2593,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2607,7 +2604,7 @@
         <v>-65.70804604683664</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E17">
         <v>-56.94115587886895</v>
@@ -2643,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2657,7 +2654,7 @@
         <v>-65.6116252316011</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E18">
         <v>-56.94115587886895</v>
@@ -2693,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2707,7 +2704,7 @@
         <v>-79.57406496333017</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E19">
         <v>-67.54165070713992</v>
@@ -2743,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2757,7 +2754,7 @@
         <v>-113.1125372679468</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E20">
         <v>-103.9345101187686</v>
@@ -2793,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2807,7 +2804,7 @@
         <v>-150.4700278614179</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E21">
         <v>-141.3269680910878</v>
@@ -2843,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2857,7 +2854,7 @@
         <v>-191.2456393652701</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E22">
         <v>-165.2314426418361</v>
@@ -2893,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2907,7 +2904,7 @@
         <v>-208.9753900042601</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E23">
         <v>-181.8698454183375</v>
@@ -2943,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2957,7 +2954,7 @@
         <v>-222.2487414251906</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E24">
         <v>-206.4607237347662</v>
@@ -2993,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3007,7 +3004,7 @@
         <v>-239.7112109310854</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E25">
         <v>-219.5184020745525</v>
@@ -3043,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3057,7 +3054,7 @@
         <v>-263.1154559964206</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E26">
         <v>-240.6747187530921</v>
@@ -3093,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3107,7 +3104,7 @@
         <v>-268.6224791106823</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E27">
         <v>-252.6279978948062</v>
@@ -3143,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3172,7 +3169,7 @@
         <v>59.3</v>
       </c>
       <c r="P28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3201,7 +3198,7 @@
         <v>65.5</v>
       </c>
       <c r="P29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3215,7 +3212,7 @@
         <v>-254.0793405031437</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E30">
         <v>-235.7082244929039</v>
@@ -3251,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3265,7 +3262,7 @@
         <v>-238.7059320352077</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E31">
         <v>-223.7765478327873</v>
@@ -3301,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3330,7 +3327,7 @@
         <v>69.40000000000001</v>
       </c>
       <c r="P32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3380,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3394,7 +3391,7 @@
         <v>-85.8076603763717</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E34">
         <v>-85.31060902491748</v>
@@ -3430,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3444,7 +3441,7 @@
         <v>-78.41701518144652</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E35">
         <v>-77.28396586589429</v>
@@ -3480,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3509,7 +3506,7 @@
         <v>68.40000000000001</v>
       </c>
       <c r="P36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3538,7 +3535,7 @@
         <v>70.09999999999999</v>
       </c>
       <c r="P37" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3552,7 +3549,7 @@
         <v>-77.43890142953504</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E38">
         <v>-86.03210595388953</v>
@@ -3588,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3602,7 +3599,7 @@
         <v>-75.24842836769179</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E39">
         <v>-82.41442691778926</v>
@@ -3638,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3652,7 +3649,7 @@
         <v>-75.26941837884658</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E40">
         <v>-76.41687497573176</v>
@@ -3688,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3702,7 +3699,7 @@
         <v>2.405986219478436</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E41">
         <v>22.3137495724129</v>
@@ -3738,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3752,7 +3749,7 @@
         <v>-1.953147134466214</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E42">
         <v>19.32012787151115</v>
@@ -3788,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3802,7 +3799,7 @@
         <v>-16.2502130791469</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E43">
         <v>8.401660897453333</v>
@@ -3838,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3852,7 +3849,7 @@
         <v>-14.74859467309044</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E44">
         <v>8.401660897453333</v>
@@ -3888,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3902,7 +3899,7 @@
         <v>-29.86968571903745</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E45">
         <v>-0.9514709154835543</v>
@@ -3938,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3952,7 +3949,7 @@
         <v>60.63454015125168</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E46">
         <v>75.91925407409063</v>
@@ -3988,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -4002,7 +3999,7 @@
         <v>61.36441721922468</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E47">
         <v>75.91925407409063</v>
@@ -4038,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -4052,7 +4049,7 @@
         <v>89.12505313226613</v>
       </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E48">
         <v>73.92461224371841</v>
@@ -4088,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4102,7 +4099,7 @@
         <v>60.18080332327113</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E49">
         <v>75.16419394721952</v>
@@ -4138,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4152,7 +4149,7 @@
         <v>60.90367287266527</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E50">
         <v>75.16419394721952</v>
@@ -4188,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4202,7 +4199,7 @@
         <v>88.41554187615753</v>
       </c>
       <c r="D51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E51">
         <v>73.33247692380556</v>
@@ -4238,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4252,7 +4249,7 @@
         <v>39.99810912339372</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E52">
         <v>55.15583755182445</v>
@@ -4288,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4302,7 +4299,7 @@
         <v>41.30719414984996</v>
       </c>
       <c r="D53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E53">
         <v>55.15583755182445</v>
@@ -4338,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4352,7 +4349,7 @@
         <v>43.08151977105167</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E54">
         <v>55.9485635535138</v>
@@ -4388,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4402,7 +4399,7 @@
         <v>42.16532004667869</v>
       </c>
       <c r="D55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E55">
         <v>55.9485635535138</v>
@@ -4438,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4452,7 +4449,7 @@
         <v>42.55008107334416</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E56">
         <v>56.30400099154195</v>
@@ -4502,7 +4499,7 @@
         <v>43.58368103616133</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E57">
         <v>56.30400099154195</v>
@@ -4552,7 +4549,7 @@
         <v>44.27504780738504</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E58">
         <v>56.96559598792828</v>
@@ -4588,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4602,7 +4599,7 @@
         <v>44.76828997217422</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E59">
         <v>57.43759805949687</v>
@@ -4652,7 +4649,7 @@
         <v>46.95250922066406</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E60">
         <v>58.6275946856681</v>
@@ -4688,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4702,7 +4699,7 @@
         <v>47.37813227189867</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E61">
         <v>59.01897220404476</v>
@@ -4738,7 +4735,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4752,7 +4749,7 @@
         <v>48.93720072957618</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E62">
         <v>59.68207127489522</v>
@@ -4788,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4802,7 +4799,7 @@
         <v>48.94662890110423</v>
       </c>
       <c r="D63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E63">
         <v>59.69094484809811</v>
@@ -4838,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4852,7 +4849,7 @@
         <v>54.08932335660573</v>
       </c>
       <c r="D64" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E64">
         <v>62.52278850035134</v>
@@ -4902,7 +4899,7 @@
         <v>67.18932335660573</v>
       </c>
       <c r="D65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E65">
         <v>59.01736085156006</v>
@@ -4952,7 +4949,7 @@
         <v>54.27142458878302</v>
       </c>
       <c r="D66" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E66">
         <v>62.70264156916842</v>
@@ -4988,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5002,7 +4999,7 @@
         <v>67.37142458878301</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E67">
         <v>59.17608118479113</v>
@@ -5038,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -5052,7 +5049,7 @@
         <v>54.44666418857609</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E68">
         <v>57.92296041603655</v>
@@ -5088,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5102,7 +5099,7 @@
         <v>54.38623819452964</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E69">
         <v>62.81603772299223</v>
@@ -5138,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5152,7 +5149,7 @@
         <v>54.68320045790918</v>
       </c>
       <c r="D70" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E70">
         <v>62.81603772299223</v>
@@ -5188,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5202,7 +5199,7 @@
         <v>67.48623819452963</v>
       </c>
       <c r="D71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E71">
         <v>59.27615329054065</v>
@@ -5238,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5252,7 +5249,7 @@
         <v>54.5181037654851</v>
       </c>
       <c r="D72" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E72">
         <v>55.68274527440479</v>
@@ -5288,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5302,7 +5299,7 @@
         <v>101.1269386779503</v>
       </c>
       <c r="D73" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E73">
         <v>83.94100067443752</v>
@@ -5338,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5352,7 +5349,7 @@
         <v>75.45009517739128</v>
       </c>
       <c r="D74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E74">
         <v>80.27451240300203</v>
@@ -5388,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5402,7 +5399,7 @@
         <v>121.9136696617972</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E75">
         <v>104.5517569407011</v>
@@ -5438,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5452,7 +5449,7 @@
         <v>124.0730248787269</v>
       </c>
       <c r="D76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E76">
         <v>106.3319083146578</v>
@@ -5488,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5502,7 +5499,7 @@
         <v>125.8987716223492</v>
       </c>
       <c r="D77" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E77">
         <v>107.8370361179367</v>
@@ -5538,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5552,7 +5549,7 @@
         <v>127.8315078706938</v>
       </c>
       <c r="D78" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E78">
         <v>102.3788447068554</v>
@@ -5588,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5602,7 +5599,7 @@
         <v>127.8608026942557</v>
       </c>
       <c r="D79" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E79">
         <v>102.3788447068554</v>
@@ -5638,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5652,7 +5649,7 @@
         <v>126.3344628429377</v>
       </c>
       <c r="D80" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E80">
         <v>101.3477167540643</v>
@@ -5688,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5702,7 +5699,7 @@
         <v>126.3293867347399</v>
       </c>
       <c r="D81" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E81">
         <v>101.3477167540643</v>
@@ -5738,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5752,7 +5749,7 @@
         <v>126.0311094090764</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E82">
         <v>101.1387743378843</v>
@@ -5788,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5802,7 +5799,7 @@
         <v>126.0190685536726</v>
       </c>
       <c r="D83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E83">
         <v>101.1387743378843</v>
@@ -5838,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5852,7 +5849,7 @@
         <v>126.620958855311</v>
       </c>
       <c r="D84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E84">
         <v>101.5450481911581</v>
@@ -5888,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5902,7 +5899,7 @@
         <v>126.6224604616829</v>
       </c>
       <c r="D85" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E85">
         <v>101.5450481911581</v>
@@ -5938,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5952,7 +5949,7 @@
         <v>125.7796367080902</v>
       </c>
       <c r="D86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E86">
         <v>100.9655660999601</v>
@@ -5988,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6002,7 +5999,7 @@
         <v>125.7618222447556</v>
       </c>
       <c r="D87" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E87">
         <v>100.9655660999601</v>
@@ -6038,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -6052,7 +6049,7 @@
         <v>125.0669218669525</v>
       </c>
       <c r="D88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E88">
         <v>100.4746655716255</v>
@@ -6088,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6102,7 +6099,7 @@
         <v>125.0327440526733</v>
       </c>
       <c r="D89" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E89">
         <v>100.4746655716255</v>
@@ -6138,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6152,7 +6149,7 @@
         <v>123.2289469739378</v>
       </c>
       <c r="D90" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E90">
         <v>99.20871347694691</v>
@@ -6188,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6202,7 +6199,7 @@
         <v>123.1525707565027</v>
       </c>
       <c r="D91" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E91">
         <v>99.20871347694691</v>
@@ -6238,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6252,7 +6249,7 @@
         <v>122.9583501275863</v>
       </c>
       <c r="D92" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E92">
         <v>99.02233299604161</v>
@@ -6288,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6302,7 +6299,7 @@
         <v>122.8757612274544</v>
       </c>
       <c r="D93" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E93">
         <v>99.02233299604161</v>
@@ -6338,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6352,7 +6349,7 @@
         <v>124.3519741722009</v>
       </c>
       <c r="D94" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E94">
         <v>99.98222710840369</v>
@@ -6388,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6402,7 +6399,7 @@
         <v>124.3013817424811</v>
       </c>
       <c r="D95" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E95">
         <v>99.98222710840369</v>
@@ -6438,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6452,7 +6449,7 @@
         <v>124.6891745905705</v>
       </c>
       <c r="D96" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E96">
         <v>100.2144824986073</v>
@@ -6488,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6502,7 +6499,7 @@
         <v>124.6463240071908</v>
       </c>
       <c r="D97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E97">
         <v>100.2144824986073</v>
@@ -6538,7 +6535,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6552,7 +6549,7 @@
         <v>124.4800191586875</v>
       </c>
       <c r="D98" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E98">
         <v>100.0704213593001</v>
@@ -6588,7 +6585,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6602,7 +6599,7 @@
         <v>124.4323665373309</v>
       </c>
       <c r="D99" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E99">
         <v>100.0704213593001</v>
@@ -6638,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6652,7 +6649,7 @@
         <v>123.0108457893896</v>
       </c>
       <c r="D100" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E100">
         <v>99.05849072228368</v>
@@ -6688,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6702,7 +6699,7 @@
         <v>122.9294621467991</v>
       </c>
       <c r="D101" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E101">
         <v>99.05849072228368</v>
@@ -6738,7 +6735,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6752,7 +6749,7 @@
         <v>121.6453568496303</v>
       </c>
       <c r="D102" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E102">
         <v>98.11797538112289</v>
@@ -6788,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6802,7 +6799,7 @@
         <v>121.5326226956677</v>
       </c>
       <c r="D103" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E103">
         <v>98.11797538112289</v>
@@ -6838,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6852,7 +6849,7 @@
         <v>121.0299428079651</v>
       </c>
       <c r="D104" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E104">
         <v>97.69409326058823</v>
@@ -6888,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6902,7 +6899,7 @@
         <v>120.9030792499847</v>
       </c>
       <c r="D105" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E105">
         <v>97.69409326058823</v>
@@ -6938,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6952,7 +6949,7 @@
         <v>120.2680139970007</v>
       </c>
       <c r="D106" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E106">
         <v>97.169295355077</v>
@@ -6988,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -7002,7 +6999,7 @@
         <v>120.1236571755032</v>
       </c>
       <c r="D107" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E107">
         <v>97.169295355077</v>
@@ -7038,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -7052,7 +7049,7 @@
         <v>119.3894537106139</v>
       </c>
       <c r="D108" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E108">
         <v>96.56416454557592</v>
@@ -7088,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -7102,7 +7099,7 @@
         <v>119.2249258621331</v>
       </c>
       <c r="D109" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E109">
         <v>96.56416454557592</v>
@@ -7138,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7152,7 +7149,7 @@
         <v>118.0996069245826</v>
       </c>
       <c r="D110" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E110">
         <v>95.67574966744206</v>
@@ -7188,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7202,7 +7199,7 @@
         <v>117.9054652468306</v>
       </c>
       <c r="D111" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E111">
         <v>95.67574966744206</v>
@@ -7238,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7252,7 +7249,7 @@
         <v>117.1017444652623</v>
       </c>
       <c r="D112" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E112">
         <v>94.98844644291023</v>
@@ -7288,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7302,7 +7299,7 @@
         <v>116.8846926800259</v>
       </c>
       <c r="D113" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E113">
         <v>94.98844644291023</v>
@@ -7338,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7352,7 +7349,7 @@
         <v>115.7903395541055</v>
       </c>
       <c r="D114" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E114">
         <v>94.08518285614407</v>
@@ -7388,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7402,7 +7399,7 @@
         <v>115.5431789826436</v>
       </c>
       <c r="D115" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E115">
         <v>94.08518285614407</v>
@@ -7438,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7452,7 +7449,7 @@
         <v>114.3600161010092</v>
       </c>
       <c r="D116" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E116">
         <v>93.10001108998082</v>
@@ -7488,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7502,7 +7499,7 @@
         <v>114.0800164706752</v>
       </c>
       <c r="D117" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E117">
         <v>93.10001108998082</v>
@@ -7538,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7552,7 +7549,7 @@
         <v>112.9215721869154</v>
       </c>
       <c r="D118" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E118">
         <v>92.10924614915092</v>
@@ -7588,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7602,7 +7599,7 @@
         <v>112.6085470585538</v>
       </c>
       <c r="D119" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E119">
         <v>92.10924614915092</v>
@@ -7638,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7652,7 +7649,7 @@
         <v>111.0753114680939</v>
       </c>
       <c r="D120" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E120">
         <v>91.07689300844227</v>
@@ -7702,7 +7699,7 @@
         <v>109.3637030177276</v>
       </c>
       <c r="D121" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E121">
         <v>89.92443844086398</v>
@@ -7738,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7752,7 +7749,7 @@
         <v>106.6367917601738</v>
       </c>
       <c r="D122" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E122">
         <v>88.08836352929409</v>
@@ -7788,7 +7785,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7802,7 +7799,7 @@
         <v>99.96873044828921</v>
       </c>
       <c r="D123" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E123">
         <v>83.59864643650396</v>
@@ -7838,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7852,7 +7849,7 @@
         <v>39.91051382546476</v>
       </c>
       <c r="D124" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E124">
         <v>42.55014562583152</v>
@@ -7888,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="P124" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7902,7 +7899,7 @@
         <v>34.76754143004694</v>
       </c>
       <c r="D125" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E125">
         <v>38.11145388461416</v>
@@ -7938,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="P125" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7952,7 +7949,7 @@
         <v>27.87373902743889</v>
       </c>
       <c r="D126" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E126">
         <v>28.73232502982488</v>
@@ -7988,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="P126" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -8002,7 +7999,7 @@
         <v>52.34452590842368</v>
       </c>
       <c r="D127" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E127">
         <v>60.02089394070224</v>
@@ -8038,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -8052,7 +8049,7 @@
         <v>66.2681578761451</v>
       </c>
       <c r="D128" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E128">
         <v>59.00746128062423</v>
@@ -8088,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -8102,7 +8099,7 @@
         <v>65.90298372726488</v>
       </c>
       <c r="D129" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E129">
         <v>59.00746128062423</v>
@@ -8138,7 +8135,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -8152,7 +8149,7 @@
         <v>75.19054270184851</v>
       </c>
       <c r="D130" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E130">
         <v>82.88620847856147</v>
@@ -8188,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8202,7 +8199,7 @@
         <v>91.01410438583636</v>
       </c>
       <c r="D131" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E131">
         <v>85.34034548895417</v>
@@ -8238,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="P131" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -8252,7 +8249,7 @@
         <v>90.69117289103272</v>
       </c>
       <c r="D132" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E132">
         <v>85.34034548895417</v>
@@ -8288,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="P132" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -8302,7 +8299,7 @@
         <v>106.425283452306</v>
       </c>
       <c r="D133" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E133">
         <v>102.4841645631825</v>
@@ -8352,7 +8349,7 @@
         <v>106.7743510447031</v>
       </c>
       <c r="D134" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E134">
         <v>102.4841645631825</v>
@@ -8402,7 +8399,7 @@
         <v>64.83381773702186</v>
       </c>
       <c r="D135" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E135">
         <v>61.17785949472258</v>
@@ -8438,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="P135" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8452,7 +8449,7 @@
         <v>53.81062761975522</v>
       </c>
       <c r="D136" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E136">
         <v>45.81713512679965</v>
@@ -8488,7 +8485,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8502,7 +8499,7 @@
         <v>53.43128846396477</v>
       </c>
       <c r="D137" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E137">
         <v>47.7894228477703</v>
@@ -8538,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="P137" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8552,7 +8549,7 @@
         <v>48.70129852147022</v>
       </c>
       <c r="D138" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E138">
         <v>39.19252273181839</v>
@@ -8588,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8602,7 +8599,7 @@
         <v>44.87334693499027</v>
       </c>
       <c r="D139" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E139">
         <v>34.44403390958535</v>
@@ -8638,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8652,7 +8649,7 @@
         <v>40.45906823400685</v>
       </c>
       <c r="D140" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E140">
         <v>29.40254968722779</v>
@@ -8688,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8702,7 +8699,7 @@
         <v>37.79538016242914</v>
       </c>
       <c r="D141" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E141">
         <v>25.15160114518396</v>
@@ -8738,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8752,7 +8749,7 @@
         <v>37.68076952930594</v>
       </c>
       <c r="D142" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E142">
         <v>25.01802919408082</v>
@@ -8788,7 +8785,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8802,7 +8799,7 @@
         <v>63.15408222226404</v>
       </c>
       <c r="D143" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E143">
         <v>53.56243089690908</v>
@@ -8838,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8852,7 +8849,7 @@
         <v>31.1030054990203</v>
       </c>
       <c r="D144" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E144">
         <v>14.08734435244297</v>
@@ -8888,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8902,7 +8899,7 @@
         <v>25.05484991241799</v>
       </c>
       <c r="D145" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E145">
         <v>6.922187058405115</v>
@@ -8938,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8952,7 +8949,7 @@
         <v>18.81638310475921</v>
       </c>
       <c r="D146" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E146">
         <v>-0.4684290245420044</v>
@@ -8988,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -9002,7 +8999,7 @@
         <v>13.01676813424353</v>
       </c>
       <c r="D147" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E147">
         <v>-7.339144057179965</v>
@@ -9038,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -9052,7 +9049,7 @@
         <v>8.024396355482963</v>
       </c>
       <c r="D148" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E148">
         <v>-13.25353044372964</v>
@@ -9088,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -9102,7 +9099,7 @@
         <v>7.720504878426524</v>
       </c>
       <c r="D149" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E149">
         <v>-13.61354602240461</v>
@@ -9138,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9152,7 +9149,7 @@
         <v>10.31388326476601</v>
       </c>
       <c r="D150" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E150">
         <v>-10.54121036651594</v>
@@ -9188,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9202,7 +9199,7 @@
         <v>11.14758883248732</v>
       </c>
       <c r="D151" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E151">
         <v>-9.553532148900146</v>
@@ -9238,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9252,7 +9249,7 @@
         <v>20.84560393192861</v>
       </c>
       <c r="D152" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E152">
         <v>1.935557811248756</v>
@@ -9288,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9302,7 +9299,7 @@
         <v>21.43389351871438</v>
       </c>
       <c r="D153" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E153">
         <v>2.632495474873352</v>
@@ -9338,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9352,7 +9349,7 @@
         <v>22.6162561113628</v>
       </c>
       <c r="D154" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E154">
         <v>4.033222330128012</v>
@@ -9388,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9402,7 +9399,7 @@
         <v>23.86897930913528</v>
       </c>
       <c r="D155" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E155">
         <v>5.517304316678292</v>
@@ -9438,7 +9435,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9452,7 +9449,7 @@
         <v>24.29022509961407</v>
       </c>
       <c r="D156" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E156">
         <v>6.016347753146405</v>
@@ -9488,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9502,7 +9499,7 @@
         <v>80.77258742920839</v>
       </c>
       <c r="D157" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E157">
         <v>71.50140757768273</v>
@@ -9538,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9552,7 +9549,7 @@
         <v>80.87119828430862</v>
       </c>
       <c r="D158" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E158">
         <v>71.50140757768273</v>
@@ -9588,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9602,7 +9599,7 @@
         <v>82.15331534782203</v>
       </c>
       <c r="D159" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E159">
         <v>71.50140757768273</v>
@@ -9638,7 +9635,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9652,7 +9649,7 @@
         <v>76.19581669669289</v>
       </c>
       <c r="D160" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E160">
         <v>66.74547500154564</v>
@@ -9688,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9702,7 +9699,7 @@
         <v>75.21863715900577</v>
       </c>
       <c r="D161" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E161">
         <v>66.74547500154564</v>
@@ -9738,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9752,7 +9749,7 @@
         <v>77.89414970172665</v>
       </c>
       <c r="D162" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E162">
         <v>66.74547500154564</v>
@@ -9788,7 +9785,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9802,7 +9799,7 @@
         <v>60.11863715900578</v>
       </c>
       <c r="D163" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E163">
         <v>68.03744024109169</v>
@@ -9838,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9852,7 +9849,7 @@
         <v>72.44565132750211</v>
       </c>
       <c r="D164" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E164">
         <v>62.8485060058029</v>
@@ -9888,7 +9885,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9902,7 +9899,7 @@
         <v>71.50850914251097</v>
       </c>
       <c r="D165" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E165">
         <v>62.8485060058029</v>
@@ -9938,7 +9935,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9952,7 +9949,7 @@
         <v>74.40422712505978</v>
       </c>
       <c r="D166" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E166">
         <v>62.8485060058029</v>
@@ -9988,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -10002,7 +9999,7 @@
         <v>56.40850914251097</v>
       </c>
       <c r="D167" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E167">
         <v>64.59422790923679</v>
@@ -10038,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -10052,7 +10049,7 @@
         <v>67.88820949982238</v>
       </c>
       <c r="D168" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E168">
         <v>60.43722302948107</v>
@@ -10102,7 +10099,7 @@
         <v>70.99880138202717</v>
       </c>
       <c r="D169" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E169">
         <v>60.43722302948107</v>
@@ -10152,7 +10149,7 @@
         <v>52.78820949982239</v>
       </c>
       <c r="D170" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E170">
         <v>61.23438147825242</v>
@@ -10202,7 +10199,7 @@
         <v>64.41272601732022</v>
       </c>
       <c r="D171" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E171">
         <v>56.61794172047242</v>
@@ -10238,7 +10235,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -10252,7 +10249,7 @@
         <v>49.31272601732023</v>
       </c>
       <c r="D172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E172">
         <v>58.0089327786641</v>
@@ -10288,7 +10285,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -10302,7 +10299,7 @@
         <v>61.16879231159055</v>
       </c>
       <c r="D173" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E173">
         <v>53.82441738118666</v>
@@ -10338,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10352,7 +10349,7 @@
         <v>46.06879231159056</v>
       </c>
       <c r="D174" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E174">
         <v>54.08446933112747</v>
@@ -10388,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10402,7 +10399,7 @@
         <v>58.07192781203269</v>
       </c>
       <c r="D175" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E175">
         <v>50.68812094147531</v>
@@ -10438,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10452,7 +10449,7 @@
         <v>42.9719278120327</v>
       </c>
       <c r="D176" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E176">
         <v>51.29394934141796</v>
@@ -10488,7 +10485,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10502,7 +10499,7 @@
         <v>72.62623022483724</v>
       </c>
       <c r="D177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E177">
         <v>78.13274022613687</v>
@@ -10538,7 +10535,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10552,7 +10549,7 @@
         <v>72.14377020837516</v>
       </c>
       <c r="D178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E178">
         <v>78.53925022743653</v>
@@ -10588,7 +10585,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10602,7 +10599,7 @@
         <v>83.25643025082999</v>
       </c>
       <c r="D179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E179">
         <v>77.7759602547289</v>
@@ -10638,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10667,7 +10664,7 @@
         <v>71.40000000000001</v>
       </c>
       <c r="P180" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10696,7 +10693,7 @@
         <v>72.09999999999999</v>
       </c>
       <c r="P181" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10710,7 +10707,7 @@
         <v>66.25534327603719</v>
       </c>
       <c r="D182" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E182">
         <v>53.25789242985769</v>
@@ -10760,7 +10757,7 @@
         <v>66.50153349826817</v>
       </c>
       <c r="D183" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E183">
         <v>53.49926887679366</v>
@@ -10796,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10810,7 +10807,7 @@
         <v>65.13958707494101</v>
       </c>
       <c r="D184" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E184">
         <v>53.20617458032149</v>
@@ -10846,7 +10843,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10860,7 +10857,7 @@
         <v>65.2660759255686</v>
       </c>
       <c r="D185" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E185">
         <v>53.20617458032149</v>
@@ -10896,7 +10893,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10910,7 +10907,7 @@
         <v>63.88275361614285</v>
       </c>
       <c r="D186" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E186">
         <v>51.96525040581191</v>
@@ -10946,7 +10943,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10960,7 +10957,7 @@
         <v>82.52792611826956</v>
       </c>
       <c r="D187" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E187">
         <v>99.94767772279653</v>
@@ -10996,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="P187" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -11010,7 +11007,7 @@
         <v>80.81507949145069</v>
       </c>
       <c r="D188" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E188">
         <v>99.94767772279653</v>
@@ -11046,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="P188" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -11060,7 +11057,7 @@
         <v>82.55697724266327</v>
       </c>
       <c r="D189" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E189">
         <v>99.94767772279653</v>
@@ -11096,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="P189" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11110,7 +11107,7 @@
         <v>80.68386776738032</v>
       </c>
       <c r="D190" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E190">
         <v>99.94767772279653</v>
@@ -11146,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="P190" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11160,7 +11157,7 @@
         <v>83.46212404051099</v>
       </c>
       <c r="D191" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E191">
         <v>101.9293746430213</v>
@@ -11196,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="P191" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11210,7 +11207,7 @@
         <v>81.65627098338047</v>
       </c>
       <c r="D192" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E192">
         <v>101.9293746430213</v>
@@ -11246,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="P192" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11260,7 +11257,7 @@
         <v>83.46017302146748</v>
       </c>
       <c r="D193" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E193">
         <v>101.9293746430213</v>
@@ -11296,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="P193" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11310,7 +11307,7 @@
         <v>81.57259587924717</v>
       </c>
       <c r="D194" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E194">
         <v>101.9293746430213</v>
@@ -11346,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="P194" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11396,7 +11393,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11410,7 +11407,7 @@
         <v>33.77481800214022</v>
       </c>
       <c r="D196" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E196">
         <v>39.96346245740297</v>
@@ -11446,7 +11443,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11460,7 +11457,7 @@
         <v>24.63764534106641</v>
       </c>
       <c r="D197" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E197">
         <v>34.16939555445761</v>
@@ -11496,7 +11493,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11510,7 +11507,7 @@
         <v>43.28817453279771</v>
       </c>
       <c r="D198" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E198">
         <v>46.14425779500065</v>
@@ -11546,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="P198" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11560,7 +11557,7 @@
         <v>24.23598497532834</v>
       </c>
       <c r="D199" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E199">
         <v>33.03819935984974</v>
@@ -11596,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11610,7 +11607,7 @@
         <v>24.17071464201896</v>
       </c>
       <c r="D200" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E200">
         <v>33.03819935984974</v>
@@ -11646,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11660,7 +11657,7 @@
         <v>23.32366123264667</v>
       </c>
       <c r="D201" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E201">
         <v>32.29172372079252</v>
@@ -11710,7 +11707,7 @@
         <v>22.94912669441385</v>
       </c>
       <c r="D202" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E202">
         <v>31.49029169144093</v>
@@ -11746,7 +11743,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11760,7 +11757,7 @@
         <v>22.44844130251504</v>
       </c>
       <c r="D203" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E203">
         <v>30.75050022869873</v>
@@ -11796,7 +11793,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11810,7 +11807,7 @@
         <v>22.12056025614258</v>
       </c>
       <c r="D204" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E204">
         <v>30.75050022869873</v>
@@ -11846,7 +11843,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11860,7 +11857,7 @@
         <v>21.00936580829927</v>
       </c>
       <c r="D205" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E205">
         <v>29.75836232883863</v>
@@ -11910,7 +11907,7 @@
         <v>22.21712321587968</v>
       </c>
       <c r="D206" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E206">
         <v>29.83950116198865</v>
@@ -11946,7 +11943,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11960,7 +11957,7 @@
         <v>22.36605537346383</v>
       </c>
       <c r="D207" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E207">
         <v>29.99532225197207</v>
@@ -11996,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -12010,7 +12007,7 @@
         <v>21.71901729202467</v>
       </c>
       <c r="D208" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E208">
         <v>28.96097369076485</v>
@@ -12046,7 +12043,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -12060,7 +12057,7 @@
         <v>21.37743590654157</v>
       </c>
       <c r="D209" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E209">
         <v>28.96097369076485</v>
@@ -12096,7 +12093,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12110,7 +12107,7 @@
         <v>21.5505095382167</v>
       </c>
       <c r="D210" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E210">
         <v>29.1420529309536</v>
@@ -12160,7 +12157,7 @@
         <v>21.4477218260166</v>
       </c>
       <c r="D211" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E211">
         <v>29.03451072105261</v>
@@ -12196,7 +12193,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12210,7 +12207,7 @@
         <v>21.93200329930192</v>
       </c>
       <c r="D212" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E212">
         <v>29.03451072105261</v>
@@ -12246,7 +12243,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12260,7 +12257,7 @@
         <v>21.82005829590757</v>
       </c>
       <c r="D213" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E213">
         <v>29.42406980298699</v>
@@ -12296,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12310,7 +12307,7 @@
         <v>22.28137628646834</v>
       </c>
       <c r="D214" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E214">
         <v>29.42406980298699</v>
@@ -12346,7 +12343,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12360,7 +12357,7 @@
         <v>25.08434479788652</v>
       </c>
       <c r="D215" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E215">
         <v>32.83934753082841</v>
@@ -12396,7 +12393,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12410,7 +12407,7 @@
         <v>25.82576998567276</v>
       </c>
       <c r="D216" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E216">
         <v>32.83934753082841</v>
@@ -12446,7 +12443,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12460,7 +12457,7 @@
         <v>25.62576998567276</v>
       </c>
       <c r="D217" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E217">
         <v>32.83934753082841</v>
@@ -12496,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12510,7 +12507,7 @@
         <v>39.54291961010028</v>
       </c>
       <c r="D218" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E218">
         <v>32.24005830276027</v>
@@ -12546,7 +12543,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12560,7 +12557,7 @@
         <v>27.32311840696546</v>
       </c>
       <c r="D219" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E219">
         <v>35.18167674737576</v>
@@ -12596,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12610,7 +12607,7 @@
         <v>27.936331890267</v>
       </c>
       <c r="D220" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E220">
         <v>35.18167674737576</v>
@@ -12646,7 +12643,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12660,7 +12657,7 @@
         <v>27.736331890267</v>
       </c>
       <c r="D221" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E221">
         <v>35.18167674737576</v>
@@ -12696,7 +12693,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12710,7 +12707,7 @@
         <v>41.90990492366392</v>
       </c>
       <c r="D222" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E222">
         <v>34.44924459541966</v>
@@ -12746,7 +12743,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12760,7 +12757,7 @@
         <v>29.32582523799188</v>
       </c>
       <c r="D223" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E223">
         <v>36.94571726179005</v>
@@ -12810,7 +12807,7 @@
         <v>43.69251428559836</v>
       </c>
       <c r="D224" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E224">
         <v>36.11301333322514</v>
@@ -12860,7 +12857,7 @@
         <v>44.11030807122381</v>
       </c>
       <c r="D225" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E225">
         <v>36.50295419980888</v>
@@ -12896,7 +12893,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12910,7 +12907,7 @@
         <v>45.39200591893177</v>
       </c>
       <c r="D226" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E226">
         <v>37.69920552433632</v>
@@ -12960,7 +12957,7 @@
         <v>46.2461284866414</v>
       </c>
       <c r="D227" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E227">
         <v>38.49638658753197</v>
@@ -12996,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -13010,7 +13007,7 @@
         <v>46.90307634880546</v>
       </c>
       <c r="D228" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E228">
         <v>39.10953792555176</v>
@@ -13060,7 +13057,7 @@
         <v>33.83569560835785</v>
       </c>
       <c r="D229" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E229">
         <v>40.9206360962427</v>
@@ -13110,7 +13107,7 @@
         <v>46.73201951087134</v>
       </c>
       <c r="D230" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E230">
         <v>38.94988487681324</v>
@@ -13160,7 +13157,7 @@
         <v>33.22416759327695</v>
       </c>
       <c r="D231" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E231">
         <v>40.34408700115657</v>
@@ -13196,7 +13193,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -13210,7 +13207,7 @@
         <v>46.15305807647522</v>
       </c>
       <c r="D232" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E232">
         <v>38.40952087137686</v>
@@ -13246,7 +13243,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13260,7 +13257,7 @@
         <v>33.50490381338868</v>
       </c>
       <c r="D233" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E233">
         <v>40.17087450822464</v>
@@ -13296,7 +13293,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13310,7 +13307,7 @@
         <v>45.97912084507914</v>
       </c>
       <c r="D234" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E234">
         <v>38.24717945540719</v>
@@ -13346,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13360,7 +13357,7 @@
         <v>34.16379673036971</v>
       </c>
       <c r="D235" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E235">
         <v>40.85258622752538</v>
@@ -13396,7 +13393,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13410,7 +13407,7 @@
         <v>46.66368491466983</v>
       </c>
       <c r="D236" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E236">
         <v>38.8861059203585</v>
@@ -13446,7 +13443,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13460,7 +13457,7 @@
         <v>35.00523304555671</v>
       </c>
       <c r="D237" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E237">
         <v>41.72316319432058</v>
@@ -13496,7 +13493,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13510,7 +13507,7 @@
         <v>47.53790446291606</v>
       </c>
       <c r="D238" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E238">
         <v>39.70204416538832</v>
@@ -13546,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13560,7 +13557,7 @@
         <v>35.77509163864829</v>
       </c>
       <c r="D239" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E239">
         <v>42.51968355686988</v>
@@ -13596,7 +13593,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13610,7 +13607,7 @@
         <v>48.33775754664758</v>
       </c>
       <c r="D240" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E240">
         <v>40.4485737102044</v>
@@ -13646,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13660,7 +13657,7 @@
         <v>36.40438752667171</v>
       </c>
       <c r="D241" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E241">
         <v>43.17077324188112</v>
@@ -13696,7 +13693,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13710,7 +13707,7 @@
         <v>48.9915714562823</v>
       </c>
       <c r="D242" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E242">
         <v>41.05880002586348</v>
@@ -13746,7 +13743,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13760,7 +13757,7 @@
         <v>32.86635202836143</v>
       </c>
       <c r="D243" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E243">
         <v>23.40810673803942</v>
@@ -13796,7 +13793,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -13810,7 +13807,7 @@
         <v>14.22574367387871</v>
       </c>
       <c r="D244" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E244">
         <v>19.5340376774239</v>
@@ -13846,7 +13843,7 @@
         <v>0</v>
       </c>
       <c r="P244" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13860,7 +13857,7 @@
         <v>24.88800304387275</v>
       </c>
       <c r="D245" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E245">
         <v>11.91657154564347</v>
@@ -13896,7 +13893,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13910,7 +13907,7 @@
         <v>39.44906102636678</v>
       </c>
       <c r="D246" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E246">
         <v>28.36395585832523</v>
@@ -13946,7 +13943,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13975,7 +13972,7 @@
         <v>59.4</v>
       </c>
       <c r="P247" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13989,7 +13986,7 @@
         <v>36.85113379578714</v>
       </c>
       <c r="D248" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E248">
         <v>25.5208599983697</v>
@@ -14025,7 +14022,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -14039,7 +14036,7 @@
         <v>33.94646019309421</v>
       </c>
       <c r="D249" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E249">
         <v>22.34206984707826</v>
@@ -14075,7 +14072,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -14089,7 +14086,7 @@
         <v>33.30875742504994</v>
       </c>
       <c r="D250" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E250">
         <v>21.64418651979802</v>
@@ -14125,7 +14122,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -14154,7 +14151,7 @@
         <v>59.5</v>
       </c>
       <c r="P251" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -14204,7 +14201,7 @@
         <v>0</v>
       </c>
       <c r="P252" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14218,7 +14215,7 @@
         <v>9.926891175013289</v>
       </c>
       <c r="D253" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E253">
         <v>9.938904864210649</v>
@@ -14254,7 +14251,7 @@
         <v>0</v>
       </c>
       <c r="P253" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14268,7 +14265,7 @@
         <v>8.61566853605617</v>
       </c>
       <c r="D254" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E254">
         <v>9.007561895624264</v>
@@ -14304,7 +14301,7 @@
         <v>0</v>
       </c>
       <c r="P254" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14354,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="P255" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14368,7 +14365,7 @@
         <v>15.27625616990661</v>
       </c>
       <c r="D256" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E256">
         <v>13.96823074035395</v>
@@ -14404,7 +14401,7 @@
         <v>0</v>
       </c>
       <c r="P256" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14418,7 +14415,7 @@
         <v>14.49984262437423</v>
       </c>
       <c r="D257" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E257">
         <v>14.19011246930496</v>
@@ -14454,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="P257" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14468,7 +14465,7 @@
         <v>13.68984307357539</v>
       </c>
       <c r="D258" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E258">
         <v>15.44321014679792</v>
@@ -14504,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="P258" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14518,7 +14515,7 @@
         <v>14.26953725404694</v>
       </c>
       <c r="D259" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E259">
         <v>17.46734434330768</v>
@@ -14554,7 +14551,7 @@
         <v>0</v>
       </c>
       <c r="P259" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14568,7 +14565,7 @@
         <v>59.06263065139578</v>
       </c>
       <c r="D260" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E260">
         <v>59.07357361272927</v>
@@ -14604,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="P260" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -14618,7 +14615,7 @@
         <v>60.66257075424956</v>
       </c>
       <c r="D261" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E261">
         <v>61.38454095582109</v>
@@ -14654,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="P261" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -14668,7 +14665,7 @@
         <v>61.58779745865752</v>
       </c>
       <c r="D262" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E262">
         <v>62.08864679971672</v>
@@ -14704,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="P262" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -14754,7 +14751,7 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -14804,7 +14801,7 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -14854,7 +14851,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -14904,7 +14901,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -14954,7 +14951,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -15004,7 +15001,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -15054,7 +15051,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15104,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15154,7 +15151,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -15168,7 +15165,7 @@
         <v>-12.91711279591523</v>
       </c>
       <c r="D272" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E272">
         <v>-24.080705554696</v>
@@ -15218,7 +15215,7 @@
         <v>-13.89288092370901</v>
       </c>
       <c r="D273" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E273">
         <v>-24.64699491908532</v>
@@ -15254,7 +15251,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15268,7 +15265,7 @@
         <v>-13.4171424523624</v>
       </c>
       <c r="D274" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E274">
         <v>-24.64699491908532</v>
@@ -15304,7 +15301,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15318,7 +15315,7 @@
         <v>-7.909028461817627</v>
       </c>
       <c r="D275" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E275">
         <v>-18.4089921717041</v>
@@ -15354,7 +15351,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15368,7 +15365,7 @@
         <v>-3.803879058776658</v>
       </c>
       <c r="D276" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E276">
         <v>-13.75986303266694</v>
@@ -15418,7 +15415,7 @@
         <v>-7.200798160312672</v>
       </c>
       <c r="D277" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E277">
         <v>-16.37029482433257</v>
@@ -15468,7 +15465,7 @@
         <v>1.814674940949821</v>
       </c>
       <c r="D278" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E278">
         <v>-6.106103736501311</v>
@@ -15554,7 +15551,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15654,7 +15651,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15668,7 +15665,7 @@
         <v>68.89152801060949</v>
       </c>
       <c r="D282" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E282">
         <v>67.76768139345658</v>
@@ -15704,7 +15701,7 @@
         <v>0</v>
       </c>
       <c r="P282" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15718,7 +15715,7 @@
         <v>68.93096321131679</v>
       </c>
       <c r="D283" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E283">
         <v>67.76768139345658</v>
@@ -15754,7 +15751,7 @@
         <v>0</v>
       </c>
       <c r="P283" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -15768,7 +15765,7 @@
         <v>68.53130803182968</v>
       </c>
       <c r="D284" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E284">
         <v>67.76768139345658</v>
@@ -15804,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="P284" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -15818,7 +15815,7 @@
         <v>69.00549946949548</v>
       </c>
       <c r="D285" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E285">
         <v>67.76768139345658</v>
@@ -15854,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="P285" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -15868,7 +15865,7 @@
         <v>77.0344578684535</v>
       </c>
       <c r="D286" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E286">
         <v>79.16818364992574</v>
@@ -15918,7 +15915,7 @@
         <v>76.35596494832328</v>
       </c>
       <c r="D287" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E287">
         <v>79.16818364992574</v>
@@ -15968,7 +15965,7 @@
         <v>77.32922500711149</v>
       </c>
       <c r="D288" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E288">
         <v>79.16818364992574</v>
@@ -16018,7 +16015,7 @@
         <v>79.78847196430716</v>
       </c>
       <c r="D289" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E289">
         <v>84.66094269739213</v>
@@ -16054,7 +16051,7 @@
         <v>0</v>
       </c>
       <c r="P289" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16068,7 +16065,7 @@
         <v>79.029452316228</v>
       </c>
       <c r="D290" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E290">
         <v>84.66094269739213</v>
@@ -16104,7 +16101,7 @@
         <v>0</v>
       </c>
       <c r="P290" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -16118,7 +16115,7 @@
         <v>80.07787065443522</v>
       </c>
       <c r="D291" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E291">
         <v>84.66094269739213</v>
@@ -16154,7 +16151,7 @@
         <v>0</v>
       </c>
       <c r="P291" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -16204,7 +16201,7 @@
         <v>0</v>
       </c>
       <c r="P292" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -16254,7 +16251,7 @@
         <v>0</v>
       </c>
       <c r="P293" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -16304,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="P294" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -16318,7 +16315,7 @@
         <v>26.32548638029413</v>
       </c>
       <c r="D295" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E295">
         <v>26.99422663021349</v>
@@ -16354,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="P295" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -16368,7 +16365,7 @@
         <v>22.18948293316849</v>
       </c>
       <c r="D296" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E296">
         <v>24.84672272180288</v>
@@ -16404,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="P296" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -16418,7 +16415,7 @@
         <v>21.86052377863092</v>
       </c>
       <c r="D297" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E297">
         <v>24.84672272180288</v>
@@ -16454,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="P297" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16468,7 +16465,7 @@
         <v>40.77814878274022</v>
       </c>
       <c r="D298" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E298">
         <v>48.87821615334129</v>
@@ -16504,7 +16501,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -16518,7 +16515,7 @@
         <v>40.67981251944272</v>
       </c>
       <c r="D299" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E299">
         <v>48.87821615334129</v>
@@ -16554,7 +16551,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -16568,7 +16565,7 @@
         <v>56.75038402863819</v>
       </c>
       <c r="D300" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E300">
         <v>62.17870887338118</v>
@@ -16604,7 +16601,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -16618,7 +16615,7 @@
         <v>59.81014784804309</v>
       </c>
       <c r="D301" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E301">
         <v>65.19117101289457</v>
@@ -16654,7 +16651,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -16668,7 +16665,7 @@
         <v>60.36835189313004</v>
       </c>
       <c r="D302" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E302">
         <v>65.519432176365</v>
@@ -16704,7 +16701,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -16718,7 +16715,7 @@
         <v>61.49835591209959</v>
       </c>
       <c r="D303" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E303">
         <v>65.45054113973049</v>
@@ -16768,7 +16765,7 @@
         <v>61.74303834428476</v>
       </c>
       <c r="D304" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E304">
         <v>65.59070564276428</v>
@@ -16804,7 +16801,7 @@
         <v>0</v>
       </c>
       <c r="P304" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -16818,7 +16815,7 @@
         <v>62.08800405152936</v>
       </c>
       <c r="D305" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E305">
         <v>65.70367105582346</v>
@@ -16854,7 +16851,7 @@
         <v>0</v>
       </c>
       <c r="P305" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -16868,7 +16865,7 @@
         <v>62.52195117925444</v>
       </c>
       <c r="D306" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E306">
         <v>66.54562713332096</v>
@@ -16904,7 +16901,7 @@
         <v>0</v>
       </c>
       <c r="P306" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -16918,7 +16915,7 @@
         <v>63.12382871565654</v>
       </c>
       <c r="D307" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E307">
         <v>66.7862115872222</v>
@@ -16954,7 +16951,7 @@
         <v>0</v>
       </c>
       <c r="P307" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -16968,7 +16965,7 @@
         <v>63.43713576842169</v>
       </c>
       <c r="D308" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E308">
         <v>68.73084934526386</v>
@@ -17004,7 +17001,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -17018,7 +17015,7 @@
         <v>63.67236578705479</v>
       </c>
       <c r="D309" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E309">
         <v>68.98960236576026</v>
@@ -17054,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -17068,7 +17065,7 @@
         <v>63.92214730715632</v>
       </c>
       <c r="D310" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E310">
         <v>69.26436203787196</v>
@@ -17104,7 +17101,7 @@
         <v>1</v>
       </c>
       <c r="P310" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -17118,7 +17115,7 @@
         <v>64.84267428552164</v>
       </c>
       <c r="D311" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E311">
         <v>70.2769417140738</v>
@@ -17154,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -17168,7 +17165,7 @@
         <v>67.02639425410899</v>
       </c>
       <c r="D312" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E312">
         <v>72.67903367951989</v>
@@ -17204,7 +17201,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17218,7 +17215,7 @@
         <v>48.8201383647419</v>
       </c>
       <c r="D313" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E313">
         <v>53.28068312873989</v>
@@ -17254,7 +17251,7 @@
         <v>1</v>
       </c>
       <c r="P313" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -17268,7 +17265,7 @@
         <v>43.78661428769819</v>
       </c>
       <c r="D314" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E314">
         <v>49.20590413019019</v>
@@ -17304,7 +17301,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -17318,7 +17315,7 @@
         <v>43.50856722084519</v>
       </c>
       <c r="D315" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E315">
         <v>49.20590413019019</v>
@@ -17354,7 +17351,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17368,7 +17365,7 @@
         <v>38.43277181447034</v>
       </c>
       <c r="D316" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E316">
         <v>43.81134802598723</v>
@@ -17404,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17418,7 +17415,7 @@
         <v>39.10060265112747</v>
       </c>
       <c r="D317" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E317">
         <v>43.81134802598723</v>
@@ -17454,7 +17451,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17468,7 +17465,7 @@
         <v>28.12299460113455</v>
       </c>
       <c r="D318" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E318">
         <v>35.22229514558674</v>
@@ -17504,7 +17501,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17518,7 +17515,7 @@
         <v>27.81471186440677</v>
       </c>
       <c r="D319" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E319">
         <v>34.92338983050847</v>
@@ -17554,7 +17551,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17568,7 +17565,7 @@
         <v>31.34037664954478</v>
       </c>
       <c r="D320" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E320">
         <v>38.34181005944457</v>
@@ -17604,7 +17601,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -17618,7 +17615,7 @@
         <v>31.06966226989418</v>
       </c>
       <c r="D321" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E321">
         <v>38.07933033773011</v>
@@ -17654,7 +17651,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -17668,7 +17665,7 @@
         <v>30.73117805425061</v>
       </c>
       <c r="D322" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E322">
         <v>37.75114221990079</v>
@@ -17704,7 +17701,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -17718,7 +17715,7 @@
         <v>30.23209518986696</v>
       </c>
       <c r="D323" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E323">
         <v>37.26724058333109</v>
@@ -17754,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -17768,7 +17765,7 @@
         <v>29.66328200930995</v>
       </c>
       <c r="D324" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E324">
         <v>36.71572970484425</v>
@@ -17804,7 +17801,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -17818,7 +17815,7 @@
         <v>29.90527095369034</v>
       </c>
       <c r="D325" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E325">
         <v>36.95035776878722</v>
@@ -17854,7 +17851,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -17868,7 +17865,7 @@
         <v>29.61163508265873</v>
       </c>
       <c r="D326" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E326">
         <v>36.66565378736873</v>
@@ -17904,7 +17901,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -17918,7 +17915,7 @@
         <v>29.60796663375891</v>
       </c>
       <c r="D327" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E327">
         <v>38.73216492329536</v>
@@ -17954,7 +17951,7 @@
         <v>1</v>
       </c>
       <c r="P327" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -17968,7 +17965,7 @@
         <v>29.99267097270676</v>
       </c>
       <c r="D328" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E328">
         <v>39.11028686861102</v>
@@ -18004,7 +18001,7 @@
         <v>1</v>
       </c>
       <c r="P328" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -18018,7 +18015,7 @@
         <v>30.47592970891776</v>
       </c>
       <c r="D329" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E329">
         <v>39.58527691922146</v>
@@ -18054,7 +18051,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -18083,7 +18080,7 @@
         <v>64.5</v>
       </c>
       <c r="P330" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -18097,7 +18094,7 @@
         <v>37.15547839433958</v>
       </c>
       <c r="D331" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E331">
         <v>43.97524497646168</v>
@@ -18133,7 +18130,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -18147,7 +18144,7 @@
         <v>37.01610527202449</v>
       </c>
       <c r="D332" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E332">
         <v>43.97524497646168</v>
@@ -18183,7 +18180,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -18197,7 +18194,7 @@
         <v>25.78116025897209</v>
       </c>
       <c r="D333" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E333">
         <v>34.97083622412276</v>
@@ -18233,7 +18230,7 @@
         <v>1</v>
       </c>
       <c r="P333" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -18247,7 +18244,7 @@
         <v>21.78292834045364</v>
       </c>
       <c r="D334" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E334">
         <v>32.11135258573889</v>
@@ -18283,7 +18280,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -18297,7 +18294,7 @@
         <v>16.20611168178342</v>
       </c>
       <c r="D335" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E335">
         <v>27.00103770079773</v>
@@ -18333,7 +18330,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -18347,7 +18344,7 @@
         <v>16.50484318653699</v>
       </c>
       <c r="D336" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E336">
         <v>27.00103770079773</v>
@@ -18383,7 +18380,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -18397,7 +18394,7 @@
         <v>7.513223702566968</v>
       </c>
       <c r="D337" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E337">
         <v>19.03531145368304</v>
@@ -18433,7 +18430,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -18447,7 +18444,7 @@
         <v>7.993745640345985</v>
       </c>
       <c r="D338" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E338">
         <v>19.03531145368304</v>
@@ -18483,7 +18480,7 @@
         <v>1</v>
       </c>
       <c r="P338" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -18497,7 +18494,7 @@
         <v>-3.101932223543415</v>
       </c>
       <c r="D339" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E339">
         <v>9.308115338882274</v>
@@ -18533,7 +18530,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -18547,7 +18544,7 @@
         <v>-2.399420332936991</v>
       </c>
       <c r="D340" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E340">
         <v>9.308115338882274</v>
@@ -18583,7 +18580,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -18597,7 +18594,7 @@
         <v>-2.646016646848999</v>
       </c>
       <c r="D341" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E341">
         <v>9.308115338882274</v>
@@ -18633,7 +18630,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -18647,7 +18644,7 @@
         <v>-9.121415898188509</v>
       </c>
       <c r="D342" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E342">
         <v>3.792162618009769</v>
@@ -18683,7 +18680,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -18697,7 +18694,7 @@
         <v>-8.59683700961601</v>
       </c>
       <c r="D343" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E343">
         <v>3.792162618009769</v>
@@ -18733,7 +18730,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -18747,7 +18744,7 @@
         <v>-12.89770073310627</v>
       </c>
       <c r="D344" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E344">
         <v>0.3317647274577595</v>
@@ -18783,7 +18780,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -18797,7 +18794,7 @@
         <v>-14.09288737405897</v>
       </c>
       <c r="D345" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E345">
         <v>-0.7634443237574615</v>
@@ -18833,7 +18830,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -18847,7 +18844,7 @@
         <v>59.56360813550708</v>
       </c>
       <c r="D346" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E346">
         <v>75.18159673719033</v>
@@ -18883,7 +18880,7 @@
         <v>1</v>
       </c>
       <c r="P346" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -18897,7 +18894,7 @@
         <v>60.31956868780029</v>
       </c>
       <c r="D347" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E347">
         <v>76.03992694760657</v>
@@ -18933,7 +18930,7 @@
         <v>1</v>
       </c>
       <c r="P347" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -18947,7 +18944,7 @@
         <v>62.79431714399279</v>
       </c>
       <c r="D348" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E348">
         <v>77.62631903124894</v>
@@ -18983,7 +18980,7 @@
         <v>1</v>
       </c>
       <c r="P348" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -18997,7 +18994,7 @@
         <v>64.08298118239738</v>
       </c>
       <c r="D349" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E349">
         <v>79.11665728256037</v>
@@ -19033,7 +19030,7 @@
         <v>1</v>
       </c>
       <c r="P349" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -19047,7 +19044,7 @@
         <v>64.68906100731142</v>
       </c>
       <c r="D350" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E350">
         <v>79.81758779625406</v>
@@ -19083,7 +19080,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -19097,7 +19094,7 @@
         <v>66.03163316666149</v>
       </c>
       <c r="D351" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E351">
         <v>81.37027071794273</v>
@@ -19133,7 +19130,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -19147,7 +19144,7 @@
         <v>65.93064756206419</v>
       </c>
       <c r="D352" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E352">
         <v>81.25348100015911</v>
@@ -19183,7 +19180,7 @@
         <v>1</v>
       </c>
       <c r="P352" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="353" spans="1:16">
@@ -19197,7 +19194,7 @@
         <v>64.84418812133572</v>
       </c>
       <c r="D353" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E353">
         <v>80.16577874075962</v>
@@ -19233,7 +19230,7 @@
         <v>1</v>
       </c>
       <c r="P353" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="354" spans="1:16">
@@ -19247,7 +19244,7 @@
         <v>63.26616721431549</v>
       </c>
       <c r="D354" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E354">
         <v>79.97190339753475</v>
@@ -19283,7 +19280,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -19297,7 +19294,7 @@
         <v>61.66554474645639</v>
       </c>
       <c r="D355" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E355">
         <v>78.05285470927927</v>
@@ -19333,7 +19330,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -19347,7 +19344,7 @@
         <v>60.62679073828761</v>
       </c>
       <c r="D356" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E356">
         <v>76.80745202574536</v>
@@ -19383,7 +19380,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19397,7 +19394,7 @@
         <v>59.7052486970962</v>
       </c>
       <c r="D357" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E357">
         <v>75.70257933975458</v>
@@ -19433,7 +19430,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19447,7 +19444,7 @@
         <v>50.59926427854958</v>
       </c>
       <c r="D358" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E358">
         <v>64.78505955942813</v>
@@ -19483,7 +19480,7 @@
         <v>1</v>
       </c>
       <c r="P358" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -19497,7 +19494,7 @@
         <v>54.80887863487924</v>
       </c>
       <c r="D359" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E359">
         <v>72.15232554251514</v>
@@ -19533,7 +19530,7 @@
         <v>1</v>
       </c>
       <c r="P359" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="360" spans="1:16">
@@ -19547,7 +19544,7 @@
         <v>22.63799956449154</v>
       </c>
       <c r="D360" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E360">
         <v>34.76775640560354</v>
@@ -19583,7 +19580,7 @@
         <v>1</v>
       </c>
       <c r="P360" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -19597,7 +19594,7 @@
         <v>21.94224021195173</v>
       </c>
       <c r="D361" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E361">
         <v>34.09962025316457</v>
@@ -19633,101 +19630,101 @@
         <v>1</v>
       </c>
       <c r="P361" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="362" spans="1:16">
       <c r="A362" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B362" t="s">
         <v>131</v>
       </c>
       <c r="C362">
-        <v>21.6518845469621</v>
+        <v>22.5492051810421</v>
       </c>
       <c r="D362" t="s">
         <v>247</v>
       </c>
       <c r="E362">
-        <v>33.16829145286381</v>
+        <v>34.09962025316457</v>
       </c>
       <c r="F362">
         <v>1</v>
       </c>
       <c r="G362">
-        <v>0.1391481154530379</v>
+        <v>0.1396507948189579</v>
       </c>
       <c r="H362">
-        <v>0.1446317085471362</v>
+        <v>0.1433003797468354</v>
       </c>
       <c r="I362">
-        <v>11.5164069059017</v>
+        <v>11.55041507212247</v>
       </c>
       <c r="J362">
-        <v>0.2872768481811144</v>
+        <v>0.2821725051516043</v>
       </c>
       <c r="K362">
-        <v>204.5</v>
+        <v>207.5</v>
       </c>
       <c r="L362">
-        <v>80.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="M362">
-        <v>194</v>
+        <v>193.5</v>
       </c>
       <c r="N362">
-        <v>88.90000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="O362">
         <v>1</v>
       </c>
       <c r="P362" t="s">
-        <v>130</v>
+        <v>464</v>
       </c>
     </row>
     <row r="363" spans="1:16">
       <c r="A363" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B363" t="s">
         <v>132</v>
       </c>
       <c r="C363">
-        <v>21.49005400241875</v>
+        <v>21.6518845469621</v>
       </c>
       <c r="D363" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E363">
-        <v>33.16829145286381</v>
+        <v>34.22096927469043</v>
       </c>
       <c r="F363">
         <v>1</v>
       </c>
       <c r="G363">
-        <v>0.1407099459975812</v>
+        <v>0.1391481154530379</v>
       </c>
       <c r="H363">
-        <v>0.1446317085471362</v>
+        <v>0.1525790307253096</v>
       </c>
       <c r="I363">
-        <v>11.67823745044505</v>
+        <v>12.56908472772833</v>
       </c>
       <c r="J363">
         <v>0.2872768481811144</v>
       </c>
       <c r="K363">
-        <v>207.5</v>
+        <v>204.5</v>
       </c>
       <c r="L363">
-        <v>81.09999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="M363">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="N363">
-        <v>88.90000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="O363">
         <v>1</v>
@@ -19738,40 +19735,40 @@
     </row>
     <row r="364" spans="1:16">
       <c r="A364" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B364" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C364">
-        <v>20.6287291557878</v>
+        <v>21.72096927469043</v>
       </c>
       <c r="D364" t="s">
         <v>248</v>
       </c>
       <c r="E364">
-        <v>33.1903090762459</v>
+        <v>34.22096927469043</v>
       </c>
       <c r="F364">
         <v>1</v>
       </c>
       <c r="G364">
-        <v>0.1401712708442122</v>
+        <v>0.1400790307253096</v>
       </c>
       <c r="H364">
-        <v>0.1536096909237541</v>
+        <v>0.1525790307253096</v>
       </c>
       <c r="I364">
-        <v>12.5615799204581</v>
+        <v>12.5</v>
       </c>
       <c r="J364">
-        <v>0.2922800530279325</v>
+        <v>0.2872768481811144</v>
       </c>
       <c r="K364">
-        <v>204.5</v>
+        <v>206</v>
       </c>
       <c r="L364">
-        <v>80.40000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="M364">
         <v>206</v>
@@ -19783,7 +19780,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="s">
-        <v>464</v>
+        <v>130</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -19791,31 +19788,31 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C365">
-        <v>18.55332655028487</v>
+        <v>20.6287291557878</v>
       </c>
       <c r="D365" t="s">
         <v>248</v>
       </c>
       <c r="E365">
-        <v>31.09968346874662</v>
+        <v>33.1903090762459</v>
       </c>
       <c r="F365">
         <v>1</v>
       </c>
       <c r="G365">
-        <v>0.1422466734497151</v>
+        <v>0.1401712708442122</v>
       </c>
       <c r="H365">
-        <v>0.1557003165312534</v>
+        <v>0.1536096909237541</v>
       </c>
       <c r="I365">
-        <v>12.54635691846175</v>
+        <v>12.5615799204581</v>
       </c>
       <c r="J365">
-        <v>0.3024287210255019</v>
+        <v>0.2922800530279325</v>
       </c>
       <c r="K365">
         <v>204.5</v>
@@ -19841,37 +19838,37 @@
         <v>0</v>
       </c>
       <c r="B366" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C366">
-        <v>15.37197148226591</v>
+        <v>18.55332655028487</v>
       </c>
       <c r="D366" t="s">
         <v>248</v>
       </c>
       <c r="E366">
-        <v>26.81839483339797</v>
+        <v>31.09968346874662</v>
       </c>
       <c r="F366">
         <v>1</v>
       </c>
       <c r="G366">
-        <v>0.1498280285177341</v>
+        <v>0.1422466734497151</v>
       </c>
       <c r="H366">
-        <v>0.159981605166602</v>
+        <v>0.1557003165312534</v>
       </c>
       <c r="I366">
-        <v>11.44642335113207</v>
+        <v>12.54635691846175</v>
       </c>
       <c r="J366">
-        <v>0.3232116755660293</v>
+        <v>0.3024287210255019</v>
       </c>
       <c r="K366">
-        <v>208</v>
+        <v>204.5</v>
       </c>
       <c r="L366">
-        <v>82.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="M366">
         <v>206</v>
@@ -19891,31 +19888,31 @@
         <v>0</v>
       </c>
       <c r="B367" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C367">
-        <v>14.44543186753303</v>
+        <v>15.37197148226591</v>
       </c>
       <c r="D367" t="s">
         <v>248</v>
       </c>
       <c r="E367">
-        <v>25.90076425342215</v>
+        <v>26.81839483339797</v>
       </c>
       <c r="F367">
         <v>1</v>
       </c>
       <c r="G367">
-        <v>0.150754568132467</v>
+        <v>0.1498280285177341</v>
       </c>
       <c r="H367">
-        <v>0.1608992357465779</v>
+        <v>0.159981605166602</v>
       </c>
       <c r="I367">
-        <v>11.45533238588912</v>
+        <v>11.44642335113207</v>
       </c>
       <c r="J367">
-        <v>0.3276661929445527</v>
+        <v>0.3232116755660293</v>
       </c>
       <c r="K367">
         <v>208</v>
@@ -19933,7 +19930,7 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -19944,60 +19941,60 @@
         <v>134</v>
       </c>
       <c r="C368">
-        <v>13.45577889447236</v>
+        <v>14.44543186753303</v>
       </c>
       <c r="D368" t="s">
         <v>249</v>
       </c>
       <c r="E368">
-        <v>24.7361952620244</v>
+        <v>26.03693115694988</v>
       </c>
       <c r="F368">
         <v>1</v>
       </c>
       <c r="G368">
-        <v>0.1543442211055276</v>
+        <v>0.150754568132467</v>
       </c>
       <c r="H368">
-        <v>0.1612638047379756</v>
+        <v>0.1613630688430502</v>
       </c>
       <c r="I368">
-        <v>11.28041636755204</v>
+        <v>11.59149928941684</v>
       </c>
       <c r="J368">
-        <v>0.335448671931084</v>
+        <v>0.3276661929445527</v>
       </c>
       <c r="K368">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L368">
-        <v>83.90000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="M368">
-        <v>203.5</v>
+        <v>206.5</v>
       </c>
       <c r="N368">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="O368">
         <v>1</v>
       </c>
       <c r="P368" t="s">
-        <v>467</v>
+        <v>131</v>
       </c>
     </row>
     <row r="369" spans="1:16">
       <c r="A369" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B369" t="s">
         <v>135</v>
       </c>
       <c r="C369">
-        <v>13.31081119885138</v>
+        <v>13.45577889447236</v>
       </c>
       <c r="D369" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E369">
         <v>24.7361952620244</v>
@@ -20006,22 +20003,22 @@
         <v>1</v>
       </c>
       <c r="G369">
-        <v>0.1578891888011486</v>
+        <v>0.1543442211055276</v>
       </c>
       <c r="H369">
         <v>0.1612638047379756</v>
       </c>
       <c r="I369">
-        <v>11.42538406317301</v>
+        <v>11.28041636755204</v>
       </c>
       <c r="J369">
         <v>0.335448671931084</v>
       </c>
       <c r="K369">
-        <v>215.5</v>
+        <v>210</v>
       </c>
       <c r="L369">
-        <v>85.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M369">
         <v>203.5</v>
@@ -20038,16 +20035,16 @@
     </row>
     <row r="370" spans="1:16">
       <c r="A370" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B370" t="s">
         <v>136</v>
       </c>
       <c r="C370">
-        <v>13.42667623833452</v>
+        <v>13.31081119885138</v>
       </c>
       <c r="D370" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E370">
         <v>24.7361952620244</v>
@@ -20056,22 +20053,22 @@
         <v>1</v>
       </c>
       <c r="G370">
-        <v>0.1529733237616655</v>
+        <v>0.1578891888011486</v>
       </c>
       <c r="H370">
         <v>0.1612638047379756</v>
       </c>
       <c r="I370">
-        <v>11.30951902368987</v>
+        <v>11.42538406317301</v>
       </c>
       <c r="J370">
         <v>0.335448671931084</v>
       </c>
       <c r="K370">
-        <v>208</v>
+        <v>215.5</v>
       </c>
       <c r="L370">
-        <v>83.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M370">
         <v>203.5</v>
@@ -20088,40 +20085,40 @@
     </row>
     <row r="371" spans="1:16">
       <c r="A371" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B371" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C371">
-        <v>10.59259053965798</v>
+        <v>13.42667623833452</v>
       </c>
       <c r="D371" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E371">
-        <v>21.96162940390666</v>
+        <v>24.7361952620244</v>
       </c>
       <c r="F371">
         <v>1</v>
       </c>
       <c r="G371">
-        <v>0.157207409460342</v>
+        <v>0.1529733237616655</v>
       </c>
       <c r="H371">
-        <v>0.1640383705960933</v>
+        <v>0.1612638047379756</v>
       </c>
       <c r="I371">
-        <v>11.36903886424868</v>
+        <v>11.30951902368987</v>
       </c>
       <c r="J371">
-        <v>0.3490829021921049</v>
+        <v>0.335448671931084</v>
       </c>
       <c r="K371">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L371">
-        <v>83.90000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="M371">
         <v>203.5</v>
@@ -20133,45 +20130,45 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="372" spans="1:16">
       <c r="A372" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B372" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C372">
-        <v>10.37263457760139</v>
+        <v>13.63936826992104</v>
       </c>
       <c r="D372" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E372">
-        <v>21.96162940390666</v>
+        <v>24.7361952620244</v>
       </c>
       <c r="F372">
         <v>1</v>
       </c>
       <c r="G372">
-        <v>0.1608273654223986</v>
+        <v>0.149160631730079</v>
       </c>
       <c r="H372">
-        <v>0.1640383705960933</v>
+        <v>0.1612638047379756</v>
       </c>
       <c r="I372">
-        <v>11.58899482630527</v>
+        <v>11.09682699210336</v>
       </c>
       <c r="J372">
-        <v>0.3490829021921049</v>
+        <v>0.335448671931084</v>
       </c>
       <c r="K372">
-        <v>215.5</v>
+        <v>202</v>
       </c>
       <c r="L372">
-        <v>85.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="M372">
         <v>203.5</v>
@@ -20183,21 +20180,21 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="373" spans="1:16">
       <c r="A373" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B373" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C373">
-        <v>10.59075634404218</v>
+        <v>10.59259053965798</v>
       </c>
       <c r="D373" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E373">
         <v>21.96162940390666</v>
@@ -20206,22 +20203,22 @@
         <v>1</v>
       </c>
       <c r="G373">
-        <v>0.1558092436559578</v>
+        <v>0.157207409460342</v>
       </c>
       <c r="H373">
         <v>0.1640383705960933</v>
       </c>
       <c r="I373">
-        <v>11.37087305986448</v>
+        <v>11.36903886424868</v>
       </c>
       <c r="J373">
         <v>0.3490829021921049</v>
       </c>
       <c r="K373">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L373">
-        <v>83.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M373">
         <v>203.5</v>
@@ -20238,16 +20235,16 @@
     </row>
     <row r="374" spans="1:16">
       <c r="A374" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B374" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C374">
-        <v>10.88525375719482</v>
+        <v>10.37263457760139</v>
       </c>
       <c r="D374" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E374">
         <v>21.96162940390666</v>
@@ -20256,22 +20253,22 @@
         <v>1</v>
       </c>
       <c r="G374">
-        <v>0.1519147462428052</v>
+        <v>0.1608273654223986</v>
       </c>
       <c r="H374">
         <v>0.1640383705960933</v>
       </c>
       <c r="I374">
-        <v>11.07637564671184</v>
+        <v>11.58899482630527</v>
       </c>
       <c r="J374">
         <v>0.3490829021921049</v>
       </c>
       <c r="K374">
-        <v>202</v>
+        <v>215.5</v>
       </c>
       <c r="L374">
-        <v>81.40000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M374">
         <v>203.5</v>
@@ -20288,116 +20285,116 @@
     </row>
     <row r="375" spans="1:16">
       <c r="A375" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B375" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C375">
-        <v>8.066617110777202</v>
+        <v>10.59075634404218</v>
       </c>
       <c r="D375" t="s">
         <v>250</v>
       </c>
       <c r="E375">
-        <v>20.60412942273109</v>
+        <v>21.96162940390666</v>
       </c>
       <c r="F375">
         <v>1</v>
       </c>
       <c r="G375">
-        <v>0.1631333828892228</v>
+        <v>0.1558092436559578</v>
       </c>
       <c r="H375">
-        <v>0.1673958705772689</v>
+        <v>0.1640383705960933</v>
       </c>
       <c r="I375">
-        <v>12.53751231195389</v>
+        <v>11.37087305986448</v>
       </c>
       <c r="J375">
-        <v>0.3597836793003378</v>
+        <v>0.3490829021921049</v>
       </c>
       <c r="K375">
-        <v>215.5</v>
+        <v>208</v>
       </c>
       <c r="L375">
-        <v>85.59999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="M375">
-        <v>204</v>
+        <v>203.5</v>
       </c>
       <c r="N375">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O375">
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>134</v>
+        <v>468</v>
       </c>
     </row>
     <row r="376" spans="1:16">
       <c r="A376" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B376" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C376">
-        <v>8.364994705529739</v>
+        <v>10.88525375719482</v>
       </c>
       <c r="D376" t="s">
         <v>250</v>
       </c>
       <c r="E376">
-        <v>20.60412942273109</v>
+        <v>21.96162940390666</v>
       </c>
       <c r="F376">
         <v>1</v>
       </c>
       <c r="G376">
-        <v>0.1580350052944703</v>
+        <v>0.1519147462428052</v>
       </c>
       <c r="H376">
-        <v>0.1673958705772689</v>
+        <v>0.1640383705960933</v>
       </c>
       <c r="I376">
-        <v>12.23913471720135</v>
+        <v>11.07637564671184</v>
       </c>
       <c r="J376">
-        <v>0.3597836793003378</v>
+        <v>0.3490829021921049</v>
       </c>
       <c r="K376">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L376">
-        <v>83.2</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="M376">
-        <v>204</v>
+        <v>203.5</v>
       </c>
       <c r="N376">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O376">
         <v>1</v>
       </c>
       <c r="P376" t="s">
-        <v>134</v>
+        <v>468</v>
       </c>
     </row>
     <row r="377" spans="1:16">
       <c r="A377" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B377" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C377">
-        <v>8.723696781331768</v>
+        <v>8.066617110777202</v>
       </c>
       <c r="D377" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E377">
         <v>20.60412942273109</v>
@@ -20406,22 +20403,22 @@
         <v>1</v>
       </c>
       <c r="G377">
-        <v>0.1540763032186682</v>
+        <v>0.1631333828892228</v>
       </c>
       <c r="H377">
         <v>0.1673958705772689</v>
       </c>
       <c r="I377">
-        <v>11.88043264139932</v>
+        <v>12.53751231195389</v>
       </c>
       <c r="J377">
         <v>0.3597836793003378</v>
       </c>
       <c r="K377">
-        <v>202</v>
+        <v>215.5</v>
       </c>
       <c r="L377">
-        <v>81.40000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M377">
         <v>204</v>
@@ -20433,51 +20430,51 @@
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="378" spans="1:16">
       <c r="A378" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B378" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C378">
-        <v>-3.424244140274368</v>
+        <v>8.364994705529739</v>
       </c>
       <c r="D378" t="s">
         <v>251</v>
       </c>
       <c r="E378">
-        <v>10.72424068728326</v>
+        <v>20.60412942273109</v>
       </c>
       <c r="F378">
         <v>1</v>
       </c>
       <c r="G378">
-        <v>0.1690242441402744</v>
+        <v>0.1580350052944703</v>
       </c>
       <c r="H378">
-        <v>0.1852757593127167</v>
+        <v>0.1673958705772689</v>
       </c>
       <c r="I378">
-        <v>14.14848482755762</v>
+        <v>12.23913471720135</v>
       </c>
       <c r="J378">
-        <v>0.4206060689769481</v>
+        <v>0.3597836793003378</v>
       </c>
       <c r="K378">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L378">
-        <v>82.8</v>
+        <v>83.2</v>
       </c>
       <c r="M378">
-        <v>207.5</v>
+        <v>204</v>
       </c>
       <c r="N378">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O378">
         <v>1</v>
@@ -20488,52 +20485,52 @@
     </row>
     <row r="379" spans="1:16">
       <c r="A379" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B379" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C379">
-        <v>-2.10269534440512</v>
+        <v>8.723696781331768</v>
       </c>
       <c r="D379" t="s">
         <v>251</v>
       </c>
       <c r="E379">
-        <v>10.74605227334604</v>
+        <v>20.60412942273109</v>
       </c>
       <c r="F379">
         <v>1</v>
       </c>
       <c r="G379">
-        <v>0.1703026953444051</v>
+        <v>0.1540763032186682</v>
       </c>
       <c r="H379">
-        <v>0.185253947726654</v>
+        <v>0.1673958705772689</v>
       </c>
       <c r="I379">
-        <v>12.84874761775116</v>
+        <v>11.88043264139932</v>
       </c>
       <c r="J379">
-        <v>0.4205009528995372</v>
+        <v>0.3597836793003378</v>
       </c>
       <c r="K379">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L379">
-        <v>84.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="M379">
-        <v>207.5</v>
+        <v>204</v>
       </c>
       <c r="N379">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O379">
         <v>1</v>
       </c>
       <c r="P379" t="s">
-        <v>469</v>
+        <v>135</v>
       </c>
     </row>
     <row r="380" spans="1:16">
@@ -20541,49 +20538,49 @@
         <v>0</v>
       </c>
       <c r="B380" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C380">
-        <v>13.16161645214643</v>
+        <v>-3.424244140274368</v>
       </c>
       <c r="D380" t="s">
         <v>252</v>
       </c>
       <c r="E380">
-        <v>9.280369598044189</v>
+        <v>10.72424068728326</v>
       </c>
       <c r="F380">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G380">
-        <v>0.1634383835478536</v>
+        <v>0.1690242441402744</v>
       </c>
       <c r="H380">
-        <v>0.1683196304019558</v>
+        <v>0.1852757593127167</v>
       </c>
       <c r="I380">
-        <v>3.881246854102244</v>
+        <v>14.14848482755762</v>
       </c>
       <c r="J380">
-        <v>0.4381246854102249</v>
+        <v>0.4206060689769481</v>
       </c>
       <c r="K380">
-        <v>171.5</v>
+        <v>205</v>
       </c>
       <c r="L380">
-        <v>88.3</v>
+        <v>82.8</v>
       </c>
       <c r="M380">
-        <v>181.5</v>
+        <v>207.5</v>
       </c>
       <c r="N380">
-        <v>88.8</v>
+        <v>98</v>
       </c>
       <c r="O380">
         <v>1</v>
       </c>
       <c r="P380" t="s">
-        <v>470</v>
+        <v>136</v>
       </c>
     </row>
     <row r="381" spans="1:16">
@@ -20591,49 +20588,49 @@
         <v>0</v>
       </c>
       <c r="B381" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C381">
-        <v>-21.82338146012957</v>
+        <v>-2.10269534440512</v>
       </c>
       <c r="D381" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E381">
-        <v>-26.74300800979539</v>
+        <v>10.74605227334604</v>
       </c>
       <c r="F381">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G381">
-        <v>0.2024233814601296</v>
+        <v>0.1703026953444051</v>
       </c>
       <c r="H381">
-        <v>0.2025430080097954</v>
+        <v>0.185253947726654</v>
       </c>
       <c r="I381">
-        <v>4.919626549665821</v>
+        <v>12.84874761775116</v>
       </c>
       <c r="J381">
-        <v>0.6299066374164582</v>
+        <v>0.4205009528995372</v>
       </c>
       <c r="K381">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="L381">
-        <v>90.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="M381">
-        <v>182</v>
+        <v>207.5</v>
       </c>
       <c r="N381">
-        <v>87.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="O381">
         <v>1</v>
       </c>
       <c r="P381" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="382" spans="1:16">
@@ -20641,49 +20638,49 @@
         <v>0</v>
       </c>
       <c r="B382" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C382">
-        <v>32.20533098261782</v>
+        <v>13.16161645214643</v>
       </c>
       <c r="D382" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E382">
-        <v>32.04872354909135</v>
+        <v>9.280369598044189</v>
       </c>
       <c r="F382">
         <v>-1</v>
       </c>
       <c r="G382">
-        <v>0.1503946690173822</v>
+        <v>0.1634383835478536</v>
       </c>
       <c r="H382">
-        <v>0.1515512764509086</v>
+        <v>0.1683196304019558</v>
       </c>
       <c r="I382">
-        <v>0.1566074335264673</v>
+        <v>3.881246854102244</v>
       </c>
       <c r="J382">
-        <v>0.3283037167632343</v>
+        <v>0.4381246854102249</v>
       </c>
       <c r="K382">
-        <v>180</v>
+        <v>171.5</v>
       </c>
       <c r="L382">
-        <v>91.3</v>
+        <v>88.3</v>
       </c>
       <c r="M382">
-        <v>182</v>
+        <v>181.5</v>
       </c>
       <c r="N382">
-        <v>91.8</v>
+        <v>88.8</v>
       </c>
       <c r="O382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P382" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="383" spans="1:16">
@@ -20694,46 +20691,96 @@
         <v>142</v>
       </c>
       <c r="C383">
-        <v>30.11806288540985</v>
+        <v>-21.82338146012957</v>
       </c>
       <c r="D383" t="s">
         <v>254</v>
       </c>
       <c r="E383">
-        <v>29.93826358413663</v>
+        <v>-26.74300800979539</v>
       </c>
       <c r="F383">
         <v>-1</v>
       </c>
       <c r="G383">
-        <v>0.1524819371145902</v>
+        <v>0.2024233814601296</v>
       </c>
       <c r="H383">
-        <v>0.1536617364158634</v>
+        <v>0.2025430080097954</v>
       </c>
       <c r="I383">
-        <v>0.1797993012732206</v>
+        <v>4.919626549665821</v>
       </c>
       <c r="J383">
-        <v>0.3398996506366119</v>
+        <v>0.6299066374164582</v>
       </c>
       <c r="K383">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L383">
-        <v>91.3</v>
+        <v>90.3</v>
       </c>
       <c r="M383">
         <v>182</v>
       </c>
       <c r="N383">
-        <v>91.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="O383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P383" t="s">
-        <v>473</v>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16">
+      <c r="A384" s="1">
+        <v>0</v>
+      </c>
+      <c r="B384" t="s">
+        <v>143</v>
+      </c>
+      <c r="C384">
+        <v>32.20533098261782</v>
+      </c>
+      <c r="D384" t="s">
+        <v>255</v>
+      </c>
+      <c r="E384">
+        <v>30.31287540747297</v>
+      </c>
+      <c r="F384">
+        <v>-1</v>
+      </c>
+      <c r="G384">
+        <v>0.1503946690173822</v>
+      </c>
+      <c r="H384">
+        <v>0.1494871245925271</v>
+      </c>
+      <c r="I384">
+        <v>1.892455575144844</v>
+      </c>
+      <c r="J384">
+        <v>0.3283037167632343</v>
+      </c>
+      <c r="K384">
+        <v>180</v>
+      </c>
+      <c r="L384">
+        <v>91.3</v>
+      </c>
+      <c r="M384">
+        <v>181.5</v>
+      </c>
+      <c r="N384">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="O384">
+        <v>0</v>
+      </c>
+      <c r="P384" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-2474-2382-800.xlsx
+++ b/s60_signal/position-2474-2382-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="475">
   <si>
     <t>trade_time</t>
   </si>
@@ -421,12 +421,12 @@
     <t>2021-01-19</t>
   </si>
   <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
     <t>2021-01-07</t>
   </si>
   <si>
-    <t>2021-01-14</t>
-  </si>
-  <si>
     <t>2021-01-18</t>
   </si>
   <si>
@@ -760,6 +760,9 @@
     <t>2021-02-17</t>
   </si>
   <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
     <t>2021-03-23</t>
   </si>
   <si>
@@ -781,7 +784,7 @@
     <t>2021-05-24</t>
   </si>
   <si>
-    <t>2021-07-14</t>
+    <t>2021-07-15</t>
   </si>
   <si>
     <t>2010-08-03</t>
@@ -1433,6 +1436,9 @@
   </si>
   <si>
     <t>2021-06-17</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P384"/>
+  <dimension ref="A1:P387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1890,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1940,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1990,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2040,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2090,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2140,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2190,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2240,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2290,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2340,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2390,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2440,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2490,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2540,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2590,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2640,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2690,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2740,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2790,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2840,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2890,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2940,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2990,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3040,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3090,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3140,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3169,7 +3175,7 @@
         <v>59.3</v>
       </c>
       <c r="P28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3198,7 +3204,7 @@
         <v>65.5</v>
       </c>
       <c r="P29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3248,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3298,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3327,7 +3333,7 @@
         <v>69.40000000000001</v>
       </c>
       <c r="P32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3377,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3427,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3477,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3506,7 +3512,7 @@
         <v>68.40000000000001</v>
       </c>
       <c r="P36" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3535,7 +3541,7 @@
         <v>70.09999999999999</v>
       </c>
       <c r="P37" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3585,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3635,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3685,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3735,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3785,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3835,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3885,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3935,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3985,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -4035,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -4085,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4135,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4185,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4235,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4285,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4335,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4585,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4685,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4735,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4785,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4835,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4985,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5035,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -5085,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5135,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5185,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5235,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5285,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5335,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5385,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5435,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5485,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5535,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5585,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5635,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5685,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5735,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5785,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5835,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5885,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5935,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5985,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6035,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -6185,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6235,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6285,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6335,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6385,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6435,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6485,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6535,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6585,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6635,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6685,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6735,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6785,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6835,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6885,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6935,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6985,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -7035,7 +7041,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -7085,7 +7091,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -7135,7 +7141,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7185,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7235,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7285,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7335,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7385,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7435,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7485,7 +7491,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7535,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7585,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7635,7 +7641,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7735,7 +7741,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7785,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7835,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7885,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="P124" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7935,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="P125" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7985,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="P126" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -8035,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -8085,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -8135,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -8185,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8235,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="P131" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -8285,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="P132" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -8435,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="P135" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8485,7 +8491,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8535,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="P137" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8585,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8635,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8685,7 +8691,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8735,7 +8741,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8785,7 +8791,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8835,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8885,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8935,7 +8941,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8985,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -9035,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -9085,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -9135,7 +9141,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9185,7 +9191,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9235,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9335,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9435,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9485,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9535,7 +9541,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9585,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9635,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9685,7 +9691,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9735,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9785,7 +9791,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9835,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9885,7 +9891,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9935,7 +9941,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9985,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -10035,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -10235,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -10285,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -10335,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10385,7 +10391,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10435,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10485,7 +10491,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10535,7 +10541,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10585,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10635,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10664,7 +10670,7 @@
         <v>71.40000000000001</v>
       </c>
       <c r="P180" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10693,7 +10699,7 @@
         <v>72.09999999999999</v>
       </c>
       <c r="P181" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10793,7 +10799,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10843,7 +10849,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10893,7 +10899,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10943,7 +10949,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10993,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="P187" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -11043,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="P188" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -11093,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="P189" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11143,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="P190" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11193,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="P191" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11243,7 +11249,7 @@
         <v>0</v>
       </c>
       <c r="P192" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11293,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="P193" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11343,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="P194" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11393,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11443,7 +11449,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11493,7 +11499,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11543,7 +11549,7 @@
         <v>0</v>
       </c>
       <c r="P198" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11593,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11643,7 +11649,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11743,7 +11749,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11793,7 +11799,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11843,7 +11849,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11943,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11993,7 +11999,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -12043,7 +12049,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -12093,7 +12099,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12193,7 +12199,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12243,7 +12249,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12293,7 +12299,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12343,7 +12349,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12393,7 +12399,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12443,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12493,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12543,7 +12549,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12593,7 +12599,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12643,7 +12649,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12693,7 +12699,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12743,7 +12749,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12893,7 +12899,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12993,7 +12999,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -13193,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -13243,7 +13249,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13293,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13343,7 +13349,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13393,7 +13399,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13443,7 +13449,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13493,7 +13499,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13543,7 +13549,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13593,7 +13599,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13643,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13693,7 +13699,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13743,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13793,7 +13799,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -13843,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="P244" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13893,7 +13899,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13943,7 +13949,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13972,7 +13978,7 @@
         <v>59.4</v>
       </c>
       <c r="P247" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -14022,7 +14028,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -14072,7 +14078,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -14122,7 +14128,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -14151,7 +14157,7 @@
         <v>59.5</v>
       </c>
       <c r="P251" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -14201,7 +14207,7 @@
         <v>0</v>
       </c>
       <c r="P252" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14251,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="P253" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14301,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="P254" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14351,7 +14357,7 @@
         <v>0</v>
       </c>
       <c r="P255" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14401,7 +14407,7 @@
         <v>0</v>
       </c>
       <c r="P256" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14451,7 +14457,7 @@
         <v>0</v>
       </c>
       <c r="P257" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14501,7 +14507,7 @@
         <v>0</v>
       </c>
       <c r="P258" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14551,7 +14557,7 @@
         <v>0</v>
       </c>
       <c r="P259" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14601,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="P260" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -14651,7 +14657,7 @@
         <v>0</v>
       </c>
       <c r="P261" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -14701,7 +14707,7 @@
         <v>0</v>
       </c>
       <c r="P262" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -14751,7 +14757,7 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -14801,7 +14807,7 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -14851,7 +14857,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -14901,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -14951,7 +14957,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -15001,7 +15007,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -15051,7 +15057,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15101,7 +15107,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15151,7 +15157,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -15251,7 +15257,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15301,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15351,7 +15357,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15551,7 +15557,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15651,7 +15657,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15701,7 +15707,7 @@
         <v>0</v>
       </c>
       <c r="P282" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15751,7 +15757,7 @@
         <v>0</v>
       </c>
       <c r="P283" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -15801,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="P284" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -15851,7 +15857,7 @@
         <v>0</v>
       </c>
       <c r="P285" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -16351,7 +16357,7 @@
         <v>0</v>
       </c>
       <c r="P295" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -16401,7 +16407,7 @@
         <v>0</v>
       </c>
       <c r="P296" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -16451,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="P297" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16501,7 +16507,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -16551,7 +16557,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -16601,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -16651,7 +16657,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -16701,7 +16707,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -16801,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="P304" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -16851,7 +16857,7 @@
         <v>0</v>
       </c>
       <c r="P305" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -16901,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="P306" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -16951,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="P307" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -17001,7 +17007,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -17051,7 +17057,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -17101,7 +17107,7 @@
         <v>1</v>
       </c>
       <c r="P310" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -17151,7 +17157,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -17201,7 +17207,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17251,7 +17257,7 @@
         <v>1</v>
       </c>
       <c r="P313" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -17301,7 +17307,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -17351,7 +17357,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17401,7 +17407,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17451,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17501,7 +17507,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17551,7 +17557,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17601,7 +17607,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -17651,7 +17657,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -17701,7 +17707,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -17751,7 +17757,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -17801,7 +17807,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -17851,7 +17857,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -17901,7 +17907,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -17951,7 +17957,7 @@
         <v>1</v>
       </c>
       <c r="P327" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -18001,7 +18007,7 @@
         <v>1</v>
       </c>
       <c r="P328" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -18051,7 +18057,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -18080,7 +18086,7 @@
         <v>64.5</v>
       </c>
       <c r="P330" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -18130,7 +18136,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -18180,7 +18186,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -18230,7 +18236,7 @@
         <v>1</v>
       </c>
       <c r="P333" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -18280,7 +18286,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -18330,7 +18336,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -18380,7 +18386,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -18430,7 +18436,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -18480,7 +18486,7 @@
         <v>1</v>
       </c>
       <c r="P338" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -18530,7 +18536,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -18580,7 +18586,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -18630,7 +18636,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -18680,7 +18686,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -18730,7 +18736,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -18780,7 +18786,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -18830,7 +18836,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -18880,7 +18886,7 @@
         <v>1</v>
       </c>
       <c r="P346" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -18930,7 +18936,7 @@
         <v>1</v>
       </c>
       <c r="P347" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -18980,7 +18986,7 @@
         <v>1</v>
       </c>
       <c r="P348" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -19030,7 +19036,7 @@
         <v>1</v>
       </c>
       <c r="P349" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -19080,7 +19086,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -19130,7 +19136,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -19180,7 +19186,7 @@
         <v>1</v>
       </c>
       <c r="P352" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="353" spans="1:16">
@@ -19230,7 +19236,7 @@
         <v>1</v>
       </c>
       <c r="P353" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="354" spans="1:16">
@@ -19280,7 +19286,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -19330,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -19380,7 +19386,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19430,7 +19436,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19480,7 +19486,7 @@
         <v>1</v>
       </c>
       <c r="P358" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -19530,7 +19536,7 @@
         <v>1</v>
       </c>
       <c r="P359" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="360" spans="1:16">
@@ -19580,7 +19586,7 @@
         <v>1</v>
       </c>
       <c r="P360" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -19594,10 +19600,10 @@
         <v>21.94224021195173</v>
       </c>
       <c r="D361" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E361">
-        <v>34.09962025316457</v>
+        <v>34.15853400058877</v>
       </c>
       <c r="F361">
         <v>1</v>
@@ -19606,10 +19612,10 @@
         <v>0.1356577597880483</v>
       </c>
       <c r="H361">
-        <v>0.1433003797468354</v>
+        <v>0.1436414659994112</v>
       </c>
       <c r="I361">
-        <v>12.15738004121285</v>
+        <v>12.21629378863705</v>
       </c>
       <c r="J361">
         <v>0.2821725051516043</v>
@@ -19621,16 +19627,16 @@
         <v>78.8</v>
       </c>
       <c r="M361">
-        <v>193.5</v>
+        <v>194</v>
       </c>
       <c r="N361">
-        <v>88.7</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="O361">
         <v>1</v>
       </c>
       <c r="P361" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="362" spans="1:16">
@@ -19644,10 +19650,10 @@
         <v>22.5492051810421</v>
       </c>
       <c r="D362" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E362">
-        <v>34.09962025316457</v>
+        <v>34.15853400058877</v>
       </c>
       <c r="F362">
         <v>1</v>
@@ -19656,10 +19662,10 @@
         <v>0.1396507948189579</v>
       </c>
       <c r="H362">
-        <v>0.1433003797468354</v>
+        <v>0.1436414659994112</v>
       </c>
       <c r="I362">
-        <v>11.55041507212247</v>
+        <v>11.60932881954667</v>
       </c>
       <c r="J362">
         <v>0.2821725051516043</v>
@@ -19671,16 +19677,16 @@
         <v>81.09999999999999</v>
       </c>
       <c r="M362">
-        <v>193.5</v>
+        <v>194</v>
       </c>
       <c r="N362">
-        <v>88.7</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="O362">
         <v>1</v>
       </c>
       <c r="P362" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="363" spans="1:16">
@@ -19694,7 +19700,7 @@
         <v>21.6518845469621</v>
       </c>
       <c r="D363" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E363">
         <v>34.22096927469043</v>
@@ -19744,7 +19750,7 @@
         <v>21.72096927469043</v>
       </c>
       <c r="D364" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E364">
         <v>34.22096927469043</v>
@@ -19794,7 +19800,7 @@
         <v>20.6287291557878</v>
       </c>
       <c r="D365" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E365">
         <v>33.1903090762459</v>
@@ -19830,7 +19836,7 @@
         <v>1</v>
       </c>
       <c r="P365" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="366" spans="1:16">
@@ -19844,7 +19850,7 @@
         <v>18.55332655028487</v>
       </c>
       <c r="D366" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E366">
         <v>31.09968346874662</v>
@@ -19880,7 +19886,7 @@
         <v>1</v>
       </c>
       <c r="P366" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -19894,7 +19900,7 @@
         <v>15.37197148226591</v>
       </c>
       <c r="D367" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E367">
         <v>26.81839483339797</v>
@@ -19938,13 +19944,13 @@
         <v>0</v>
       </c>
       <c r="B368" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C368">
-        <v>14.44543186753303</v>
+        <v>14.98793542044889</v>
       </c>
       <c r="D368" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E368">
         <v>26.03693115694988</v>
@@ -19953,22 +19959,22 @@
         <v>1</v>
       </c>
       <c r="G368">
-        <v>0.150754568132467</v>
+        <v>0.1562120645795511</v>
       </c>
       <c r="H368">
         <v>0.1613630688430502</v>
       </c>
       <c r="I368">
-        <v>11.59149928941684</v>
+        <v>11.04899573650098</v>
       </c>
       <c r="J368">
         <v>0.3276661929445527</v>
       </c>
       <c r="K368">
-        <v>208</v>
+        <v>215.5</v>
       </c>
       <c r="L368">
-        <v>82.59999999999999</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M368">
         <v>206.5</v>
@@ -19985,66 +19991,66 @@
     </row>
     <row r="369" spans="1:16">
       <c r="A369" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B369" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C369">
-        <v>13.45577889447236</v>
+        <v>14.44543186753303</v>
       </c>
       <c r="D369" t="s">
         <v>250</v>
       </c>
       <c r="E369">
-        <v>24.7361952620244</v>
+        <v>26.03693115694988</v>
       </c>
       <c r="F369">
         <v>1</v>
       </c>
       <c r="G369">
-        <v>0.1543442211055276</v>
+        <v>0.150754568132467</v>
       </c>
       <c r="H369">
-        <v>0.1612638047379756</v>
+        <v>0.1613630688430502</v>
       </c>
       <c r="I369">
-        <v>11.28041636755204</v>
+        <v>11.59149928941684</v>
       </c>
       <c r="J369">
-        <v>0.335448671931084</v>
+        <v>0.3276661929445527</v>
       </c>
       <c r="K369">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L369">
-        <v>83.90000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="M369">
-        <v>203.5</v>
+        <v>206.5</v>
       </c>
       <c r="N369">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="O369">
         <v>1</v>
       </c>
       <c r="P369" t="s">
-        <v>467</v>
+        <v>131</v>
       </c>
     </row>
     <row r="370" spans="1:16">
       <c r="A370" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B370" t="s">
         <v>136</v>
       </c>
       <c r="C370">
-        <v>13.31081119885138</v>
+        <v>13.45577889447236</v>
       </c>
       <c r="D370" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E370">
         <v>24.7361952620244</v>
@@ -20053,22 +20059,22 @@
         <v>1</v>
       </c>
       <c r="G370">
-        <v>0.1578891888011486</v>
+        <v>0.1543442211055276</v>
       </c>
       <c r="H370">
         <v>0.1612638047379756</v>
       </c>
       <c r="I370">
-        <v>11.42538406317301</v>
+        <v>11.28041636755204</v>
       </c>
       <c r="J370">
         <v>0.335448671931084</v>
       </c>
       <c r="K370">
-        <v>215.5</v>
+        <v>210</v>
       </c>
       <c r="L370">
-        <v>85.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M370">
         <v>203.5</v>
@@ -20080,21 +20086,21 @@
         <v>1</v>
       </c>
       <c r="P370" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="371" spans="1:16">
       <c r="A371" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B371" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C371">
-        <v>13.42667623833452</v>
+        <v>13.31081119885138</v>
       </c>
       <c r="D371" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E371">
         <v>24.7361952620244</v>
@@ -20103,22 +20109,22 @@
         <v>1</v>
       </c>
       <c r="G371">
-        <v>0.1529733237616655</v>
+        <v>0.1578891888011486</v>
       </c>
       <c r="H371">
         <v>0.1612638047379756</v>
       </c>
       <c r="I371">
-        <v>11.30951902368987</v>
+        <v>11.42538406317301</v>
       </c>
       <c r="J371">
         <v>0.335448671931084</v>
       </c>
       <c r="K371">
-        <v>208</v>
+        <v>215.5</v>
       </c>
       <c r="L371">
-        <v>83.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M371">
         <v>203.5</v>
@@ -20130,21 +20136,21 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="372" spans="1:16">
       <c r="A372" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B372" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C372">
-        <v>13.63936826992104</v>
+        <v>13.42667623833452</v>
       </c>
       <c r="D372" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E372">
         <v>24.7361952620244</v>
@@ -20153,22 +20159,22 @@
         <v>1</v>
       </c>
       <c r="G372">
-        <v>0.149160631730079</v>
+        <v>0.1529733237616655</v>
       </c>
       <c r="H372">
         <v>0.1612638047379756</v>
       </c>
       <c r="I372">
-        <v>11.09682699210336</v>
+        <v>11.30951902368987</v>
       </c>
       <c r="J372">
         <v>0.335448671931084</v>
       </c>
       <c r="K372">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L372">
-        <v>81.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="M372">
         <v>203.5</v>
@@ -20180,45 +20186,45 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="373" spans="1:16">
       <c r="A373" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B373" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C373">
-        <v>10.59259053965798</v>
+        <v>13.63936826992104</v>
       </c>
       <c r="D373" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E373">
-        <v>21.96162940390666</v>
+        <v>24.7361952620244</v>
       </c>
       <c r="F373">
         <v>1</v>
       </c>
       <c r="G373">
-        <v>0.157207409460342</v>
+        <v>0.149160631730079</v>
       </c>
       <c r="H373">
-        <v>0.1640383705960933</v>
+        <v>0.1612638047379756</v>
       </c>
       <c r="I373">
-        <v>11.36903886424868</v>
+        <v>11.09682699210336</v>
       </c>
       <c r="J373">
-        <v>0.3490829021921049</v>
+        <v>0.335448671931084</v>
       </c>
       <c r="K373">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L373">
-        <v>83.90000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="M373">
         <v>203.5</v>
@@ -20235,16 +20241,16 @@
     </row>
     <row r="374" spans="1:16">
       <c r="A374" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B374" t="s">
         <v>136</v>
       </c>
       <c r="C374">
-        <v>10.37263457760139</v>
+        <v>10.59259053965798</v>
       </c>
       <c r="D374" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E374">
         <v>21.96162940390666</v>
@@ -20253,22 +20259,22 @@
         <v>1</v>
       </c>
       <c r="G374">
-        <v>0.1608273654223986</v>
+        <v>0.157207409460342</v>
       </c>
       <c r="H374">
         <v>0.1640383705960933</v>
       </c>
       <c r="I374">
-        <v>11.58899482630527</v>
+        <v>11.36903886424868</v>
       </c>
       <c r="J374">
         <v>0.3490829021921049</v>
       </c>
       <c r="K374">
-        <v>215.5</v>
+        <v>210</v>
       </c>
       <c r="L374">
-        <v>85.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M374">
         <v>203.5</v>
@@ -20280,21 +20286,21 @@
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="375" spans="1:16">
       <c r="A375" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B375" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C375">
-        <v>10.59075634404218</v>
+        <v>10.37263457760139</v>
       </c>
       <c r="D375" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E375">
         <v>21.96162940390666</v>
@@ -20303,22 +20309,22 @@
         <v>1</v>
       </c>
       <c r="G375">
-        <v>0.1558092436559578</v>
+        <v>0.1608273654223986</v>
       </c>
       <c r="H375">
         <v>0.1640383705960933</v>
       </c>
       <c r="I375">
-        <v>11.37087305986448</v>
+        <v>11.58899482630527</v>
       </c>
       <c r="J375">
         <v>0.3490829021921049</v>
       </c>
       <c r="K375">
-        <v>208</v>
+        <v>215.5</v>
       </c>
       <c r="L375">
-        <v>83.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M375">
         <v>203.5</v>
@@ -20330,21 +20336,21 @@
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="376" spans="1:16">
       <c r="A376" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B376" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C376">
-        <v>10.88525375719482</v>
+        <v>10.59075634404218</v>
       </c>
       <c r="D376" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E376">
         <v>21.96162940390666</v>
@@ -20353,22 +20359,22 @@
         <v>1</v>
       </c>
       <c r="G376">
-        <v>0.1519147462428052</v>
+        <v>0.1558092436559578</v>
       </c>
       <c r="H376">
         <v>0.1640383705960933</v>
       </c>
       <c r="I376">
-        <v>11.07637564671184</v>
+        <v>11.37087305986448</v>
       </c>
       <c r="J376">
         <v>0.3490829021921049</v>
       </c>
       <c r="K376">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L376">
-        <v>81.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="M376">
         <v>203.5</v>
@@ -20380,71 +20386,71 @@
         <v>1</v>
       </c>
       <c r="P376" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="377" spans="1:16">
       <c r="A377" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B377" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C377">
-        <v>8.066617110777202</v>
+        <v>10.88525375719482</v>
       </c>
       <c r="D377" t="s">
         <v>251</v>
       </c>
       <c r="E377">
-        <v>20.60412942273109</v>
+        <v>21.96162940390666</v>
       </c>
       <c r="F377">
         <v>1</v>
       </c>
       <c r="G377">
-        <v>0.1631333828892228</v>
+        <v>0.1519147462428052</v>
       </c>
       <c r="H377">
-        <v>0.1673958705772689</v>
+        <v>0.1640383705960933</v>
       </c>
       <c r="I377">
-        <v>12.53751231195389</v>
+        <v>11.07637564671184</v>
       </c>
       <c r="J377">
-        <v>0.3597836793003378</v>
+        <v>0.3490829021921049</v>
       </c>
       <c r="K377">
-        <v>215.5</v>
+        <v>202</v>
       </c>
       <c r="L377">
-        <v>85.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="M377">
-        <v>204</v>
+        <v>203.5</v>
       </c>
       <c r="N377">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O377">
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>135</v>
+        <v>469</v>
       </c>
     </row>
     <row r="378" spans="1:16">
       <c r="A378" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B378" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C378">
-        <v>8.364994705529739</v>
+        <v>8.066617110777202</v>
       </c>
       <c r="D378" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E378">
         <v>20.60412942273109</v>
@@ -20453,22 +20459,22 @@
         <v>1</v>
       </c>
       <c r="G378">
-        <v>0.1580350052944703</v>
+        <v>0.1631333828892228</v>
       </c>
       <c r="H378">
         <v>0.1673958705772689</v>
       </c>
       <c r="I378">
-        <v>12.23913471720135</v>
+        <v>12.53751231195389</v>
       </c>
       <c r="J378">
         <v>0.3597836793003378</v>
       </c>
       <c r="K378">
-        <v>208</v>
+        <v>215.5</v>
       </c>
       <c r="L378">
-        <v>83.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M378">
         <v>204</v>
@@ -20480,21 +20486,21 @@
         <v>1</v>
       </c>
       <c r="P378" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="379" spans="1:16">
       <c r="A379" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B379" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C379">
-        <v>8.723696781331768</v>
+        <v>8.364994705529739</v>
       </c>
       <c r="D379" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E379">
         <v>20.60412942273109</v>
@@ -20503,22 +20509,22 @@
         <v>1</v>
       </c>
       <c r="G379">
-        <v>0.1540763032186682</v>
+        <v>0.1580350052944703</v>
       </c>
       <c r="H379">
         <v>0.1673958705772689</v>
       </c>
       <c r="I379">
-        <v>11.88043264139932</v>
+        <v>12.23913471720135</v>
       </c>
       <c r="J379">
         <v>0.3597836793003378</v>
       </c>
       <c r="K379">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L379">
-        <v>81.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="M379">
         <v>204</v>
@@ -20530,51 +20536,51 @@
         <v>1</v>
       </c>
       <c r="P379" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="380" spans="1:16">
       <c r="A380" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B380" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C380">
-        <v>-3.424244140274368</v>
+        <v>8.723696781331768</v>
       </c>
       <c r="D380" t="s">
         <v>252</v>
       </c>
       <c r="E380">
-        <v>10.72424068728326</v>
+        <v>20.60412942273109</v>
       </c>
       <c r="F380">
         <v>1</v>
       </c>
       <c r="G380">
-        <v>0.1690242441402744</v>
+        <v>0.1540763032186682</v>
       </c>
       <c r="H380">
-        <v>0.1852757593127167</v>
+        <v>0.1673958705772689</v>
       </c>
       <c r="I380">
-        <v>14.14848482755762</v>
+        <v>11.88043264139932</v>
       </c>
       <c r="J380">
-        <v>0.4206060689769481</v>
+        <v>0.3597836793003378</v>
       </c>
       <c r="K380">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L380">
-        <v>82.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="M380">
-        <v>207.5</v>
+        <v>204</v>
       </c>
       <c r="N380">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O380">
         <v>1</v>
@@ -20585,52 +20591,52 @@
     </row>
     <row r="381" spans="1:16">
       <c r="A381" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B381" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C381">
-        <v>-2.10269534440512</v>
+        <v>9.044345743430753</v>
       </c>
       <c r="D381" t="s">
         <v>252</v>
       </c>
       <c r="E381">
-        <v>10.74605227334604</v>
+        <v>20.60412942273109</v>
       </c>
       <c r="F381">
         <v>1</v>
       </c>
       <c r="G381">
-        <v>0.1703026953444051</v>
+        <v>0.1565556542565693</v>
       </c>
       <c r="H381">
-        <v>0.185253947726654</v>
+        <v>0.1673958705772689</v>
       </c>
       <c r="I381">
-        <v>12.84874761775116</v>
+        <v>11.55978367930034</v>
       </c>
       <c r="J381">
-        <v>0.4205009528995372</v>
+        <v>0.3597836793003378</v>
       </c>
       <c r="K381">
         <v>205</v>
       </c>
       <c r="L381">
-        <v>84.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="M381">
-        <v>207.5</v>
+        <v>204</v>
       </c>
       <c r="N381">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O381">
         <v>1</v>
       </c>
       <c r="P381" t="s">
-        <v>469</v>
+        <v>136</v>
       </c>
     </row>
     <row r="382" spans="1:16">
@@ -20638,49 +20644,49 @@
         <v>0</v>
       </c>
       <c r="B382" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C382">
-        <v>13.16161645214643</v>
+        <v>-3.424244140274368</v>
       </c>
       <c r="D382" t="s">
         <v>253</v>
       </c>
       <c r="E382">
-        <v>9.280369598044189</v>
+        <v>10.72424068728326</v>
       </c>
       <c r="F382">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G382">
-        <v>0.1634383835478536</v>
+        <v>0.1690242441402744</v>
       </c>
       <c r="H382">
-        <v>0.1683196304019558</v>
+        <v>0.1852757593127167</v>
       </c>
       <c r="I382">
-        <v>3.881246854102244</v>
+        <v>14.14848482755762</v>
       </c>
       <c r="J382">
-        <v>0.4381246854102249</v>
+        <v>0.4206060689769481</v>
       </c>
       <c r="K382">
-        <v>171.5</v>
+        <v>205</v>
       </c>
       <c r="L382">
-        <v>88.3</v>
+        <v>82.8</v>
       </c>
       <c r="M382">
-        <v>181.5</v>
+        <v>207.5</v>
       </c>
       <c r="N382">
-        <v>88.8</v>
+        <v>98</v>
       </c>
       <c r="O382">
         <v>1</v>
       </c>
       <c r="P382" t="s">
-        <v>470</v>
+        <v>135</v>
       </c>
     </row>
     <row r="383" spans="1:16">
@@ -20688,49 +20694,49 @@
         <v>0</v>
       </c>
       <c r="B383" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C383">
-        <v>-21.82338146012957</v>
+        <v>-2.10269534440512</v>
       </c>
       <c r="D383" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E383">
-        <v>-26.74300800979539</v>
+        <v>10.74605227334604</v>
       </c>
       <c r="F383">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G383">
-        <v>0.2024233814601296</v>
+        <v>0.1703026953444051</v>
       </c>
       <c r="H383">
-        <v>0.2025430080097954</v>
+        <v>0.185253947726654</v>
       </c>
       <c r="I383">
-        <v>4.919626549665821</v>
+        <v>12.84874761775116</v>
       </c>
       <c r="J383">
-        <v>0.6299066374164582</v>
+        <v>0.4205009528995372</v>
       </c>
       <c r="K383">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="L383">
-        <v>90.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="M383">
-        <v>182</v>
+        <v>207.5</v>
       </c>
       <c r="N383">
-        <v>87.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="O383">
         <v>1</v>
       </c>
       <c r="P383" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -20738,49 +20744,199 @@
         <v>0</v>
       </c>
       <c r="B384" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C384">
-        <v>32.20533098261782</v>
+        <v>13.16161645214643</v>
       </c>
       <c r="D384" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E384">
-        <v>30.31287540747297</v>
+        <v>9.280369598044189</v>
       </c>
       <c r="F384">
         <v>-1</v>
       </c>
       <c r="G384">
-        <v>0.1503946690173822</v>
+        <v>0.1634383835478536</v>
       </c>
       <c r="H384">
-        <v>0.1494871245925271</v>
+        <v>0.1683196304019558</v>
       </c>
       <c r="I384">
-        <v>1.892455575144844</v>
+        <v>3.881246854102244</v>
       </c>
       <c r="J384">
-        <v>0.3283037167632343</v>
+        <v>0.4381246854102249</v>
       </c>
       <c r="K384">
-        <v>180</v>
+        <v>171.5</v>
       </c>
       <c r="L384">
-        <v>91.3</v>
+        <v>88.3</v>
       </c>
       <c r="M384">
         <v>181.5</v>
       </c>
       <c r="N384">
-        <v>89.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="O384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P384" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16">
+      <c r="A385" s="1">
+        <v>0</v>
+      </c>
+      <c r="B385" t="s">
+        <v>142</v>
+      </c>
+      <c r="C385">
+        <v>-21.82338146012957</v>
+      </c>
+      <c r="D385" t="s">
+        <v>255</v>
+      </c>
+      <c r="E385">
+        <v>-26.74300800979539</v>
+      </c>
+      <c r="F385">
+        <v>-1</v>
+      </c>
+      <c r="G385">
+        <v>0.2024233814601296</v>
+      </c>
+      <c r="H385">
+        <v>0.2025430080097954</v>
+      </c>
+      <c r="I385">
+        <v>4.919626549665821</v>
+      </c>
+      <c r="J385">
+        <v>0.6299066374164582</v>
+      </c>
+      <c r="K385">
+        <v>178</v>
+      </c>
+      <c r="L385">
+        <v>90.3</v>
+      </c>
+      <c r="M385">
+        <v>182</v>
+      </c>
+      <c r="N385">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="O385">
+        <v>1</v>
+      </c>
+      <c r="P385" t="s">
         <v>472</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16">
+      <c r="A386" s="1">
+        <v>0</v>
+      </c>
+      <c r="B386" t="s">
+        <v>143</v>
+      </c>
+      <c r="C386">
+        <v>32.20533098261782</v>
+      </c>
+      <c r="D386" t="s">
+        <v>256</v>
+      </c>
+      <c r="E386">
+        <v>28.99211611556489</v>
+      </c>
+      <c r="F386">
+        <v>-1</v>
+      </c>
+      <c r="G386">
+        <v>0.1503946690173822</v>
+      </c>
+      <c r="H386">
+        <v>0.1498078838844351</v>
+      </c>
+      <c r="I386">
+        <v>3.213214867052926</v>
+      </c>
+      <c r="J386">
+        <v>0.3283037167632343</v>
+      </c>
+      <c r="K386">
+        <v>180</v>
+      </c>
+      <c r="L386">
+        <v>91.3</v>
+      </c>
+      <c r="M386">
+        <v>184</v>
+      </c>
+      <c r="N386">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="O386">
+        <v>1</v>
+      </c>
+      <c r="P386" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16">
+      <c r="A387" s="1">
+        <v>0</v>
+      </c>
+      <c r="B387" t="s">
+        <v>143</v>
+      </c>
+      <c r="C387">
+        <v>30.11806288540985</v>
+      </c>
+      <c r="D387" t="s">
+        <v>256</v>
+      </c>
+      <c r="E387">
+        <v>26.85846428286341</v>
+      </c>
+      <c r="F387">
+        <v>-1</v>
+      </c>
+      <c r="G387">
+        <v>0.1524819371145902</v>
+      </c>
+      <c r="H387">
+        <v>0.1519415357171366</v>
+      </c>
+      <c r="I387">
+        <v>3.25959860254644</v>
+      </c>
+      <c r="J387">
+        <v>0.3398996506366119</v>
+      </c>
+      <c r="K387">
+        <v>180</v>
+      </c>
+      <c r="L387">
+        <v>91.3</v>
+      </c>
+      <c r="M387">
+        <v>184</v>
+      </c>
+      <c r="N387">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="O387">
+        <v>1</v>
+      </c>
+      <c r="P387" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-2474-2382-800.xlsx
+++ b/s60_signal/position-2474-2382-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="476">
   <si>
     <t>trade_time</t>
   </si>
@@ -415,1009 +415,1012 @@
     <t>2020-12-29</t>
   </si>
   <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>2021-05-17</t>
+  </si>
+  <si>
+    <t>2021-05-14</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>2010-10-22</t>
+  </si>
+  <si>
+    <t>2010-10-25</t>
+  </si>
+  <si>
+    <t>2010-10-28</t>
+  </si>
+  <si>
+    <t>2011-05-13</t>
+  </si>
+  <si>
+    <t>2011-05-16</t>
+  </si>
+  <si>
+    <t>2011-05-17</t>
+  </si>
+  <si>
+    <t>2011-05-18</t>
+  </si>
+  <si>
+    <t>2011-05-19</t>
+  </si>
+  <si>
+    <t>2011-05-20</t>
+  </si>
+  <si>
+    <t>2011-05-23</t>
+  </si>
+  <si>
+    <t>2011-05-24</t>
+  </si>
+  <si>
+    <t>2011-05-25</t>
+  </si>
+  <si>
+    <t>2011-05-26</t>
+  </si>
+  <si>
+    <t>2011-05-27</t>
+  </si>
+  <si>
+    <t>2011-05-30</t>
+  </si>
+  <si>
+    <t>2011-05-31</t>
+  </si>
+  <si>
+    <t>2011-06-02</t>
+  </si>
+  <si>
+    <t>2011-06-03</t>
+  </si>
+  <si>
+    <t>2011-07-22</t>
+  </si>
+  <si>
+    <t>2011-07-25</t>
+  </si>
+  <si>
+    <t>2011-07-27</t>
+  </si>
+  <si>
+    <t>2011-07-28</t>
+  </si>
+  <si>
+    <t>2011-07-29</t>
+  </si>
+  <si>
+    <t>2011-10-07</t>
+  </si>
+  <si>
+    <t>2011-10-05</t>
+  </si>
+  <si>
+    <t>2012-02-29</t>
+  </si>
+  <si>
+    <t>2012-07-18</t>
+  </si>
+  <si>
+    <t>2012-05-02</t>
+  </si>
+  <si>
+    <t>2012-05-25</t>
+  </si>
+  <si>
+    <t>2012-11-13</t>
+  </si>
+  <si>
+    <t>2012-11-14</t>
+  </si>
+  <si>
+    <t>2012-12-14</t>
+  </si>
+  <si>
+    <t>2012-08-01</t>
+  </si>
+  <si>
+    <t>2013-06-14</t>
+  </si>
+  <si>
+    <t>2013-06-17</t>
+  </si>
+  <si>
+    <t>2013-06-18</t>
+  </si>
+  <si>
+    <t>2013-05-20</t>
+  </si>
+  <si>
+    <t>2013-08-06</t>
+  </si>
+  <si>
+    <t>2013-05-16</t>
+  </si>
+  <si>
+    <t>2013-11-28</t>
+  </si>
+  <si>
+    <t>2013-12-04</t>
+  </si>
+  <si>
+    <t>2014-02-17</t>
+  </si>
+  <si>
+    <t>2014-02-19</t>
+  </si>
+  <si>
+    <t>2013-08-07</t>
+  </si>
+  <si>
+    <t>2013-08-08</t>
+  </si>
+  <si>
+    <t>2013-08-09</t>
+  </si>
+  <si>
+    <t>2013-09-23</t>
+  </si>
+  <si>
+    <t>2014-04-25</t>
+  </si>
+  <si>
+    <t>2014-04-24</t>
+  </si>
+  <si>
+    <t>2014-09-15</t>
+  </si>
+  <si>
+    <t>2014-12-02</t>
+  </si>
+  <si>
+    <t>2014-09-10</t>
+  </si>
+  <si>
+    <t>2014-09-04</t>
+  </si>
+  <si>
+    <t>2014-11-11</t>
+  </si>
+  <si>
+    <t>2014-09-03</t>
+  </si>
+  <si>
+    <t>2014-11-03</t>
+  </si>
+  <si>
+    <t>2014-11-27</t>
+  </si>
+  <si>
+    <t>2015-03-18</t>
+  </si>
+  <si>
+    <t>2015-08-07</t>
+  </si>
+  <si>
+    <t>2016-03-16</t>
+  </si>
+  <si>
+    <t>2016-03-17</t>
+  </si>
+  <si>
+    <t>2016-02-01</t>
+  </si>
+  <si>
+    <t>2016-02-02</t>
+  </si>
+  <si>
+    <t>2016-07-18</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-08-03</t>
+  </si>
+  <si>
+    <t>2016-07-01</t>
+  </si>
+  <si>
+    <t>2017-02-08</t>
+  </si>
+  <si>
+    <t>2017-06-23</t>
+  </si>
+  <si>
+    <t>2017-03-29</t>
+  </si>
+  <si>
+    <t>2017-11-15</t>
+  </si>
+  <si>
+    <t>2018-03-08</t>
+  </si>
+  <si>
+    <t>2018-03-09</t>
+  </si>
+  <si>
+    <t>2018-04-18</t>
+  </si>
+  <si>
+    <t>2018-04-19</t>
+  </si>
+  <si>
+    <t>2018-04-20</t>
+  </si>
+  <si>
+    <t>2018-04-23</t>
+  </si>
+  <si>
+    <t>2018-05-04</t>
+  </si>
+  <si>
+    <t>2018-05-07</t>
+  </si>
+  <si>
+    <t>2018-05-08</t>
+  </si>
+  <si>
+    <t>2018-04-12</t>
+  </si>
+  <si>
+    <t>2018-11-16</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>2018-12-03</t>
+  </si>
+  <si>
+    <t>2018-12-27</t>
+  </si>
+  <si>
+    <t>2019-01-03</t>
+  </si>
+  <si>
+    <t>2019-02-14</t>
+  </si>
+  <si>
+    <t>2019-02-20</t>
+  </si>
+  <si>
+    <t>2019-09-12</t>
+  </si>
+  <si>
+    <t>2019-09-16</t>
+  </si>
+  <si>
+    <t>2019-09-17</t>
+  </si>
+  <si>
+    <t>2019-09-18</t>
+  </si>
+  <si>
+    <t>2019-09-19</t>
+  </si>
+  <si>
+    <t>2019-09-23</t>
+  </si>
+  <si>
+    <t>2019-10-30</t>
+  </si>
+  <si>
+    <t>2019-11-01</t>
+  </si>
+  <si>
+    <t>2019-11-11</t>
+  </si>
+  <si>
+    <t>2019-11-14</t>
+  </si>
+  <si>
+    <t>2019-11-05</t>
+  </si>
+  <si>
+    <t>2019-12-12</t>
+  </si>
+  <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>2021-02-17</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>2021-03-23</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>2021-03-29</t>
+  </si>
+  <si>
+    <t>2021-05-21</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-07-15</t>
+  </si>
+  <si>
+    <t>2010-08-03</t>
+  </si>
+  <si>
+    <t>2010-08-19</t>
+  </si>
+  <si>
+    <t>2010-08-26</t>
+  </si>
+  <si>
+    <t>2010-08-27</t>
+  </si>
+  <si>
+    <t>2010-08-30</t>
+  </si>
+  <si>
+    <t>2010-09-17</t>
+  </si>
+  <si>
+    <t>2010-09-20</t>
+  </si>
+  <si>
+    <t>2010-09-21</t>
+  </si>
+  <si>
+    <t>2010-09-23</t>
+  </si>
+  <si>
+    <t>2010-09-24</t>
+  </si>
+  <si>
+    <t>2010-09-27</t>
+  </si>
+  <si>
+    <t>2010-09-28</t>
+  </si>
+  <si>
+    <t>2010-09-29</t>
+  </si>
+  <si>
+    <t>2010-09-30</t>
+  </si>
+  <si>
+    <t>2010-10-01</t>
+  </si>
+  <si>
+    <t>2010-10-04</t>
+  </si>
+  <si>
+    <t>2010-10-05</t>
+  </si>
+  <si>
+    <t>2010-10-06</t>
+  </si>
+  <si>
+    <t>2010-10-07</t>
+  </si>
+  <si>
+    <t>2010-10-08</t>
+  </si>
+  <si>
+    <t>2010-10-11</t>
+  </si>
+  <si>
+    <t>2010-11-24</t>
+  </si>
+  <si>
+    <t>2010-11-25</t>
+  </si>
+  <si>
+    <t>2010-11-26</t>
+  </si>
+  <si>
+    <t>2010-11-29</t>
+  </si>
+  <si>
+    <t>2010-11-30</t>
+  </si>
+  <si>
+    <t>2010-12-01</t>
+  </si>
+  <si>
+    <t>2010-12-02</t>
+  </si>
+  <si>
+    <t>2010-12-03</t>
+  </si>
+  <si>
+    <t>2011-06-24</t>
+  </si>
+  <si>
+    <t>2011-06-27</t>
+  </si>
+  <si>
+    <t>2011-06-30</t>
+  </si>
+  <si>
+    <t>2011-07-07</t>
+  </si>
+  <si>
+    <t>2011-12-02</t>
+  </si>
+  <si>
+    <t>2011-12-05</t>
+  </si>
+  <si>
+    <t>2012-02-24</t>
+  </si>
+  <si>
+    <t>2012-03-02</t>
+  </si>
+  <si>
+    <t>2012-03-06</t>
+  </si>
+  <si>
+    <t>2012-03-07</t>
+  </si>
+  <si>
+    <t>2012-03-12</t>
+  </si>
+  <si>
+    <t>2012-03-13</t>
+  </si>
+  <si>
+    <t>2012-03-29</t>
+  </si>
+  <si>
+    <t>2012-03-30</t>
+  </si>
+  <si>
+    <t>2012-05-03</t>
+  </si>
+  <si>
+    <t>2012-05-15</t>
+  </si>
+  <si>
+    <t>2012-05-16</t>
+  </si>
+  <si>
+    <t>2012-05-17</t>
+  </si>
+  <si>
+    <t>2012-05-18</t>
+  </si>
+  <si>
+    <t>2012-05-21</t>
+  </si>
+  <si>
+    <t>2012-05-22</t>
+  </si>
+  <si>
+    <t>2012-05-23</t>
+  </si>
+  <si>
+    <t>2012-05-24</t>
+  </si>
+  <si>
+    <t>2012-05-28</t>
+  </si>
+  <si>
+    <t>2012-05-29</t>
+  </si>
+  <si>
+    <t>2012-05-30</t>
+  </si>
+  <si>
+    <t>2012-05-31</t>
+  </si>
+  <si>
+    <t>2012-06-01</t>
+  </si>
+  <si>
+    <t>2012-06-04</t>
+  </si>
+  <si>
+    <t>2012-06-05</t>
+  </si>
+  <si>
+    <t>2012-06-06</t>
+  </si>
+  <si>
+    <t>2012-06-07</t>
+  </si>
+  <si>
+    <t>2012-06-08</t>
+  </si>
+  <si>
+    <t>2012-06-11</t>
+  </si>
+  <si>
+    <t>2012-06-12</t>
+  </si>
+  <si>
+    <t>2012-06-13</t>
+  </si>
+  <si>
+    <t>2012-06-14</t>
+  </si>
+  <si>
+    <t>2012-06-15</t>
+  </si>
+  <si>
+    <t>2012-06-19</t>
+  </si>
+  <si>
+    <t>2012-06-20</t>
+  </si>
+  <si>
+    <t>2012-06-22</t>
+  </si>
+  <si>
+    <t>2012-10-18</t>
+  </si>
+  <si>
+    <t>2012-10-19</t>
+  </si>
+  <si>
+    <t>2012-10-22</t>
+  </si>
+  <si>
+    <t>2013-04-08</t>
+  </si>
+  <si>
+    <t>2013-04-12</t>
+  </si>
+  <si>
+    <t>2013-06-25</t>
+  </si>
+  <si>
+    <t>2013-06-27</t>
+  </si>
+  <si>
+    <t>2013-06-28</t>
+  </si>
+  <si>
+    <t>2013-07-01</t>
+  </si>
+  <si>
+    <t>2013-07-02</t>
+  </si>
+  <si>
+    <t>2013-07-03</t>
+  </si>
+  <si>
+    <t>2013-07-04</t>
+  </si>
+  <si>
+    <t>2013-10-28</t>
+  </si>
+  <si>
+    <t>2014-01-22</t>
+  </si>
+  <si>
+    <t>2014-01-23</t>
+  </si>
+  <si>
+    <t>2014-01-24</t>
+  </si>
+  <si>
+    <t>2014-01-27</t>
+  </si>
+  <si>
+    <t>2014-02-06</t>
+  </si>
+  <si>
+    <t>2014-02-07</t>
+  </si>
+  <si>
+    <t>2014-02-10</t>
+  </si>
+  <si>
+    <t>2014-02-11</t>
+  </si>
+  <si>
+    <t>2014-02-18</t>
+  </si>
+  <si>
+    <t>2014-02-20</t>
+  </si>
+  <si>
+    <t>2014-02-21</t>
+  </si>
+  <si>
+    <t>2014-07-08</t>
+  </si>
+  <si>
+    <t>2014-07-10</t>
+  </si>
+  <si>
+    <t>2014-07-11</t>
+  </si>
+  <si>
+    <t>2014-07-16</t>
+  </si>
+  <si>
+    <t>2014-07-17</t>
+  </si>
+  <si>
+    <t>2014-07-18</t>
+  </si>
+  <si>
+    <t>2014-10-15</t>
+  </si>
+  <si>
+    <t>2014-11-04</t>
+  </si>
+  <si>
+    <t>2015-06-11</t>
+  </si>
+  <si>
+    <t>2015-06-12</t>
+  </si>
+  <si>
+    <t>2015-06-15</t>
+  </si>
+  <si>
+    <t>2015-07-22</t>
+  </si>
+  <si>
+    <t>2015-07-23</t>
+  </si>
+  <si>
+    <t>2015-10-15</t>
+  </si>
+  <si>
+    <t>2015-10-16</t>
+  </si>
+  <si>
+    <t>2015-11-19</t>
+  </si>
+  <si>
+    <t>2016-04-01</t>
+  </si>
+  <si>
+    <t>2016-04-07</t>
+  </si>
+  <si>
+    <t>2016-04-08</t>
+  </si>
+  <si>
+    <t>2016-04-15</t>
+  </si>
+  <si>
+    <t>2016-04-18</t>
+  </si>
+  <si>
+    <t>2016-04-19</t>
+  </si>
+  <si>
+    <t>2016-04-21</t>
+  </si>
+  <si>
+    <t>2016-04-22</t>
+  </si>
+  <si>
+    <t>2016-04-27</t>
+  </si>
+  <si>
+    <t>2016-04-28</t>
+  </si>
+  <si>
+    <t>2016-05-03</t>
+  </si>
+  <si>
+    <t>2016-05-05</t>
+  </si>
+  <si>
+    <t>2016-05-10</t>
+  </si>
+  <si>
+    <t>2016-05-11</t>
+  </si>
+  <si>
+    <t>2016-05-12</t>
+  </si>
+  <si>
+    <t>2016-05-13</t>
+  </si>
+  <si>
+    <t>2016-05-16</t>
+  </si>
+  <si>
+    <t>2016-05-17</t>
+  </si>
+  <si>
+    <t>2016-10-27</t>
+  </si>
+  <si>
+    <t>2016-12-15</t>
+  </si>
+  <si>
+    <t>2017-06-26</t>
+  </si>
+  <si>
+    <t>2017-06-27</t>
+  </si>
+  <si>
+    <t>2017-07-11</t>
+  </si>
+  <si>
+    <t>2017-07-12</t>
+  </si>
+  <si>
+    <t>2017-07-13</t>
+  </si>
+  <si>
+    <t>2017-07-14</t>
+  </si>
+  <si>
+    <t>2017-07-17</t>
+  </si>
+  <si>
+    <t>2017-08-21</t>
+  </si>
+  <si>
+    <t>2017-08-22</t>
+  </si>
+  <si>
+    <t>2017-08-23</t>
+  </si>
+  <si>
+    <t>2017-08-24</t>
+  </si>
+  <si>
+    <t>2017-08-25</t>
+  </si>
+  <si>
+    <t>2017-09-06</t>
+  </si>
+  <si>
+    <t>2017-09-07</t>
+  </si>
+  <si>
+    <t>2017-09-08</t>
+  </si>
+  <si>
+    <t>2018-01-12</t>
+  </si>
+  <si>
+    <t>2018-01-15</t>
+  </si>
+  <si>
+    <t>2018-01-16</t>
+  </si>
+  <si>
+    <t>2018-01-17</t>
+  </si>
+  <si>
+    <t>2018-01-30</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>2018-02-06</t>
+  </si>
+  <si>
+    <t>2018-02-22</t>
+  </si>
+  <si>
+    <t>2018-03-30</t>
+  </si>
+  <si>
+    <t>2018-05-16</t>
+  </si>
+  <si>
+    <t>2018-05-21</t>
+  </si>
+  <si>
+    <t>2018-11-20</t>
+  </si>
+  <si>
+    <t>2018-12-28</t>
+  </si>
+  <si>
+    <t>2019-01-09</t>
+  </si>
+  <si>
+    <t>2019-01-10</t>
+  </si>
+  <si>
+    <t>2019-01-15</t>
+  </si>
+  <si>
+    <t>2019-01-16</t>
+  </si>
+  <si>
+    <t>2019-01-17</t>
+  </si>
+  <si>
+    <t>2019-01-18</t>
+  </si>
+  <si>
+    <t>2019-01-22</t>
+  </si>
+  <si>
+    <t>2019-01-23</t>
+  </si>
+  <si>
+    <t>2019-01-24</t>
+  </si>
+  <si>
+    <t>2019-01-25</t>
+  </si>
+  <si>
+    <t>2019-01-29</t>
+  </si>
+  <si>
+    <t>2019-03-11</t>
+  </si>
+  <si>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>2019-03-13</t>
+  </si>
+  <si>
+    <t>2019-04-09</t>
+  </si>
+  <si>
+    <t>2019-04-10</t>
+  </si>
+  <si>
+    <t>2019-04-18</t>
+  </si>
+  <si>
+    <t>2019-04-19</t>
+  </si>
+  <si>
+    <t>2019-04-25</t>
+  </si>
+  <si>
+    <t>2019-04-26</t>
+  </si>
+  <si>
+    <t>2019-05-02</t>
+  </si>
+  <si>
+    <t>2019-05-07</t>
+  </si>
+  <si>
+    <t>2019-05-08</t>
+  </si>
+  <si>
+    <t>2019-05-09</t>
+  </si>
+  <si>
+    <t>2019-05-10</t>
+  </si>
+  <si>
+    <t>2019-05-13</t>
+  </si>
+  <si>
+    <t>2019-07-29</t>
+  </si>
+  <si>
+    <t>2019-08-29</t>
+  </si>
+  <si>
+    <t>2019-08-30</t>
+  </si>
+  <si>
+    <t>2019-09-02</t>
+  </si>
+  <si>
+    <t>2019-09-03</t>
+  </si>
+  <si>
+    <t>2019-09-04</t>
+  </si>
+  <si>
+    <t>2019-09-05</t>
+  </si>
+  <si>
+    <t>2019-09-06</t>
+  </si>
+  <si>
+    <t>2019-09-10</t>
+  </si>
+  <si>
+    <t>2020-02-20</t>
+  </si>
+  <si>
+    <t>2020-02-21</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
+  </si>
+  <si>
+    <t>2020-02-26</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>2020-03-12</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
     <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>2021-01-19</t>
-  </si>
-  <si>
-    <t>2021-01-14</t>
-  </si>
-  <si>
-    <t>2021-01-07</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>2021-01-21</t>
-  </si>
-  <si>
-    <t>2021-01-28</t>
-  </si>
-  <si>
-    <t>2021-01-27</t>
-  </si>
-  <si>
-    <t>2021-05-17</t>
-  </si>
-  <si>
-    <t>2021-05-14</t>
-  </si>
-  <si>
-    <t>2021-07-12</t>
-  </si>
-  <si>
-    <t>2010-10-22</t>
-  </si>
-  <si>
-    <t>2010-10-25</t>
-  </si>
-  <si>
-    <t>2010-10-28</t>
-  </si>
-  <si>
-    <t>2011-05-13</t>
-  </si>
-  <si>
-    <t>2011-05-16</t>
-  </si>
-  <si>
-    <t>2011-05-17</t>
-  </si>
-  <si>
-    <t>2011-05-18</t>
-  </si>
-  <si>
-    <t>2011-05-19</t>
-  </si>
-  <si>
-    <t>2011-05-20</t>
-  </si>
-  <si>
-    <t>2011-05-23</t>
-  </si>
-  <si>
-    <t>2011-05-24</t>
-  </si>
-  <si>
-    <t>2011-05-25</t>
-  </si>
-  <si>
-    <t>2011-05-26</t>
-  </si>
-  <si>
-    <t>2011-05-27</t>
-  </si>
-  <si>
-    <t>2011-05-30</t>
-  </si>
-  <si>
-    <t>2011-05-31</t>
-  </si>
-  <si>
-    <t>2011-06-02</t>
-  </si>
-  <si>
-    <t>2011-06-03</t>
-  </si>
-  <si>
-    <t>2011-07-22</t>
-  </si>
-  <si>
-    <t>2011-07-25</t>
-  </si>
-  <si>
-    <t>2011-07-27</t>
-  </si>
-  <si>
-    <t>2011-07-28</t>
-  </si>
-  <si>
-    <t>2011-07-29</t>
-  </si>
-  <si>
-    <t>2011-10-07</t>
-  </si>
-  <si>
-    <t>2011-10-05</t>
-  </si>
-  <si>
-    <t>2012-02-29</t>
-  </si>
-  <si>
-    <t>2012-07-18</t>
-  </si>
-  <si>
-    <t>2012-05-02</t>
-  </si>
-  <si>
-    <t>2012-05-25</t>
-  </si>
-  <si>
-    <t>2012-11-13</t>
-  </si>
-  <si>
-    <t>2012-11-14</t>
-  </si>
-  <si>
-    <t>2012-12-14</t>
-  </si>
-  <si>
-    <t>2012-08-01</t>
-  </si>
-  <si>
-    <t>2013-06-14</t>
-  </si>
-  <si>
-    <t>2013-06-17</t>
-  </si>
-  <si>
-    <t>2013-06-18</t>
-  </si>
-  <si>
-    <t>2013-05-20</t>
-  </si>
-  <si>
-    <t>2013-08-06</t>
-  </si>
-  <si>
-    <t>2013-05-16</t>
-  </si>
-  <si>
-    <t>2013-11-28</t>
-  </si>
-  <si>
-    <t>2013-12-04</t>
-  </si>
-  <si>
-    <t>2014-02-17</t>
-  </si>
-  <si>
-    <t>2014-02-19</t>
-  </si>
-  <si>
-    <t>2013-08-07</t>
-  </si>
-  <si>
-    <t>2013-08-08</t>
-  </si>
-  <si>
-    <t>2013-08-09</t>
-  </si>
-  <si>
-    <t>2013-09-23</t>
-  </si>
-  <si>
-    <t>2014-04-25</t>
-  </si>
-  <si>
-    <t>2014-04-24</t>
-  </si>
-  <si>
-    <t>2014-09-15</t>
-  </si>
-  <si>
-    <t>2014-12-02</t>
-  </si>
-  <si>
-    <t>2014-09-10</t>
-  </si>
-  <si>
-    <t>2014-09-04</t>
-  </si>
-  <si>
-    <t>2014-11-11</t>
-  </si>
-  <si>
-    <t>2014-09-03</t>
-  </si>
-  <si>
-    <t>2014-11-03</t>
-  </si>
-  <si>
-    <t>2014-11-27</t>
-  </si>
-  <si>
-    <t>2015-03-18</t>
-  </si>
-  <si>
-    <t>2015-08-07</t>
-  </si>
-  <si>
-    <t>2016-03-16</t>
-  </si>
-  <si>
-    <t>2016-03-17</t>
-  </si>
-  <si>
-    <t>2016-02-01</t>
-  </si>
-  <si>
-    <t>2016-02-02</t>
-  </si>
-  <si>
-    <t>2016-07-18</t>
-  </si>
-  <si>
-    <t>2016-06-30</t>
-  </si>
-  <si>
-    <t>2016-08-03</t>
-  </si>
-  <si>
-    <t>2016-07-01</t>
-  </si>
-  <si>
-    <t>2017-02-08</t>
-  </si>
-  <si>
-    <t>2017-06-23</t>
-  </si>
-  <si>
-    <t>2017-03-29</t>
-  </si>
-  <si>
-    <t>2017-11-15</t>
-  </si>
-  <si>
-    <t>2018-03-08</t>
-  </si>
-  <si>
-    <t>2018-03-09</t>
-  </si>
-  <si>
-    <t>2018-04-18</t>
-  </si>
-  <si>
-    <t>2018-04-19</t>
-  </si>
-  <si>
-    <t>2018-04-20</t>
-  </si>
-  <si>
-    <t>2018-04-23</t>
-  </si>
-  <si>
-    <t>2018-05-04</t>
-  </si>
-  <si>
-    <t>2018-05-07</t>
-  </si>
-  <si>
-    <t>2018-05-08</t>
-  </si>
-  <si>
-    <t>2018-04-12</t>
-  </si>
-  <si>
-    <t>2018-11-16</t>
-  </si>
-  <si>
-    <t>2018-11-30</t>
-  </si>
-  <si>
-    <t>2018-12-03</t>
-  </si>
-  <si>
-    <t>2018-12-27</t>
-  </si>
-  <si>
-    <t>2019-01-03</t>
-  </si>
-  <si>
-    <t>2019-02-14</t>
-  </si>
-  <si>
-    <t>2019-02-20</t>
-  </si>
-  <si>
-    <t>2019-09-12</t>
-  </si>
-  <si>
-    <t>2019-09-16</t>
-  </si>
-  <si>
-    <t>2019-09-17</t>
-  </si>
-  <si>
-    <t>2019-09-18</t>
-  </si>
-  <si>
-    <t>2019-09-19</t>
-  </si>
-  <si>
-    <t>2019-09-23</t>
-  </si>
-  <si>
-    <t>2019-10-30</t>
-  </si>
-  <si>
-    <t>2019-11-01</t>
-  </si>
-  <si>
-    <t>2019-11-11</t>
-  </si>
-  <si>
-    <t>2019-11-14</t>
-  </si>
-  <si>
-    <t>2019-11-05</t>
-  </si>
-  <si>
-    <t>2019-12-12</t>
-  </si>
-  <si>
-    <t>2020-05-29</t>
-  </si>
-  <si>
-    <t>2020-06-03</t>
-  </si>
-  <si>
-    <t>2020-06-04</t>
-  </si>
-  <si>
-    <t>2021-02-17</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>2021-03-23</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>2021-03-29</t>
-  </si>
-  <si>
-    <t>2021-05-21</t>
-  </si>
-  <si>
-    <t>2021-05-24</t>
-  </si>
-  <si>
-    <t>2021-07-15</t>
-  </si>
-  <si>
-    <t>2010-08-03</t>
-  </si>
-  <si>
-    <t>2010-08-19</t>
-  </si>
-  <si>
-    <t>2010-08-26</t>
-  </si>
-  <si>
-    <t>2010-08-27</t>
-  </si>
-  <si>
-    <t>2010-08-30</t>
-  </si>
-  <si>
-    <t>2010-09-17</t>
-  </si>
-  <si>
-    <t>2010-09-20</t>
-  </si>
-  <si>
-    <t>2010-09-21</t>
-  </si>
-  <si>
-    <t>2010-09-23</t>
-  </si>
-  <si>
-    <t>2010-09-24</t>
-  </si>
-  <si>
-    <t>2010-09-27</t>
-  </si>
-  <si>
-    <t>2010-09-28</t>
-  </si>
-  <si>
-    <t>2010-09-29</t>
-  </si>
-  <si>
-    <t>2010-09-30</t>
-  </si>
-  <si>
-    <t>2010-10-01</t>
-  </si>
-  <si>
-    <t>2010-10-04</t>
-  </si>
-  <si>
-    <t>2010-10-05</t>
-  </si>
-  <si>
-    <t>2010-10-06</t>
-  </si>
-  <si>
-    <t>2010-10-07</t>
-  </si>
-  <si>
-    <t>2010-10-08</t>
-  </si>
-  <si>
-    <t>2010-10-11</t>
-  </si>
-  <si>
-    <t>2010-11-24</t>
-  </si>
-  <si>
-    <t>2010-11-25</t>
-  </si>
-  <si>
-    <t>2010-11-26</t>
-  </si>
-  <si>
-    <t>2010-11-29</t>
-  </si>
-  <si>
-    <t>2010-11-30</t>
-  </si>
-  <si>
-    <t>2010-12-01</t>
-  </si>
-  <si>
-    <t>2010-12-02</t>
-  </si>
-  <si>
-    <t>2010-12-03</t>
-  </si>
-  <si>
-    <t>2011-06-24</t>
-  </si>
-  <si>
-    <t>2011-06-27</t>
-  </si>
-  <si>
-    <t>2011-06-30</t>
-  </si>
-  <si>
-    <t>2011-07-07</t>
-  </si>
-  <si>
-    <t>2011-12-02</t>
-  </si>
-  <si>
-    <t>2011-12-05</t>
-  </si>
-  <si>
-    <t>2012-02-24</t>
-  </si>
-  <si>
-    <t>2012-03-02</t>
-  </si>
-  <si>
-    <t>2012-03-06</t>
-  </si>
-  <si>
-    <t>2012-03-07</t>
-  </si>
-  <si>
-    <t>2012-03-12</t>
-  </si>
-  <si>
-    <t>2012-03-13</t>
-  </si>
-  <si>
-    <t>2012-03-29</t>
-  </si>
-  <si>
-    <t>2012-03-30</t>
-  </si>
-  <si>
-    <t>2012-05-03</t>
-  </si>
-  <si>
-    <t>2012-05-15</t>
-  </si>
-  <si>
-    <t>2012-05-16</t>
-  </si>
-  <si>
-    <t>2012-05-17</t>
-  </si>
-  <si>
-    <t>2012-05-18</t>
-  </si>
-  <si>
-    <t>2012-05-21</t>
-  </si>
-  <si>
-    <t>2012-05-22</t>
-  </si>
-  <si>
-    <t>2012-05-23</t>
-  </si>
-  <si>
-    <t>2012-05-24</t>
-  </si>
-  <si>
-    <t>2012-05-28</t>
-  </si>
-  <si>
-    <t>2012-05-29</t>
-  </si>
-  <si>
-    <t>2012-05-30</t>
-  </si>
-  <si>
-    <t>2012-05-31</t>
-  </si>
-  <si>
-    <t>2012-06-01</t>
-  </si>
-  <si>
-    <t>2012-06-04</t>
-  </si>
-  <si>
-    <t>2012-06-05</t>
-  </si>
-  <si>
-    <t>2012-06-06</t>
-  </si>
-  <si>
-    <t>2012-06-07</t>
-  </si>
-  <si>
-    <t>2012-06-08</t>
-  </si>
-  <si>
-    <t>2012-06-11</t>
-  </si>
-  <si>
-    <t>2012-06-12</t>
-  </si>
-  <si>
-    <t>2012-06-13</t>
-  </si>
-  <si>
-    <t>2012-06-14</t>
-  </si>
-  <si>
-    <t>2012-06-15</t>
-  </si>
-  <si>
-    <t>2012-06-19</t>
-  </si>
-  <si>
-    <t>2012-06-20</t>
-  </si>
-  <si>
-    <t>2012-06-22</t>
-  </si>
-  <si>
-    <t>2012-10-18</t>
-  </si>
-  <si>
-    <t>2012-10-19</t>
-  </si>
-  <si>
-    <t>2012-10-22</t>
-  </si>
-  <si>
-    <t>2013-04-08</t>
-  </si>
-  <si>
-    <t>2013-04-12</t>
-  </si>
-  <si>
-    <t>2013-06-25</t>
-  </si>
-  <si>
-    <t>2013-06-27</t>
-  </si>
-  <si>
-    <t>2013-06-28</t>
-  </si>
-  <si>
-    <t>2013-07-01</t>
-  </si>
-  <si>
-    <t>2013-07-02</t>
-  </si>
-  <si>
-    <t>2013-07-03</t>
-  </si>
-  <si>
-    <t>2013-07-04</t>
-  </si>
-  <si>
-    <t>2013-10-28</t>
-  </si>
-  <si>
-    <t>2014-01-22</t>
-  </si>
-  <si>
-    <t>2014-01-23</t>
-  </si>
-  <si>
-    <t>2014-01-24</t>
-  </si>
-  <si>
-    <t>2014-01-27</t>
-  </si>
-  <si>
-    <t>2014-02-06</t>
-  </si>
-  <si>
-    <t>2014-02-07</t>
-  </si>
-  <si>
-    <t>2014-02-10</t>
-  </si>
-  <si>
-    <t>2014-02-11</t>
-  </si>
-  <si>
-    <t>2014-02-18</t>
-  </si>
-  <si>
-    <t>2014-02-20</t>
-  </si>
-  <si>
-    <t>2014-02-21</t>
-  </si>
-  <si>
-    <t>2014-07-08</t>
-  </si>
-  <si>
-    <t>2014-07-10</t>
-  </si>
-  <si>
-    <t>2014-07-11</t>
-  </si>
-  <si>
-    <t>2014-07-16</t>
-  </si>
-  <si>
-    <t>2014-07-17</t>
-  </si>
-  <si>
-    <t>2014-07-18</t>
-  </si>
-  <si>
-    <t>2014-10-15</t>
-  </si>
-  <si>
-    <t>2014-11-04</t>
-  </si>
-  <si>
-    <t>2015-06-11</t>
-  </si>
-  <si>
-    <t>2015-06-12</t>
-  </si>
-  <si>
-    <t>2015-06-15</t>
-  </si>
-  <si>
-    <t>2015-07-22</t>
-  </si>
-  <si>
-    <t>2015-07-23</t>
-  </si>
-  <si>
-    <t>2015-10-15</t>
-  </si>
-  <si>
-    <t>2015-10-16</t>
-  </si>
-  <si>
-    <t>2015-11-19</t>
-  </si>
-  <si>
-    <t>2016-04-01</t>
-  </si>
-  <si>
-    <t>2016-04-07</t>
-  </si>
-  <si>
-    <t>2016-04-08</t>
-  </si>
-  <si>
-    <t>2016-04-15</t>
-  </si>
-  <si>
-    <t>2016-04-18</t>
-  </si>
-  <si>
-    <t>2016-04-19</t>
-  </si>
-  <si>
-    <t>2016-04-21</t>
-  </si>
-  <si>
-    <t>2016-04-22</t>
-  </si>
-  <si>
-    <t>2016-04-27</t>
-  </si>
-  <si>
-    <t>2016-04-28</t>
-  </si>
-  <si>
-    <t>2016-05-03</t>
-  </si>
-  <si>
-    <t>2016-05-05</t>
-  </si>
-  <si>
-    <t>2016-05-10</t>
-  </si>
-  <si>
-    <t>2016-05-11</t>
-  </si>
-  <si>
-    <t>2016-05-12</t>
-  </si>
-  <si>
-    <t>2016-05-13</t>
-  </si>
-  <si>
-    <t>2016-05-16</t>
-  </si>
-  <si>
-    <t>2016-05-17</t>
-  </si>
-  <si>
-    <t>2016-10-27</t>
-  </si>
-  <si>
-    <t>2016-12-15</t>
-  </si>
-  <si>
-    <t>2017-06-26</t>
-  </si>
-  <si>
-    <t>2017-06-27</t>
-  </si>
-  <si>
-    <t>2017-07-11</t>
-  </si>
-  <si>
-    <t>2017-07-12</t>
-  </si>
-  <si>
-    <t>2017-07-13</t>
-  </si>
-  <si>
-    <t>2017-07-14</t>
-  </si>
-  <si>
-    <t>2017-07-17</t>
-  </si>
-  <si>
-    <t>2017-08-21</t>
-  </si>
-  <si>
-    <t>2017-08-22</t>
-  </si>
-  <si>
-    <t>2017-08-23</t>
-  </si>
-  <si>
-    <t>2017-08-24</t>
-  </si>
-  <si>
-    <t>2017-08-25</t>
-  </si>
-  <si>
-    <t>2017-09-06</t>
-  </si>
-  <si>
-    <t>2017-09-07</t>
-  </si>
-  <si>
-    <t>2017-09-08</t>
-  </si>
-  <si>
-    <t>2018-01-12</t>
-  </si>
-  <si>
-    <t>2018-01-15</t>
-  </si>
-  <si>
-    <t>2018-01-16</t>
-  </si>
-  <si>
-    <t>2018-01-17</t>
-  </si>
-  <si>
-    <t>2018-01-30</t>
-  </si>
-  <si>
-    <t>2018-01-31</t>
-  </si>
-  <si>
-    <t>2018-02-06</t>
-  </si>
-  <si>
-    <t>2018-02-22</t>
-  </si>
-  <si>
-    <t>2018-03-30</t>
-  </si>
-  <si>
-    <t>2018-05-16</t>
-  </si>
-  <si>
-    <t>2018-05-21</t>
-  </si>
-  <si>
-    <t>2018-11-20</t>
-  </si>
-  <si>
-    <t>2018-12-28</t>
-  </si>
-  <si>
-    <t>2019-01-09</t>
-  </si>
-  <si>
-    <t>2019-01-10</t>
-  </si>
-  <si>
-    <t>2019-01-15</t>
-  </si>
-  <si>
-    <t>2019-01-16</t>
-  </si>
-  <si>
-    <t>2019-01-17</t>
-  </si>
-  <si>
-    <t>2019-01-18</t>
-  </si>
-  <si>
-    <t>2019-01-22</t>
-  </si>
-  <si>
-    <t>2019-01-23</t>
-  </si>
-  <si>
-    <t>2019-01-24</t>
-  </si>
-  <si>
-    <t>2019-01-25</t>
-  </si>
-  <si>
-    <t>2019-01-29</t>
-  </si>
-  <si>
-    <t>2019-03-11</t>
-  </si>
-  <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
-    <t>2019-03-13</t>
-  </si>
-  <si>
-    <t>2019-04-09</t>
-  </si>
-  <si>
-    <t>2019-04-10</t>
-  </si>
-  <si>
-    <t>2019-04-18</t>
-  </si>
-  <si>
-    <t>2019-04-19</t>
-  </si>
-  <si>
-    <t>2019-04-25</t>
-  </si>
-  <si>
-    <t>2019-04-26</t>
-  </si>
-  <si>
-    <t>2019-05-02</t>
-  </si>
-  <si>
-    <t>2019-05-07</t>
-  </si>
-  <si>
-    <t>2019-05-08</t>
-  </si>
-  <si>
-    <t>2019-05-09</t>
-  </si>
-  <si>
-    <t>2019-05-10</t>
-  </si>
-  <si>
-    <t>2019-05-13</t>
-  </si>
-  <si>
-    <t>2019-07-29</t>
-  </si>
-  <si>
-    <t>2019-08-29</t>
-  </si>
-  <si>
-    <t>2019-08-30</t>
-  </si>
-  <si>
-    <t>2019-09-02</t>
-  </si>
-  <si>
-    <t>2019-09-03</t>
-  </si>
-  <si>
-    <t>2019-09-04</t>
-  </si>
-  <si>
-    <t>2019-09-05</t>
-  </si>
-  <si>
-    <t>2019-09-06</t>
-  </si>
-  <si>
-    <t>2019-09-10</t>
-  </si>
-  <si>
-    <t>2020-02-20</t>
-  </si>
-  <si>
-    <t>2020-02-21</t>
-  </si>
-  <si>
-    <t>2020-02-24</t>
-  </si>
-  <si>
-    <t>2020-02-25</t>
-  </si>
-  <si>
-    <t>2020-02-26</t>
-  </si>
-  <si>
-    <t>2020-02-27</t>
-  </si>
-  <si>
-    <t>2020-03-02</t>
-  </si>
-  <si>
-    <t>2020-03-03</t>
-  </si>
-  <si>
-    <t>2020-03-04</t>
-  </si>
-  <si>
-    <t>2020-03-05</t>
-  </si>
-  <si>
-    <t>2020-03-06</t>
-  </si>
-  <si>
-    <t>2020-03-09</t>
-  </si>
-  <si>
-    <t>2020-03-12</t>
-  </si>
-  <si>
-    <t>2020-11-02</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>2020-12-23</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>2020-12-28</t>
   </si>
   <si>
     <t>2021-01-05</t>
@@ -1860,7 +1863,7 @@
         <v>39.24967816269653</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2">
         <v>47.58658728904034</v>
@@ -1896,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1910,7 +1913,7 @@
         <v>41.7045814878046</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3">
         <v>51.36624085194781</v>
@@ -1946,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1960,7 +1963,7 @@
         <v>47.73273319613877</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4">
         <v>59.43490802303255</v>
@@ -1996,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2010,7 +2013,7 @@
         <v>47.24820828667414</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5">
         <v>58.87563172501095</v>
@@ -2046,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2060,7 +2063,7 @@
         <v>47.16470096247878</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6">
         <v>58.77924108291729</v>
@@ -2096,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2110,7 +2113,7 @@
         <v>-15.1664654510749</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7">
         <v>-7.294892481790129</v>
@@ -2146,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2160,7 +2163,7 @@
         <v>-14.45834344229912</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8">
         <v>-7.294892481790129</v>
@@ -2196,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2210,7 +2213,7 @@
         <v>-13.39336737209288</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9">
         <v>-7.294892481790129</v>
@@ -2246,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2260,7 +2263,7 @@
         <v>-16.33245230627455</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10">
         <v>-7.294892481790129</v>
@@ -2296,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2310,7 +2313,7 @@
         <v>-29.63643996743208</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11">
         <v>-21.37792699357366</v>
@@ -2346,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2360,7 +2363,7 @@
         <v>-29.01030081710592</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12">
         <v>-21.37792699357366</v>
@@ -2396,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2410,7 +2413,7 @@
         <v>-28.60118761449661</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13">
         <v>-21.37792699357366</v>
@@ -2446,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2460,7 +2463,7 @@
         <v>-49.08464630848418</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14">
         <v>-42.77667080227592</v>
@@ -2496,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2510,7 +2513,7 @@
         <v>-48.56869529606767</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15">
         <v>-42.77667080227592</v>
@@ -2546,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2560,7 +2563,7 @@
         <v>-49.0410871967355</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16">
         <v>-42.77667080227592</v>
@@ -2596,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2610,7 +2613,7 @@
         <v>-65.70804604683664</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E17">
         <v>-56.94115587886895</v>
@@ -2646,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2660,7 +2663,7 @@
         <v>-65.6116252316011</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E18">
         <v>-56.94115587886895</v>
@@ -2696,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2710,7 +2713,7 @@
         <v>-79.57406496333017</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E19">
         <v>-67.54165070713992</v>
@@ -2746,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2760,7 +2763,7 @@
         <v>-113.1125372679468</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E20">
         <v>-103.9345101187686</v>
@@ -2796,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2810,7 +2813,7 @@
         <v>-150.4700278614179</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E21">
         <v>-141.3269680910878</v>
@@ -2846,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2860,7 +2863,7 @@
         <v>-191.2456393652701</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E22">
         <v>-165.2314426418361</v>
@@ -2896,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2910,7 +2913,7 @@
         <v>-208.9753900042601</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23">
         <v>-181.8698454183375</v>
@@ -2946,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2960,7 +2963,7 @@
         <v>-222.2487414251906</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24">
         <v>-206.4607237347662</v>
@@ -2996,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3010,7 +3013,7 @@
         <v>-239.7112109310854</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25">
         <v>-219.5184020745525</v>
@@ -3046,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3060,7 +3063,7 @@
         <v>-263.1154559964206</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E26">
         <v>-240.6747187530921</v>
@@ -3096,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3110,7 +3113,7 @@
         <v>-268.6224791106823</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27">
         <v>-252.6279978948062</v>
@@ -3146,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3175,7 +3178,7 @@
         <v>59.3</v>
       </c>
       <c r="P28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3204,7 +3207,7 @@
         <v>65.5</v>
       </c>
       <c r="P29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3218,7 +3221,7 @@
         <v>-254.0793405031437</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E30">
         <v>-235.7082244929039</v>
@@ -3254,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3268,7 +3271,7 @@
         <v>-238.7059320352077</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31">
         <v>-223.7765478327873</v>
@@ -3304,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3333,7 +3336,7 @@
         <v>69.40000000000001</v>
       </c>
       <c r="P32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3383,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3397,7 +3400,7 @@
         <v>-85.8076603763717</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E34">
         <v>-85.31060902491748</v>
@@ -3433,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3447,7 +3450,7 @@
         <v>-78.41701518144652</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E35">
         <v>-77.28396586589429</v>
@@ -3483,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3512,7 +3515,7 @@
         <v>68.40000000000001</v>
       </c>
       <c r="P36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3541,7 +3544,7 @@
         <v>70.09999999999999</v>
       </c>
       <c r="P37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3555,7 +3558,7 @@
         <v>-77.43890142953504</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E38">
         <v>-86.03210595388953</v>
@@ -3591,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3605,7 +3608,7 @@
         <v>-75.24842836769179</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E39">
         <v>-82.41442691778926</v>
@@ -3641,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3655,7 +3658,7 @@
         <v>-75.26941837884658</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E40">
         <v>-76.41687497573176</v>
@@ -3691,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3705,7 +3708,7 @@
         <v>2.405986219478436</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E41">
         <v>22.3137495724129</v>
@@ -3741,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3755,7 +3758,7 @@
         <v>-1.953147134466214</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E42">
         <v>19.32012787151115</v>
@@ -3791,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3805,7 +3808,7 @@
         <v>-16.2502130791469</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E43">
         <v>8.401660897453333</v>
@@ -3841,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3855,7 +3858,7 @@
         <v>-14.74859467309044</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E44">
         <v>8.401660897453333</v>
@@ -3891,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3905,7 +3908,7 @@
         <v>-29.86968571903745</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E45">
         <v>-0.9514709154835543</v>
@@ -3941,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3955,7 +3958,7 @@
         <v>60.63454015125168</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E46">
         <v>75.91925407409063</v>
@@ -3991,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -4005,7 +4008,7 @@
         <v>61.36441721922468</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E47">
         <v>75.91925407409063</v>
@@ -4041,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -4055,7 +4058,7 @@
         <v>89.12505313226613</v>
       </c>
       <c r="D48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E48">
         <v>73.92461224371841</v>
@@ -4091,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4105,7 +4108,7 @@
         <v>60.18080332327113</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E49">
         <v>75.16419394721952</v>
@@ -4141,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4155,7 +4158,7 @@
         <v>60.90367287266527</v>
       </c>
       <c r="D50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E50">
         <v>75.16419394721952</v>
@@ -4191,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4205,7 +4208,7 @@
         <v>88.41554187615753</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E51">
         <v>73.33247692380556</v>
@@ -4241,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4255,7 +4258,7 @@
         <v>39.99810912339372</v>
       </c>
       <c r="D52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E52">
         <v>55.15583755182445</v>
@@ -4291,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4305,7 +4308,7 @@
         <v>41.30719414984996</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E53">
         <v>55.15583755182445</v>
@@ -4341,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4355,7 +4358,7 @@
         <v>43.08151977105167</v>
       </c>
       <c r="D54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E54">
         <v>55.9485635535138</v>
@@ -4391,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4405,7 +4408,7 @@
         <v>42.16532004667869</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E55">
         <v>55.9485635535138</v>
@@ -4441,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4455,7 +4458,7 @@
         <v>42.55008107334416</v>
       </c>
       <c r="D56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E56">
         <v>56.30400099154195</v>
@@ -4505,7 +4508,7 @@
         <v>43.58368103616133</v>
       </c>
       <c r="D57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E57">
         <v>56.30400099154195</v>
@@ -4555,7 +4558,7 @@
         <v>44.27504780738504</v>
       </c>
       <c r="D58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E58">
         <v>56.96559598792828</v>
@@ -4591,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4605,7 +4608,7 @@
         <v>44.76828997217422</v>
       </c>
       <c r="D59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E59">
         <v>57.43759805949687</v>
@@ -4655,7 +4658,7 @@
         <v>46.95250922066406</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E60">
         <v>58.6275946856681</v>
@@ -4691,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4705,7 +4708,7 @@
         <v>47.37813227189867</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E61">
         <v>59.01897220404476</v>
@@ -4741,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4755,7 +4758,7 @@
         <v>48.93720072957618</v>
       </c>
       <c r="D62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E62">
         <v>59.68207127489522</v>
@@ -4791,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4805,7 +4808,7 @@
         <v>48.94662890110423</v>
       </c>
       <c r="D63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E63">
         <v>59.69094484809811</v>
@@ -4841,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4855,7 +4858,7 @@
         <v>54.08932335660573</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E64">
         <v>62.52278850035134</v>
@@ -4905,7 +4908,7 @@
         <v>67.18932335660573</v>
       </c>
       <c r="D65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E65">
         <v>59.01736085156006</v>
@@ -4955,7 +4958,7 @@
         <v>54.27142458878302</v>
       </c>
       <c r="D66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E66">
         <v>62.70264156916842</v>
@@ -4991,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5005,7 +5008,7 @@
         <v>67.37142458878301</v>
       </c>
       <c r="D67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E67">
         <v>59.17608118479113</v>
@@ -5041,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -5055,7 +5058,7 @@
         <v>54.44666418857609</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E68">
         <v>57.92296041603655</v>
@@ -5091,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5105,7 +5108,7 @@
         <v>54.38623819452964</v>
       </c>
       <c r="D69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E69">
         <v>62.81603772299223</v>
@@ -5141,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5155,7 +5158,7 @@
         <v>54.68320045790918</v>
       </c>
       <c r="D70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E70">
         <v>62.81603772299223</v>
@@ -5191,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5205,7 +5208,7 @@
         <v>67.48623819452963</v>
       </c>
       <c r="D71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E71">
         <v>59.27615329054065</v>
@@ -5241,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5255,7 +5258,7 @@
         <v>54.5181037654851</v>
       </c>
       <c r="D72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E72">
         <v>55.68274527440479</v>
@@ -5291,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5305,7 +5308,7 @@
         <v>101.1269386779503</v>
       </c>
       <c r="D73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E73">
         <v>83.94100067443752</v>
@@ -5341,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5355,7 +5358,7 @@
         <v>75.45009517739128</v>
       </c>
       <c r="D74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E74">
         <v>80.27451240300203</v>
@@ -5391,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5405,7 +5408,7 @@
         <v>121.9136696617972</v>
       </c>
       <c r="D75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E75">
         <v>104.5517569407011</v>
@@ -5441,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5455,7 +5458,7 @@
         <v>124.0730248787269</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E76">
         <v>106.3319083146578</v>
@@ -5491,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5505,7 +5508,7 @@
         <v>125.8987716223492</v>
       </c>
       <c r="D77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E77">
         <v>107.8370361179367</v>
@@ -5541,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5555,7 +5558,7 @@
         <v>127.8315078706938</v>
       </c>
       <c r="D78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E78">
         <v>102.3788447068554</v>
@@ -5591,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5605,7 +5608,7 @@
         <v>127.8608026942557</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E79">
         <v>102.3788447068554</v>
@@ -5641,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5655,7 +5658,7 @@
         <v>126.3344628429377</v>
       </c>
       <c r="D80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E80">
         <v>101.3477167540643</v>
@@ -5691,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5705,7 +5708,7 @@
         <v>126.3293867347399</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E81">
         <v>101.3477167540643</v>
@@ -5741,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5755,7 +5758,7 @@
         <v>126.0311094090764</v>
       </c>
       <c r="D82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E82">
         <v>101.1387743378843</v>
@@ -5791,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5805,7 +5808,7 @@
         <v>126.0190685536726</v>
       </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E83">
         <v>101.1387743378843</v>
@@ -5841,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5855,7 +5858,7 @@
         <v>126.620958855311</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E84">
         <v>101.5450481911581</v>
@@ -5891,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5905,7 +5908,7 @@
         <v>126.6224604616829</v>
       </c>
       <c r="D85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E85">
         <v>101.5450481911581</v>
@@ -5941,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5955,7 +5958,7 @@
         <v>125.7796367080902</v>
       </c>
       <c r="D86" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E86">
         <v>100.9655660999601</v>
@@ -5991,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6005,7 +6008,7 @@
         <v>125.7618222447556</v>
       </c>
       <c r="D87" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E87">
         <v>100.9655660999601</v>
@@ -6041,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -6055,7 +6058,7 @@
         <v>125.0669218669525</v>
       </c>
       <c r="D88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E88">
         <v>100.4746655716255</v>
@@ -6091,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6105,7 +6108,7 @@
         <v>125.0327440526733</v>
       </c>
       <c r="D89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E89">
         <v>100.4746655716255</v>
@@ -6141,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6155,7 +6158,7 @@
         <v>123.2289469739378</v>
       </c>
       <c r="D90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E90">
         <v>99.20871347694691</v>
@@ -6191,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6205,7 +6208,7 @@
         <v>123.1525707565027</v>
       </c>
       <c r="D91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E91">
         <v>99.20871347694691</v>
@@ -6241,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6255,7 +6258,7 @@
         <v>122.9583501275863</v>
       </c>
       <c r="D92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E92">
         <v>99.02233299604161</v>
@@ -6291,7 +6294,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6305,7 +6308,7 @@
         <v>122.8757612274544</v>
       </c>
       <c r="D93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E93">
         <v>99.02233299604161</v>
@@ -6341,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6355,7 +6358,7 @@
         <v>124.3519741722009</v>
       </c>
       <c r="D94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E94">
         <v>99.98222710840369</v>
@@ -6391,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6405,7 +6408,7 @@
         <v>124.3013817424811</v>
       </c>
       <c r="D95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E95">
         <v>99.98222710840369</v>
@@ -6441,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6455,7 +6458,7 @@
         <v>124.6891745905705</v>
       </c>
       <c r="D96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E96">
         <v>100.2144824986073</v>
@@ -6491,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6505,7 +6508,7 @@
         <v>124.6463240071908</v>
       </c>
       <c r="D97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E97">
         <v>100.2144824986073</v>
@@ -6541,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6555,7 +6558,7 @@
         <v>124.4800191586875</v>
       </c>
       <c r="D98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E98">
         <v>100.0704213593001</v>
@@ -6591,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6605,7 +6608,7 @@
         <v>124.4323665373309</v>
       </c>
       <c r="D99" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E99">
         <v>100.0704213593001</v>
@@ -6641,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6655,7 +6658,7 @@
         <v>123.0108457893896</v>
       </c>
       <c r="D100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E100">
         <v>99.05849072228368</v>
@@ -6691,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6705,7 +6708,7 @@
         <v>122.9294621467991</v>
       </c>
       <c r="D101" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E101">
         <v>99.05849072228368</v>
@@ -6741,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6755,7 +6758,7 @@
         <v>121.6453568496303</v>
       </c>
       <c r="D102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E102">
         <v>98.11797538112289</v>
@@ -6791,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6805,7 +6808,7 @@
         <v>121.5326226956677</v>
       </c>
       <c r="D103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E103">
         <v>98.11797538112289</v>
@@ -6841,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6855,7 +6858,7 @@
         <v>121.0299428079651</v>
       </c>
       <c r="D104" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E104">
         <v>97.69409326058823</v>
@@ -6891,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6905,7 +6908,7 @@
         <v>120.9030792499847</v>
       </c>
       <c r="D105" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E105">
         <v>97.69409326058823</v>
@@ -6941,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6955,7 +6958,7 @@
         <v>120.2680139970007</v>
       </c>
       <c r="D106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E106">
         <v>97.169295355077</v>
@@ -6991,7 +6994,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -7005,7 +7008,7 @@
         <v>120.1236571755032</v>
       </c>
       <c r="D107" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E107">
         <v>97.169295355077</v>
@@ -7041,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -7055,7 +7058,7 @@
         <v>119.3894537106139</v>
       </c>
       <c r="D108" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E108">
         <v>96.56416454557592</v>
@@ -7091,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -7105,7 +7108,7 @@
         <v>119.2249258621331</v>
       </c>
       <c r="D109" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E109">
         <v>96.56416454557592</v>
@@ -7141,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7155,7 +7158,7 @@
         <v>118.0996069245826</v>
       </c>
       <c r="D110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E110">
         <v>95.67574966744206</v>
@@ -7191,7 +7194,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7205,7 +7208,7 @@
         <v>117.9054652468306</v>
       </c>
       <c r="D111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E111">
         <v>95.67574966744206</v>
@@ -7241,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7255,7 +7258,7 @@
         <v>117.1017444652623</v>
       </c>
       <c r="D112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E112">
         <v>94.98844644291023</v>
@@ -7291,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7305,7 +7308,7 @@
         <v>116.8846926800259</v>
       </c>
       <c r="D113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E113">
         <v>94.98844644291023</v>
@@ -7341,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7355,7 +7358,7 @@
         <v>115.7903395541055</v>
       </c>
       <c r="D114" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E114">
         <v>94.08518285614407</v>
@@ -7391,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7405,7 +7408,7 @@
         <v>115.5431789826436</v>
       </c>
       <c r="D115" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E115">
         <v>94.08518285614407</v>
@@ -7441,7 +7444,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7455,7 +7458,7 @@
         <v>114.3600161010092</v>
       </c>
       <c r="D116" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E116">
         <v>93.10001108998082</v>
@@ -7491,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7505,7 +7508,7 @@
         <v>114.0800164706752</v>
       </c>
       <c r="D117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E117">
         <v>93.10001108998082</v>
@@ -7541,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7555,7 +7558,7 @@
         <v>112.9215721869154</v>
       </c>
       <c r="D118" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E118">
         <v>92.10924614915092</v>
@@ -7591,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7605,7 +7608,7 @@
         <v>112.6085470585538</v>
       </c>
       <c r="D119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E119">
         <v>92.10924614915092</v>
@@ -7641,7 +7644,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7655,7 +7658,7 @@
         <v>111.0753114680939</v>
       </c>
       <c r="D120" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E120">
         <v>91.07689300844227</v>
@@ -7705,7 +7708,7 @@
         <v>109.3637030177276</v>
       </c>
       <c r="D121" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E121">
         <v>89.92443844086398</v>
@@ -7741,7 +7744,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7755,7 +7758,7 @@
         <v>106.6367917601738</v>
       </c>
       <c r="D122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E122">
         <v>88.08836352929409</v>
@@ -7791,7 +7794,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7805,7 +7808,7 @@
         <v>99.96873044828921</v>
       </c>
       <c r="D123" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E123">
         <v>83.59864643650396</v>
@@ -7841,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7855,7 +7858,7 @@
         <v>39.91051382546476</v>
       </c>
       <c r="D124" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E124">
         <v>42.55014562583152</v>
@@ -7891,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="P124" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7905,7 +7908,7 @@
         <v>34.76754143004694</v>
       </c>
       <c r="D125" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E125">
         <v>38.11145388461416</v>
@@ -7941,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="P125" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7955,7 +7958,7 @@
         <v>27.87373902743889</v>
       </c>
       <c r="D126" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E126">
         <v>28.73232502982488</v>
@@ -7991,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P126" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -8005,7 +8008,7 @@
         <v>52.34452590842368</v>
       </c>
       <c r="D127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E127">
         <v>60.02089394070224</v>
@@ -8041,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -8055,7 +8058,7 @@
         <v>66.2681578761451</v>
       </c>
       <c r="D128" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E128">
         <v>59.00746128062423</v>
@@ -8091,7 +8094,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -8105,7 +8108,7 @@
         <v>65.90298372726488</v>
       </c>
       <c r="D129" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E129">
         <v>59.00746128062423</v>
@@ -8141,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -8155,7 +8158,7 @@
         <v>75.19054270184851</v>
       </c>
       <c r="D130" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E130">
         <v>82.88620847856147</v>
@@ -8191,7 +8194,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8205,7 +8208,7 @@
         <v>91.01410438583636</v>
       </c>
       <c r="D131" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E131">
         <v>85.34034548895417</v>
@@ -8241,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="P131" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -8255,7 +8258,7 @@
         <v>90.69117289103272</v>
       </c>
       <c r="D132" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E132">
         <v>85.34034548895417</v>
@@ -8291,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="P132" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -8305,7 +8308,7 @@
         <v>106.425283452306</v>
       </c>
       <c r="D133" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E133">
         <v>102.4841645631825</v>
@@ -8355,7 +8358,7 @@
         <v>106.7743510447031</v>
       </c>
       <c r="D134" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E134">
         <v>102.4841645631825</v>
@@ -8405,7 +8408,7 @@
         <v>64.83381773702186</v>
       </c>
       <c r="D135" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E135">
         <v>61.17785949472258</v>
@@ -8441,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="P135" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8455,7 +8458,7 @@
         <v>53.81062761975522</v>
       </c>
       <c r="D136" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E136">
         <v>45.81713512679965</v>
@@ -8491,7 +8494,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8505,7 +8508,7 @@
         <v>53.43128846396477</v>
       </c>
       <c r="D137" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E137">
         <v>47.7894228477703</v>
@@ -8541,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="P137" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8555,7 +8558,7 @@
         <v>48.70129852147022</v>
       </c>
       <c r="D138" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E138">
         <v>39.19252273181839</v>
@@ -8591,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8605,7 +8608,7 @@
         <v>44.87334693499027</v>
       </c>
       <c r="D139" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E139">
         <v>34.44403390958535</v>
@@ -8641,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8655,7 +8658,7 @@
         <v>40.45906823400685</v>
       </c>
       <c r="D140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E140">
         <v>29.40254968722779</v>
@@ -8691,7 +8694,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8705,7 +8708,7 @@
         <v>37.79538016242914</v>
       </c>
       <c r="D141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E141">
         <v>25.15160114518396</v>
@@ -8741,7 +8744,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8755,7 +8758,7 @@
         <v>37.68076952930594</v>
       </c>
       <c r="D142" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E142">
         <v>25.01802919408082</v>
@@ -8791,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8805,7 +8808,7 @@
         <v>63.15408222226404</v>
       </c>
       <c r="D143" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E143">
         <v>53.56243089690908</v>
@@ -8841,7 +8844,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8855,7 +8858,7 @@
         <v>31.1030054990203</v>
       </c>
       <c r="D144" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E144">
         <v>14.08734435244297</v>
@@ -8891,7 +8894,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8905,7 +8908,7 @@
         <v>25.05484991241799</v>
       </c>
       <c r="D145" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E145">
         <v>6.922187058405115</v>
@@ -8941,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8955,7 +8958,7 @@
         <v>18.81638310475921</v>
       </c>
       <c r="D146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E146">
         <v>-0.4684290245420044</v>
@@ -8991,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -9005,7 +9008,7 @@
         <v>13.01676813424353</v>
       </c>
       <c r="D147" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E147">
         <v>-7.339144057179965</v>
@@ -9041,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -9055,7 +9058,7 @@
         <v>8.024396355482963</v>
       </c>
       <c r="D148" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E148">
         <v>-13.25353044372964</v>
@@ -9091,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -9105,7 +9108,7 @@
         <v>7.720504878426524</v>
       </c>
       <c r="D149" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E149">
         <v>-13.61354602240461</v>
@@ -9141,7 +9144,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9155,7 +9158,7 @@
         <v>10.31388326476601</v>
       </c>
       <c r="D150" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E150">
         <v>-10.54121036651594</v>
@@ -9191,7 +9194,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9205,7 +9208,7 @@
         <v>11.14758883248732</v>
       </c>
       <c r="D151" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E151">
         <v>-9.553532148900146</v>
@@ -9241,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9255,7 +9258,7 @@
         <v>20.84560393192861</v>
       </c>
       <c r="D152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E152">
         <v>1.935557811248756</v>
@@ -9291,7 +9294,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9305,7 +9308,7 @@
         <v>21.43389351871438</v>
       </c>
       <c r="D153" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E153">
         <v>2.632495474873352</v>
@@ -9341,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9355,7 +9358,7 @@
         <v>22.6162561113628</v>
       </c>
       <c r="D154" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E154">
         <v>4.033222330128012</v>
@@ -9391,7 +9394,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9405,7 +9408,7 @@
         <v>23.86897930913528</v>
       </c>
       <c r="D155" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E155">
         <v>5.517304316678292</v>
@@ -9441,7 +9444,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9455,7 +9458,7 @@
         <v>24.29022509961407</v>
       </c>
       <c r="D156" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E156">
         <v>6.016347753146405</v>
@@ -9491,7 +9494,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9505,7 +9508,7 @@
         <v>80.77258742920839</v>
       </c>
       <c r="D157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E157">
         <v>71.50140757768273</v>
@@ -9541,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9555,7 +9558,7 @@
         <v>80.87119828430862</v>
       </c>
       <c r="D158" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E158">
         <v>71.50140757768273</v>
@@ -9591,7 +9594,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9605,7 +9608,7 @@
         <v>82.15331534782203</v>
       </c>
       <c r="D159" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E159">
         <v>71.50140757768273</v>
@@ -9641,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9655,7 +9658,7 @@
         <v>76.19581669669289</v>
       </c>
       <c r="D160" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E160">
         <v>66.74547500154564</v>
@@ -9691,7 +9694,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9705,7 +9708,7 @@
         <v>75.21863715900577</v>
       </c>
       <c r="D161" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E161">
         <v>66.74547500154564</v>
@@ -9741,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9755,7 +9758,7 @@
         <v>77.89414970172665</v>
       </c>
       <c r="D162" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E162">
         <v>66.74547500154564</v>
@@ -9791,7 +9794,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9805,7 +9808,7 @@
         <v>60.11863715900578</v>
       </c>
       <c r="D163" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E163">
         <v>68.03744024109169</v>
@@ -9841,7 +9844,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9855,7 +9858,7 @@
         <v>72.44565132750211</v>
       </c>
       <c r="D164" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E164">
         <v>62.8485060058029</v>
@@ -9891,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9905,7 +9908,7 @@
         <v>71.50850914251097</v>
       </c>
       <c r="D165" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E165">
         <v>62.8485060058029</v>
@@ -9941,7 +9944,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9955,7 +9958,7 @@
         <v>74.40422712505978</v>
       </c>
       <c r="D166" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E166">
         <v>62.8485060058029</v>
@@ -9991,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -10005,7 +10008,7 @@
         <v>56.40850914251097</v>
       </c>
       <c r="D167" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E167">
         <v>64.59422790923679</v>
@@ -10041,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -10055,7 +10058,7 @@
         <v>67.88820949982238</v>
       </c>
       <c r="D168" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E168">
         <v>60.43722302948107</v>
@@ -10105,7 +10108,7 @@
         <v>70.99880138202717</v>
       </c>
       <c r="D169" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E169">
         <v>60.43722302948107</v>
@@ -10155,7 +10158,7 @@
         <v>52.78820949982239</v>
       </c>
       <c r="D170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E170">
         <v>61.23438147825242</v>
@@ -10205,7 +10208,7 @@
         <v>64.41272601732022</v>
       </c>
       <c r="D171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E171">
         <v>56.61794172047242</v>
@@ -10241,7 +10244,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -10255,7 +10258,7 @@
         <v>49.31272601732023</v>
       </c>
       <c r="D172" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E172">
         <v>58.0089327786641</v>
@@ -10291,7 +10294,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -10305,7 +10308,7 @@
         <v>61.16879231159055</v>
       </c>
       <c r="D173" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E173">
         <v>53.82441738118666</v>
@@ -10341,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10355,7 +10358,7 @@
         <v>46.06879231159056</v>
       </c>
       <c r="D174" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E174">
         <v>54.08446933112747</v>
@@ -10391,7 +10394,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10405,7 +10408,7 @@
         <v>58.07192781203269</v>
       </c>
       <c r="D175" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E175">
         <v>50.68812094147531</v>
@@ -10441,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10455,7 +10458,7 @@
         <v>42.9719278120327</v>
       </c>
       <c r="D176" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E176">
         <v>51.29394934141796</v>
@@ -10491,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10505,7 +10508,7 @@
         <v>72.62623022483724</v>
       </c>
       <c r="D177" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E177">
         <v>78.13274022613687</v>
@@ -10541,7 +10544,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10555,7 +10558,7 @@
         <v>72.14377020837516</v>
       </c>
       <c r="D178" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E178">
         <v>78.53925022743653</v>
@@ -10591,7 +10594,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10605,7 +10608,7 @@
         <v>83.25643025082999</v>
       </c>
       <c r="D179" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E179">
         <v>77.7759602547289</v>
@@ -10641,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10670,7 +10673,7 @@
         <v>71.40000000000001</v>
       </c>
       <c r="P180" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10699,7 +10702,7 @@
         <v>72.09999999999999</v>
       </c>
       <c r="P181" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10713,7 +10716,7 @@
         <v>66.25534327603719</v>
       </c>
       <c r="D182" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E182">
         <v>53.25789242985769</v>
@@ -10763,7 +10766,7 @@
         <v>66.50153349826817</v>
       </c>
       <c r="D183" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E183">
         <v>53.49926887679366</v>
@@ -10799,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10813,7 +10816,7 @@
         <v>65.13958707494101</v>
       </c>
       <c r="D184" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E184">
         <v>53.20617458032149</v>
@@ -10849,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10863,7 +10866,7 @@
         <v>65.2660759255686</v>
       </c>
       <c r="D185" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E185">
         <v>53.20617458032149</v>
@@ -10899,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10913,7 +10916,7 @@
         <v>63.88275361614285</v>
       </c>
       <c r="D186" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E186">
         <v>51.96525040581191</v>
@@ -10949,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10963,7 +10966,7 @@
         <v>82.52792611826956</v>
       </c>
       <c r="D187" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E187">
         <v>99.94767772279653</v>
@@ -10999,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="P187" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -11013,7 +11016,7 @@
         <v>80.81507949145069</v>
       </c>
       <c r="D188" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E188">
         <v>99.94767772279653</v>
@@ -11049,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="P188" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -11063,7 +11066,7 @@
         <v>82.55697724266327</v>
       </c>
       <c r="D189" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E189">
         <v>99.94767772279653</v>
@@ -11099,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="P189" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11113,7 +11116,7 @@
         <v>80.68386776738032</v>
       </c>
       <c r="D190" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E190">
         <v>99.94767772279653</v>
@@ -11149,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="P190" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11163,7 +11166,7 @@
         <v>83.46212404051099</v>
       </c>
       <c r="D191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E191">
         <v>101.9293746430213</v>
@@ -11199,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="P191" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11213,7 +11216,7 @@
         <v>81.65627098338047</v>
       </c>
       <c r="D192" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E192">
         <v>101.9293746430213</v>
@@ -11249,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="P192" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11263,7 +11266,7 @@
         <v>83.46017302146748</v>
       </c>
       <c r="D193" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E193">
         <v>101.9293746430213</v>
@@ -11299,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="P193" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11313,7 +11316,7 @@
         <v>81.57259587924717</v>
       </c>
       <c r="D194" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E194">
         <v>101.9293746430213</v>
@@ -11349,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="P194" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11399,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11413,7 +11416,7 @@
         <v>33.77481800214022</v>
       </c>
       <c r="D196" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E196">
         <v>39.96346245740297</v>
@@ -11449,7 +11452,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11463,7 +11466,7 @@
         <v>24.63764534106641</v>
       </c>
       <c r="D197" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E197">
         <v>34.16939555445761</v>
@@ -11499,7 +11502,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11513,7 +11516,7 @@
         <v>43.28817453279771</v>
       </c>
       <c r="D198" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E198">
         <v>46.14425779500065</v>
@@ -11549,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="P198" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11563,7 +11566,7 @@
         <v>24.23598497532834</v>
       </c>
       <c r="D199" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E199">
         <v>33.03819935984974</v>
@@ -11599,7 +11602,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11613,7 +11616,7 @@
         <v>24.17071464201896</v>
       </c>
       <c r="D200" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E200">
         <v>33.03819935984974</v>
@@ -11649,7 +11652,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11663,7 +11666,7 @@
         <v>23.32366123264667</v>
       </c>
       <c r="D201" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E201">
         <v>32.29172372079252</v>
@@ -11713,7 +11716,7 @@
         <v>22.94912669441385</v>
       </c>
       <c r="D202" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E202">
         <v>31.49029169144093</v>
@@ -11749,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11763,7 +11766,7 @@
         <v>22.44844130251504</v>
       </c>
       <c r="D203" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E203">
         <v>30.75050022869873</v>
@@ -11799,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11813,7 +11816,7 @@
         <v>22.12056025614258</v>
       </c>
       <c r="D204" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E204">
         <v>30.75050022869873</v>
@@ -11849,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11863,7 +11866,7 @@
         <v>21.00936580829927</v>
       </c>
       <c r="D205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E205">
         <v>29.75836232883863</v>
@@ -11913,7 +11916,7 @@
         <v>22.21712321587968</v>
       </c>
       <c r="D206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E206">
         <v>29.83950116198865</v>
@@ -11949,7 +11952,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11963,7 +11966,7 @@
         <v>22.36605537346383</v>
       </c>
       <c r="D207" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E207">
         <v>29.99532225197207</v>
@@ -11999,7 +12002,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -12013,7 +12016,7 @@
         <v>21.71901729202467</v>
       </c>
       <c r="D208" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E208">
         <v>28.96097369076485</v>
@@ -12049,7 +12052,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -12063,7 +12066,7 @@
         <v>21.37743590654157</v>
       </c>
       <c r="D209" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E209">
         <v>28.96097369076485</v>
@@ -12099,7 +12102,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12113,7 +12116,7 @@
         <v>21.5505095382167</v>
       </c>
       <c r="D210" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E210">
         <v>29.1420529309536</v>
@@ -12163,7 +12166,7 @@
         <v>21.4477218260166</v>
       </c>
       <c r="D211" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E211">
         <v>29.03451072105261</v>
@@ -12199,7 +12202,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12213,7 +12216,7 @@
         <v>21.93200329930192</v>
       </c>
       <c r="D212" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E212">
         <v>29.03451072105261</v>
@@ -12249,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12263,7 +12266,7 @@
         <v>21.82005829590757</v>
       </c>
       <c r="D213" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E213">
         <v>29.42406980298699</v>
@@ -12299,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12313,7 +12316,7 @@
         <v>22.28137628646834</v>
       </c>
       <c r="D214" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E214">
         <v>29.42406980298699</v>
@@ -12349,7 +12352,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12363,7 +12366,7 @@
         <v>25.08434479788652</v>
       </c>
       <c r="D215" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E215">
         <v>32.83934753082841</v>
@@ -12399,7 +12402,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12413,7 +12416,7 @@
         <v>25.82576998567276</v>
       </c>
       <c r="D216" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E216">
         <v>32.83934753082841</v>
@@ -12449,7 +12452,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12463,7 +12466,7 @@
         <v>25.62576998567276</v>
       </c>
       <c r="D217" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E217">
         <v>32.83934753082841</v>
@@ -12499,7 +12502,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12513,7 +12516,7 @@
         <v>39.54291961010028</v>
       </c>
       <c r="D218" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E218">
         <v>32.24005830276027</v>
@@ -12549,7 +12552,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12563,7 +12566,7 @@
         <v>27.32311840696546</v>
       </c>
       <c r="D219" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E219">
         <v>35.18167674737576</v>
@@ -12599,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12613,7 +12616,7 @@
         <v>27.936331890267</v>
       </c>
       <c r="D220" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E220">
         <v>35.18167674737576</v>
@@ -12649,7 +12652,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12663,7 +12666,7 @@
         <v>27.736331890267</v>
       </c>
       <c r="D221" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E221">
         <v>35.18167674737576</v>
@@ -12699,7 +12702,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12713,7 +12716,7 @@
         <v>41.90990492366392</v>
       </c>
       <c r="D222" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E222">
         <v>34.44924459541966</v>
@@ -12749,7 +12752,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12763,7 +12766,7 @@
         <v>29.32582523799188</v>
       </c>
       <c r="D223" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E223">
         <v>36.94571726179005</v>
@@ -12813,7 +12816,7 @@
         <v>43.69251428559836</v>
       </c>
       <c r="D224" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E224">
         <v>36.11301333322514</v>
@@ -12863,7 +12866,7 @@
         <v>44.11030807122381</v>
       </c>
       <c r="D225" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E225">
         <v>36.50295419980888</v>
@@ -12899,7 +12902,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12913,7 +12916,7 @@
         <v>45.39200591893177</v>
       </c>
       <c r="D226" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E226">
         <v>37.69920552433632</v>
@@ -12963,7 +12966,7 @@
         <v>46.2461284866414</v>
       </c>
       <c r="D227" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E227">
         <v>38.49638658753197</v>
@@ -12999,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -13013,7 +13016,7 @@
         <v>46.90307634880546</v>
       </c>
       <c r="D228" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E228">
         <v>39.10953792555176</v>
@@ -13063,7 +13066,7 @@
         <v>33.83569560835785</v>
       </c>
       <c r="D229" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E229">
         <v>40.9206360962427</v>
@@ -13113,7 +13116,7 @@
         <v>46.73201951087134</v>
       </c>
       <c r="D230" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E230">
         <v>38.94988487681324</v>
@@ -13163,7 +13166,7 @@
         <v>33.22416759327695</v>
       </c>
       <c r="D231" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E231">
         <v>40.34408700115657</v>
@@ -13199,7 +13202,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -13213,7 +13216,7 @@
         <v>46.15305807647522</v>
       </c>
       <c r="D232" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E232">
         <v>38.40952087137686</v>
@@ -13249,7 +13252,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13263,7 +13266,7 @@
         <v>33.50490381338868</v>
       </c>
       <c r="D233" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E233">
         <v>40.17087450822464</v>
@@ -13299,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13313,7 +13316,7 @@
         <v>45.97912084507914</v>
       </c>
       <c r="D234" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E234">
         <v>38.24717945540719</v>
@@ -13349,7 +13352,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13363,7 +13366,7 @@
         <v>34.16379673036971</v>
       </c>
       <c r="D235" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E235">
         <v>40.85258622752538</v>
@@ -13399,7 +13402,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13413,7 +13416,7 @@
         <v>46.66368491466983</v>
       </c>
       <c r="D236" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E236">
         <v>38.8861059203585</v>
@@ -13449,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13463,7 +13466,7 @@
         <v>35.00523304555671</v>
       </c>
       <c r="D237" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E237">
         <v>41.72316319432058</v>
@@ -13499,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13513,7 +13516,7 @@
         <v>47.53790446291606</v>
       </c>
       <c r="D238" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E238">
         <v>39.70204416538832</v>
@@ -13549,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13563,7 +13566,7 @@
         <v>35.77509163864829</v>
       </c>
       <c r="D239" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E239">
         <v>42.51968355686988</v>
@@ -13599,7 +13602,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13613,7 +13616,7 @@
         <v>48.33775754664758</v>
       </c>
       <c r="D240" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E240">
         <v>40.4485737102044</v>
@@ -13649,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13663,7 +13666,7 @@
         <v>36.40438752667171</v>
       </c>
       <c r="D241" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E241">
         <v>43.17077324188112</v>
@@ -13699,7 +13702,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13713,7 +13716,7 @@
         <v>48.9915714562823</v>
       </c>
       <c r="D242" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E242">
         <v>41.05880002586348</v>
@@ -13749,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13763,7 +13766,7 @@
         <v>32.86635202836143</v>
       </c>
       <c r="D243" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E243">
         <v>23.40810673803942</v>
@@ -13799,7 +13802,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -13813,7 +13816,7 @@
         <v>14.22574367387871</v>
       </c>
       <c r="D244" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E244">
         <v>19.5340376774239</v>
@@ -13849,7 +13852,7 @@
         <v>0</v>
       </c>
       <c r="P244" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13863,7 +13866,7 @@
         <v>24.88800304387275</v>
       </c>
       <c r="D245" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E245">
         <v>11.91657154564347</v>
@@ -13899,7 +13902,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13913,7 +13916,7 @@
         <v>39.44906102636678</v>
       </c>
       <c r="D246" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E246">
         <v>28.36395585832523</v>
@@ -13949,7 +13952,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13978,7 +13981,7 @@
         <v>59.4</v>
       </c>
       <c r="P247" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13992,7 +13995,7 @@
         <v>36.85113379578714</v>
       </c>
       <c r="D248" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E248">
         <v>25.5208599983697</v>
@@ -14028,7 +14031,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -14042,7 +14045,7 @@
         <v>33.94646019309421</v>
       </c>
       <c r="D249" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E249">
         <v>22.34206984707826</v>
@@ -14078,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -14092,7 +14095,7 @@
         <v>33.30875742504994</v>
       </c>
       <c r="D250" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E250">
         <v>21.64418651979802</v>
@@ -14128,7 +14131,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -14157,7 +14160,7 @@
         <v>59.5</v>
       </c>
       <c r="P251" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -14207,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="P252" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14221,7 +14224,7 @@
         <v>9.926891175013289</v>
       </c>
       <c r="D253" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E253">
         <v>9.938904864210649</v>
@@ -14257,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="P253" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14271,7 +14274,7 @@
         <v>8.61566853605617</v>
       </c>
       <c r="D254" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E254">
         <v>9.007561895624264</v>
@@ -14307,7 +14310,7 @@
         <v>0</v>
       </c>
       <c r="P254" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14357,7 +14360,7 @@
         <v>0</v>
       </c>
       <c r="P255" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14371,7 +14374,7 @@
         <v>15.27625616990661</v>
       </c>
       <c r="D256" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E256">
         <v>13.96823074035395</v>
@@ -14407,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="P256" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14421,7 +14424,7 @@
         <v>14.49984262437423</v>
       </c>
       <c r="D257" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E257">
         <v>14.19011246930496</v>
@@ -14457,7 +14460,7 @@
         <v>0</v>
       </c>
       <c r="P257" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14471,7 +14474,7 @@
         <v>13.68984307357539</v>
       </c>
       <c r="D258" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E258">
         <v>15.44321014679792</v>
@@ -14507,7 +14510,7 @@
         <v>0</v>
       </c>
       <c r="P258" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14521,7 +14524,7 @@
         <v>14.26953725404694</v>
       </c>
       <c r="D259" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E259">
         <v>17.46734434330768</v>
@@ -14557,7 +14560,7 @@
         <v>0</v>
       </c>
       <c r="P259" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14571,7 +14574,7 @@
         <v>59.06263065139578</v>
       </c>
       <c r="D260" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E260">
         <v>59.07357361272927</v>
@@ -14607,7 +14610,7 @@
         <v>0</v>
       </c>
       <c r="P260" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -14621,7 +14624,7 @@
         <v>60.66257075424956</v>
       </c>
       <c r="D261" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E261">
         <v>61.38454095582109</v>
@@ -14657,7 +14660,7 @@
         <v>0</v>
       </c>
       <c r="P261" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -14671,7 +14674,7 @@
         <v>61.58779745865752</v>
       </c>
       <c r="D262" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E262">
         <v>62.08864679971672</v>
@@ -14707,7 +14710,7 @@
         <v>0</v>
       </c>
       <c r="P262" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -14757,7 +14760,7 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -14807,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -14857,7 +14860,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -14907,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -14957,7 +14960,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -15007,7 +15010,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -15057,7 +15060,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15107,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15157,7 +15160,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -15171,7 +15174,7 @@
         <v>-12.91711279591523</v>
       </c>
       <c r="D272" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E272">
         <v>-24.080705554696</v>
@@ -15221,7 +15224,7 @@
         <v>-13.89288092370901</v>
       </c>
       <c r="D273" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E273">
         <v>-24.64699491908532</v>
@@ -15257,7 +15260,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15271,7 +15274,7 @@
         <v>-13.4171424523624</v>
       </c>
       <c r="D274" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E274">
         <v>-24.64699491908532</v>
@@ -15307,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15321,7 +15324,7 @@
         <v>-7.909028461817627</v>
       </c>
       <c r="D275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E275">
         <v>-18.4089921717041</v>
@@ -15357,7 +15360,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15371,7 +15374,7 @@
         <v>-3.803879058776658</v>
       </c>
       <c r="D276" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E276">
         <v>-13.75986303266694</v>
@@ -15421,7 +15424,7 @@
         <v>-7.200798160312672</v>
       </c>
       <c r="D277" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E277">
         <v>-16.37029482433257</v>
@@ -15471,7 +15474,7 @@
         <v>1.814674940949821</v>
       </c>
       <c r="D278" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E278">
         <v>-6.106103736501311</v>
@@ -15557,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15657,7 +15660,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15671,7 +15674,7 @@
         <v>68.89152801060949</v>
       </c>
       <c r="D282" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E282">
         <v>67.76768139345658</v>
@@ -15707,7 +15710,7 @@
         <v>0</v>
       </c>
       <c r="P282" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15721,7 +15724,7 @@
         <v>68.93096321131679</v>
       </c>
       <c r="D283" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E283">
         <v>67.76768139345658</v>
@@ -15757,7 +15760,7 @@
         <v>0</v>
       </c>
       <c r="P283" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -15771,7 +15774,7 @@
         <v>68.53130803182968</v>
       </c>
       <c r="D284" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E284">
         <v>67.76768139345658</v>
@@ -15807,7 +15810,7 @@
         <v>0</v>
       </c>
       <c r="P284" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -15821,7 +15824,7 @@
         <v>69.00549946949548</v>
       </c>
       <c r="D285" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E285">
         <v>67.76768139345658</v>
@@ -15857,7 +15860,7 @@
         <v>0</v>
       </c>
       <c r="P285" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -15871,7 +15874,7 @@
         <v>77.0344578684535</v>
       </c>
       <c r="D286" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E286">
         <v>79.16818364992574</v>
@@ -15921,7 +15924,7 @@
         <v>76.35596494832328</v>
       </c>
       <c r="D287" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E287">
         <v>79.16818364992574</v>
@@ -15971,7 +15974,7 @@
         <v>77.32922500711149</v>
       </c>
       <c r="D288" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E288">
         <v>79.16818364992574</v>
@@ -16021,7 +16024,7 @@
         <v>79.78847196430716</v>
       </c>
       <c r="D289" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E289">
         <v>84.66094269739213</v>
@@ -16057,7 +16060,7 @@
         <v>0</v>
       </c>
       <c r="P289" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16071,7 +16074,7 @@
         <v>79.029452316228</v>
       </c>
       <c r="D290" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E290">
         <v>84.66094269739213</v>
@@ -16107,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="P290" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -16121,7 +16124,7 @@
         <v>80.07787065443522</v>
       </c>
       <c r="D291" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E291">
         <v>84.66094269739213</v>
@@ -16157,7 +16160,7 @@
         <v>0</v>
       </c>
       <c r="P291" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -16207,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="P292" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -16257,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="P293" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -16307,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="P294" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -16321,7 +16324,7 @@
         <v>26.32548638029413</v>
       </c>
       <c r="D295" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E295">
         <v>26.99422663021349</v>
@@ -16357,7 +16360,7 @@
         <v>0</v>
       </c>
       <c r="P295" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -16371,7 +16374,7 @@
         <v>22.18948293316849</v>
       </c>
       <c r="D296" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E296">
         <v>24.84672272180288</v>
@@ -16407,7 +16410,7 @@
         <v>0</v>
       </c>
       <c r="P296" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -16421,7 +16424,7 @@
         <v>21.86052377863092</v>
       </c>
       <c r="D297" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E297">
         <v>24.84672272180288</v>
@@ -16457,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="P297" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16471,7 +16474,7 @@
         <v>40.77814878274022</v>
       </c>
       <c r="D298" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E298">
         <v>48.87821615334129</v>
@@ -16507,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -16521,7 +16524,7 @@
         <v>40.67981251944272</v>
       </c>
       <c r="D299" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E299">
         <v>48.87821615334129</v>
@@ -16557,7 +16560,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -16571,7 +16574,7 @@
         <v>56.75038402863819</v>
       </c>
       <c r="D300" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E300">
         <v>62.17870887338118</v>
@@ -16607,7 +16610,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -16621,7 +16624,7 @@
         <v>59.81014784804309</v>
       </c>
       <c r="D301" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E301">
         <v>65.19117101289457</v>
@@ -16657,7 +16660,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -16671,7 +16674,7 @@
         <v>60.36835189313004</v>
       </c>
       <c r="D302" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E302">
         <v>65.519432176365</v>
@@ -16707,7 +16710,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -16721,7 +16724,7 @@
         <v>61.49835591209959</v>
       </c>
       <c r="D303" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E303">
         <v>65.45054113973049</v>
@@ -16771,7 +16774,7 @@
         <v>61.74303834428476</v>
       </c>
       <c r="D304" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E304">
         <v>65.59070564276428</v>
@@ -16807,7 +16810,7 @@
         <v>0</v>
       </c>
       <c r="P304" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -16821,7 +16824,7 @@
         <v>62.08800405152936</v>
       </c>
       <c r="D305" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E305">
         <v>65.70367105582346</v>
@@ -16857,7 +16860,7 @@
         <v>0</v>
       </c>
       <c r="P305" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -16871,7 +16874,7 @@
         <v>62.52195117925444</v>
       </c>
       <c r="D306" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E306">
         <v>66.54562713332096</v>
@@ -16907,7 +16910,7 @@
         <v>0</v>
       </c>
       <c r="P306" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -16921,7 +16924,7 @@
         <v>63.12382871565654</v>
       </c>
       <c r="D307" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E307">
         <v>66.7862115872222</v>
@@ -16957,7 +16960,7 @@
         <v>0</v>
       </c>
       <c r="P307" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -16971,7 +16974,7 @@
         <v>63.43713576842169</v>
       </c>
       <c r="D308" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E308">
         <v>68.73084934526386</v>
@@ -17007,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -17021,7 +17024,7 @@
         <v>63.67236578705479</v>
       </c>
       <c r="D309" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E309">
         <v>68.98960236576026</v>
@@ -17057,7 +17060,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -17071,7 +17074,7 @@
         <v>63.92214730715632</v>
       </c>
       <c r="D310" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E310">
         <v>69.26436203787196</v>
@@ -17107,7 +17110,7 @@
         <v>1</v>
       </c>
       <c r="P310" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -17121,7 +17124,7 @@
         <v>64.84267428552164</v>
       </c>
       <c r="D311" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E311">
         <v>70.2769417140738</v>
@@ -17157,7 +17160,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -17171,7 +17174,7 @@
         <v>67.02639425410899</v>
       </c>
       <c r="D312" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E312">
         <v>72.67903367951989</v>
@@ -17207,7 +17210,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17221,7 +17224,7 @@
         <v>48.8201383647419</v>
       </c>
       <c r="D313" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E313">
         <v>53.28068312873989</v>
@@ -17257,7 +17260,7 @@
         <v>1</v>
       </c>
       <c r="P313" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -17271,7 +17274,7 @@
         <v>43.78661428769819</v>
       </c>
       <c r="D314" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E314">
         <v>49.20590413019019</v>
@@ -17307,7 +17310,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -17321,7 +17324,7 @@
         <v>43.50856722084519</v>
       </c>
       <c r="D315" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E315">
         <v>49.20590413019019</v>
@@ -17357,7 +17360,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17371,7 +17374,7 @@
         <v>38.43277181447034</v>
       </c>
       <c r="D316" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E316">
         <v>43.81134802598723</v>
@@ -17407,7 +17410,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17421,7 +17424,7 @@
         <v>39.10060265112747</v>
       </c>
       <c r="D317" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E317">
         <v>43.81134802598723</v>
@@ -17457,7 +17460,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17471,7 +17474,7 @@
         <v>28.12299460113455</v>
       </c>
       <c r="D318" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E318">
         <v>35.22229514558674</v>
@@ -17507,7 +17510,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17521,7 +17524,7 @@
         <v>27.81471186440677</v>
       </c>
       <c r="D319" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E319">
         <v>34.92338983050847</v>
@@ -17557,7 +17560,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17571,7 +17574,7 @@
         <v>31.34037664954478</v>
       </c>
       <c r="D320" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E320">
         <v>38.34181005944457</v>
@@ -17607,7 +17610,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -17621,7 +17624,7 @@
         <v>31.06966226989418</v>
       </c>
       <c r="D321" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E321">
         <v>38.07933033773011</v>
@@ -17657,7 +17660,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -17671,7 +17674,7 @@
         <v>30.73117805425061</v>
       </c>
       <c r="D322" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E322">
         <v>37.75114221990079</v>
@@ -17707,7 +17710,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -17721,7 +17724,7 @@
         <v>30.23209518986696</v>
       </c>
       <c r="D323" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E323">
         <v>37.26724058333109</v>
@@ -17757,7 +17760,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -17771,7 +17774,7 @@
         <v>29.66328200930995</v>
       </c>
       <c r="D324" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E324">
         <v>36.71572970484425</v>
@@ -17807,7 +17810,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -17821,7 +17824,7 @@
         <v>29.90527095369034</v>
       </c>
       <c r="D325" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E325">
         <v>36.95035776878722</v>
@@ -17857,7 +17860,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -17871,7 +17874,7 @@
         <v>29.61163508265873</v>
       </c>
       <c r="D326" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E326">
         <v>36.66565378736873</v>
@@ -17907,7 +17910,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -17921,7 +17924,7 @@
         <v>29.60796663375891</v>
       </c>
       <c r="D327" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E327">
         <v>38.73216492329536</v>
@@ -17957,7 +17960,7 @@
         <v>1</v>
       </c>
       <c r="P327" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -17971,7 +17974,7 @@
         <v>29.99267097270676</v>
       </c>
       <c r="D328" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E328">
         <v>39.11028686861102</v>
@@ -18007,7 +18010,7 @@
         <v>1</v>
       </c>
       <c r="P328" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -18021,7 +18024,7 @@
         <v>30.47592970891776</v>
       </c>
       <c r="D329" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E329">
         <v>39.58527691922146</v>
@@ -18057,7 +18060,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -18086,7 +18089,7 @@
         <v>64.5</v>
       </c>
       <c r="P330" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -18100,7 +18103,7 @@
         <v>37.15547839433958</v>
       </c>
       <c r="D331" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E331">
         <v>43.97524497646168</v>
@@ -18136,7 +18139,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -18150,7 +18153,7 @@
         <v>37.01610527202449</v>
       </c>
       <c r="D332" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E332">
         <v>43.97524497646168</v>
@@ -18186,7 +18189,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -18200,7 +18203,7 @@
         <v>25.78116025897209</v>
       </c>
       <c r="D333" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E333">
         <v>34.97083622412276</v>
@@ -18236,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="P333" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -18250,7 +18253,7 @@
         <v>21.78292834045364</v>
       </c>
       <c r="D334" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E334">
         <v>32.11135258573889</v>
@@ -18286,7 +18289,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -18300,7 +18303,7 @@
         <v>16.20611168178342</v>
       </c>
       <c r="D335" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E335">
         <v>27.00103770079773</v>
@@ -18336,7 +18339,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -18350,7 +18353,7 @@
         <v>16.50484318653699</v>
       </c>
       <c r="D336" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E336">
         <v>27.00103770079773</v>
@@ -18386,7 +18389,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -18400,7 +18403,7 @@
         <v>7.513223702566968</v>
       </c>
       <c r="D337" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E337">
         <v>19.03531145368304</v>
@@ -18436,7 +18439,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -18450,7 +18453,7 @@
         <v>7.993745640345985</v>
       </c>
       <c r="D338" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E338">
         <v>19.03531145368304</v>
@@ -18486,7 +18489,7 @@
         <v>1</v>
       </c>
       <c r="P338" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -18500,7 +18503,7 @@
         <v>-3.101932223543415</v>
       </c>
       <c r="D339" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E339">
         <v>9.308115338882274</v>
@@ -18536,7 +18539,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -18550,7 +18553,7 @@
         <v>-2.399420332936991</v>
       </c>
       <c r="D340" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E340">
         <v>9.308115338882274</v>
@@ -18586,7 +18589,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -18600,7 +18603,7 @@
         <v>-2.646016646848999</v>
       </c>
       <c r="D341" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E341">
         <v>9.308115338882274</v>
@@ -18636,7 +18639,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -18650,7 +18653,7 @@
         <v>-9.121415898188509</v>
       </c>
       <c r="D342" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E342">
         <v>3.792162618009769</v>
@@ -18686,7 +18689,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -18700,7 +18703,7 @@
         <v>-8.59683700961601</v>
       </c>
       <c r="D343" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E343">
         <v>3.792162618009769</v>
@@ -18736,7 +18739,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -18750,7 +18753,7 @@
         <v>-12.89770073310627</v>
       </c>
       <c r="D344" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E344">
         <v>0.3317647274577595</v>
@@ -18786,7 +18789,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -18800,7 +18803,7 @@
         <v>-14.09288737405897</v>
       </c>
       <c r="D345" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E345">
         <v>-0.7634443237574615</v>
@@ -18836,7 +18839,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -18850,7 +18853,7 @@
         <v>59.56360813550708</v>
       </c>
       <c r="D346" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E346">
         <v>75.18159673719033</v>
@@ -18886,7 +18889,7 @@
         <v>1</v>
       </c>
       <c r="P346" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -18900,7 +18903,7 @@
         <v>60.31956868780029</v>
       </c>
       <c r="D347" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E347">
         <v>76.03992694760657</v>
@@ -18936,7 +18939,7 @@
         <v>1</v>
       </c>
       <c r="P347" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -18950,7 +18953,7 @@
         <v>62.79431714399279</v>
       </c>
       <c r="D348" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E348">
         <v>77.62631903124894</v>
@@ -18986,7 +18989,7 @@
         <v>1</v>
       </c>
       <c r="P348" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -19000,7 +19003,7 @@
         <v>64.08298118239738</v>
       </c>
       <c r="D349" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E349">
         <v>79.11665728256037</v>
@@ -19036,7 +19039,7 @@
         <v>1</v>
       </c>
       <c r="P349" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -19050,7 +19053,7 @@
         <v>64.68906100731142</v>
       </c>
       <c r="D350" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E350">
         <v>79.81758779625406</v>
@@ -19086,7 +19089,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -19100,7 +19103,7 @@
         <v>66.03163316666149</v>
       </c>
       <c r="D351" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E351">
         <v>81.37027071794273</v>
@@ -19136,7 +19139,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -19150,7 +19153,7 @@
         <v>65.93064756206419</v>
       </c>
       <c r="D352" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E352">
         <v>81.25348100015911</v>
@@ -19186,7 +19189,7 @@
         <v>1</v>
       </c>
       <c r="P352" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="353" spans="1:16">
@@ -19200,7 +19203,7 @@
         <v>64.84418812133572</v>
       </c>
       <c r="D353" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E353">
         <v>80.16577874075962</v>
@@ -19236,7 +19239,7 @@
         <v>1</v>
       </c>
       <c r="P353" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="354" spans="1:16">
@@ -19250,7 +19253,7 @@
         <v>63.26616721431549</v>
       </c>
       <c r="D354" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E354">
         <v>79.97190339753475</v>
@@ -19286,7 +19289,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -19300,7 +19303,7 @@
         <v>61.66554474645639</v>
       </c>
       <c r="D355" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E355">
         <v>78.05285470927927</v>
@@ -19336,7 +19339,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -19350,7 +19353,7 @@
         <v>60.62679073828761</v>
       </c>
       <c r="D356" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E356">
         <v>76.80745202574536</v>
@@ -19386,7 +19389,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19400,7 +19403,7 @@
         <v>59.7052486970962</v>
       </c>
       <c r="D357" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E357">
         <v>75.70257933975458</v>
@@ -19436,7 +19439,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19450,7 +19453,7 @@
         <v>50.59926427854958</v>
       </c>
       <c r="D358" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E358">
         <v>64.78505955942813</v>
@@ -19486,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="P358" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -19500,7 +19503,7 @@
         <v>54.80887863487924</v>
       </c>
       <c r="D359" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E359">
         <v>72.15232554251514</v>
@@ -19536,7 +19539,7 @@
         <v>1</v>
       </c>
       <c r="P359" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="360" spans="1:16">
@@ -19550,7 +19553,7 @@
         <v>22.63799956449154</v>
       </c>
       <c r="D360" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E360">
         <v>34.76775640560354</v>
@@ -19586,7 +19589,7 @@
         <v>1</v>
       </c>
       <c r="P360" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -19600,7 +19603,7 @@
         <v>21.94224021195173</v>
       </c>
       <c r="D361" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E361">
         <v>34.15853400058877</v>
@@ -19636,7 +19639,7 @@
         <v>1</v>
       </c>
       <c r="P361" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="362" spans="1:16">
@@ -19650,7 +19653,7 @@
         <v>22.5492051810421</v>
       </c>
       <c r="D362" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E362">
         <v>34.15853400058877</v>
@@ -19686,7 +19689,7 @@
         <v>1</v>
       </c>
       <c r="P362" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="363" spans="1:16">
@@ -19700,7 +19703,7 @@
         <v>21.6518845469621</v>
       </c>
       <c r="D363" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E363">
         <v>34.22096927469043</v>
@@ -19741,40 +19744,40 @@
     </row>
     <row r="364" spans="1:16">
       <c r="A364" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B364" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C364">
-        <v>21.72096927469043</v>
+        <v>20.6287291557878</v>
       </c>
       <c r="D364" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E364">
-        <v>34.22096927469043</v>
+        <v>33.1903090762459</v>
       </c>
       <c r="F364">
         <v>1</v>
       </c>
       <c r="G364">
-        <v>0.1400790307253096</v>
+        <v>0.1401712708442122</v>
       </c>
       <c r="H364">
-        <v>0.1525790307253096</v>
+        <v>0.1536096909237541</v>
       </c>
       <c r="I364">
-        <v>12.5</v>
+        <v>12.5615799204581</v>
       </c>
       <c r="J364">
-        <v>0.2872768481811144</v>
+        <v>0.2922800530279325</v>
       </c>
       <c r="K364">
-        <v>206</v>
+        <v>204.5</v>
       </c>
       <c r="L364">
-        <v>80.90000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="M364">
         <v>206</v>
@@ -19786,7 +19789,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="s">
-        <v>130</v>
+        <v>465</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -19797,28 +19800,28 @@
         <v>132</v>
       </c>
       <c r="C365">
-        <v>20.6287291557878</v>
+        <v>18.55332655028487</v>
       </c>
       <c r="D365" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E365">
-        <v>33.1903090762459</v>
+        <v>31.09968346874662</v>
       </c>
       <c r="F365">
         <v>1</v>
       </c>
       <c r="G365">
-        <v>0.1401712708442122</v>
+        <v>0.1422466734497151</v>
       </c>
       <c r="H365">
-        <v>0.1536096909237541</v>
+        <v>0.1557003165312534</v>
       </c>
       <c r="I365">
-        <v>12.5615799204581</v>
+        <v>12.54635691846175</v>
       </c>
       <c r="J365">
-        <v>0.2922800530279325</v>
+        <v>0.3024287210255019</v>
       </c>
       <c r="K365">
         <v>204.5</v>
@@ -19844,37 +19847,37 @@
         <v>0</v>
       </c>
       <c r="B366" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C366">
-        <v>18.55332655028487</v>
+        <v>17.31085877987343</v>
       </c>
       <c r="D366" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E366">
-        <v>31.09968346874662</v>
+        <v>28.73863898391312</v>
       </c>
       <c r="F366">
         <v>1</v>
       </c>
       <c r="G366">
-        <v>0.1422466734497151</v>
+        <v>0.1478891412201266</v>
       </c>
       <c r="H366">
-        <v>0.1557003165312534</v>
+        <v>0.1580613610160869</v>
       </c>
       <c r="I366">
-        <v>12.54635691846175</v>
+        <v>11.42778020403969</v>
       </c>
       <c r="J366">
-        <v>0.3024287210255019</v>
+        <v>0.3138901020198392</v>
       </c>
       <c r="K366">
-        <v>204.5</v>
+        <v>208</v>
       </c>
       <c r="L366">
-        <v>80.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="M366">
         <v>206</v>
@@ -19894,13 +19897,13 @@
         <v>0</v>
       </c>
       <c r="B367" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C367">
         <v>15.37197148226591</v>
       </c>
       <c r="D367" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E367">
         <v>26.81839483339797</v>
@@ -19936,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>133</v>
+        <v>468</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -19944,13 +19947,13 @@
         <v>0</v>
       </c>
       <c r="B368" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C368">
         <v>14.98793542044889</v>
       </c>
       <c r="D368" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E368">
         <v>26.03693115694988</v>
@@ -19994,13 +19997,13 @@
         <v>1</v>
       </c>
       <c r="B369" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C369">
-        <v>14.44543186753303</v>
+        <v>15.04543186753304</v>
       </c>
       <c r="D369" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E369">
         <v>26.03693115694988</v>
@@ -20009,13 +20012,13 @@
         <v>1</v>
       </c>
       <c r="G369">
-        <v>0.150754568132467</v>
+        <v>0.151354568132467</v>
       </c>
       <c r="H369">
         <v>0.1613630688430502</v>
       </c>
       <c r="I369">
-        <v>11.59149928941684</v>
+        <v>10.99149928941684</v>
       </c>
       <c r="J369">
         <v>0.3276661929445527</v>
@@ -20024,7 +20027,7 @@
         <v>208</v>
       </c>
       <c r="L369">
-        <v>82.59999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="M369">
         <v>206.5</v>
@@ -20050,7 +20053,7 @@
         <v>13.45577889447236</v>
       </c>
       <c r="D370" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E370">
         <v>24.7361952620244</v>
@@ -20086,7 +20089,7 @@
         <v>1</v>
       </c>
       <c r="P370" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="371" spans="1:16">
@@ -20094,13 +20097,13 @@
         <v>1</v>
       </c>
       <c r="B371" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C371">
         <v>13.31081119885138</v>
       </c>
       <c r="D371" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E371">
         <v>24.7361952620244</v>
@@ -20136,7 +20139,7 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -20144,13 +20147,13 @@
         <v>2</v>
       </c>
       <c r="B372" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C372">
         <v>13.42667623833452</v>
       </c>
       <c r="D372" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E372">
         <v>24.7361952620244</v>
@@ -20186,7 +20189,7 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -20194,13 +20197,13 @@
         <v>3</v>
       </c>
       <c r="B373" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C373">
         <v>13.63936826992104</v>
       </c>
       <c r="D373" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E373">
         <v>24.7361952620244</v>
@@ -20236,7 +20239,7 @@
         <v>1</v>
       </c>
       <c r="P373" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -20253,7 +20256,7 @@
         <v>251</v>
       </c>
       <c r="E374">
-        <v>21.96162940390666</v>
+        <v>22.78708795281059</v>
       </c>
       <c r="F374">
         <v>1</v>
@@ -20262,10 +20265,10 @@
         <v>0.157207409460342</v>
       </c>
       <c r="H374">
-        <v>0.1640383705960933</v>
+        <v>0.1652129120471894</v>
       </c>
       <c r="I374">
-        <v>11.36903886424868</v>
+        <v>12.19449741315262</v>
       </c>
       <c r="J374">
         <v>0.3490829021921049</v>
@@ -20277,16 +20280,16 @@
         <v>83.90000000000001</v>
       </c>
       <c r="M374">
-        <v>203.5</v>
+        <v>204</v>
       </c>
       <c r="N374">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O374">
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -20294,7 +20297,7 @@
         <v>1</v>
       </c>
       <c r="B375" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C375">
         <v>10.37263457760139</v>
@@ -20303,7 +20306,7 @@
         <v>251</v>
       </c>
       <c r="E375">
-        <v>21.96162940390666</v>
+        <v>22.78708795281059</v>
       </c>
       <c r="F375">
         <v>1</v>
@@ -20312,10 +20315,10 @@
         <v>0.1608273654223986</v>
       </c>
       <c r="H375">
-        <v>0.1640383705960933</v>
+        <v>0.1652129120471894</v>
       </c>
       <c r="I375">
-        <v>11.58899482630527</v>
+        <v>12.41445337520921</v>
       </c>
       <c r="J375">
         <v>0.3490829021921049</v>
@@ -20327,16 +20330,16 @@
         <v>85.59999999999999</v>
       </c>
       <c r="M375">
-        <v>203.5</v>
+        <v>204</v>
       </c>
       <c r="N375">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O375">
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -20344,7 +20347,7 @@
         <v>2</v>
       </c>
       <c r="B376" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C376">
         <v>10.59075634404218</v>
@@ -20353,7 +20356,7 @@
         <v>251</v>
       </c>
       <c r="E376">
-        <v>21.96162940390666</v>
+        <v>22.78708795281059</v>
       </c>
       <c r="F376">
         <v>1</v>
@@ -20362,10 +20365,10 @@
         <v>0.1558092436559578</v>
       </c>
       <c r="H376">
-        <v>0.1640383705960933</v>
+        <v>0.1652129120471894</v>
       </c>
       <c r="I376">
-        <v>11.37087305986448</v>
+        <v>12.19633160876842</v>
       </c>
       <c r="J376">
         <v>0.3490829021921049</v>
@@ -20377,16 +20380,16 @@
         <v>83.2</v>
       </c>
       <c r="M376">
-        <v>203.5</v>
+        <v>204</v>
       </c>
       <c r="N376">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O376">
         <v>1</v>
       </c>
       <c r="P376" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="377" spans="1:16">
@@ -20394,7 +20397,7 @@
         <v>3</v>
       </c>
       <c r="B377" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C377">
         <v>10.88525375719482</v>
@@ -20403,7 +20406,7 @@
         <v>251</v>
       </c>
       <c r="E377">
-        <v>21.96162940390666</v>
+        <v>22.78708795281059</v>
       </c>
       <c r="F377">
         <v>1</v>
@@ -20412,10 +20415,10 @@
         <v>0.1519147462428052</v>
       </c>
       <c r="H377">
-        <v>0.1640383705960933</v>
+        <v>0.1652129120471894</v>
       </c>
       <c r="I377">
-        <v>11.07637564671184</v>
+        <v>11.90183419561578</v>
       </c>
       <c r="J377">
         <v>0.3490829021921049</v>
@@ -20427,16 +20430,16 @@
         <v>81.40000000000001</v>
       </c>
       <c r="M377">
-        <v>203.5</v>
+        <v>204</v>
       </c>
       <c r="N377">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O377">
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -20444,13 +20447,13 @@
         <v>0</v>
       </c>
       <c r="B378" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C378">
         <v>8.066617110777202</v>
       </c>
       <c r="D378" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E378">
         <v>20.60412942273109</v>
@@ -20494,13 +20497,13 @@
         <v>1</v>
       </c>
       <c r="B379" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C379">
         <v>8.364994705529739</v>
       </c>
       <c r="D379" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E379">
         <v>20.60412942273109</v>
@@ -20544,13 +20547,13 @@
         <v>2</v>
       </c>
       <c r="B380" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C380">
         <v>8.723696781331768</v>
       </c>
       <c r="D380" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E380">
         <v>20.60412942273109</v>
@@ -20594,13 +20597,13 @@
         <v>3</v>
       </c>
       <c r="B381" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C381">
         <v>9.044345743430753</v>
       </c>
       <c r="D381" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E381">
         <v>20.60412942273109</v>
@@ -20644,13 +20647,13 @@
         <v>0</v>
       </c>
       <c r="B382" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C382">
         <v>-3.424244140274368</v>
       </c>
       <c r="D382" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E382">
         <v>10.72424068728326</v>
@@ -20686,7 +20689,7 @@
         <v>1</v>
       </c>
       <c r="P382" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="383" spans="1:16">
@@ -20694,13 +20697,13 @@
         <v>0</v>
       </c>
       <c r="B383" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C383">
         <v>-2.10269534440512</v>
       </c>
       <c r="D383" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E383">
         <v>10.74605227334604</v>
@@ -20736,7 +20739,7 @@
         <v>1</v>
       </c>
       <c r="P383" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -20744,13 +20747,13 @@
         <v>0</v>
       </c>
       <c r="B384" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C384">
         <v>13.16161645214643</v>
       </c>
       <c r="D384" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E384">
         <v>9.280369598044189</v>
@@ -20786,7 +20789,7 @@
         <v>1</v>
       </c>
       <c r="P384" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="385" spans="1:16">
@@ -20794,13 +20797,13 @@
         <v>0</v>
       </c>
       <c r="B385" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C385">
         <v>-21.82338146012957</v>
       </c>
       <c r="D385" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E385">
         <v>-26.74300800979539</v>
@@ -20836,7 +20839,7 @@
         <v>1</v>
       </c>
       <c r="P385" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="386" spans="1:16">
@@ -20844,13 +20847,13 @@
         <v>0</v>
       </c>
       <c r="B386" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C386">
         <v>32.20533098261782</v>
       </c>
       <c r="D386" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E386">
         <v>28.99211611556489</v>
@@ -20886,7 +20889,7 @@
         <v>1</v>
       </c>
       <c r="P386" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="387" spans="1:16">
@@ -20894,13 +20897,13 @@
         <v>0</v>
       </c>
       <c r="B387" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C387">
         <v>30.11806288540985</v>
       </c>
       <c r="D387" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E387">
         <v>26.85846428286341</v>
@@ -20936,7 +20939,7 @@
         <v>1</v>
       </c>
       <c r="P387" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-2474-2382-800.xlsx
+++ b/s60_signal/position-2474-2382-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="475">
   <si>
     <t>trade_time</t>
   </si>
@@ -409,33 +409,30 @@
     <t>2020-12-24</t>
   </si>
   <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
     <t>2021-01-04</t>
   </si>
   <si>
-    <t>2020-12-29</t>
-  </si>
-  <si>
     <t>2021-01-19</t>
   </si>
   <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
     <t>2021-01-14</t>
   </si>
   <si>
     <t>2021-01-18</t>
   </si>
   <si>
-    <t>2021-01-07</t>
-  </si>
-  <si>
     <t>2021-01-21</t>
   </si>
   <si>
     <t>2021-01-28</t>
   </si>
   <si>
-    <t>2021-01-27</t>
-  </si>
-  <si>
     <t>2021-05-17</t>
   </si>
   <si>
@@ -757,7 +754,7 @@
     <t>2021-02-17</t>
   </si>
   <si>
-    <t>2021-02-18</t>
+    <t>2021-03-18</t>
   </si>
   <si>
     <t>2021-03-23</t>
@@ -781,6 +778,9 @@
     <t>2021-05-24</t>
   </si>
   <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
     <t>2021-07-15</t>
   </si>
   <si>
@@ -1427,9 +1427,6 @@
   </si>
   <si>
     <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
   </si>
   <si>
     <t>2021-04-21</t>
@@ -1863,7 +1860,7 @@
         <v>39.24967816269653</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2">
         <v>47.58658728904034</v>
@@ -1913,7 +1910,7 @@
         <v>41.7045814878046</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3">
         <v>51.36624085194781</v>
@@ -1963,7 +1960,7 @@
         <v>47.73273319613877</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4">
         <v>59.43490802303255</v>
@@ -2013,7 +2010,7 @@
         <v>47.24820828667414</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>58.87563172501095</v>
@@ -2063,7 +2060,7 @@
         <v>47.16470096247878</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6">
         <v>58.77924108291729</v>
@@ -2113,7 +2110,7 @@
         <v>-15.1664654510749</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7">
         <v>-7.294892481790129</v>
@@ -2163,7 +2160,7 @@
         <v>-14.45834344229912</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <v>-7.294892481790129</v>
@@ -2213,7 +2210,7 @@
         <v>-13.39336737209288</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9">
         <v>-7.294892481790129</v>
@@ -2263,7 +2260,7 @@
         <v>-16.33245230627455</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10">
         <v>-7.294892481790129</v>
@@ -2313,7 +2310,7 @@
         <v>-29.63643996743208</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11">
         <v>-21.37792699357366</v>
@@ -2363,7 +2360,7 @@
         <v>-29.01030081710592</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12">
         <v>-21.37792699357366</v>
@@ -2413,7 +2410,7 @@
         <v>-28.60118761449661</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13">
         <v>-21.37792699357366</v>
@@ -2463,7 +2460,7 @@
         <v>-49.08464630848418</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14">
         <v>-42.77667080227592</v>
@@ -2513,7 +2510,7 @@
         <v>-48.56869529606767</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15">
         <v>-42.77667080227592</v>
@@ -2563,7 +2560,7 @@
         <v>-49.0410871967355</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16">
         <v>-42.77667080227592</v>
@@ -2613,7 +2610,7 @@
         <v>-65.70804604683664</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E17">
         <v>-56.94115587886895</v>
@@ -2663,7 +2660,7 @@
         <v>-65.6116252316011</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18">
         <v>-56.94115587886895</v>
@@ -2713,7 +2710,7 @@
         <v>-79.57406496333017</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19">
         <v>-67.54165070713992</v>
@@ -2763,7 +2760,7 @@
         <v>-113.1125372679468</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E20">
         <v>-103.9345101187686</v>
@@ -2813,7 +2810,7 @@
         <v>-150.4700278614179</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E21">
         <v>-141.3269680910878</v>
@@ -2863,7 +2860,7 @@
         <v>-191.2456393652701</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E22">
         <v>-165.2314426418361</v>
@@ -2913,7 +2910,7 @@
         <v>-208.9753900042601</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E23">
         <v>-181.8698454183375</v>
@@ -2963,7 +2960,7 @@
         <v>-222.2487414251906</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E24">
         <v>-206.4607237347662</v>
@@ -3013,7 +3010,7 @@
         <v>-239.7112109310854</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25">
         <v>-219.5184020745525</v>
@@ -3063,7 +3060,7 @@
         <v>-263.1154559964206</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E26">
         <v>-240.6747187530921</v>
@@ -3113,7 +3110,7 @@
         <v>-268.6224791106823</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27">
         <v>-252.6279978948062</v>
@@ -3221,7 +3218,7 @@
         <v>-254.0793405031437</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E30">
         <v>-235.7082244929039</v>
@@ -3271,7 +3268,7 @@
         <v>-238.7059320352077</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31">
         <v>-223.7765478327873</v>
@@ -3400,7 +3397,7 @@
         <v>-85.8076603763717</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E34">
         <v>-85.31060902491748</v>
@@ -3450,7 +3447,7 @@
         <v>-78.41701518144652</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E35">
         <v>-77.28396586589429</v>
@@ -3558,7 +3555,7 @@
         <v>-77.43890142953504</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E38">
         <v>-86.03210595388953</v>
@@ -3608,7 +3605,7 @@
         <v>-75.24842836769179</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E39">
         <v>-82.41442691778926</v>
@@ -3658,7 +3655,7 @@
         <v>-75.26941837884658</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E40">
         <v>-76.41687497573176</v>
@@ -3708,7 +3705,7 @@
         <v>2.405986219478436</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E41">
         <v>22.3137495724129</v>
@@ -3758,7 +3755,7 @@
         <v>-1.953147134466214</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E42">
         <v>19.32012787151115</v>
@@ -3808,7 +3805,7 @@
         <v>-16.2502130791469</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E43">
         <v>8.401660897453333</v>
@@ -3858,7 +3855,7 @@
         <v>-14.74859467309044</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E44">
         <v>8.401660897453333</v>
@@ -3908,7 +3905,7 @@
         <v>-29.86968571903745</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E45">
         <v>-0.9514709154835543</v>
@@ -3958,7 +3955,7 @@
         <v>60.63454015125168</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E46">
         <v>75.91925407409063</v>
@@ -4008,7 +4005,7 @@
         <v>61.36441721922468</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E47">
         <v>75.91925407409063</v>
@@ -4058,7 +4055,7 @@
         <v>89.12505313226613</v>
       </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E48">
         <v>73.92461224371841</v>
@@ -4108,7 +4105,7 @@
         <v>60.18080332327113</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E49">
         <v>75.16419394721952</v>
@@ -4158,7 +4155,7 @@
         <v>60.90367287266527</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E50">
         <v>75.16419394721952</v>
@@ -4208,7 +4205,7 @@
         <v>88.41554187615753</v>
       </c>
       <c r="D51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E51">
         <v>73.33247692380556</v>
@@ -4258,7 +4255,7 @@
         <v>39.99810912339372</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E52">
         <v>55.15583755182445</v>
@@ -4308,7 +4305,7 @@
         <v>41.30719414984996</v>
       </c>
       <c r="D53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E53">
         <v>55.15583755182445</v>
@@ -4358,7 +4355,7 @@
         <v>43.08151977105167</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E54">
         <v>55.9485635535138</v>
@@ -4394,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4408,7 +4405,7 @@
         <v>42.16532004667869</v>
       </c>
       <c r="D55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E55">
         <v>55.9485635535138</v>
@@ -4444,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4458,7 +4455,7 @@
         <v>42.55008107334416</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E56">
         <v>56.30400099154195</v>
@@ -4508,7 +4505,7 @@
         <v>43.58368103616133</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E57">
         <v>56.30400099154195</v>
@@ -4558,7 +4555,7 @@
         <v>44.27504780738504</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E58">
         <v>56.96559598792828</v>
@@ -4608,7 +4605,7 @@
         <v>44.76828997217422</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E59">
         <v>57.43759805949687</v>
@@ -4658,7 +4655,7 @@
         <v>46.95250922066406</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E60">
         <v>58.6275946856681</v>
@@ -4708,7 +4705,7 @@
         <v>47.37813227189867</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E61">
         <v>59.01897220404476</v>
@@ -4758,7 +4755,7 @@
         <v>48.93720072957618</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E62">
         <v>59.68207127489522</v>
@@ -4808,7 +4805,7 @@
         <v>48.94662890110423</v>
       </c>
       <c r="D63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E63">
         <v>59.69094484809811</v>
@@ -4858,7 +4855,7 @@
         <v>54.08932335660573</v>
       </c>
       <c r="D64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E64">
         <v>62.52278850035134</v>
@@ -4908,7 +4905,7 @@
         <v>67.18932335660573</v>
       </c>
       <c r="D65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E65">
         <v>59.01736085156006</v>
@@ -4958,7 +4955,7 @@
         <v>54.27142458878302</v>
       </c>
       <c r="D66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E66">
         <v>62.70264156916842</v>
@@ -5008,7 +5005,7 @@
         <v>67.37142458878301</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E67">
         <v>59.17608118479113</v>
@@ -5058,7 +5055,7 @@
         <v>54.44666418857609</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E68">
         <v>57.92296041603655</v>
@@ -5108,7 +5105,7 @@
         <v>54.38623819452964</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E69">
         <v>62.81603772299223</v>
@@ -5158,7 +5155,7 @@
         <v>54.68320045790918</v>
       </c>
       <c r="D70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E70">
         <v>62.81603772299223</v>
@@ -5208,7 +5205,7 @@
         <v>67.48623819452963</v>
       </c>
       <c r="D71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E71">
         <v>59.27615329054065</v>
@@ -5258,7 +5255,7 @@
         <v>54.5181037654851</v>
       </c>
       <c r="D72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E72">
         <v>55.68274527440479</v>
@@ -5308,7 +5305,7 @@
         <v>101.1269386779503</v>
       </c>
       <c r="D73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E73">
         <v>83.94100067443752</v>
@@ -5358,7 +5355,7 @@
         <v>75.45009517739128</v>
       </c>
       <c r="D74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E74">
         <v>80.27451240300203</v>
@@ -5408,7 +5405,7 @@
         <v>121.9136696617972</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E75">
         <v>104.5517569407011</v>
@@ -5458,7 +5455,7 @@
         <v>124.0730248787269</v>
       </c>
       <c r="D76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E76">
         <v>106.3319083146578</v>
@@ -5508,7 +5505,7 @@
         <v>125.8987716223492</v>
       </c>
       <c r="D77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E77">
         <v>107.8370361179367</v>
@@ -5558,7 +5555,7 @@
         <v>127.8315078706938</v>
       </c>
       <c r="D78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E78">
         <v>102.3788447068554</v>
@@ -5608,7 +5605,7 @@
         <v>127.8608026942557</v>
       </c>
       <c r="D79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E79">
         <v>102.3788447068554</v>
@@ -5658,7 +5655,7 @@
         <v>126.3344628429377</v>
       </c>
       <c r="D80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E80">
         <v>101.3477167540643</v>
@@ -5708,7 +5705,7 @@
         <v>126.3293867347399</v>
       </c>
       <c r="D81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E81">
         <v>101.3477167540643</v>
@@ -5758,7 +5755,7 @@
         <v>126.0311094090764</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E82">
         <v>101.1387743378843</v>
@@ -5808,7 +5805,7 @@
         <v>126.0190685536726</v>
       </c>
       <c r="D83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E83">
         <v>101.1387743378843</v>
@@ -5858,7 +5855,7 @@
         <v>126.620958855311</v>
       </c>
       <c r="D84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E84">
         <v>101.5450481911581</v>
@@ -5908,7 +5905,7 @@
         <v>126.6224604616829</v>
       </c>
       <c r="D85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E85">
         <v>101.5450481911581</v>
@@ -5958,7 +5955,7 @@
         <v>125.7796367080902</v>
       </c>
       <c r="D86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E86">
         <v>100.9655660999601</v>
@@ -6008,7 +6005,7 @@
         <v>125.7618222447556</v>
       </c>
       <c r="D87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E87">
         <v>100.9655660999601</v>
@@ -6058,7 +6055,7 @@
         <v>125.0669218669525</v>
       </c>
       <c r="D88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E88">
         <v>100.4746655716255</v>
@@ -6094,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6108,7 +6105,7 @@
         <v>125.0327440526733</v>
       </c>
       <c r="D89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E89">
         <v>100.4746655716255</v>
@@ -6144,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6158,7 +6155,7 @@
         <v>123.2289469739378</v>
       </c>
       <c r="D90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E90">
         <v>99.20871347694691</v>
@@ -6208,7 +6205,7 @@
         <v>123.1525707565027</v>
       </c>
       <c r="D91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E91">
         <v>99.20871347694691</v>
@@ -6258,7 +6255,7 @@
         <v>122.9583501275863</v>
       </c>
       <c r="D92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E92">
         <v>99.02233299604161</v>
@@ -6308,7 +6305,7 @@
         <v>122.8757612274544</v>
       </c>
       <c r="D93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E93">
         <v>99.02233299604161</v>
@@ -6358,7 +6355,7 @@
         <v>124.3519741722009</v>
       </c>
       <c r="D94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E94">
         <v>99.98222710840369</v>
@@ -6408,7 +6405,7 @@
         <v>124.3013817424811</v>
       </c>
       <c r="D95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E95">
         <v>99.98222710840369</v>
@@ -6458,7 +6455,7 @@
         <v>124.6891745905705</v>
       </c>
       <c r="D96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E96">
         <v>100.2144824986073</v>
@@ -6508,7 +6505,7 @@
         <v>124.6463240071908</v>
       </c>
       <c r="D97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E97">
         <v>100.2144824986073</v>
@@ -6558,7 +6555,7 @@
         <v>124.4800191586875</v>
       </c>
       <c r="D98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E98">
         <v>100.0704213593001</v>
@@ -6608,7 +6605,7 @@
         <v>124.4323665373309</v>
       </c>
       <c r="D99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E99">
         <v>100.0704213593001</v>
@@ -6658,7 +6655,7 @@
         <v>123.0108457893896</v>
       </c>
       <c r="D100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E100">
         <v>99.05849072228368</v>
@@ -6708,7 +6705,7 @@
         <v>122.9294621467991</v>
       </c>
       <c r="D101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E101">
         <v>99.05849072228368</v>
@@ -6758,7 +6755,7 @@
         <v>121.6453568496303</v>
       </c>
       <c r="D102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E102">
         <v>98.11797538112289</v>
@@ -6808,7 +6805,7 @@
         <v>121.5326226956677</v>
       </c>
       <c r="D103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E103">
         <v>98.11797538112289</v>
@@ -6858,7 +6855,7 @@
         <v>121.0299428079651</v>
       </c>
       <c r="D104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E104">
         <v>97.69409326058823</v>
@@ -6908,7 +6905,7 @@
         <v>120.9030792499847</v>
       </c>
       <c r="D105" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E105">
         <v>97.69409326058823</v>
@@ -6958,7 +6955,7 @@
         <v>120.2680139970007</v>
       </c>
       <c r="D106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E106">
         <v>97.169295355077</v>
@@ -7008,7 +7005,7 @@
         <v>120.1236571755032</v>
       </c>
       <c r="D107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E107">
         <v>97.169295355077</v>
@@ -7058,7 +7055,7 @@
         <v>119.3894537106139</v>
       </c>
       <c r="D108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E108">
         <v>96.56416454557592</v>
@@ -7108,7 +7105,7 @@
         <v>119.2249258621331</v>
       </c>
       <c r="D109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E109">
         <v>96.56416454557592</v>
@@ -7158,7 +7155,7 @@
         <v>118.0996069245826</v>
       </c>
       <c r="D110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E110">
         <v>95.67574966744206</v>
@@ -7208,7 +7205,7 @@
         <v>117.9054652468306</v>
       </c>
       <c r="D111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E111">
         <v>95.67574966744206</v>
@@ -7258,7 +7255,7 @@
         <v>117.1017444652623</v>
       </c>
       <c r="D112" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E112">
         <v>94.98844644291023</v>
@@ -7308,7 +7305,7 @@
         <v>116.8846926800259</v>
       </c>
       <c r="D113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E113">
         <v>94.98844644291023</v>
@@ -7358,7 +7355,7 @@
         <v>115.7903395541055</v>
       </c>
       <c r="D114" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E114">
         <v>94.08518285614407</v>
@@ -7408,7 +7405,7 @@
         <v>115.5431789826436</v>
       </c>
       <c r="D115" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E115">
         <v>94.08518285614407</v>
@@ -7458,7 +7455,7 @@
         <v>114.3600161010092</v>
       </c>
       <c r="D116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E116">
         <v>93.10001108998082</v>
@@ -7508,7 +7505,7 @@
         <v>114.0800164706752</v>
       </c>
       <c r="D117" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E117">
         <v>93.10001108998082</v>
@@ -7558,7 +7555,7 @@
         <v>112.9215721869154</v>
       </c>
       <c r="D118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E118">
         <v>92.10924614915092</v>
@@ -7608,7 +7605,7 @@
         <v>112.6085470585538</v>
       </c>
       <c r="D119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E119">
         <v>92.10924614915092</v>
@@ -7658,7 +7655,7 @@
         <v>111.0753114680939</v>
       </c>
       <c r="D120" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E120">
         <v>91.07689300844227</v>
@@ -7708,7 +7705,7 @@
         <v>109.3637030177276</v>
       </c>
       <c r="D121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E121">
         <v>89.92443844086398</v>
@@ -7758,7 +7755,7 @@
         <v>106.6367917601738</v>
       </c>
       <c r="D122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E122">
         <v>88.08836352929409</v>
@@ -7808,7 +7805,7 @@
         <v>99.96873044828921</v>
       </c>
       <c r="D123" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E123">
         <v>83.59864643650396</v>
@@ -7858,7 +7855,7 @@
         <v>39.91051382546476</v>
       </c>
       <c r="D124" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E124">
         <v>42.55014562583152</v>
@@ -7908,7 +7905,7 @@
         <v>34.76754143004694</v>
       </c>
       <c r="D125" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E125">
         <v>38.11145388461416</v>
@@ -7958,7 +7955,7 @@
         <v>27.87373902743889</v>
       </c>
       <c r="D126" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E126">
         <v>28.73232502982488</v>
@@ -8008,7 +8005,7 @@
         <v>52.34452590842368</v>
       </c>
       <c r="D127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E127">
         <v>60.02089394070224</v>
@@ -8058,7 +8055,7 @@
         <v>66.2681578761451</v>
       </c>
       <c r="D128" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E128">
         <v>59.00746128062423</v>
@@ -8108,7 +8105,7 @@
         <v>65.90298372726488</v>
       </c>
       <c r="D129" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E129">
         <v>59.00746128062423</v>
@@ -8158,7 +8155,7 @@
         <v>75.19054270184851</v>
       </c>
       <c r="D130" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E130">
         <v>82.88620847856147</v>
@@ -8208,7 +8205,7 @@
         <v>91.01410438583636</v>
       </c>
       <c r="D131" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E131">
         <v>85.34034548895417</v>
@@ -8258,7 +8255,7 @@
         <v>90.69117289103272</v>
       </c>
       <c r="D132" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E132">
         <v>85.34034548895417</v>
@@ -8308,7 +8305,7 @@
         <v>106.425283452306</v>
       </c>
       <c r="D133" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E133">
         <v>102.4841645631825</v>
@@ -8358,7 +8355,7 @@
         <v>106.7743510447031</v>
       </c>
       <c r="D134" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E134">
         <v>102.4841645631825</v>
@@ -8408,7 +8405,7 @@
         <v>64.83381773702186</v>
       </c>
       <c r="D135" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E135">
         <v>61.17785949472258</v>
@@ -8458,7 +8455,7 @@
         <v>53.81062761975522</v>
       </c>
       <c r="D136" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E136">
         <v>45.81713512679965</v>
@@ -8508,7 +8505,7 @@
         <v>53.43128846396477</v>
       </c>
       <c r="D137" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E137">
         <v>47.7894228477703</v>
@@ -8558,7 +8555,7 @@
         <v>48.70129852147022</v>
       </c>
       <c r="D138" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E138">
         <v>39.19252273181839</v>
@@ -8608,7 +8605,7 @@
         <v>44.87334693499027</v>
       </c>
       <c r="D139" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E139">
         <v>34.44403390958535</v>
@@ -8658,7 +8655,7 @@
         <v>40.45906823400685</v>
       </c>
       <c r="D140" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E140">
         <v>29.40254968722779</v>
@@ -8708,7 +8705,7 @@
         <v>37.79538016242914</v>
       </c>
       <c r="D141" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E141">
         <v>25.15160114518396</v>
@@ -8758,7 +8755,7 @@
         <v>37.68076952930594</v>
       </c>
       <c r="D142" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E142">
         <v>25.01802919408082</v>
@@ -8808,7 +8805,7 @@
         <v>63.15408222226404</v>
       </c>
       <c r="D143" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E143">
         <v>53.56243089690908</v>
@@ -8858,7 +8855,7 @@
         <v>31.1030054990203</v>
       </c>
       <c r="D144" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E144">
         <v>14.08734435244297</v>
@@ -8908,7 +8905,7 @@
         <v>25.05484991241799</v>
       </c>
       <c r="D145" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E145">
         <v>6.922187058405115</v>
@@ -8958,7 +8955,7 @@
         <v>18.81638310475921</v>
       </c>
       <c r="D146" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E146">
         <v>-0.4684290245420044</v>
@@ -9008,7 +9005,7 @@
         <v>13.01676813424353</v>
       </c>
       <c r="D147" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E147">
         <v>-7.339144057179965</v>
@@ -9058,7 +9055,7 @@
         <v>8.024396355482963</v>
       </c>
       <c r="D148" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E148">
         <v>-13.25353044372964</v>
@@ -9108,7 +9105,7 @@
         <v>7.720504878426524</v>
       </c>
       <c r="D149" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E149">
         <v>-13.61354602240461</v>
@@ -9158,7 +9155,7 @@
         <v>10.31388326476601</v>
       </c>
       <c r="D150" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E150">
         <v>-10.54121036651594</v>
@@ -9208,7 +9205,7 @@
         <v>11.14758883248732</v>
       </c>
       <c r="D151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E151">
         <v>-9.553532148900146</v>
@@ -9258,7 +9255,7 @@
         <v>20.84560393192861</v>
       </c>
       <c r="D152" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E152">
         <v>1.935557811248756</v>
@@ -9294,7 +9291,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9308,7 +9305,7 @@
         <v>21.43389351871438</v>
       </c>
       <c r="D153" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E153">
         <v>2.632495474873352</v>
@@ -9358,7 +9355,7 @@
         <v>22.6162561113628</v>
       </c>
       <c r="D154" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E154">
         <v>4.033222330128012</v>
@@ -9394,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9408,7 +9405,7 @@
         <v>23.86897930913528</v>
       </c>
       <c r="D155" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E155">
         <v>5.517304316678292</v>
@@ -9458,7 +9455,7 @@
         <v>24.29022509961407</v>
       </c>
       <c r="D156" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E156">
         <v>6.016347753146405</v>
@@ -9508,7 +9505,7 @@
         <v>80.77258742920839</v>
       </c>
       <c r="D157" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E157">
         <v>71.50140757768273</v>
@@ -9558,7 +9555,7 @@
         <v>80.87119828430862</v>
       </c>
       <c r="D158" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E158">
         <v>71.50140757768273</v>
@@ -9608,7 +9605,7 @@
         <v>82.15331534782203</v>
       </c>
       <c r="D159" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E159">
         <v>71.50140757768273</v>
@@ -9658,7 +9655,7 @@
         <v>76.19581669669289</v>
       </c>
       <c r="D160" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E160">
         <v>66.74547500154564</v>
@@ -9708,7 +9705,7 @@
         <v>75.21863715900577</v>
       </c>
       <c r="D161" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E161">
         <v>66.74547500154564</v>
@@ -9758,7 +9755,7 @@
         <v>77.89414970172665</v>
       </c>
       <c r="D162" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E162">
         <v>66.74547500154564</v>
@@ -9808,7 +9805,7 @@
         <v>60.11863715900578</v>
       </c>
       <c r="D163" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E163">
         <v>68.03744024109169</v>
@@ -9858,7 +9855,7 @@
         <v>72.44565132750211</v>
       </c>
       <c r="D164" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E164">
         <v>62.8485060058029</v>
@@ -9908,7 +9905,7 @@
         <v>71.50850914251097</v>
       </c>
       <c r="D165" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E165">
         <v>62.8485060058029</v>
@@ -9958,7 +9955,7 @@
         <v>74.40422712505978</v>
       </c>
       <c r="D166" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E166">
         <v>62.8485060058029</v>
@@ -10008,7 +10005,7 @@
         <v>56.40850914251097</v>
       </c>
       <c r="D167" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E167">
         <v>64.59422790923679</v>
@@ -10058,7 +10055,7 @@
         <v>67.88820949982238</v>
       </c>
       <c r="D168" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E168">
         <v>60.43722302948107</v>
@@ -10108,7 +10105,7 @@
         <v>70.99880138202717</v>
       </c>
       <c r="D169" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E169">
         <v>60.43722302948107</v>
@@ -10158,7 +10155,7 @@
         <v>52.78820949982239</v>
       </c>
       <c r="D170" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E170">
         <v>61.23438147825242</v>
@@ -10208,7 +10205,7 @@
         <v>64.41272601732022</v>
       </c>
       <c r="D171" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E171">
         <v>56.61794172047242</v>
@@ -10258,7 +10255,7 @@
         <v>49.31272601732023</v>
       </c>
       <c r="D172" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E172">
         <v>58.0089327786641</v>
@@ -10308,7 +10305,7 @@
         <v>61.16879231159055</v>
       </c>
       <c r="D173" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E173">
         <v>53.82441738118666</v>
@@ -10358,7 +10355,7 @@
         <v>46.06879231159056</v>
       </c>
       <c r="D174" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E174">
         <v>54.08446933112747</v>
@@ -10408,7 +10405,7 @@
         <v>58.07192781203269</v>
       </c>
       <c r="D175" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E175">
         <v>50.68812094147531</v>
@@ -10458,7 +10455,7 @@
         <v>42.9719278120327</v>
       </c>
       <c r="D176" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E176">
         <v>51.29394934141796</v>
@@ -10508,7 +10505,7 @@
         <v>72.62623022483724</v>
       </c>
       <c r="D177" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E177">
         <v>78.13274022613687</v>
@@ -10558,7 +10555,7 @@
         <v>72.14377020837516</v>
       </c>
       <c r="D178" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E178">
         <v>78.53925022743653</v>
@@ -10608,7 +10605,7 @@
         <v>83.25643025082999</v>
       </c>
       <c r="D179" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E179">
         <v>77.7759602547289</v>
@@ -10716,7 +10713,7 @@
         <v>66.25534327603719</v>
       </c>
       <c r="D182" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E182">
         <v>53.25789242985769</v>
@@ -10766,7 +10763,7 @@
         <v>66.50153349826817</v>
       </c>
       <c r="D183" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E183">
         <v>53.49926887679366</v>
@@ -10816,7 +10813,7 @@
         <v>65.13958707494101</v>
       </c>
       <c r="D184" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E184">
         <v>53.20617458032149</v>
@@ -10866,7 +10863,7 @@
         <v>65.2660759255686</v>
       </c>
       <c r="D185" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E185">
         <v>53.20617458032149</v>
@@ -10916,7 +10913,7 @@
         <v>63.88275361614285</v>
       </c>
       <c r="D186" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E186">
         <v>51.96525040581191</v>
@@ -10966,7 +10963,7 @@
         <v>82.52792611826956</v>
       </c>
       <c r="D187" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E187">
         <v>99.94767772279653</v>
@@ -11016,7 +11013,7 @@
         <v>80.81507949145069</v>
       </c>
       <c r="D188" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E188">
         <v>99.94767772279653</v>
@@ -11066,7 +11063,7 @@
         <v>82.55697724266327</v>
       </c>
       <c r="D189" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E189">
         <v>99.94767772279653</v>
@@ -11116,7 +11113,7 @@
         <v>80.68386776738032</v>
       </c>
       <c r="D190" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E190">
         <v>99.94767772279653</v>
@@ -11166,7 +11163,7 @@
         <v>83.46212404051099</v>
       </c>
       <c r="D191" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E191">
         <v>101.9293746430213</v>
@@ -11216,7 +11213,7 @@
         <v>81.65627098338047</v>
       </c>
       <c r="D192" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E192">
         <v>101.9293746430213</v>
@@ -11266,7 +11263,7 @@
         <v>83.46017302146748</v>
       </c>
       <c r="D193" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E193">
         <v>101.9293746430213</v>
@@ -11316,7 +11313,7 @@
         <v>81.57259587924717</v>
       </c>
       <c r="D194" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E194">
         <v>101.9293746430213</v>
@@ -11416,7 +11413,7 @@
         <v>33.77481800214022</v>
       </c>
       <c r="D196" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E196">
         <v>39.96346245740297</v>
@@ -11466,7 +11463,7 @@
         <v>24.63764534106641</v>
       </c>
       <c r="D197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E197">
         <v>34.16939555445761</v>
@@ -11516,7 +11513,7 @@
         <v>43.28817453279771</v>
       </c>
       <c r="D198" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E198">
         <v>46.14425779500065</v>
@@ -11566,7 +11563,7 @@
         <v>24.23598497532834</v>
       </c>
       <c r="D199" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E199">
         <v>33.03819935984974</v>
@@ -11616,7 +11613,7 @@
         <v>24.17071464201896</v>
       </c>
       <c r="D200" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E200">
         <v>33.03819935984974</v>
@@ -11666,7 +11663,7 @@
         <v>23.32366123264667</v>
       </c>
       <c r="D201" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E201">
         <v>32.29172372079252</v>
@@ -11716,7 +11713,7 @@
         <v>22.94912669441385</v>
       </c>
       <c r="D202" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E202">
         <v>31.49029169144093</v>
@@ -11766,7 +11763,7 @@
         <v>22.44844130251504</v>
       </c>
       <c r="D203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E203">
         <v>30.75050022869873</v>
@@ -11816,7 +11813,7 @@
         <v>22.12056025614258</v>
       </c>
       <c r="D204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E204">
         <v>30.75050022869873</v>
@@ -11866,7 +11863,7 @@
         <v>21.00936580829927</v>
       </c>
       <c r="D205" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E205">
         <v>29.75836232883863</v>
@@ -11916,7 +11913,7 @@
         <v>22.21712321587968</v>
       </c>
       <c r="D206" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E206">
         <v>29.83950116198865</v>
@@ -11966,7 +11963,7 @@
         <v>22.36605537346383</v>
       </c>
       <c r="D207" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E207">
         <v>29.99532225197207</v>
@@ -12016,7 +12013,7 @@
         <v>21.71901729202467</v>
       </c>
       <c r="D208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E208">
         <v>28.96097369076485</v>
@@ -12066,7 +12063,7 @@
         <v>21.37743590654157</v>
       </c>
       <c r="D209" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E209">
         <v>28.96097369076485</v>
@@ -12116,7 +12113,7 @@
         <v>21.5505095382167</v>
       </c>
       <c r="D210" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E210">
         <v>29.1420529309536</v>
@@ -12166,7 +12163,7 @@
         <v>21.4477218260166</v>
       </c>
       <c r="D211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E211">
         <v>29.03451072105261</v>
@@ -12216,7 +12213,7 @@
         <v>21.93200329930192</v>
       </c>
       <c r="D212" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E212">
         <v>29.03451072105261</v>
@@ -12266,7 +12263,7 @@
         <v>21.82005829590757</v>
       </c>
       <c r="D213" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E213">
         <v>29.42406980298699</v>
@@ -12316,7 +12313,7 @@
         <v>22.28137628646834</v>
       </c>
       <c r="D214" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E214">
         <v>29.42406980298699</v>
@@ -12366,7 +12363,7 @@
         <v>25.08434479788652</v>
       </c>
       <c r="D215" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E215">
         <v>32.83934753082841</v>
@@ -12416,7 +12413,7 @@
         <v>25.82576998567276</v>
       </c>
       <c r="D216" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E216">
         <v>32.83934753082841</v>
@@ -12466,7 +12463,7 @@
         <v>25.62576998567276</v>
       </c>
       <c r="D217" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E217">
         <v>32.83934753082841</v>
@@ -12516,7 +12513,7 @@
         <v>39.54291961010028</v>
       </c>
       <c r="D218" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E218">
         <v>32.24005830276027</v>
@@ -12566,7 +12563,7 @@
         <v>27.32311840696546</v>
       </c>
       <c r="D219" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E219">
         <v>35.18167674737576</v>
@@ -12616,7 +12613,7 @@
         <v>27.936331890267</v>
       </c>
       <c r="D220" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E220">
         <v>35.18167674737576</v>
@@ -12666,7 +12663,7 @@
         <v>27.736331890267</v>
       </c>
       <c r="D221" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E221">
         <v>35.18167674737576</v>
@@ -12716,7 +12713,7 @@
         <v>41.90990492366392</v>
       </c>
       <c r="D222" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E222">
         <v>34.44924459541966</v>
@@ -12766,7 +12763,7 @@
         <v>29.32582523799188</v>
       </c>
       <c r="D223" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E223">
         <v>36.94571726179005</v>
@@ -12816,7 +12813,7 @@
         <v>43.69251428559836</v>
       </c>
       <c r="D224" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E224">
         <v>36.11301333322514</v>
@@ -12866,7 +12863,7 @@
         <v>44.11030807122381</v>
       </c>
       <c r="D225" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E225">
         <v>36.50295419980888</v>
@@ -12916,7 +12913,7 @@
         <v>45.39200591893177</v>
       </c>
       <c r="D226" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E226">
         <v>37.69920552433632</v>
@@ -12966,7 +12963,7 @@
         <v>46.2461284866414</v>
       </c>
       <c r="D227" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E227">
         <v>38.49638658753197</v>
@@ -13016,7 +13013,7 @@
         <v>46.90307634880546</v>
       </c>
       <c r="D228" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E228">
         <v>39.10953792555176</v>
@@ -13066,7 +13063,7 @@
         <v>33.83569560835785</v>
       </c>
       <c r="D229" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E229">
         <v>40.9206360962427</v>
@@ -13116,7 +13113,7 @@
         <v>46.73201951087134</v>
       </c>
       <c r="D230" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E230">
         <v>38.94988487681324</v>
@@ -13166,7 +13163,7 @@
         <v>33.22416759327695</v>
       </c>
       <c r="D231" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E231">
         <v>40.34408700115657</v>
@@ -13216,7 +13213,7 @@
         <v>46.15305807647522</v>
       </c>
       <c r="D232" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E232">
         <v>38.40952087137686</v>
@@ -13266,7 +13263,7 @@
         <v>33.50490381338868</v>
       </c>
       <c r="D233" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E233">
         <v>40.17087450822464</v>
@@ -13316,7 +13313,7 @@
         <v>45.97912084507914</v>
       </c>
       <c r="D234" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E234">
         <v>38.24717945540719</v>
@@ -13366,7 +13363,7 @@
         <v>34.16379673036971</v>
       </c>
       <c r="D235" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E235">
         <v>40.85258622752538</v>
@@ -13416,7 +13413,7 @@
         <v>46.66368491466983</v>
       </c>
       <c r="D236" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E236">
         <v>38.8861059203585</v>
@@ -13466,7 +13463,7 @@
         <v>35.00523304555671</v>
       </c>
       <c r="D237" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E237">
         <v>41.72316319432058</v>
@@ -13516,7 +13513,7 @@
         <v>47.53790446291606</v>
       </c>
       <c r="D238" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E238">
         <v>39.70204416538832</v>
@@ -13566,7 +13563,7 @@
         <v>35.77509163864829</v>
       </c>
       <c r="D239" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E239">
         <v>42.51968355686988</v>
@@ -13616,7 +13613,7 @@
         <v>48.33775754664758</v>
       </c>
       <c r="D240" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E240">
         <v>40.4485737102044</v>
@@ -13666,7 +13663,7 @@
         <v>36.40438752667171</v>
       </c>
       <c r="D241" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E241">
         <v>43.17077324188112</v>
@@ -13716,7 +13713,7 @@
         <v>48.9915714562823</v>
       </c>
       <c r="D242" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E242">
         <v>41.05880002586348</v>
@@ -13766,7 +13763,7 @@
         <v>32.86635202836143</v>
       </c>
       <c r="D243" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E243">
         <v>23.40810673803942</v>
@@ -13816,7 +13813,7 @@
         <v>14.22574367387871</v>
       </c>
       <c r="D244" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E244">
         <v>19.5340376774239</v>
@@ -13866,7 +13863,7 @@
         <v>24.88800304387275</v>
       </c>
       <c r="D245" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E245">
         <v>11.91657154564347</v>
@@ -13916,7 +13913,7 @@
         <v>39.44906102636678</v>
       </c>
       <c r="D246" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E246">
         <v>28.36395585832523</v>
@@ -13995,7 +13992,7 @@
         <v>36.85113379578714</v>
       </c>
       <c r="D248" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E248">
         <v>25.5208599983697</v>
@@ -14045,7 +14042,7 @@
         <v>33.94646019309421</v>
       </c>
       <c r="D249" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E249">
         <v>22.34206984707826</v>
@@ -14095,7 +14092,7 @@
         <v>33.30875742504994</v>
       </c>
       <c r="D250" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E250">
         <v>21.64418651979802</v>
@@ -14224,7 +14221,7 @@
         <v>9.926891175013289</v>
       </c>
       <c r="D253" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E253">
         <v>9.938904864210649</v>
@@ -14274,7 +14271,7 @@
         <v>8.61566853605617</v>
       </c>
       <c r="D254" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E254">
         <v>9.007561895624264</v>
@@ -14374,7 +14371,7 @@
         <v>15.27625616990661</v>
       </c>
       <c r="D256" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E256">
         <v>13.96823074035395</v>
@@ -14424,7 +14421,7 @@
         <v>14.49984262437423</v>
       </c>
       <c r="D257" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E257">
         <v>14.19011246930496</v>
@@ -14474,7 +14471,7 @@
         <v>13.68984307357539</v>
       </c>
       <c r="D258" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E258">
         <v>15.44321014679792</v>
@@ -14524,7 +14521,7 @@
         <v>14.26953725404694</v>
       </c>
       <c r="D259" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E259">
         <v>17.46734434330768</v>
@@ -14574,7 +14571,7 @@
         <v>59.06263065139578</v>
       </c>
       <c r="D260" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E260">
         <v>59.07357361272927</v>
@@ -14624,7 +14621,7 @@
         <v>60.66257075424956</v>
       </c>
       <c r="D261" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E261">
         <v>61.38454095582109</v>
@@ -14674,7 +14671,7 @@
         <v>61.58779745865752</v>
       </c>
       <c r="D262" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E262">
         <v>62.08864679971672</v>
@@ -15174,7 +15171,7 @@
         <v>-12.91711279591523</v>
       </c>
       <c r="D272" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E272">
         <v>-24.080705554696</v>
@@ -15224,7 +15221,7 @@
         <v>-13.89288092370901</v>
       </c>
       <c r="D273" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E273">
         <v>-24.64699491908532</v>
@@ -15274,7 +15271,7 @@
         <v>-13.4171424523624</v>
       </c>
       <c r="D274" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E274">
         <v>-24.64699491908532</v>
@@ -15324,7 +15321,7 @@
         <v>-7.909028461817627</v>
       </c>
       <c r="D275" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E275">
         <v>-18.4089921717041</v>
@@ -15374,7 +15371,7 @@
         <v>-3.803879058776658</v>
       </c>
       <c r="D276" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E276">
         <v>-13.75986303266694</v>
@@ -15424,7 +15421,7 @@
         <v>-7.200798160312672</v>
       </c>
       <c r="D277" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E277">
         <v>-16.37029482433257</v>
@@ -15474,7 +15471,7 @@
         <v>1.814674940949821</v>
       </c>
       <c r="D278" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E278">
         <v>-6.106103736501311</v>
@@ -15674,7 +15671,7 @@
         <v>68.89152801060949</v>
       </c>
       <c r="D282" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E282">
         <v>67.76768139345658</v>
@@ -15724,7 +15721,7 @@
         <v>68.93096321131679</v>
       </c>
       <c r="D283" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E283">
         <v>67.76768139345658</v>
@@ -15774,7 +15771,7 @@
         <v>68.53130803182968</v>
       </c>
       <c r="D284" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E284">
         <v>67.76768139345658</v>
@@ -15824,7 +15821,7 @@
         <v>69.00549946949548</v>
       </c>
       <c r="D285" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E285">
         <v>67.76768139345658</v>
@@ -15874,7 +15871,7 @@
         <v>77.0344578684535</v>
       </c>
       <c r="D286" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E286">
         <v>79.16818364992574</v>
@@ -15924,7 +15921,7 @@
         <v>76.35596494832328</v>
       </c>
       <c r="D287" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E287">
         <v>79.16818364992574</v>
@@ -15974,7 +15971,7 @@
         <v>77.32922500711149</v>
       </c>
       <c r="D288" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E288">
         <v>79.16818364992574</v>
@@ -16024,7 +16021,7 @@
         <v>79.78847196430716</v>
       </c>
       <c r="D289" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E289">
         <v>84.66094269739213</v>
@@ -16060,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="P289" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16074,7 +16071,7 @@
         <v>79.029452316228</v>
       </c>
       <c r="D290" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E290">
         <v>84.66094269739213</v>
@@ -16110,7 +16107,7 @@
         <v>0</v>
       </c>
       <c r="P290" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -16124,7 +16121,7 @@
         <v>80.07787065443522</v>
       </c>
       <c r="D291" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E291">
         <v>84.66094269739213</v>
@@ -16160,7 +16157,7 @@
         <v>0</v>
       </c>
       <c r="P291" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -16210,7 +16207,7 @@
         <v>0</v>
       </c>
       <c r="P292" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -16260,7 +16257,7 @@
         <v>0</v>
       </c>
       <c r="P293" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -16310,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="P294" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -16324,7 +16321,7 @@
         <v>26.32548638029413</v>
       </c>
       <c r="D295" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E295">
         <v>26.99422663021349</v>
@@ -16374,7 +16371,7 @@
         <v>22.18948293316849</v>
       </c>
       <c r="D296" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E296">
         <v>24.84672272180288</v>
@@ -16424,7 +16421,7 @@
         <v>21.86052377863092</v>
       </c>
       <c r="D297" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E297">
         <v>24.84672272180288</v>
@@ -16474,7 +16471,7 @@
         <v>40.77814878274022</v>
       </c>
       <c r="D298" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E298">
         <v>48.87821615334129</v>
@@ -16524,7 +16521,7 @@
         <v>40.67981251944272</v>
       </c>
       <c r="D299" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E299">
         <v>48.87821615334129</v>
@@ -16574,7 +16571,7 @@
         <v>56.75038402863819</v>
       </c>
       <c r="D300" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E300">
         <v>62.17870887338118</v>
@@ -16624,7 +16621,7 @@
         <v>59.81014784804309</v>
       </c>
       <c r="D301" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E301">
         <v>65.19117101289457</v>
@@ -16674,7 +16671,7 @@
         <v>60.36835189313004</v>
       </c>
       <c r="D302" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E302">
         <v>65.519432176365</v>
@@ -16724,7 +16721,7 @@
         <v>61.49835591209959</v>
       </c>
       <c r="D303" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E303">
         <v>65.45054113973049</v>
@@ -16774,7 +16771,7 @@
         <v>61.74303834428476</v>
       </c>
       <c r="D304" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E304">
         <v>65.59070564276428</v>
@@ -16824,7 +16821,7 @@
         <v>62.08800405152936</v>
       </c>
       <c r="D305" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E305">
         <v>65.70367105582346</v>
@@ -16874,7 +16871,7 @@
         <v>62.52195117925444</v>
       </c>
       <c r="D306" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E306">
         <v>66.54562713332096</v>
@@ -16924,7 +16921,7 @@
         <v>63.12382871565654</v>
       </c>
       <c r="D307" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E307">
         <v>66.7862115872222</v>
@@ -16974,7 +16971,7 @@
         <v>63.43713576842169</v>
       </c>
       <c r="D308" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E308">
         <v>68.73084934526386</v>
@@ -17024,7 +17021,7 @@
         <v>63.67236578705479</v>
       </c>
       <c r="D309" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E309">
         <v>68.98960236576026</v>
@@ -17074,7 +17071,7 @@
         <v>63.92214730715632</v>
       </c>
       <c r="D310" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E310">
         <v>69.26436203787196</v>
@@ -17124,7 +17121,7 @@
         <v>64.84267428552164</v>
       </c>
       <c r="D311" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E311">
         <v>70.2769417140738</v>
@@ -17174,7 +17171,7 @@
         <v>67.02639425410899</v>
       </c>
       <c r="D312" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E312">
         <v>72.67903367951989</v>
@@ -17224,7 +17221,7 @@
         <v>48.8201383647419</v>
       </c>
       <c r="D313" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E313">
         <v>53.28068312873989</v>
@@ -17274,7 +17271,7 @@
         <v>43.78661428769819</v>
       </c>
       <c r="D314" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E314">
         <v>49.20590413019019</v>
@@ -17324,7 +17321,7 @@
         <v>43.50856722084519</v>
       </c>
       <c r="D315" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E315">
         <v>49.20590413019019</v>
@@ -17374,7 +17371,7 @@
         <v>38.43277181447034</v>
       </c>
       <c r="D316" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E316">
         <v>43.81134802598723</v>
@@ -17424,7 +17421,7 @@
         <v>39.10060265112747</v>
       </c>
       <c r="D317" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E317">
         <v>43.81134802598723</v>
@@ -17474,7 +17471,7 @@
         <v>28.12299460113455</v>
       </c>
       <c r="D318" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E318">
         <v>35.22229514558674</v>
@@ -17524,7 +17521,7 @@
         <v>27.81471186440677</v>
       </c>
       <c r="D319" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E319">
         <v>34.92338983050847</v>
@@ -17574,7 +17571,7 @@
         <v>31.34037664954478</v>
       </c>
       <c r="D320" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E320">
         <v>38.34181005944457</v>
@@ -17624,7 +17621,7 @@
         <v>31.06966226989418</v>
       </c>
       <c r="D321" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E321">
         <v>38.07933033773011</v>
@@ -17674,7 +17671,7 @@
         <v>30.73117805425061</v>
       </c>
       <c r="D322" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E322">
         <v>37.75114221990079</v>
@@ -17724,7 +17721,7 @@
         <v>30.23209518986696</v>
       </c>
       <c r="D323" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E323">
         <v>37.26724058333109</v>
@@ -17774,7 +17771,7 @@
         <v>29.66328200930995</v>
       </c>
       <c r="D324" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E324">
         <v>36.71572970484425</v>
@@ -17824,7 +17821,7 @@
         <v>29.90527095369034</v>
       </c>
       <c r="D325" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E325">
         <v>36.95035776878722</v>
@@ -17874,7 +17871,7 @@
         <v>29.61163508265873</v>
       </c>
       <c r="D326" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E326">
         <v>36.66565378736873</v>
@@ -17924,7 +17921,7 @@
         <v>29.60796663375891</v>
       </c>
       <c r="D327" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E327">
         <v>38.73216492329536</v>
@@ -17974,7 +17971,7 @@
         <v>29.99267097270676</v>
       </c>
       <c r="D328" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E328">
         <v>39.11028686861102</v>
@@ -18024,7 +18021,7 @@
         <v>30.47592970891776</v>
       </c>
       <c r="D329" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E329">
         <v>39.58527691922146</v>
@@ -18103,7 +18100,7 @@
         <v>37.15547839433958</v>
       </c>
       <c r="D331" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E331">
         <v>43.97524497646168</v>
@@ -18153,7 +18150,7 @@
         <v>37.01610527202449</v>
       </c>
       <c r="D332" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E332">
         <v>43.97524497646168</v>
@@ -18203,7 +18200,7 @@
         <v>25.78116025897209</v>
       </c>
       <c r="D333" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E333">
         <v>34.97083622412276</v>
@@ -18253,7 +18250,7 @@
         <v>21.78292834045364</v>
       </c>
       <c r="D334" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E334">
         <v>32.11135258573889</v>
@@ -18303,7 +18300,7 @@
         <v>16.20611168178342</v>
       </c>
       <c r="D335" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E335">
         <v>27.00103770079773</v>
@@ -18353,7 +18350,7 @@
         <v>16.50484318653699</v>
       </c>
       <c r="D336" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E336">
         <v>27.00103770079773</v>
@@ -18403,7 +18400,7 @@
         <v>7.513223702566968</v>
       </c>
       <c r="D337" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E337">
         <v>19.03531145368304</v>
@@ -18453,7 +18450,7 @@
         <v>7.993745640345985</v>
       </c>
       <c r="D338" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E338">
         <v>19.03531145368304</v>
@@ -18503,7 +18500,7 @@
         <v>-3.101932223543415</v>
       </c>
       <c r="D339" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E339">
         <v>9.308115338882274</v>
@@ -18553,7 +18550,7 @@
         <v>-2.399420332936991</v>
       </c>
       <c r="D340" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E340">
         <v>9.308115338882274</v>
@@ -18603,7 +18600,7 @@
         <v>-2.646016646848999</v>
       </c>
       <c r="D341" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E341">
         <v>9.308115338882274</v>
@@ -18653,7 +18650,7 @@
         <v>-9.121415898188509</v>
       </c>
       <c r="D342" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E342">
         <v>3.792162618009769</v>
@@ -18703,7 +18700,7 @@
         <v>-8.59683700961601</v>
       </c>
       <c r="D343" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E343">
         <v>3.792162618009769</v>
@@ -18753,7 +18750,7 @@
         <v>-12.89770073310627</v>
       </c>
       <c r="D344" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E344">
         <v>0.3317647274577595</v>
@@ -18803,7 +18800,7 @@
         <v>-14.09288737405897</v>
       </c>
       <c r="D345" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E345">
         <v>-0.7634443237574615</v>
@@ -18853,7 +18850,7 @@
         <v>59.56360813550708</v>
       </c>
       <c r="D346" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E346">
         <v>75.18159673719033</v>
@@ -18903,7 +18900,7 @@
         <v>60.31956868780029</v>
       </c>
       <c r="D347" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E347">
         <v>76.03992694760657</v>
@@ -18953,7 +18950,7 @@
         <v>62.79431714399279</v>
       </c>
       <c r="D348" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E348">
         <v>77.62631903124894</v>
@@ -19003,7 +19000,7 @@
         <v>64.08298118239738</v>
       </c>
       <c r="D349" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E349">
         <v>79.11665728256037</v>
@@ -19053,7 +19050,7 @@
         <v>64.68906100731142</v>
       </c>
       <c r="D350" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E350">
         <v>79.81758779625406</v>
@@ -19103,7 +19100,7 @@
         <v>66.03163316666149</v>
       </c>
       <c r="D351" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E351">
         <v>81.37027071794273</v>
@@ -19153,7 +19150,7 @@
         <v>65.93064756206419</v>
       </c>
       <c r="D352" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E352">
         <v>81.25348100015911</v>
@@ -19203,7 +19200,7 @@
         <v>64.84418812133572</v>
       </c>
       <c r="D353" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E353">
         <v>80.16577874075962</v>
@@ -19253,7 +19250,7 @@
         <v>63.26616721431549</v>
       </c>
       <c r="D354" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E354">
         <v>79.97190339753475</v>
@@ -19303,7 +19300,7 @@
         <v>61.66554474645639</v>
       </c>
       <c r="D355" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E355">
         <v>78.05285470927927</v>
@@ -19353,7 +19350,7 @@
         <v>60.62679073828761</v>
       </c>
       <c r="D356" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E356">
         <v>76.80745202574536</v>
@@ -19403,7 +19400,7 @@
         <v>59.7052486970962</v>
       </c>
       <c r="D357" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E357">
         <v>75.70257933975458</v>
@@ -19453,7 +19450,7 @@
         <v>50.59926427854958</v>
       </c>
       <c r="D358" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E358">
         <v>64.78505955942813</v>
@@ -19503,7 +19500,7 @@
         <v>54.80887863487924</v>
       </c>
       <c r="D359" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E359">
         <v>72.15232554251514</v>
@@ -19553,7 +19550,7 @@
         <v>22.63799956449154</v>
       </c>
       <c r="D360" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E360">
         <v>34.76775640560354</v>
@@ -19597,43 +19594,43 @@
         <v>0</v>
       </c>
       <c r="B361" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C361">
-        <v>21.94224021195173</v>
+        <v>22.69572269649692</v>
       </c>
       <c r="D361" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E361">
-        <v>34.15853400058877</v>
+        <v>34.21898145422433</v>
       </c>
       <c r="F361">
         <v>1</v>
       </c>
       <c r="G361">
-        <v>0.1356577597880483</v>
+        <v>0.1381042773035031</v>
       </c>
       <c r="H361">
-        <v>0.1436414659994112</v>
+        <v>0.1487810185457757</v>
       </c>
       <c r="I361">
-        <v>12.21629378863705</v>
+        <v>11.5232587577274</v>
       </c>
       <c r="J361">
         <v>0.2821725051516043</v>
       </c>
       <c r="K361">
-        <v>201.5</v>
+        <v>204.5</v>
       </c>
       <c r="L361">
-        <v>78.8</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="M361">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="N361">
-        <v>88.90000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="O361">
         <v>1</v>
@@ -19647,16 +19644,16 @@
         <v>1</v>
       </c>
       <c r="B362" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C362">
         <v>22.5492051810421</v>
       </c>
       <c r="D362" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E362">
-        <v>34.15853400058877</v>
+        <v>34.21898145422433</v>
       </c>
       <c r="F362">
         <v>1</v>
@@ -19665,10 +19662,10 @@
         <v>0.1396507948189579</v>
       </c>
       <c r="H362">
-        <v>0.1436414659994112</v>
+        <v>0.1487810185457757</v>
       </c>
       <c r="I362">
-        <v>11.60932881954667</v>
+        <v>11.66977627318222</v>
       </c>
       <c r="J362">
         <v>0.2821725051516043</v>
@@ -19680,10 +19677,10 @@
         <v>81.09999999999999</v>
       </c>
       <c r="M362">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="N362">
-        <v>88.90000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="O362">
         <v>1</v>
@@ -19697,13 +19694,13 @@
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C363">
         <v>21.6518845469621</v>
       </c>
       <c r="D363" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E363">
         <v>34.22096927469043</v>
@@ -19747,13 +19744,13 @@
         <v>0</v>
       </c>
       <c r="B364" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C364">
         <v>20.6287291557878</v>
       </c>
       <c r="D364" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E364">
         <v>33.1903090762459</v>
@@ -19797,13 +19794,13 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C365">
         <v>18.55332655028487</v>
       </c>
       <c r="D365" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E365">
         <v>31.09968346874662</v>
@@ -19853,7 +19850,7 @@
         <v>17.31085877987343</v>
       </c>
       <c r="D366" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E366">
         <v>28.73863898391312</v>
@@ -19903,7 +19900,7 @@
         <v>15.37197148226591</v>
       </c>
       <c r="D367" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E367">
         <v>26.81839483339797</v>
@@ -19950,10 +19947,10 @@
         <v>134</v>
       </c>
       <c r="C368">
-        <v>14.98793542044889</v>
+        <v>15.09009948164395</v>
       </c>
       <c r="D368" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E368">
         <v>26.03693115694988</v>
@@ -19962,22 +19959,22 @@
         <v>1</v>
       </c>
       <c r="G368">
-        <v>0.1562120645795511</v>
+        <v>0.1527099005183561</v>
       </c>
       <c r="H368">
         <v>0.1613630688430502</v>
       </c>
       <c r="I368">
-        <v>11.04899573650098</v>
+        <v>10.94683167530593</v>
       </c>
       <c r="J368">
         <v>0.3276661929445527</v>
       </c>
       <c r="K368">
-        <v>215.5</v>
+        <v>210</v>
       </c>
       <c r="L368">
-        <v>85.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M368">
         <v>206.5</v>
@@ -19989,7 +19986,7 @@
         <v>1</v>
       </c>
       <c r="P368" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -20000,10 +19997,10 @@
         <v>135</v>
       </c>
       <c r="C369">
-        <v>15.04543186753304</v>
+        <v>14.98793542044889</v>
       </c>
       <c r="D369" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E369">
         <v>26.03693115694988</v>
@@ -20012,22 +20009,22 @@
         <v>1</v>
       </c>
       <c r="G369">
-        <v>0.151354568132467</v>
+        <v>0.1562120645795511</v>
       </c>
       <c r="H369">
         <v>0.1613630688430502</v>
       </c>
       <c r="I369">
-        <v>10.99149928941684</v>
+        <v>11.04899573650098</v>
       </c>
       <c r="J369">
         <v>0.3276661929445527</v>
       </c>
       <c r="K369">
-        <v>208</v>
+        <v>215.5</v>
       </c>
       <c r="L369">
-        <v>83.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M369">
         <v>206.5</v>
@@ -20039,71 +20036,71 @@
         <v>1</v>
       </c>
       <c r="P369" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="370" spans="1:16">
       <c r="A370" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B370" t="s">
         <v>136</v>
       </c>
       <c r="C370">
-        <v>13.45577889447236</v>
+        <v>15.04543186753304</v>
       </c>
       <c r="D370" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E370">
-        <v>24.7361952620244</v>
+        <v>26.03693115694988</v>
       </c>
       <c r="F370">
         <v>1</v>
       </c>
       <c r="G370">
-        <v>0.1543442211055276</v>
+        <v>0.151354568132467</v>
       </c>
       <c r="H370">
-        <v>0.1612638047379756</v>
+        <v>0.1613630688430502</v>
       </c>
       <c r="I370">
-        <v>11.28041636755204</v>
+        <v>10.99149928941684</v>
       </c>
       <c r="J370">
-        <v>0.335448671931084</v>
+        <v>0.3276661929445527</v>
       </c>
       <c r="K370">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L370">
-        <v>83.90000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="M370">
-        <v>203.5</v>
+        <v>206.5</v>
       </c>
       <c r="N370">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="O370">
         <v>1</v>
       </c>
       <c r="P370" t="s">
-        <v>469</v>
+        <v>132</v>
       </c>
     </row>
     <row r="371" spans="1:16">
       <c r="A371" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B371" t="s">
         <v>134</v>
       </c>
       <c r="C371">
-        <v>13.31081119885138</v>
+        <v>13.45577889447236</v>
       </c>
       <c r="D371" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E371">
         <v>24.7361952620244</v>
@@ -20112,22 +20109,22 @@
         <v>1</v>
       </c>
       <c r="G371">
-        <v>0.1578891888011486</v>
+        <v>0.1543442211055276</v>
       </c>
       <c r="H371">
         <v>0.1612638047379756</v>
       </c>
       <c r="I371">
-        <v>11.42538406317301</v>
+        <v>11.28041636755204</v>
       </c>
       <c r="J371">
         <v>0.335448671931084</v>
       </c>
       <c r="K371">
-        <v>215.5</v>
+        <v>210</v>
       </c>
       <c r="L371">
-        <v>85.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M371">
         <v>203.5</v>
@@ -20144,16 +20141,16 @@
     </row>
     <row r="372" spans="1:16">
       <c r="A372" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B372" t="s">
         <v>135</v>
       </c>
       <c r="C372">
-        <v>13.42667623833452</v>
+        <v>13.31081119885138</v>
       </c>
       <c r="D372" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E372">
         <v>24.7361952620244</v>
@@ -20162,22 +20159,22 @@
         <v>1</v>
       </c>
       <c r="G372">
-        <v>0.1529733237616655</v>
+        <v>0.1578891888011486</v>
       </c>
       <c r="H372">
         <v>0.1612638047379756</v>
       </c>
       <c r="I372">
-        <v>11.30951902368987</v>
+        <v>11.42538406317301</v>
       </c>
       <c r="J372">
         <v>0.335448671931084</v>
       </c>
       <c r="K372">
-        <v>208</v>
+        <v>215.5</v>
       </c>
       <c r="L372">
-        <v>83.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M372">
         <v>203.5</v>
@@ -20194,16 +20191,16 @@
     </row>
     <row r="373" spans="1:16">
       <c r="A373" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B373" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C373">
-        <v>13.63936826992104</v>
+        <v>13.42667623833452</v>
       </c>
       <c r="D373" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E373">
         <v>24.7361952620244</v>
@@ -20212,22 +20209,22 @@
         <v>1</v>
       </c>
       <c r="G373">
-        <v>0.149160631730079</v>
+        <v>0.1529733237616655</v>
       </c>
       <c r="H373">
         <v>0.1612638047379756</v>
       </c>
       <c r="I373">
-        <v>11.09682699210336</v>
+        <v>11.30951902368987</v>
       </c>
       <c r="J373">
         <v>0.335448671931084</v>
       </c>
       <c r="K373">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L373">
-        <v>81.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="M373">
         <v>203.5</v>
@@ -20244,66 +20241,66 @@
     </row>
     <row r="374" spans="1:16">
       <c r="A374" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B374" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C374">
-        <v>10.59259053965798</v>
+        <v>13.63936826992104</v>
       </c>
       <c r="D374" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E374">
-        <v>22.78708795281059</v>
+        <v>24.7361952620244</v>
       </c>
       <c r="F374">
         <v>1</v>
       </c>
       <c r="G374">
-        <v>0.157207409460342</v>
+        <v>0.149160631730079</v>
       </c>
       <c r="H374">
-        <v>0.1652129120471894</v>
+        <v>0.1612638047379756</v>
       </c>
       <c r="I374">
-        <v>12.19449741315262</v>
+        <v>11.09682699210336</v>
       </c>
       <c r="J374">
-        <v>0.3490829021921049</v>
+        <v>0.335448671931084</v>
       </c>
       <c r="K374">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L374">
-        <v>83.90000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="M374">
-        <v>204</v>
+        <v>203.5</v>
       </c>
       <c r="N374">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O374">
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="375" spans="1:16">
       <c r="A375" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B375" t="s">
         <v>134</v>
       </c>
       <c r="C375">
-        <v>10.37263457760139</v>
+        <v>10.59259053965798</v>
       </c>
       <c r="D375" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E375">
         <v>22.78708795281059</v>
@@ -20312,22 +20309,22 @@
         <v>1</v>
       </c>
       <c r="G375">
-        <v>0.1608273654223986</v>
+        <v>0.157207409460342</v>
       </c>
       <c r="H375">
         <v>0.1652129120471894</v>
       </c>
       <c r="I375">
-        <v>12.41445337520921</v>
+        <v>12.19449741315262</v>
       </c>
       <c r="J375">
         <v>0.3490829021921049</v>
       </c>
       <c r="K375">
-        <v>215.5</v>
+        <v>210</v>
       </c>
       <c r="L375">
-        <v>85.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M375">
         <v>204</v>
@@ -20344,16 +20341,16 @@
     </row>
     <row r="376" spans="1:16">
       <c r="A376" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B376" t="s">
         <v>135</v>
       </c>
       <c r="C376">
-        <v>10.59075634404218</v>
+        <v>10.37263457760139</v>
       </c>
       <c r="D376" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E376">
         <v>22.78708795281059</v>
@@ -20362,22 +20359,22 @@
         <v>1</v>
       </c>
       <c r="G376">
-        <v>0.1558092436559578</v>
+        <v>0.1608273654223986</v>
       </c>
       <c r="H376">
         <v>0.1652129120471894</v>
       </c>
       <c r="I376">
-        <v>12.19633160876842</v>
+        <v>12.41445337520921</v>
       </c>
       <c r="J376">
         <v>0.3490829021921049</v>
       </c>
       <c r="K376">
-        <v>208</v>
+        <v>215.5</v>
       </c>
       <c r="L376">
-        <v>83.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M376">
         <v>204</v>
@@ -20394,16 +20391,16 @@
     </row>
     <row r="377" spans="1:16">
       <c r="A377" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B377" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C377">
-        <v>10.88525375719482</v>
+        <v>10.59075634404218</v>
       </c>
       <c r="D377" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E377">
         <v>22.78708795281059</v>
@@ -20412,22 +20409,22 @@
         <v>1</v>
       </c>
       <c r="G377">
-        <v>0.1519147462428052</v>
+        <v>0.1558092436559578</v>
       </c>
       <c r="H377">
         <v>0.1652129120471894</v>
       </c>
       <c r="I377">
-        <v>11.90183419561578</v>
+        <v>12.19633160876842</v>
       </c>
       <c r="J377">
         <v>0.3490829021921049</v>
       </c>
       <c r="K377">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L377">
-        <v>81.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="M377">
         <v>204</v>
@@ -20444,40 +20441,40 @@
     </row>
     <row r="378" spans="1:16">
       <c r="A378" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B378" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C378">
-        <v>8.066617110777202</v>
+        <v>10.88525375719482</v>
       </c>
       <c r="D378" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E378">
-        <v>20.60412942273109</v>
+        <v>22.78708795281059</v>
       </c>
       <c r="F378">
         <v>1</v>
       </c>
       <c r="G378">
-        <v>0.1631333828892228</v>
+        <v>0.1519147462428052</v>
       </c>
       <c r="H378">
-        <v>0.1673958705772689</v>
+        <v>0.1652129120471894</v>
       </c>
       <c r="I378">
-        <v>12.53751231195389</v>
+        <v>11.90183419561578</v>
       </c>
       <c r="J378">
-        <v>0.3597836793003378</v>
+        <v>0.3490829021921049</v>
       </c>
       <c r="K378">
-        <v>215.5</v>
+        <v>202</v>
       </c>
       <c r="L378">
-        <v>85.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="M378">
         <v>204</v>
@@ -20489,21 +20486,21 @@
         <v>1</v>
       </c>
       <c r="P378" t="s">
-        <v>136</v>
+        <v>470</v>
       </c>
     </row>
     <row r="379" spans="1:16">
       <c r="A379" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B379" t="s">
         <v>135</v>
       </c>
       <c r="C379">
-        <v>8.364994705529739</v>
+        <v>8.066617110777202</v>
       </c>
       <c r="D379" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E379">
         <v>20.60412942273109</v>
@@ -20512,22 +20509,22 @@
         <v>1</v>
       </c>
       <c r="G379">
-        <v>0.1580350052944703</v>
+        <v>0.1631333828892228</v>
       </c>
       <c r="H379">
         <v>0.1673958705772689</v>
       </c>
       <c r="I379">
-        <v>12.23913471720135</v>
+        <v>12.53751231195389</v>
       </c>
       <c r="J379">
         <v>0.3597836793003378</v>
       </c>
       <c r="K379">
-        <v>208</v>
+        <v>215.5</v>
       </c>
       <c r="L379">
-        <v>83.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="M379">
         <v>204</v>
@@ -20539,21 +20536,21 @@
         <v>1</v>
       </c>
       <c r="P379" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="380" spans="1:16">
       <c r="A380" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B380" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C380">
-        <v>8.723696781331768</v>
+        <v>8.364994705529739</v>
       </c>
       <c r="D380" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E380">
         <v>20.60412942273109</v>
@@ -20562,22 +20559,22 @@
         <v>1</v>
       </c>
       <c r="G380">
-        <v>0.1540763032186682</v>
+        <v>0.1580350052944703</v>
       </c>
       <c r="H380">
         <v>0.1673958705772689</v>
       </c>
       <c r="I380">
-        <v>11.88043264139932</v>
+        <v>12.23913471720135</v>
       </c>
       <c r="J380">
         <v>0.3597836793003378</v>
       </c>
       <c r="K380">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L380">
-        <v>81.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="M380">
         <v>204</v>
@@ -20589,21 +20586,21 @@
         <v>1</v>
       </c>
       <c r="P380" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="381" spans="1:16">
       <c r="A381" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B381" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C381">
-        <v>9.044345743430753</v>
+        <v>8.723696781331768</v>
       </c>
       <c r="D381" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E381">
         <v>20.60412942273109</v>
@@ -20612,22 +20609,22 @@
         <v>1</v>
       </c>
       <c r="G381">
-        <v>0.1565556542565693</v>
+        <v>0.1540763032186682</v>
       </c>
       <c r="H381">
         <v>0.1673958705772689</v>
       </c>
       <c r="I381">
-        <v>11.55978367930034</v>
+        <v>11.88043264139932</v>
       </c>
       <c r="J381">
         <v>0.3597836793003378</v>
       </c>
       <c r="K381">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L381">
-        <v>82.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="M381">
         <v>204</v>
@@ -20639,39 +20636,39 @@
         <v>1</v>
       </c>
       <c r="P381" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="382" spans="1:16">
       <c r="A382" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B382" t="s">
         <v>138</v>
       </c>
       <c r="C382">
-        <v>-3.424244140274368</v>
+        <v>9.044345743430753</v>
       </c>
       <c r="D382" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E382">
-        <v>10.72424068728326</v>
+        <v>20.60412942273109</v>
       </c>
       <c r="F382">
         <v>1</v>
       </c>
       <c r="G382">
-        <v>0.1690242441402744</v>
+        <v>0.1565556542565693</v>
       </c>
       <c r="H382">
-        <v>0.1852757593127167</v>
+        <v>0.1673958705772689</v>
       </c>
       <c r="I382">
-        <v>14.14848482755762</v>
+        <v>11.55978367930034</v>
       </c>
       <c r="J382">
-        <v>0.4206060689769481</v>
+        <v>0.3597836793003378</v>
       </c>
       <c r="K382">
         <v>205</v>
@@ -20680,10 +20677,10 @@
         <v>82.8</v>
       </c>
       <c r="M382">
-        <v>207.5</v>
+        <v>204</v>
       </c>
       <c r="N382">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O382">
         <v>1</v>
@@ -20697,37 +20694,37 @@
         <v>0</v>
       </c>
       <c r="B383" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C383">
-        <v>-2.10269534440512</v>
+        <v>-3.424244140274368</v>
       </c>
       <c r="D383" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E383">
-        <v>10.74605227334604</v>
+        <v>10.72424068728326</v>
       </c>
       <c r="F383">
         <v>1</v>
       </c>
       <c r="G383">
-        <v>0.1703026953444051</v>
+        <v>0.1690242441402744</v>
       </c>
       <c r="H383">
-        <v>0.185253947726654</v>
+        <v>0.1852757593127167</v>
       </c>
       <c r="I383">
-        <v>12.84874761775116</v>
+        <v>14.14848482755762</v>
       </c>
       <c r="J383">
-        <v>0.4205009528995372</v>
+        <v>0.4206060689769481</v>
       </c>
       <c r="K383">
         <v>205</v>
       </c>
       <c r="L383">
-        <v>84.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="M383">
         <v>207.5</v>
@@ -20739,7 +20736,7 @@
         <v>1</v>
       </c>
       <c r="P383" t="s">
-        <v>471</v>
+        <v>135</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -20747,13 +20744,13 @@
         <v>0</v>
       </c>
       <c r="B384" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C384">
         <v>13.16161645214643</v>
       </c>
       <c r="D384" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E384">
         <v>9.280369598044189</v>
@@ -20789,7 +20786,7 @@
         <v>1</v>
       </c>
       <c r="P384" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="385" spans="1:16">
@@ -20797,13 +20794,13 @@
         <v>0</v>
       </c>
       <c r="B385" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C385">
         <v>-21.82338146012957</v>
       </c>
       <c r="D385" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E385">
         <v>-26.74300800979539</v>
@@ -20839,7 +20836,7 @@
         <v>1</v>
       </c>
       <c r="P385" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="386" spans="1:16">
@@ -20847,16 +20844,16 @@
         <v>0</v>
       </c>
       <c r="B386" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C386">
         <v>32.20533098261782</v>
       </c>
       <c r="D386" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E386">
-        <v>28.99211611556489</v>
+        <v>28.32229381498548</v>
       </c>
       <c r="F386">
         <v>-1</v>
@@ -20865,10 +20862,10 @@
         <v>0.1503946690173822</v>
       </c>
       <c r="H386">
-        <v>0.1498078838844351</v>
+        <v>0.1530777061850145</v>
       </c>
       <c r="I386">
-        <v>3.213214867052926</v>
+        <v>3.883037167632338</v>
       </c>
       <c r="J386">
         <v>0.3283037167632343</v>
@@ -20880,16 +20877,16 @@
         <v>91.3</v>
       </c>
       <c r="M386">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N386">
-        <v>89.40000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="O386">
         <v>1</v>
       </c>
       <c r="P386" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="387" spans="1:16">
@@ -20897,7 +20894,7 @@
         <v>0</v>
       </c>
       <c r="B387" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C387">
         <v>30.11806288540985</v>
@@ -20939,7 +20936,7 @@
         <v>1</v>
       </c>
       <c r="P387" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-2474-2382-800.xlsx
+++ b/s60_signal/position-2474-2382-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="477">
   <si>
     <t>trade_time</t>
   </si>
@@ -433,6 +433,9 @@
     <t>2021-01-28</t>
   </si>
   <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
     <t>2021-05-17</t>
   </si>
   <si>
@@ -752,6 +755,9 @@
   </si>
   <si>
     <t>2021-02-17</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
   </si>
   <si>
     <t>2021-03-18</t>
@@ -1796,7 +1802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P387"/>
+  <dimension ref="A1:P386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1860,7 +1866,7 @@
         <v>39.24967816269653</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2">
         <v>47.58658728904034</v>
@@ -1896,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1910,7 +1916,7 @@
         <v>41.7045814878046</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E3">
         <v>51.36624085194781</v>
@@ -1946,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1960,7 +1966,7 @@
         <v>47.73273319613877</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E4">
         <v>59.43490802303255</v>
@@ -1996,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2010,7 +2016,7 @@
         <v>47.24820828667414</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5">
         <v>58.87563172501095</v>
@@ -2046,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2060,7 +2066,7 @@
         <v>47.16470096247878</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6">
         <v>58.77924108291729</v>
@@ -2096,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2110,7 +2116,7 @@
         <v>-15.1664654510749</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E7">
         <v>-7.294892481790129</v>
@@ -2146,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2160,7 +2166,7 @@
         <v>-14.45834344229912</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E8">
         <v>-7.294892481790129</v>
@@ -2196,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2210,7 +2216,7 @@
         <v>-13.39336737209288</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E9">
         <v>-7.294892481790129</v>
@@ -2246,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2260,7 +2266,7 @@
         <v>-16.33245230627455</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E10">
         <v>-7.294892481790129</v>
@@ -2296,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2310,7 +2316,7 @@
         <v>-29.63643996743208</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E11">
         <v>-21.37792699357366</v>
@@ -2346,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2360,7 +2366,7 @@
         <v>-29.01030081710592</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E12">
         <v>-21.37792699357366</v>
@@ -2396,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2410,7 +2416,7 @@
         <v>-28.60118761449661</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E13">
         <v>-21.37792699357366</v>
@@ -2446,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2460,7 +2466,7 @@
         <v>-49.08464630848418</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E14">
         <v>-42.77667080227592</v>
@@ -2496,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2510,7 +2516,7 @@
         <v>-48.56869529606767</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E15">
         <v>-42.77667080227592</v>
@@ -2546,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2560,7 +2566,7 @@
         <v>-49.0410871967355</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E16">
         <v>-42.77667080227592</v>
@@ -2596,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2610,7 +2616,7 @@
         <v>-65.70804604683664</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E17">
         <v>-56.94115587886895</v>
@@ -2646,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2660,7 +2666,7 @@
         <v>-65.6116252316011</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E18">
         <v>-56.94115587886895</v>
@@ -2696,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2710,7 +2716,7 @@
         <v>-79.57406496333017</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E19">
         <v>-67.54165070713992</v>
@@ -2746,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2760,7 +2766,7 @@
         <v>-113.1125372679468</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E20">
         <v>-103.9345101187686</v>
@@ -2796,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2810,7 +2816,7 @@
         <v>-150.4700278614179</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E21">
         <v>-141.3269680910878</v>
@@ -2846,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2860,7 +2866,7 @@
         <v>-191.2456393652701</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E22">
         <v>-165.2314426418361</v>
@@ -2896,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2910,7 +2916,7 @@
         <v>-208.9753900042601</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E23">
         <v>-181.8698454183375</v>
@@ -2946,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2960,7 +2966,7 @@
         <v>-222.2487414251906</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E24">
         <v>-206.4607237347662</v>
@@ -2996,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3010,7 +3016,7 @@
         <v>-239.7112109310854</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E25">
         <v>-219.5184020745525</v>
@@ -3046,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3060,7 +3066,7 @@
         <v>-263.1154559964206</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E26">
         <v>-240.6747187530921</v>
@@ -3096,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3110,7 +3116,7 @@
         <v>-268.6224791106823</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E27">
         <v>-252.6279978948062</v>
@@ -3146,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3175,7 +3181,7 @@
         <v>59.3</v>
       </c>
       <c r="P28" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3204,7 +3210,7 @@
         <v>65.5</v>
       </c>
       <c r="P29" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3218,7 +3224,7 @@
         <v>-254.0793405031437</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E30">
         <v>-235.7082244929039</v>
@@ -3254,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3268,7 +3274,7 @@
         <v>-238.7059320352077</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E31">
         <v>-223.7765478327873</v>
@@ -3304,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3333,7 +3339,7 @@
         <v>69.40000000000001</v>
       </c>
       <c r="P32" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3383,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3397,7 +3403,7 @@
         <v>-85.8076603763717</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E34">
         <v>-85.31060902491748</v>
@@ -3433,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3447,7 +3453,7 @@
         <v>-78.41701518144652</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E35">
         <v>-77.28396586589429</v>
@@ -3483,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3512,7 +3518,7 @@
         <v>68.40000000000001</v>
       </c>
       <c r="P36" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3541,7 +3547,7 @@
         <v>70.09999999999999</v>
       </c>
       <c r="P37" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3555,7 +3561,7 @@
         <v>-77.43890142953504</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E38">
         <v>-86.03210595388953</v>
@@ -3591,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3605,7 +3611,7 @@
         <v>-75.24842836769179</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E39">
         <v>-82.41442691778926</v>
@@ -3641,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3655,7 +3661,7 @@
         <v>-75.26941837884658</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E40">
         <v>-76.41687497573176</v>
@@ -3691,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3705,7 +3711,7 @@
         <v>2.405986219478436</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E41">
         <v>22.3137495724129</v>
@@ -3741,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3755,7 +3761,7 @@
         <v>-1.953147134466214</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E42">
         <v>19.32012787151115</v>
@@ -3791,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3805,7 +3811,7 @@
         <v>-16.2502130791469</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E43">
         <v>8.401660897453333</v>
@@ -3841,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3855,7 +3861,7 @@
         <v>-14.74859467309044</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E44">
         <v>8.401660897453333</v>
@@ -3891,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3905,7 +3911,7 @@
         <v>-29.86968571903745</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E45">
         <v>-0.9514709154835543</v>
@@ -3941,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3955,7 +3961,7 @@
         <v>60.63454015125168</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E46">
         <v>75.91925407409063</v>
@@ -3991,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -4005,7 +4011,7 @@
         <v>61.36441721922468</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E47">
         <v>75.91925407409063</v>
@@ -4041,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -4055,7 +4061,7 @@
         <v>89.12505313226613</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E48">
         <v>73.92461224371841</v>
@@ -4091,7 +4097,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4105,7 +4111,7 @@
         <v>60.18080332327113</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E49">
         <v>75.16419394721952</v>
@@ -4141,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4155,7 +4161,7 @@
         <v>60.90367287266527</v>
       </c>
       <c r="D50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E50">
         <v>75.16419394721952</v>
@@ -4191,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4205,7 +4211,7 @@
         <v>88.41554187615753</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E51">
         <v>73.33247692380556</v>
@@ -4241,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4255,7 +4261,7 @@
         <v>39.99810912339372</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E52">
         <v>55.15583755182445</v>
@@ -4291,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4305,7 +4311,7 @@
         <v>41.30719414984996</v>
       </c>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E53">
         <v>55.15583755182445</v>
@@ -4341,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4355,7 +4361,7 @@
         <v>43.08151977105167</v>
       </c>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E54">
         <v>55.9485635535138</v>
@@ -4391,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4405,7 +4411,7 @@
         <v>42.16532004667869</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E55">
         <v>55.9485635535138</v>
@@ -4441,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4455,7 +4461,7 @@
         <v>42.55008107334416</v>
       </c>
       <c r="D56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E56">
         <v>56.30400099154195</v>
@@ -4505,7 +4511,7 @@
         <v>43.58368103616133</v>
       </c>
       <c r="D57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E57">
         <v>56.30400099154195</v>
@@ -4555,7 +4561,7 @@
         <v>44.27504780738504</v>
       </c>
       <c r="D58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E58">
         <v>56.96559598792828</v>
@@ -4591,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4605,7 +4611,7 @@
         <v>44.76828997217422</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E59">
         <v>57.43759805949687</v>
@@ -4655,7 +4661,7 @@
         <v>46.95250922066406</v>
       </c>
       <c r="D60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E60">
         <v>58.6275946856681</v>
@@ -4691,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4705,7 +4711,7 @@
         <v>47.37813227189867</v>
       </c>
       <c r="D61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E61">
         <v>59.01897220404476</v>
@@ -4741,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4755,7 +4761,7 @@
         <v>48.93720072957618</v>
       </c>
       <c r="D62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E62">
         <v>59.68207127489522</v>
@@ -4791,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4805,7 +4811,7 @@
         <v>48.94662890110423</v>
       </c>
       <c r="D63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E63">
         <v>59.69094484809811</v>
@@ -4841,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4855,7 +4861,7 @@
         <v>54.08932335660573</v>
       </c>
       <c r="D64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E64">
         <v>62.52278850035134</v>
@@ -4905,7 +4911,7 @@
         <v>67.18932335660573</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E65">
         <v>59.01736085156006</v>
@@ -4955,7 +4961,7 @@
         <v>54.27142458878302</v>
       </c>
       <c r="D66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E66">
         <v>62.70264156916842</v>
@@ -4991,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5005,7 +5011,7 @@
         <v>67.37142458878301</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E67">
         <v>59.17608118479113</v>
@@ -5041,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -5055,7 +5061,7 @@
         <v>54.44666418857609</v>
       </c>
       <c r="D68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E68">
         <v>57.92296041603655</v>
@@ -5091,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5105,7 +5111,7 @@
         <v>54.38623819452964</v>
       </c>
       <c r="D69" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E69">
         <v>62.81603772299223</v>
@@ -5141,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5155,7 +5161,7 @@
         <v>54.68320045790918</v>
       </c>
       <c r="D70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E70">
         <v>62.81603772299223</v>
@@ -5191,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5205,7 +5211,7 @@
         <v>67.48623819452963</v>
       </c>
       <c r="D71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E71">
         <v>59.27615329054065</v>
@@ -5241,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5255,7 +5261,7 @@
         <v>54.5181037654851</v>
       </c>
       <c r="D72" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E72">
         <v>55.68274527440479</v>
@@ -5291,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5305,7 +5311,7 @@
         <v>101.1269386779503</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E73">
         <v>83.94100067443752</v>
@@ -5341,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5355,7 +5361,7 @@
         <v>75.45009517739128</v>
       </c>
       <c r="D74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E74">
         <v>80.27451240300203</v>
@@ -5391,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5405,7 +5411,7 @@
         <v>121.9136696617972</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E75">
         <v>104.5517569407011</v>
@@ -5441,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5455,7 +5461,7 @@
         <v>124.0730248787269</v>
       </c>
       <c r="D76" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E76">
         <v>106.3319083146578</v>
@@ -5491,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5505,7 +5511,7 @@
         <v>125.8987716223492</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E77">
         <v>107.8370361179367</v>
@@ -5541,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5555,7 +5561,7 @@
         <v>127.8315078706938</v>
       </c>
       <c r="D78" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E78">
         <v>102.3788447068554</v>
@@ -5591,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5605,7 +5611,7 @@
         <v>127.8608026942557</v>
       </c>
       <c r="D79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E79">
         <v>102.3788447068554</v>
@@ -5641,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5655,7 +5661,7 @@
         <v>126.3344628429377</v>
       </c>
       <c r="D80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E80">
         <v>101.3477167540643</v>
@@ -5691,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5705,7 +5711,7 @@
         <v>126.3293867347399</v>
       </c>
       <c r="D81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E81">
         <v>101.3477167540643</v>
@@ -5741,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5755,7 +5761,7 @@
         <v>126.0311094090764</v>
       </c>
       <c r="D82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E82">
         <v>101.1387743378843</v>
@@ -5791,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5805,7 +5811,7 @@
         <v>126.0190685536726</v>
       </c>
       <c r="D83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E83">
         <v>101.1387743378843</v>
@@ -5841,7 +5847,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5855,7 +5861,7 @@
         <v>126.620958855311</v>
       </c>
       <c r="D84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E84">
         <v>101.5450481911581</v>
@@ -5891,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5905,7 +5911,7 @@
         <v>126.6224604616829</v>
       </c>
       <c r="D85" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E85">
         <v>101.5450481911581</v>
@@ -5941,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5955,7 +5961,7 @@
         <v>125.7796367080902</v>
       </c>
       <c r="D86" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E86">
         <v>100.9655660999601</v>
@@ -5991,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6005,7 +6011,7 @@
         <v>125.7618222447556</v>
       </c>
       <c r="D87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E87">
         <v>100.9655660999601</v>
@@ -6041,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -6055,7 +6061,7 @@
         <v>125.0669218669525</v>
       </c>
       <c r="D88" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E88">
         <v>100.4746655716255</v>
@@ -6091,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6105,7 +6111,7 @@
         <v>125.0327440526733</v>
       </c>
       <c r="D89" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E89">
         <v>100.4746655716255</v>
@@ -6141,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6155,7 +6161,7 @@
         <v>123.2289469739378</v>
       </c>
       <c r="D90" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E90">
         <v>99.20871347694691</v>
@@ -6191,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6205,7 +6211,7 @@
         <v>123.1525707565027</v>
       </c>
       <c r="D91" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E91">
         <v>99.20871347694691</v>
@@ -6241,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6255,7 +6261,7 @@
         <v>122.9583501275863</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E92">
         <v>99.02233299604161</v>
@@ -6291,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6305,7 +6311,7 @@
         <v>122.8757612274544</v>
       </c>
       <c r="D93" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E93">
         <v>99.02233299604161</v>
@@ -6341,7 +6347,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6355,7 +6361,7 @@
         <v>124.3519741722009</v>
       </c>
       <c r="D94" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E94">
         <v>99.98222710840369</v>
@@ -6391,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6405,7 +6411,7 @@
         <v>124.3013817424811</v>
       </c>
       <c r="D95" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E95">
         <v>99.98222710840369</v>
@@ -6441,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6455,7 +6461,7 @@
         <v>124.6891745905705</v>
       </c>
       <c r="D96" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E96">
         <v>100.2144824986073</v>
@@ -6491,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6505,7 +6511,7 @@
         <v>124.6463240071908</v>
       </c>
       <c r="D97" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E97">
         <v>100.2144824986073</v>
@@ -6541,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6555,7 +6561,7 @@
         <v>124.4800191586875</v>
       </c>
       <c r="D98" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E98">
         <v>100.0704213593001</v>
@@ -6591,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6605,7 +6611,7 @@
         <v>124.4323665373309</v>
       </c>
       <c r="D99" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E99">
         <v>100.0704213593001</v>
@@ -6641,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6655,7 +6661,7 @@
         <v>123.0108457893896</v>
       </c>
       <c r="D100" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E100">
         <v>99.05849072228368</v>
@@ -6691,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6705,7 +6711,7 @@
         <v>122.9294621467991</v>
       </c>
       <c r="D101" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E101">
         <v>99.05849072228368</v>
@@ -6741,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6755,7 +6761,7 @@
         <v>121.6453568496303</v>
       </c>
       <c r="D102" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E102">
         <v>98.11797538112289</v>
@@ -6791,7 +6797,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6805,7 +6811,7 @@
         <v>121.5326226956677</v>
       </c>
       <c r="D103" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E103">
         <v>98.11797538112289</v>
@@ -6841,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6855,7 +6861,7 @@
         <v>121.0299428079651</v>
       </c>
       <c r="D104" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E104">
         <v>97.69409326058823</v>
@@ -6891,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6905,7 +6911,7 @@
         <v>120.9030792499847</v>
       </c>
       <c r="D105" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E105">
         <v>97.69409326058823</v>
@@ -6941,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6955,7 +6961,7 @@
         <v>120.2680139970007</v>
       </c>
       <c r="D106" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E106">
         <v>97.169295355077</v>
@@ -6991,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -7005,7 +7011,7 @@
         <v>120.1236571755032</v>
       </c>
       <c r="D107" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E107">
         <v>97.169295355077</v>
@@ -7041,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -7055,7 +7061,7 @@
         <v>119.3894537106139</v>
       </c>
       <c r="D108" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E108">
         <v>96.56416454557592</v>
@@ -7091,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -7105,7 +7111,7 @@
         <v>119.2249258621331</v>
       </c>
       <c r="D109" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E109">
         <v>96.56416454557592</v>
@@ -7141,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7155,7 +7161,7 @@
         <v>118.0996069245826</v>
       </c>
       <c r="D110" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E110">
         <v>95.67574966744206</v>
@@ -7191,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7205,7 +7211,7 @@
         <v>117.9054652468306</v>
       </c>
       <c r="D111" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E111">
         <v>95.67574966744206</v>
@@ -7241,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7255,7 +7261,7 @@
         <v>117.1017444652623</v>
       </c>
       <c r="D112" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E112">
         <v>94.98844644291023</v>
@@ -7291,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7305,7 +7311,7 @@
         <v>116.8846926800259</v>
       </c>
       <c r="D113" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E113">
         <v>94.98844644291023</v>
@@ -7341,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7355,7 +7361,7 @@
         <v>115.7903395541055</v>
       </c>
       <c r="D114" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E114">
         <v>94.08518285614407</v>
@@ -7391,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7405,7 +7411,7 @@
         <v>115.5431789826436</v>
       </c>
       <c r="D115" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E115">
         <v>94.08518285614407</v>
@@ -7441,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7455,7 +7461,7 @@
         <v>114.3600161010092</v>
       </c>
       <c r="D116" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E116">
         <v>93.10001108998082</v>
@@ -7491,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7505,7 +7511,7 @@
         <v>114.0800164706752</v>
       </c>
       <c r="D117" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E117">
         <v>93.10001108998082</v>
@@ -7541,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7555,7 +7561,7 @@
         <v>112.9215721869154</v>
       </c>
       <c r="D118" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E118">
         <v>92.10924614915092</v>
@@ -7591,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7605,7 +7611,7 @@
         <v>112.6085470585538</v>
       </c>
       <c r="D119" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E119">
         <v>92.10924614915092</v>
@@ -7641,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7655,7 +7661,7 @@
         <v>111.0753114680939</v>
       </c>
       <c r="D120" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E120">
         <v>91.07689300844227</v>
@@ -7705,7 +7711,7 @@
         <v>109.3637030177276</v>
       </c>
       <c r="D121" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E121">
         <v>89.92443844086398</v>
@@ -7741,7 +7747,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7755,7 +7761,7 @@
         <v>106.6367917601738</v>
       </c>
       <c r="D122" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E122">
         <v>88.08836352929409</v>
@@ -7791,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7805,7 +7811,7 @@
         <v>99.96873044828921</v>
       </c>
       <c r="D123" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E123">
         <v>83.59864643650396</v>
@@ -7841,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7855,7 +7861,7 @@
         <v>39.91051382546476</v>
       </c>
       <c r="D124" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E124">
         <v>42.55014562583152</v>
@@ -7891,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="P124" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7905,7 +7911,7 @@
         <v>34.76754143004694</v>
       </c>
       <c r="D125" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E125">
         <v>38.11145388461416</v>
@@ -7941,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="P125" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7955,7 +7961,7 @@
         <v>27.87373902743889</v>
       </c>
       <c r="D126" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E126">
         <v>28.73232502982488</v>
@@ -7991,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="P126" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -8005,7 +8011,7 @@
         <v>52.34452590842368</v>
       </c>
       <c r="D127" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E127">
         <v>60.02089394070224</v>
@@ -8041,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -8055,7 +8061,7 @@
         <v>66.2681578761451</v>
       </c>
       <c r="D128" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E128">
         <v>59.00746128062423</v>
@@ -8091,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -8105,7 +8111,7 @@
         <v>65.90298372726488</v>
       </c>
       <c r="D129" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E129">
         <v>59.00746128062423</v>
@@ -8141,7 +8147,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -8155,7 +8161,7 @@
         <v>75.19054270184851</v>
       </c>
       <c r="D130" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E130">
         <v>82.88620847856147</v>
@@ -8191,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8205,7 +8211,7 @@
         <v>91.01410438583636</v>
       </c>
       <c r="D131" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E131">
         <v>85.34034548895417</v>
@@ -8241,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="P131" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -8255,7 +8261,7 @@
         <v>90.69117289103272</v>
       </c>
       <c r="D132" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E132">
         <v>85.34034548895417</v>
@@ -8291,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="P132" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -8305,7 +8311,7 @@
         <v>106.425283452306</v>
       </c>
       <c r="D133" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E133">
         <v>102.4841645631825</v>
@@ -8355,7 +8361,7 @@
         <v>106.7743510447031</v>
       </c>
       <c r="D134" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E134">
         <v>102.4841645631825</v>
@@ -8405,7 +8411,7 @@
         <v>64.83381773702186</v>
       </c>
       <c r="D135" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E135">
         <v>61.17785949472258</v>
@@ -8441,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="P135" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8455,7 +8461,7 @@
         <v>53.81062761975522</v>
       </c>
       <c r="D136" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E136">
         <v>45.81713512679965</v>
@@ -8491,7 +8497,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8505,7 +8511,7 @@
         <v>53.43128846396477</v>
       </c>
       <c r="D137" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E137">
         <v>47.7894228477703</v>
@@ -8541,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P137" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8555,7 +8561,7 @@
         <v>48.70129852147022</v>
       </c>
       <c r="D138" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E138">
         <v>39.19252273181839</v>
@@ -8591,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8605,7 +8611,7 @@
         <v>44.87334693499027</v>
       </c>
       <c r="D139" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E139">
         <v>34.44403390958535</v>
@@ -8641,7 +8647,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8655,7 +8661,7 @@
         <v>40.45906823400685</v>
       </c>
       <c r="D140" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E140">
         <v>29.40254968722779</v>
@@ -8691,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8705,7 +8711,7 @@
         <v>37.79538016242914</v>
       </c>
       <c r="D141" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E141">
         <v>25.15160114518396</v>
@@ -8741,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8755,7 +8761,7 @@
         <v>37.68076952930594</v>
       </c>
       <c r="D142" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E142">
         <v>25.01802919408082</v>
@@ -8791,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8805,7 +8811,7 @@
         <v>63.15408222226404</v>
       </c>
       <c r="D143" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E143">
         <v>53.56243089690908</v>
@@ -8841,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8855,7 +8861,7 @@
         <v>31.1030054990203</v>
       </c>
       <c r="D144" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E144">
         <v>14.08734435244297</v>
@@ -8891,7 +8897,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8905,7 +8911,7 @@
         <v>25.05484991241799</v>
       </c>
       <c r="D145" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E145">
         <v>6.922187058405115</v>
@@ -8941,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8955,7 +8961,7 @@
         <v>18.81638310475921</v>
       </c>
       <c r="D146" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E146">
         <v>-0.4684290245420044</v>
@@ -8991,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -9005,7 +9011,7 @@
         <v>13.01676813424353</v>
       </c>
       <c r="D147" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E147">
         <v>-7.339144057179965</v>
@@ -9041,7 +9047,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -9055,7 +9061,7 @@
         <v>8.024396355482963</v>
       </c>
       <c r="D148" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E148">
         <v>-13.25353044372964</v>
@@ -9091,7 +9097,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -9105,7 +9111,7 @@
         <v>7.720504878426524</v>
       </c>
       <c r="D149" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E149">
         <v>-13.61354602240461</v>
@@ -9141,7 +9147,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9155,7 +9161,7 @@
         <v>10.31388326476601</v>
       </c>
       <c r="D150" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E150">
         <v>-10.54121036651594</v>
@@ -9191,7 +9197,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9205,7 +9211,7 @@
         <v>11.14758883248732</v>
       </c>
       <c r="D151" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E151">
         <v>-9.553532148900146</v>
@@ -9241,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9255,7 +9261,7 @@
         <v>20.84560393192861</v>
       </c>
       <c r="D152" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E152">
         <v>1.935557811248756</v>
@@ -9291,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9305,7 +9311,7 @@
         <v>21.43389351871438</v>
       </c>
       <c r="D153" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E153">
         <v>2.632495474873352</v>
@@ -9341,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9355,7 +9361,7 @@
         <v>22.6162561113628</v>
       </c>
       <c r="D154" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E154">
         <v>4.033222330128012</v>
@@ -9391,7 +9397,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9405,7 +9411,7 @@
         <v>23.86897930913528</v>
       </c>
       <c r="D155" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E155">
         <v>5.517304316678292</v>
@@ -9441,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9455,7 +9461,7 @@
         <v>24.29022509961407</v>
       </c>
       <c r="D156" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E156">
         <v>6.016347753146405</v>
@@ -9491,7 +9497,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9505,7 +9511,7 @@
         <v>80.77258742920839</v>
       </c>
       <c r="D157" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E157">
         <v>71.50140757768273</v>
@@ -9541,7 +9547,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9555,7 +9561,7 @@
         <v>80.87119828430862</v>
       </c>
       <c r="D158" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E158">
         <v>71.50140757768273</v>
@@ -9591,7 +9597,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9605,7 +9611,7 @@
         <v>82.15331534782203</v>
       </c>
       <c r="D159" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E159">
         <v>71.50140757768273</v>
@@ -9641,7 +9647,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9655,7 +9661,7 @@
         <v>76.19581669669289</v>
       </c>
       <c r="D160" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E160">
         <v>66.74547500154564</v>
@@ -9691,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9705,7 +9711,7 @@
         <v>75.21863715900577</v>
       </c>
       <c r="D161" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E161">
         <v>66.74547500154564</v>
@@ -9741,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9755,7 +9761,7 @@
         <v>77.89414970172665</v>
       </c>
       <c r="D162" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E162">
         <v>66.74547500154564</v>
@@ -9791,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9805,7 +9811,7 @@
         <v>60.11863715900578</v>
       </c>
       <c r="D163" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E163">
         <v>68.03744024109169</v>
@@ -9841,7 +9847,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9855,7 +9861,7 @@
         <v>72.44565132750211</v>
       </c>
       <c r="D164" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E164">
         <v>62.8485060058029</v>
@@ -9891,7 +9897,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9905,7 +9911,7 @@
         <v>71.50850914251097</v>
       </c>
       <c r="D165" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E165">
         <v>62.8485060058029</v>
@@ -9941,7 +9947,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9955,7 +9961,7 @@
         <v>74.40422712505978</v>
       </c>
       <c r="D166" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E166">
         <v>62.8485060058029</v>
@@ -9991,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -10005,7 +10011,7 @@
         <v>56.40850914251097</v>
       </c>
       <c r="D167" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E167">
         <v>64.59422790923679</v>
@@ -10041,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -10055,7 +10061,7 @@
         <v>67.88820949982238</v>
       </c>
       <c r="D168" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E168">
         <v>60.43722302948107</v>
@@ -10105,7 +10111,7 @@
         <v>70.99880138202717</v>
       </c>
       <c r="D169" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E169">
         <v>60.43722302948107</v>
@@ -10155,7 +10161,7 @@
         <v>52.78820949982239</v>
       </c>
       <c r="D170" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E170">
         <v>61.23438147825242</v>
@@ -10205,7 +10211,7 @@
         <v>64.41272601732022</v>
       </c>
       <c r="D171" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E171">
         <v>56.61794172047242</v>
@@ -10241,7 +10247,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -10255,7 +10261,7 @@
         <v>49.31272601732023</v>
       </c>
       <c r="D172" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E172">
         <v>58.0089327786641</v>
@@ -10291,7 +10297,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -10305,7 +10311,7 @@
         <v>61.16879231159055</v>
       </c>
       <c r="D173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E173">
         <v>53.82441738118666</v>
@@ -10341,7 +10347,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10355,7 +10361,7 @@
         <v>46.06879231159056</v>
       </c>
       <c r="D174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E174">
         <v>54.08446933112747</v>
@@ -10391,7 +10397,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10405,7 +10411,7 @@
         <v>58.07192781203269</v>
       </c>
       <c r="D175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E175">
         <v>50.68812094147531</v>
@@ -10441,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10455,7 +10461,7 @@
         <v>42.9719278120327</v>
       </c>
       <c r="D176" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E176">
         <v>51.29394934141796</v>
@@ -10491,7 +10497,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10505,7 +10511,7 @@
         <v>72.62623022483724</v>
       </c>
       <c r="D177" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E177">
         <v>78.13274022613687</v>
@@ -10541,7 +10547,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10555,7 +10561,7 @@
         <v>72.14377020837516</v>
       </c>
       <c r="D178" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E178">
         <v>78.53925022743653</v>
@@ -10591,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10605,7 +10611,7 @@
         <v>83.25643025082999</v>
       </c>
       <c r="D179" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E179">
         <v>77.7759602547289</v>
@@ -10641,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10670,7 +10676,7 @@
         <v>71.40000000000001</v>
       </c>
       <c r="P180" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10699,7 +10705,7 @@
         <v>72.09999999999999</v>
       </c>
       <c r="P181" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10713,7 +10719,7 @@
         <v>66.25534327603719</v>
       </c>
       <c r="D182" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E182">
         <v>53.25789242985769</v>
@@ -10763,7 +10769,7 @@
         <v>66.50153349826817</v>
       </c>
       <c r="D183" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E183">
         <v>53.49926887679366</v>
@@ -10799,7 +10805,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10813,7 +10819,7 @@
         <v>65.13958707494101</v>
       </c>
       <c r="D184" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E184">
         <v>53.20617458032149</v>
@@ -10849,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10863,7 +10869,7 @@
         <v>65.2660759255686</v>
       </c>
       <c r="D185" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E185">
         <v>53.20617458032149</v>
@@ -10899,7 +10905,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10913,7 +10919,7 @@
         <v>63.88275361614285</v>
       </c>
       <c r="D186" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E186">
         <v>51.96525040581191</v>
@@ -10949,7 +10955,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10963,7 +10969,7 @@
         <v>82.52792611826956</v>
       </c>
       <c r="D187" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E187">
         <v>99.94767772279653</v>
@@ -10999,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="P187" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -11013,7 +11019,7 @@
         <v>80.81507949145069</v>
       </c>
       <c r="D188" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E188">
         <v>99.94767772279653</v>
@@ -11049,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="P188" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -11063,7 +11069,7 @@
         <v>82.55697724266327</v>
       </c>
       <c r="D189" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E189">
         <v>99.94767772279653</v>
@@ -11099,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="P189" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11113,7 +11119,7 @@
         <v>80.68386776738032</v>
       </c>
       <c r="D190" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E190">
         <v>99.94767772279653</v>
@@ -11149,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="P190" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11163,7 +11169,7 @@
         <v>83.46212404051099</v>
       </c>
       <c r="D191" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E191">
         <v>101.9293746430213</v>
@@ -11199,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="P191" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11213,7 +11219,7 @@
         <v>81.65627098338047</v>
       </c>
       <c r="D192" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E192">
         <v>101.9293746430213</v>
@@ -11249,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="P192" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11263,7 +11269,7 @@
         <v>83.46017302146748</v>
       </c>
       <c r="D193" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E193">
         <v>101.9293746430213</v>
@@ -11299,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="P193" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11313,7 +11319,7 @@
         <v>81.57259587924717</v>
       </c>
       <c r="D194" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E194">
         <v>101.9293746430213</v>
@@ -11349,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="P194" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11399,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11413,7 +11419,7 @@
         <v>33.77481800214022</v>
       </c>
       <c r="D196" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E196">
         <v>39.96346245740297</v>
@@ -11449,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11463,7 +11469,7 @@
         <v>24.63764534106641</v>
       </c>
       <c r="D197" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E197">
         <v>34.16939555445761</v>
@@ -11499,7 +11505,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11513,7 +11519,7 @@
         <v>43.28817453279771</v>
       </c>
       <c r="D198" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E198">
         <v>46.14425779500065</v>
@@ -11549,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="P198" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11563,7 +11569,7 @@
         <v>24.23598497532834</v>
       </c>
       <c r="D199" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E199">
         <v>33.03819935984974</v>
@@ -11599,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11613,7 +11619,7 @@
         <v>24.17071464201896</v>
       </c>
       <c r="D200" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E200">
         <v>33.03819935984974</v>
@@ -11649,7 +11655,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11663,7 +11669,7 @@
         <v>23.32366123264667</v>
       </c>
       <c r="D201" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E201">
         <v>32.29172372079252</v>
@@ -11713,7 +11719,7 @@
         <v>22.94912669441385</v>
       </c>
       <c r="D202" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E202">
         <v>31.49029169144093</v>
@@ -11749,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11763,7 +11769,7 @@
         <v>22.44844130251504</v>
       </c>
       <c r="D203" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E203">
         <v>30.75050022869873</v>
@@ -11799,7 +11805,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11813,7 +11819,7 @@
         <v>22.12056025614258</v>
       </c>
       <c r="D204" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E204">
         <v>30.75050022869873</v>
@@ -11849,7 +11855,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11863,7 +11869,7 @@
         <v>21.00936580829927</v>
       </c>
       <c r="D205" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E205">
         <v>29.75836232883863</v>
@@ -11913,7 +11919,7 @@
         <v>22.21712321587968</v>
       </c>
       <c r="D206" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E206">
         <v>29.83950116198865</v>
@@ -11949,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11963,7 +11969,7 @@
         <v>22.36605537346383</v>
       </c>
       <c r="D207" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E207">
         <v>29.99532225197207</v>
@@ -11999,7 +12005,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -12013,7 +12019,7 @@
         <v>21.71901729202467</v>
       </c>
       <c r="D208" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E208">
         <v>28.96097369076485</v>
@@ -12049,7 +12055,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -12063,7 +12069,7 @@
         <v>21.37743590654157</v>
       </c>
       <c r="D209" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E209">
         <v>28.96097369076485</v>
@@ -12099,7 +12105,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12113,7 +12119,7 @@
         <v>21.5505095382167</v>
       </c>
       <c r="D210" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E210">
         <v>29.1420529309536</v>
@@ -12163,7 +12169,7 @@
         <v>21.4477218260166</v>
       </c>
       <c r="D211" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E211">
         <v>29.03451072105261</v>
@@ -12199,7 +12205,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12213,7 +12219,7 @@
         <v>21.93200329930192</v>
       </c>
       <c r="D212" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E212">
         <v>29.03451072105261</v>
@@ -12249,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12263,7 +12269,7 @@
         <v>21.82005829590757</v>
       </c>
       <c r="D213" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E213">
         <v>29.42406980298699</v>
@@ -12299,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12313,7 +12319,7 @@
         <v>22.28137628646834</v>
       </c>
       <c r="D214" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E214">
         <v>29.42406980298699</v>
@@ -12349,7 +12355,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12363,7 +12369,7 @@
         <v>25.08434479788652</v>
       </c>
       <c r="D215" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E215">
         <v>32.83934753082841</v>
@@ -12399,7 +12405,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12413,7 +12419,7 @@
         <v>25.82576998567276</v>
       </c>
       <c r="D216" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E216">
         <v>32.83934753082841</v>
@@ -12449,7 +12455,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12463,7 +12469,7 @@
         <v>25.62576998567276</v>
       </c>
       <c r="D217" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E217">
         <v>32.83934753082841</v>
@@ -12499,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12513,7 +12519,7 @@
         <v>39.54291961010028</v>
       </c>
       <c r="D218" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E218">
         <v>32.24005830276027</v>
@@ -12549,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12563,7 +12569,7 @@
         <v>27.32311840696546</v>
       </c>
       <c r="D219" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E219">
         <v>35.18167674737576</v>
@@ -12599,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12613,7 +12619,7 @@
         <v>27.936331890267</v>
       </c>
       <c r="D220" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E220">
         <v>35.18167674737576</v>
@@ -12649,7 +12655,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12663,7 +12669,7 @@
         <v>27.736331890267</v>
       </c>
       <c r="D221" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E221">
         <v>35.18167674737576</v>
@@ -12699,7 +12705,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12713,7 +12719,7 @@
         <v>41.90990492366392</v>
       </c>
       <c r="D222" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E222">
         <v>34.44924459541966</v>
@@ -12749,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12763,7 +12769,7 @@
         <v>29.32582523799188</v>
       </c>
       <c r="D223" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E223">
         <v>36.94571726179005</v>
@@ -12813,7 +12819,7 @@
         <v>43.69251428559836</v>
       </c>
       <c r="D224" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E224">
         <v>36.11301333322514</v>
@@ -12863,7 +12869,7 @@
         <v>44.11030807122381</v>
       </c>
       <c r="D225" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E225">
         <v>36.50295419980888</v>
@@ -12899,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12913,7 +12919,7 @@
         <v>45.39200591893177</v>
       </c>
       <c r="D226" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E226">
         <v>37.69920552433632</v>
@@ -12963,7 +12969,7 @@
         <v>46.2461284866414</v>
       </c>
       <c r="D227" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E227">
         <v>38.49638658753197</v>
@@ -12999,7 +13005,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -13013,7 +13019,7 @@
         <v>46.90307634880546</v>
       </c>
       <c r="D228" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E228">
         <v>39.10953792555176</v>
@@ -13063,7 +13069,7 @@
         <v>33.83569560835785</v>
       </c>
       <c r="D229" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E229">
         <v>40.9206360962427</v>
@@ -13113,7 +13119,7 @@
         <v>46.73201951087134</v>
       </c>
       <c r="D230" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E230">
         <v>38.94988487681324</v>
@@ -13163,7 +13169,7 @@
         <v>33.22416759327695</v>
       </c>
       <c r="D231" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E231">
         <v>40.34408700115657</v>
@@ -13199,7 +13205,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -13213,7 +13219,7 @@
         <v>46.15305807647522</v>
       </c>
       <c r="D232" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E232">
         <v>38.40952087137686</v>
@@ -13249,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13263,7 +13269,7 @@
         <v>33.50490381338868</v>
       </c>
       <c r="D233" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E233">
         <v>40.17087450822464</v>
@@ -13299,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13313,7 +13319,7 @@
         <v>45.97912084507914</v>
       </c>
       <c r="D234" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E234">
         <v>38.24717945540719</v>
@@ -13349,7 +13355,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13363,7 +13369,7 @@
         <v>34.16379673036971</v>
       </c>
       <c r="D235" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E235">
         <v>40.85258622752538</v>
@@ -13399,7 +13405,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13413,7 +13419,7 @@
         <v>46.66368491466983</v>
       </c>
       <c r="D236" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E236">
         <v>38.8861059203585</v>
@@ -13449,7 +13455,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13463,7 +13469,7 @@
         <v>35.00523304555671</v>
       </c>
       <c r="D237" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E237">
         <v>41.72316319432058</v>
@@ -13499,7 +13505,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13513,7 +13519,7 @@
         <v>47.53790446291606</v>
       </c>
       <c r="D238" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E238">
         <v>39.70204416538832</v>
@@ -13549,7 +13555,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13563,7 +13569,7 @@
         <v>35.77509163864829</v>
       </c>
       <c r="D239" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E239">
         <v>42.51968355686988</v>
@@ -13599,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13613,7 +13619,7 @@
         <v>48.33775754664758</v>
       </c>
       <c r="D240" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E240">
         <v>40.4485737102044</v>
@@ -13649,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13663,7 +13669,7 @@
         <v>36.40438752667171</v>
       </c>
       <c r="D241" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E241">
         <v>43.17077324188112</v>
@@ -13699,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13713,7 +13719,7 @@
         <v>48.9915714562823</v>
       </c>
       <c r="D242" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E242">
         <v>41.05880002586348</v>
@@ -13749,7 +13755,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13763,7 +13769,7 @@
         <v>32.86635202836143</v>
       </c>
       <c r="D243" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E243">
         <v>23.40810673803942</v>
@@ -13799,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -13813,7 +13819,7 @@
         <v>14.22574367387871</v>
       </c>
       <c r="D244" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E244">
         <v>19.5340376774239</v>
@@ -13849,7 +13855,7 @@
         <v>0</v>
       </c>
       <c r="P244" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13863,7 +13869,7 @@
         <v>24.88800304387275</v>
       </c>
       <c r="D245" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E245">
         <v>11.91657154564347</v>
@@ -13899,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13913,7 +13919,7 @@
         <v>39.44906102636678</v>
       </c>
       <c r="D246" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E246">
         <v>28.36395585832523</v>
@@ -13949,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13978,7 +13984,7 @@
         <v>59.4</v>
       </c>
       <c r="P247" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13992,7 +13998,7 @@
         <v>36.85113379578714</v>
       </c>
       <c r="D248" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E248">
         <v>25.5208599983697</v>
@@ -14028,7 +14034,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -14042,7 +14048,7 @@
         <v>33.94646019309421</v>
       </c>
       <c r="D249" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E249">
         <v>22.34206984707826</v>
@@ -14078,7 +14084,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -14092,7 +14098,7 @@
         <v>33.30875742504994</v>
       </c>
       <c r="D250" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E250">
         <v>21.64418651979802</v>
@@ -14128,7 +14134,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -14157,7 +14163,7 @@
         <v>59.5</v>
       </c>
       <c r="P251" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -14207,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="P252" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14221,7 +14227,7 @@
         <v>9.926891175013289</v>
       </c>
       <c r="D253" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E253">
         <v>9.938904864210649</v>
@@ -14257,7 +14263,7 @@
         <v>0</v>
       </c>
       <c r="P253" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14271,7 +14277,7 @@
         <v>8.61566853605617</v>
       </c>
       <c r="D254" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E254">
         <v>9.007561895624264</v>
@@ -14307,7 +14313,7 @@
         <v>0</v>
       </c>
       <c r="P254" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14357,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="P255" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14371,7 +14377,7 @@
         <v>15.27625616990661</v>
       </c>
       <c r="D256" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E256">
         <v>13.96823074035395</v>
@@ -14407,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="P256" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14421,7 +14427,7 @@
         <v>14.49984262437423</v>
       </c>
       <c r="D257" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E257">
         <v>14.19011246930496</v>
@@ -14457,7 +14463,7 @@
         <v>0</v>
       </c>
       <c r="P257" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14471,7 +14477,7 @@
         <v>13.68984307357539</v>
       </c>
       <c r="D258" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E258">
         <v>15.44321014679792</v>
@@ -14507,7 +14513,7 @@
         <v>0</v>
       </c>
       <c r="P258" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14521,7 +14527,7 @@
         <v>14.26953725404694</v>
       </c>
       <c r="D259" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E259">
         <v>17.46734434330768</v>
@@ -14557,7 +14563,7 @@
         <v>0</v>
       </c>
       <c r="P259" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14571,7 +14577,7 @@
         <v>59.06263065139578</v>
       </c>
       <c r="D260" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E260">
         <v>59.07357361272927</v>
@@ -14607,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="P260" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -14621,7 +14627,7 @@
         <v>60.66257075424956</v>
       </c>
       <c r="D261" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E261">
         <v>61.38454095582109</v>
@@ -14657,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="P261" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -14671,7 +14677,7 @@
         <v>61.58779745865752</v>
       </c>
       <c r="D262" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E262">
         <v>62.08864679971672</v>
@@ -14707,7 +14713,7 @@
         <v>0</v>
       </c>
       <c r="P262" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -14757,7 +14763,7 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -14807,7 +14813,7 @@
         <v>1</v>
       </c>
       <c r="P264" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -14857,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -14907,7 +14913,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -14957,7 +14963,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -15007,7 +15013,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -15057,7 +15063,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15107,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15157,7 +15163,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -15171,7 +15177,7 @@
         <v>-12.91711279591523</v>
       </c>
       <c r="D272" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E272">
         <v>-24.080705554696</v>
@@ -15221,7 +15227,7 @@
         <v>-13.89288092370901</v>
       </c>
       <c r="D273" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E273">
         <v>-24.64699491908532</v>
@@ -15257,7 +15263,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15271,7 +15277,7 @@
         <v>-13.4171424523624</v>
       </c>
       <c r="D274" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E274">
         <v>-24.64699491908532</v>
@@ -15307,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15321,7 +15327,7 @@
         <v>-7.909028461817627</v>
       </c>
       <c r="D275" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E275">
         <v>-18.4089921717041</v>
@@ -15357,7 +15363,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15371,7 +15377,7 @@
         <v>-3.803879058776658</v>
       </c>
       <c r="D276" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E276">
         <v>-13.75986303266694</v>
@@ -15421,7 +15427,7 @@
         <v>-7.200798160312672</v>
       </c>
       <c r="D277" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E277">
         <v>-16.37029482433257</v>
@@ -15471,7 +15477,7 @@
         <v>1.814674940949821</v>
       </c>
       <c r="D278" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E278">
         <v>-6.106103736501311</v>
@@ -15557,7 +15563,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15657,7 +15663,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15671,7 +15677,7 @@
         <v>68.89152801060949</v>
       </c>
       <c r="D282" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E282">
         <v>67.76768139345658</v>
@@ -15707,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="P282" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15721,7 +15727,7 @@
         <v>68.93096321131679</v>
       </c>
       <c r="D283" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E283">
         <v>67.76768139345658</v>
@@ -15757,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="P283" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -15771,7 +15777,7 @@
         <v>68.53130803182968</v>
       </c>
       <c r="D284" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E284">
         <v>67.76768139345658</v>
@@ -15807,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="P284" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -15821,7 +15827,7 @@
         <v>69.00549946949548</v>
       </c>
       <c r="D285" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E285">
         <v>67.76768139345658</v>
@@ -15857,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="P285" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -15871,7 +15877,7 @@
         <v>77.0344578684535</v>
       </c>
       <c r="D286" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E286">
         <v>79.16818364992574</v>
@@ -15921,7 +15927,7 @@
         <v>76.35596494832328</v>
       </c>
       <c r="D287" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E287">
         <v>79.16818364992574</v>
@@ -15971,7 +15977,7 @@
         <v>77.32922500711149</v>
       </c>
       <c r="D288" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E288">
         <v>79.16818364992574</v>
@@ -16021,7 +16027,7 @@
         <v>79.78847196430716</v>
       </c>
       <c r="D289" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E289">
         <v>84.66094269739213</v>
@@ -16057,7 +16063,7 @@
         <v>0</v>
       </c>
       <c r="P289" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16071,7 +16077,7 @@
         <v>79.029452316228</v>
       </c>
       <c r="D290" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E290">
         <v>84.66094269739213</v>
@@ -16107,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="P290" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -16121,7 +16127,7 @@
         <v>80.07787065443522</v>
       </c>
       <c r="D291" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E291">
         <v>84.66094269739213</v>
@@ -16157,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="P291" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -16207,7 +16213,7 @@
         <v>0</v>
       </c>
       <c r="P292" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -16257,7 +16263,7 @@
         <v>0</v>
       </c>
       <c r="P293" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -16307,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="P294" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -16321,7 +16327,7 @@
         <v>26.32548638029413</v>
       </c>
       <c r="D295" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E295">
         <v>26.99422663021349</v>
@@ -16357,7 +16363,7 @@
         <v>0</v>
       </c>
       <c r="P295" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -16371,7 +16377,7 @@
         <v>22.18948293316849</v>
       </c>
       <c r="D296" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E296">
         <v>24.84672272180288</v>
@@ -16407,7 +16413,7 @@
         <v>0</v>
       </c>
       <c r="P296" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -16421,7 +16427,7 @@
         <v>21.86052377863092</v>
       </c>
       <c r="D297" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E297">
         <v>24.84672272180288</v>
@@ -16457,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="P297" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16471,7 +16477,7 @@
         <v>40.77814878274022</v>
       </c>
       <c r="D298" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E298">
         <v>48.87821615334129</v>
@@ -16507,7 +16513,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -16521,7 +16527,7 @@
         <v>40.67981251944272</v>
       </c>
       <c r="D299" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E299">
         <v>48.87821615334129</v>
@@ -16557,7 +16563,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -16571,7 +16577,7 @@
         <v>56.75038402863819</v>
       </c>
       <c r="D300" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E300">
         <v>62.17870887338118</v>
@@ -16607,7 +16613,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -16621,7 +16627,7 @@
         <v>59.81014784804309</v>
       </c>
       <c r="D301" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E301">
         <v>65.19117101289457</v>
@@ -16657,7 +16663,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -16671,7 +16677,7 @@
         <v>60.36835189313004</v>
       </c>
       <c r="D302" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E302">
         <v>65.519432176365</v>
@@ -16707,7 +16713,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -16721,7 +16727,7 @@
         <v>61.49835591209959</v>
       </c>
       <c r="D303" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E303">
         <v>65.45054113973049</v>
@@ -16771,7 +16777,7 @@
         <v>61.74303834428476</v>
       </c>
       <c r="D304" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E304">
         <v>65.59070564276428</v>
@@ -16807,7 +16813,7 @@
         <v>0</v>
       </c>
       <c r="P304" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -16821,7 +16827,7 @@
         <v>62.08800405152936</v>
       </c>
       <c r="D305" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E305">
         <v>65.70367105582346</v>
@@ -16857,7 +16863,7 @@
         <v>0</v>
       </c>
       <c r="P305" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -16871,7 +16877,7 @@
         <v>62.52195117925444</v>
       </c>
       <c r="D306" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E306">
         <v>66.54562713332096</v>
@@ -16907,7 +16913,7 @@
         <v>0</v>
       </c>
       <c r="P306" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -16921,7 +16927,7 @@
         <v>63.12382871565654</v>
       </c>
       <c r="D307" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E307">
         <v>66.7862115872222</v>
@@ -16957,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="P307" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -16971,7 +16977,7 @@
         <v>63.43713576842169</v>
       </c>
       <c r="D308" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E308">
         <v>68.73084934526386</v>
@@ -17007,7 +17013,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -17021,7 +17027,7 @@
         <v>63.67236578705479</v>
       </c>
       <c r="D309" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E309">
         <v>68.98960236576026</v>
@@ -17057,7 +17063,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -17071,7 +17077,7 @@
         <v>63.92214730715632</v>
       </c>
       <c r="D310" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E310">
         <v>69.26436203787196</v>
@@ -17107,7 +17113,7 @@
         <v>1</v>
       </c>
       <c r="P310" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -17121,7 +17127,7 @@
         <v>64.84267428552164</v>
       </c>
       <c r="D311" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E311">
         <v>70.2769417140738</v>
@@ -17157,7 +17163,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -17171,7 +17177,7 @@
         <v>67.02639425410899</v>
       </c>
       <c r="D312" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E312">
         <v>72.67903367951989</v>
@@ -17207,7 +17213,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17221,7 +17227,7 @@
         <v>48.8201383647419</v>
       </c>
       <c r="D313" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E313">
         <v>53.28068312873989</v>
@@ -17257,7 +17263,7 @@
         <v>1</v>
       </c>
       <c r="P313" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -17271,7 +17277,7 @@
         <v>43.78661428769819</v>
       </c>
       <c r="D314" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E314">
         <v>49.20590413019019</v>
@@ -17307,7 +17313,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -17321,7 +17327,7 @@
         <v>43.50856722084519</v>
       </c>
       <c r="D315" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E315">
         <v>49.20590413019019</v>
@@ -17357,7 +17363,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17371,7 +17377,7 @@
         <v>38.43277181447034</v>
       </c>
       <c r="D316" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E316">
         <v>43.81134802598723</v>
@@ -17407,7 +17413,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17421,7 +17427,7 @@
         <v>39.10060265112747</v>
       </c>
       <c r="D317" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E317">
         <v>43.81134802598723</v>
@@ -17457,7 +17463,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17471,7 +17477,7 @@
         <v>28.12299460113455</v>
       </c>
       <c r="D318" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E318">
         <v>35.22229514558674</v>
@@ -17507,7 +17513,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17521,7 +17527,7 @@
         <v>27.81471186440677</v>
       </c>
       <c r="D319" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E319">
         <v>34.92338983050847</v>
@@ -17557,7 +17563,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17571,7 +17577,7 @@
         <v>31.34037664954478</v>
       </c>
       <c r="D320" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E320">
         <v>38.34181005944457</v>
@@ -17607,7 +17613,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -17621,7 +17627,7 @@
         <v>31.06966226989418</v>
       </c>
       <c r="D321" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E321">
         <v>38.07933033773011</v>
@@ -17657,7 +17663,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -17671,7 +17677,7 @@
         <v>30.73117805425061</v>
       </c>
       <c r="D322" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E322">
         <v>37.75114221990079</v>
@@ -17707,7 +17713,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -17721,7 +17727,7 @@
         <v>30.23209518986696</v>
       </c>
       <c r="D323" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E323">
         <v>37.26724058333109</v>
@@ -17757,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -17771,7 +17777,7 @@
         <v>29.66328200930995</v>
       </c>
       <c r="D324" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E324">
         <v>36.71572970484425</v>
@@ -17807,7 +17813,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -17821,7 +17827,7 @@
         <v>29.90527095369034</v>
       </c>
       <c r="D325" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E325">
         <v>36.95035776878722</v>
@@ -17857,7 +17863,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -17871,7 +17877,7 @@
         <v>29.61163508265873</v>
       </c>
       <c r="D326" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E326">
         <v>36.66565378736873</v>
@@ -17907,7 +17913,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -17921,7 +17927,7 @@
         <v>29.60796663375891</v>
       </c>
       <c r="D327" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E327">
         <v>38.73216492329536</v>
@@ -17957,7 +17963,7 @@
         <v>1</v>
       </c>
       <c r="P327" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -17971,7 +17977,7 @@
         <v>29.99267097270676</v>
       </c>
       <c r="D328" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E328">
         <v>39.11028686861102</v>
@@ -18007,7 +18013,7 @@
         <v>1</v>
       </c>
       <c r="P328" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -18021,7 +18027,7 @@
         <v>30.47592970891776</v>
       </c>
       <c r="D329" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E329">
         <v>39.58527691922146</v>
@@ -18057,7 +18063,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -18086,7 +18092,7 @@
         <v>64.5</v>
       </c>
       <c r="P330" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -18100,7 +18106,7 @@
         <v>37.15547839433958</v>
       </c>
       <c r="D331" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E331">
         <v>43.97524497646168</v>
@@ -18136,7 +18142,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -18150,7 +18156,7 @@
         <v>37.01610527202449</v>
       </c>
       <c r="D332" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E332">
         <v>43.97524497646168</v>
@@ -18186,7 +18192,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -18200,7 +18206,7 @@
         <v>25.78116025897209</v>
       </c>
       <c r="D333" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E333">
         <v>34.97083622412276</v>
@@ -18236,7 +18242,7 @@
         <v>1</v>
       </c>
       <c r="P333" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -18250,7 +18256,7 @@
         <v>21.78292834045364</v>
       </c>
       <c r="D334" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E334">
         <v>32.11135258573889</v>
@@ -18286,7 +18292,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -18300,7 +18306,7 @@
         <v>16.20611168178342</v>
       </c>
       <c r="D335" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E335">
         <v>27.00103770079773</v>
@@ -18336,7 +18342,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -18350,7 +18356,7 @@
         <v>16.50484318653699</v>
       </c>
       <c r="D336" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E336">
         <v>27.00103770079773</v>
@@ -18386,7 +18392,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -18400,7 +18406,7 @@
         <v>7.513223702566968</v>
       </c>
       <c r="D337" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E337">
         <v>19.03531145368304</v>
@@ -18436,7 +18442,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -18450,7 +18456,7 @@
         <v>7.993745640345985</v>
       </c>
       <c r="D338" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E338">
         <v>19.03531145368304</v>
@@ -18486,7 +18492,7 @@
         <v>1</v>
       </c>
       <c r="P338" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -18500,7 +18506,7 @@
         <v>-3.101932223543415</v>
       </c>
       <c r="D339" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E339">
         <v>9.308115338882274</v>
@@ -18536,7 +18542,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -18550,7 +18556,7 @@
         <v>-2.399420332936991</v>
       </c>
       <c r="D340" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E340">
         <v>9.308115338882274</v>
@@ -18586,7 +18592,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -18600,7 +18606,7 @@
         <v>-2.646016646848999</v>
       </c>
       <c r="D341" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E341">
         <v>9.308115338882274</v>
@@ -18636,7 +18642,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -18650,7 +18656,7 @@
         <v>-9.121415898188509</v>
       </c>
       <c r="D342" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E342">
         <v>3.792162618009769</v>
@@ -18686,7 +18692,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -18700,7 +18706,7 @@
         <v>-8.59683700961601</v>
       </c>
       <c r="D343" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E343">
         <v>3.792162618009769</v>
@@ -18736,7 +18742,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -18750,7 +18756,7 @@
         <v>-12.89770073310627</v>
       </c>
       <c r="D344" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E344">
         <v>0.3317647274577595</v>
@@ -18786,7 +18792,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -18800,7 +18806,7 @@
         <v>-14.09288737405897</v>
       </c>
       <c r="D345" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E345">
         <v>-0.7634443237574615</v>
@@ -18836,7 +18842,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -18850,7 +18856,7 @@
         <v>59.56360813550708</v>
       </c>
       <c r="D346" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E346">
         <v>75.18159673719033</v>
@@ -18886,7 +18892,7 @@
         <v>1</v>
       </c>
       <c r="P346" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -18900,7 +18906,7 @@
         <v>60.31956868780029</v>
       </c>
       <c r="D347" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E347">
         <v>76.03992694760657</v>
@@ -18936,7 +18942,7 @@
         <v>1</v>
       </c>
       <c r="P347" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -18950,7 +18956,7 @@
         <v>62.79431714399279</v>
       </c>
       <c r="D348" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E348">
         <v>77.62631903124894</v>
@@ -18986,7 +18992,7 @@
         <v>1</v>
       </c>
       <c r="P348" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -19000,7 +19006,7 @@
         <v>64.08298118239738</v>
       </c>
       <c r="D349" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E349">
         <v>79.11665728256037</v>
@@ -19036,7 +19042,7 @@
         <v>1</v>
       </c>
       <c r="P349" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -19050,7 +19056,7 @@
         <v>64.68906100731142</v>
       </c>
       <c r="D350" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E350">
         <v>79.81758779625406</v>
@@ -19086,7 +19092,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -19100,7 +19106,7 @@
         <v>66.03163316666149</v>
       </c>
       <c r="D351" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E351">
         <v>81.37027071794273</v>
@@ -19136,7 +19142,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -19150,7 +19156,7 @@
         <v>65.93064756206419</v>
       </c>
       <c r="D352" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E352">
         <v>81.25348100015911</v>
@@ -19186,7 +19192,7 @@
         <v>1</v>
       </c>
       <c r="P352" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="353" spans="1:16">
@@ -19200,7 +19206,7 @@
         <v>64.84418812133572</v>
       </c>
       <c r="D353" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E353">
         <v>80.16577874075962</v>
@@ -19236,7 +19242,7 @@
         <v>1</v>
       </c>
       <c r="P353" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="354" spans="1:16">
@@ -19250,7 +19256,7 @@
         <v>63.26616721431549</v>
       </c>
       <c r="D354" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E354">
         <v>79.97190339753475</v>
@@ -19286,7 +19292,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -19300,7 +19306,7 @@
         <v>61.66554474645639</v>
       </c>
       <c r="D355" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E355">
         <v>78.05285470927927</v>
@@ -19336,7 +19342,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -19350,7 +19356,7 @@
         <v>60.62679073828761</v>
       </c>
       <c r="D356" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E356">
         <v>76.80745202574536</v>
@@ -19386,7 +19392,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19400,7 +19406,7 @@
         <v>59.7052486970962</v>
       </c>
       <c r="D357" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E357">
         <v>75.70257933975458</v>
@@ -19436,7 +19442,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19450,7 +19456,7 @@
         <v>50.59926427854958</v>
       </c>
       <c r="D358" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E358">
         <v>64.78505955942813</v>
@@ -19486,7 +19492,7 @@
         <v>1</v>
       </c>
       <c r="P358" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -19500,7 +19506,7 @@
         <v>54.80887863487924</v>
       </c>
       <c r="D359" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E359">
         <v>72.15232554251514</v>
@@ -19536,7 +19542,7 @@
         <v>1</v>
       </c>
       <c r="P359" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="360" spans="1:16">
@@ -19550,10 +19556,10 @@
         <v>22.63799956449154</v>
       </c>
       <c r="D360" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E360">
-        <v>34.76775640560354</v>
+        <v>34.82839660303404</v>
       </c>
       <c r="F360">
         <v>1</v>
@@ -19562,10 +19568,10 @@
         <v>0.1349620004355085</v>
       </c>
       <c r="H360">
-        <v>0.1426322435943965</v>
+        <v>0.142971603396966</v>
       </c>
       <c r="I360">
-        <v>12.12975684111201</v>
+        <v>12.19039703854251</v>
       </c>
       <c r="J360">
         <v>0.2787196051389998</v>
@@ -19577,16 +19583,16 @@
         <v>78.8</v>
       </c>
       <c r="M360">
-        <v>193.5</v>
+        <v>194</v>
       </c>
       <c r="N360">
-        <v>88.7</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="O360">
         <v>1</v>
       </c>
       <c r="P360" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -19600,7 +19606,7 @@
         <v>22.69572269649692</v>
       </c>
       <c r="D361" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E361">
         <v>34.21898145422433</v>
@@ -19636,7 +19642,7 @@
         <v>1</v>
       </c>
       <c r="P361" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="362" spans="1:16">
@@ -19650,7 +19656,7 @@
         <v>22.5492051810421</v>
       </c>
       <c r="D362" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E362">
         <v>34.21898145422433</v>
@@ -19686,7 +19692,7 @@
         <v>1</v>
       </c>
       <c r="P362" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="363" spans="1:16">
@@ -19700,7 +19706,7 @@
         <v>21.6518845469621</v>
       </c>
       <c r="D363" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E363">
         <v>34.22096927469043</v>
@@ -19750,7 +19756,7 @@
         <v>20.6287291557878</v>
       </c>
       <c r="D364" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E364">
         <v>33.1903090762459</v>
@@ -19786,7 +19792,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -19800,7 +19806,7 @@
         <v>18.55332655028487</v>
       </c>
       <c r="D365" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E365">
         <v>31.09968346874662</v>
@@ -19836,7 +19842,7 @@
         <v>1</v>
       </c>
       <c r="P365" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="366" spans="1:16">
@@ -19850,7 +19856,7 @@
         <v>17.31085877987343</v>
       </c>
       <c r="D366" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E366">
         <v>28.73863898391312</v>
@@ -19886,7 +19892,7 @@
         <v>1</v>
       </c>
       <c r="P366" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -19900,7 +19906,7 @@
         <v>15.37197148226591</v>
       </c>
       <c r="D367" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E367">
         <v>26.81839483339797</v>
@@ -19936,7 +19942,7 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -19950,7 +19956,7 @@
         <v>15.09009948164395</v>
       </c>
       <c r="D368" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E368">
         <v>26.03693115694988</v>
@@ -20000,7 +20006,7 @@
         <v>14.98793542044889</v>
       </c>
       <c r="D369" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E369">
         <v>26.03693115694988</v>
@@ -20050,7 +20056,7 @@
         <v>15.04543186753304</v>
       </c>
       <c r="D370" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E370">
         <v>26.03693115694988</v>
@@ -20100,7 +20106,7 @@
         <v>13.45577889447236</v>
       </c>
       <c r="D371" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E371">
         <v>24.7361952620244</v>
@@ -20136,7 +20142,7 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -20150,7 +20156,7 @@
         <v>13.31081119885138</v>
       </c>
       <c r="D372" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E372">
         <v>24.7361952620244</v>
@@ -20186,7 +20192,7 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -20200,7 +20206,7 @@
         <v>13.42667623833452</v>
       </c>
       <c r="D373" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E373">
         <v>24.7361952620244</v>
@@ -20236,7 +20242,7 @@
         <v>1</v>
       </c>
       <c r="P373" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -20250,7 +20256,7 @@
         <v>13.63936826992104</v>
       </c>
       <c r="D374" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E374">
         <v>24.7361952620244</v>
@@ -20286,7 +20292,7 @@
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -20300,7 +20306,7 @@
         <v>10.59259053965798</v>
       </c>
       <c r="D375" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E375">
         <v>22.78708795281059</v>
@@ -20336,7 +20342,7 @@
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -20350,7 +20356,7 @@
         <v>10.37263457760139</v>
       </c>
       <c r="D376" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E376">
         <v>22.78708795281059</v>
@@ -20386,7 +20392,7 @@
         <v>1</v>
       </c>
       <c r="P376" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="377" spans="1:16">
@@ -20400,7 +20406,7 @@
         <v>10.59075634404218</v>
       </c>
       <c r="D377" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E377">
         <v>22.78708795281059</v>
@@ -20436,7 +20442,7 @@
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -20450,7 +20456,7 @@
         <v>10.88525375719482</v>
       </c>
       <c r="D378" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E378">
         <v>22.78708795281059</v>
@@ -20486,7 +20492,7 @@
         <v>1</v>
       </c>
       <c r="P378" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="379" spans="1:16">
@@ -20500,7 +20506,7 @@
         <v>8.066617110777202</v>
       </c>
       <c r="D379" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E379">
         <v>20.60412942273109</v>
@@ -20550,7 +20556,7 @@
         <v>8.364994705529739</v>
       </c>
       <c r="D380" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E380">
         <v>20.60412942273109</v>
@@ -20594,13 +20600,13 @@
         <v>2</v>
       </c>
       <c r="B381" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C381">
-        <v>8.723696781331768</v>
+        <v>9.044345743430753</v>
       </c>
       <c r="D381" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E381">
         <v>20.60412942273109</v>
@@ -20609,22 +20615,22 @@
         <v>1</v>
       </c>
       <c r="G381">
-        <v>0.1540763032186682</v>
+        <v>0.1565556542565693</v>
       </c>
       <c r="H381">
         <v>0.1673958705772689</v>
       </c>
       <c r="I381">
-        <v>11.88043264139932</v>
+        <v>11.55978367930034</v>
       </c>
       <c r="J381">
         <v>0.3597836793003378</v>
       </c>
       <c r="K381">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L381">
-        <v>81.40000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="M381">
         <v>204</v>
@@ -20641,52 +20647,52 @@
     </row>
     <row r="382" spans="1:16">
       <c r="A382" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B382" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C382">
-        <v>9.044345743430753</v>
+        <v>-2.124244140274371</v>
       </c>
       <c r="D382" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E382">
-        <v>20.60412942273109</v>
+        <v>10.72424068728326</v>
       </c>
       <c r="F382">
         <v>1</v>
       </c>
       <c r="G382">
-        <v>0.1565556542565693</v>
+        <v>0.1703242441402744</v>
       </c>
       <c r="H382">
-        <v>0.1673958705772689</v>
+        <v>0.1852757593127167</v>
       </c>
       <c r="I382">
-        <v>11.55978367930034</v>
+        <v>12.84848482755763</v>
       </c>
       <c r="J382">
-        <v>0.3597836793003378</v>
+        <v>0.4206060689769481</v>
       </c>
       <c r="K382">
         <v>205</v>
       </c>
       <c r="L382">
-        <v>82.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="M382">
-        <v>204</v>
+        <v>207.5</v>
       </c>
       <c r="N382">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O382">
         <v>1</v>
       </c>
       <c r="P382" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="383" spans="1:16">
@@ -20694,49 +20700,49 @@
         <v>0</v>
       </c>
       <c r="B383" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C383">
-        <v>-3.424244140274368</v>
+        <v>13.16161645214643</v>
       </c>
       <c r="D383" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E383">
-        <v>10.72424068728326</v>
+        <v>9.280369598044189</v>
       </c>
       <c r="F383">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G383">
-        <v>0.1690242441402744</v>
+        <v>0.1634383835478536</v>
       </c>
       <c r="H383">
-        <v>0.1852757593127167</v>
+        <v>0.1683196304019558</v>
       </c>
       <c r="I383">
-        <v>14.14848482755762</v>
+        <v>3.881246854102244</v>
       </c>
       <c r="J383">
-        <v>0.4206060689769481</v>
+        <v>0.4381246854102249</v>
       </c>
       <c r="K383">
-        <v>205</v>
+        <v>171.5</v>
       </c>
       <c r="L383">
-        <v>82.8</v>
+        <v>88.3</v>
       </c>
       <c r="M383">
-        <v>207.5</v>
+        <v>181.5</v>
       </c>
       <c r="N383">
-        <v>98</v>
+        <v>88.8</v>
       </c>
       <c r="O383">
         <v>1</v>
       </c>
       <c r="P383" t="s">
-        <v>135</v>
+        <v>473</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -20744,49 +20750,49 @@
         <v>0</v>
       </c>
       <c r="B384" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C384">
-        <v>13.16161645214643</v>
+        <v>-21.82338146012957</v>
       </c>
       <c r="D384" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E384">
-        <v>9.280369598044189</v>
+        <v>-26.74300800979539</v>
       </c>
       <c r="F384">
         <v>-1</v>
       </c>
       <c r="G384">
-        <v>0.1634383835478536</v>
+        <v>0.2024233814601296</v>
       </c>
       <c r="H384">
-        <v>0.1683196304019558</v>
+        <v>0.2025430080097954</v>
       </c>
       <c r="I384">
-        <v>3.881246854102244</v>
+        <v>4.919626549665821</v>
       </c>
       <c r="J384">
-        <v>0.4381246854102249</v>
+        <v>0.6299066374164582</v>
       </c>
       <c r="K384">
-        <v>171.5</v>
+        <v>178</v>
       </c>
       <c r="L384">
-        <v>88.3</v>
+        <v>90.3</v>
       </c>
       <c r="M384">
-        <v>181.5</v>
+        <v>182</v>
       </c>
       <c r="N384">
-        <v>88.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="O384">
         <v>1</v>
       </c>
       <c r="P384" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="385" spans="1:16">
@@ -20794,49 +20800,49 @@
         <v>0</v>
       </c>
       <c r="B385" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C385">
-        <v>-21.82338146012957</v>
+        <v>32.20533098261782</v>
       </c>
       <c r="D385" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E385">
-        <v>-26.74300800979539</v>
+        <v>28.32229381498548</v>
       </c>
       <c r="F385">
         <v>-1</v>
       </c>
       <c r="G385">
-        <v>0.2024233814601296</v>
+        <v>0.1503946690173822</v>
       </c>
       <c r="H385">
-        <v>0.2025430080097954</v>
+        <v>0.1530777061850145</v>
       </c>
       <c r="I385">
-        <v>4.919626549665821</v>
+        <v>3.883037167632338</v>
       </c>
       <c r="J385">
-        <v>0.6299066374164582</v>
+        <v>0.3283037167632343</v>
       </c>
       <c r="K385">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L385">
-        <v>90.3</v>
+        <v>91.3</v>
       </c>
       <c r="M385">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="N385">
-        <v>87.90000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="O385">
         <v>1</v>
       </c>
       <c r="P385" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="386" spans="1:16">
@@ -20844,31 +20850,31 @@
         <v>0</v>
       </c>
       <c r="B386" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C386">
-        <v>32.20533098261782</v>
+        <v>30.11806288540985</v>
       </c>
       <c r="D386" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E386">
-        <v>28.32229381498548</v>
+        <v>26.85846428286341</v>
       </c>
       <c r="F386">
         <v>-1</v>
       </c>
       <c r="G386">
-        <v>0.1503946690173822</v>
+        <v>0.1524819371145902</v>
       </c>
       <c r="H386">
-        <v>0.1530777061850145</v>
+        <v>0.1519415357171366</v>
       </c>
       <c r="I386">
-        <v>3.883037167632338</v>
+        <v>3.25959860254644</v>
       </c>
       <c r="J386">
-        <v>0.3283037167632343</v>
+        <v>0.3398996506366119</v>
       </c>
       <c r="K386">
         <v>180</v>
@@ -20877,66 +20883,16 @@
         <v>91.3</v>
       </c>
       <c r="M386">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N386">
-        <v>90.7</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="O386">
         <v>1</v>
       </c>
       <c r="P386" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="387" spans="1:16">
-      <c r="A387" s="1">
-        <v>0</v>
-      </c>
-      <c r="B387" t="s">
-        <v>141</v>
-      </c>
-      <c r="C387">
-        <v>30.11806288540985</v>
-      </c>
-      <c r="D387" t="s">
-        <v>255</v>
-      </c>
-      <c r="E387">
-        <v>26.85846428286341</v>
-      </c>
-      <c r="F387">
-        <v>-1</v>
-      </c>
-      <c r="G387">
-        <v>0.1524819371145902</v>
-      </c>
-      <c r="H387">
-        <v>0.1519415357171366</v>
-      </c>
-      <c r="I387">
-        <v>3.25959860254644</v>
-      </c>
-      <c r="J387">
-        <v>0.3398996506366119</v>
-      </c>
-      <c r="K387">
-        <v>180</v>
-      </c>
-      <c r="L387">
-        <v>91.3</v>
-      </c>
-      <c r="M387">
-        <v>184</v>
-      </c>
-      <c r="N387">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="O387">
-        <v>1</v>
-      </c>
-      <c r="P387" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
